--- a/eg1.xlsx
+++ b/eg1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB8405C-A323-404D-8FD8-0C9C636670E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF34EE68-290A-1247-BAD2-F1F8A5EE2514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="1320" windowWidth="32600" windowHeight="18760" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="1960" yWindow="1320" windowWidth="32600" windowHeight="18760" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="LRN 0.5" sheetId="8" r:id="rId8"/>
     <sheet name="LRN 1.0" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -74,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,6 +84,12 @@
     </font>
     <font>
       <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -110,11 +116,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7B8AE4-A984-5E47-83F5-2F9341F82724}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -479,16 +487,16 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B2">
-        <v>2.0037667055037498</v>
+        <v>1.00188335275187</v>
       </c>
       <c r="C2">
-        <v>8.6799648273339896E-3</v>
+        <v>7.7167668190408198</v>
       </c>
       <c r="D2">
-        <v>8.8066408321499194E-3</v>
+        <v>7.8250063530942198</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -499,16 +507,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>4.0075334110074996</v>
+        <v>2.0037667055037498</v>
       </c>
       <c r="C3">
-        <v>7.1063492338153201E-3</v>
+        <v>7.9971679456611201E-3</v>
       </c>
       <c r="D3">
-        <v>7.3620948861254001E-3</v>
+        <v>8.0046430824601902E-3</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -518,49 +526,89 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
+        <v>4.0075334110074996</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7.1866380972193198E-3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7.2729146464707998E-3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>8.0150668220149992</v>
       </c>
-      <c r="C4" s="2">
-        <v>7.0108670959288704E-3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7.3058391534822397E-3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
+      <c r="C5" s="2">
+        <v>7.0946736290971599E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7.2201470339155497E-3</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>16.030133644029998</v>
       </c>
-      <c r="C5">
-        <v>6.9853420904342099E-3</v>
-      </c>
-      <c r="D5">
-        <v>7.32780620951126E-3</v>
-      </c>
-      <c r="E5">
-        <v>4</v>
-      </c>
-      <c r="F5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>7.0570416778246697E-3</v>
+      </c>
       <c r="D6">
-        <f>MIN(D2:D5)</f>
-        <v>7.3058391534822397E-3</v>
+        <v>7.2243519157091903E-3</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>32.060267288059997</v>
+      </c>
+      <c r="C7">
+        <v>7.08464509312142E-3</v>
+      </c>
+      <c r="D7">
+        <v>7.2761243209242803E-3</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f>MIN(D2:D7)</f>
+        <v>7.2201470339155497E-3</v>
       </c>
     </row>
   </sheetData>
@@ -570,10 +618,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4411848-26EC-7848-88E5-EF7373A463AB}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F4"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -600,19 +648,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B2">
-        <v>2.0037667055037498</v>
+        <v>1.00188335275187</v>
       </c>
       <c r="C2">
-        <v>7.2664509185570002E-3</v>
+        <v>7.7342160889442901</v>
       </c>
       <c r="D2">
-        <v>7.2658965909021302E-3</v>
+        <v>7.8249896485754702</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>0.5</v>
@@ -620,68 +668,108 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2.0037667055037498</v>
+      </c>
+      <c r="C3">
+        <v>7.1872958140645803E-3</v>
+      </c>
+      <c r="D3">
+        <v>7.1735628781483497E-3</v>
+      </c>
+      <c r="E3">
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="4">
         <v>4.0075334110074996</v>
       </c>
-      <c r="C3">
-        <v>7.19494443198547E-3</v>
-      </c>
-      <c r="D3">
-        <v>7.2479568312856096E-3</v>
-      </c>
-      <c r="E3">
-        <v>6</v>
-      </c>
-      <c r="F3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2">
-        <v>8.0150668220149992</v>
-      </c>
-      <c r="C4" s="2">
-        <v>7.1452851630152796E-3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>7.22219475961112E-3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="C4" s="4">
+        <v>7.1140193960015103E-3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>7.1552495442410097E-3</v>
+      </c>
+      <c r="E4" s="4">
+        <v>9</v>
+      </c>
+      <c r="F4" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>8.0150668220149992</v>
+      </c>
+      <c r="C5">
+        <v>7.0765497772260801E-3</v>
+      </c>
+      <c r="D5">
+        <v>7.1469347458332699E-3</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>16.030133644029998</v>
       </c>
-      <c r="C5">
-        <v>7.12826695947095E-3</v>
-      </c>
-      <c r="D5">
-        <v>7.2233326326897104E-3</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>7.0651250103726301E-3</v>
+      </c>
       <c r="D6">
-        <f>MIN(D2:D5)</f>
-        <v>7.22219475961112E-3</v>
+        <v>7.1527401649175096E-3</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>32.060267288059997</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.0553076443599198E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.1454461901745798E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f>MIN(D2:D7)</f>
+        <v>7.1454461901745798E-3</v>
       </c>
     </row>
   </sheetData>
@@ -691,10 +779,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,19 +809,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B2">
-        <v>2.0037667055037498</v>
+        <v>1.00188335275187</v>
       </c>
       <c r="C2">
-        <v>7.2381309531628999E-3</v>
+        <v>7.7331668217976803</v>
       </c>
       <c r="D2">
-        <v>7.2350186999253097E-3</v>
+        <v>7.8249871223530798</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -741,19 +829,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>4.0075334110074996</v>
+        <v>2.0037667055037498</v>
       </c>
       <c r="C3">
-        <v>7.07905749604105E-3</v>
+        <v>7.1651178089280898E-3</v>
       </c>
       <c r="D3">
-        <v>7.1886538210859897E-3</v>
+        <v>7.1542299689447602E-3</v>
       </c>
       <c r="E3">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -761,48 +849,88 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4.0075334110074996</v>
+      </c>
+      <c r="C4">
+        <v>7.0861880369484402E-3</v>
+      </c>
+      <c r="D4">
+        <v>7.1047058259632303E-3</v>
+      </c>
+      <c r="E4">
+        <v>15</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="4">
         <v>8.0150668220149992</v>
       </c>
-      <c r="C4">
-        <v>7.0636536516249099E-3</v>
-      </c>
-      <c r="D4">
-        <v>7.1845554320656797E-3</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="C5" s="4">
+        <v>7.0765879452228501E-3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>7.1020351494959603E-3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>16</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>8</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B6">
         <v>16.030133644029998</v>
       </c>
-      <c r="C5" s="2">
-        <v>7.0538091398775499E-3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>7.1788162706380096E-3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>12</v>
-      </c>
-      <c r="F5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <v>7.0659971274435497E-3</v>
+      </c>
       <c r="D6">
-        <f>MIN(D2:D5)</f>
-        <v>7.1788162706380096E-3</v>
+        <v>7.0868394525840503E-3</v>
+      </c>
+      <c r="E6">
+        <v>17</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>32.060267288059997</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.06166088953614E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.0809356650297899E-3</v>
+      </c>
+      <c r="E7" s="2">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f>MIN(D2:D7)</f>
+        <v>7.0809356650297899E-3</v>
       </c>
     </row>
   </sheetData>
@@ -815,7 +943,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -842,13 +970,13 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>7.08551546360584E-3</v>
+        <v>7.1815177748732698E-3</v>
       </c>
       <c r="C2">
-        <v>7.3757382912283797E-3</v>
+        <v>7.29895844817795E-3</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0.25</v>
@@ -859,13 +987,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B3" s="2">
-        <v>7.0709807233528196E-3</v>
+        <v>7.16143659751941E-3</v>
       </c>
       <c r="C3" s="2">
-        <v>7.3585730501787398E-3</v>
+        <v>7.2651410059250401E-3</v>
       </c>
       <c r="D3" s="2">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E3" s="2">
         <v>0.25</v>
@@ -876,13 +1004,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B4">
-        <v>7.07765198015469E-3</v>
+        <v>7.1848225928446696E-3</v>
       </c>
       <c r="C4">
-        <v>7.3688963447955001E-3</v>
+        <v>7.3026222910018597E-3</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>0.25</v>
@@ -893,13 +1021,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B5">
-        <v>7.0778211093250097E-3</v>
+        <v>7.1833734796877798E-3</v>
       </c>
       <c r="C5">
-        <v>7.3611504507270897E-3</v>
+        <v>7.3151739135860101E-3</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>0.25</v>
@@ -910,13 +1038,13 @@
         <v>1E-4</v>
       </c>
       <c r="B6">
-        <v>7.08748065331514E-3</v>
+        <v>7.2143815329020903E-3</v>
       </c>
       <c r="C6">
-        <v>7.3645120546063196E-3</v>
+        <v>7.3263091134264102E-3</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>0.25</v>
@@ -927,13 +1055,13 @@
         <v>1E-3</v>
       </c>
       <c r="B7">
-        <v>7.1363951763177801E-3</v>
+        <v>7.2746685101710102E-3</v>
       </c>
       <c r="C7">
-        <v>7.43986128710527E-3</v>
+        <v>7.3579598733402298E-3</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>0.25</v>
@@ -944,13 +1072,13 @@
         <v>0.01</v>
       </c>
       <c r="B8">
-        <v>7.6136778931113602E-3</v>
+        <v>7.7612170890132099E-3</v>
       </c>
       <c r="C8">
-        <v>8.0348881546090899E-3</v>
+        <v>7.88014584736145E-3</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>0.25</v>
@@ -961,13 +1089,13 @@
         <v>0.1</v>
       </c>
       <c r="B9">
-        <v>2.0800945245006901E-2</v>
+        <v>2.1266962297538099E-2</v>
       </c>
       <c r="C9">
-        <v>2.3107957268292199E-2</v>
+        <v>2.3481848763619001E-2</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>0.25</v>
@@ -976,7 +1104,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10">
         <f>MIN(C2:C9)</f>
-        <v>7.3585730501787398E-3</v>
+        <v>7.2651410059250401E-3</v>
       </c>
     </row>
   </sheetData>
@@ -989,7 +1117,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1016,13 +1144,13 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>7.1741484422632902E-3</v>
+        <v>7.1205601487506799E-3</v>
       </c>
       <c r="C2">
-        <v>7.2773389884845299E-3</v>
+        <v>7.2237467541894302E-3</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E2">
         <v>0.5</v>
@@ -1033,13 +1161,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B3">
-        <v>7.1732495970865499E-3</v>
+        <v>7.1246453134858204E-3</v>
       </c>
       <c r="C3">
-        <v>7.2805043953926597E-3</v>
+        <v>7.2215217997894602E-3</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="E3">
         <v>0.5</v>
@@ -1050,13 +1178,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B4">
-        <v>7.1856426743869698E-3</v>
+        <v>7.11609261912947E-3</v>
       </c>
       <c r="C4">
-        <v>7.2828209215894E-3</v>
+        <v>7.2099438848647604E-3</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0.5</v>
@@ -1067,13 +1195,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B5" s="2">
-        <v>7.1831445427651096E-3</v>
+        <v>7.12387721014625E-3</v>
       </c>
       <c r="C5" s="2">
-        <v>7.27607119095293E-3</v>
+        <v>7.2067768332805997E-3</v>
       </c>
       <c r="D5" s="2">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E5" s="2">
         <v>0.5</v>
@@ -1084,13 +1212,13 @@
         <v>1E-4</v>
       </c>
       <c r="B6">
-        <v>7.1876698886936003E-3</v>
+        <v>7.1547118961771397E-3</v>
       </c>
       <c r="C6">
-        <v>7.27884930142379E-3</v>
+        <v>7.2291489948142001E-3</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E6">
         <v>0.5</v>
@@ -1101,13 +1229,13 @@
         <v>1E-3</v>
       </c>
       <c r="B7">
-        <v>7.2568836919170701E-3</v>
+        <v>7.22769993862652E-3</v>
       </c>
       <c r="C7">
-        <v>7.36957772119723E-3</v>
+        <v>7.2928915602808904E-3</v>
       </c>
       <c r="D7">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <v>0.5</v>
@@ -1118,13 +1246,13 @@
         <v>0.01</v>
       </c>
       <c r="B8">
-        <v>7.7694830301395998E-3</v>
+        <v>7.7782118187702002E-3</v>
       </c>
       <c r="C8">
-        <v>8.0797459900458397E-3</v>
+        <v>8.08212586103918E-3</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0.5</v>
@@ -1135,13 +1263,13 @@
         <v>0.1</v>
       </c>
       <c r="B9">
-        <v>2.1586540179881899E-2</v>
+        <v>2.28514685617522E-2</v>
       </c>
       <c r="C9">
-        <v>2.47535410267796E-2</v>
+        <v>2.3196447506903601E-2</v>
       </c>
       <c r="D9">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E9">
         <v>0.5</v>
@@ -1150,7 +1278,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10">
         <f>MIN(C2:C9)</f>
-        <v>7.27607119095293E-3</v>
+        <v>7.2067768332805997E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1163,7 +1291,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1186,19 +1314,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B2">
-        <v>7.0641504948337798E-3</v>
-      </c>
-      <c r="C2">
-        <v>7.2092679626447002E-3</v>
-      </c>
-      <c r="D2">
-        <v>29</v>
-      </c>
-      <c r="E2">
+      <c r="B2" s="2">
+        <v>7.0728708890577096E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7.1208485293182203E-3</v>
+      </c>
+      <c r="D2" s="2">
+        <v>35</v>
+      </c>
+      <c r="E2" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1207,32 +1335,32 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B3">
-        <v>7.0570283879836399E-3</v>
+        <v>7.0759917584558296E-3</v>
       </c>
       <c r="C3">
-        <v>7.1853624478458002E-3</v>
+        <v>7.1283892995895803E-3</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B4" s="2">
-        <v>7.0645537152886299E-3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>7.1825164548577104E-3</v>
-      </c>
-      <c r="D4" s="2">
-        <v>31</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B4" s="4">
+        <v>7.0788969683150396E-3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>7.1302317082881901E-3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>37</v>
+      </c>
+      <c r="E4" s="4">
         <v>1</v>
       </c>
     </row>
@@ -1241,13 +1369,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B5">
-        <v>7.0634051263332304E-3</v>
+        <v>7.0932590911785701E-3</v>
       </c>
       <c r="C5">
-        <v>7.1884102802327304E-3</v>
+        <v>7.1533516921261503E-3</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1258,13 +1386,13 @@
         <v>1E-4</v>
       </c>
       <c r="B6">
-        <v>7.0845906982819201E-3</v>
+        <v>7.0913421002526998E-3</v>
       </c>
       <c r="C6">
-        <v>7.2358799157069701E-3</v>
+        <v>7.1229977245898298E-3</v>
       </c>
       <c r="D6">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1275,13 +1403,13 @@
         <v>1E-3</v>
       </c>
       <c r="B7">
-        <v>7.14457897221048E-3</v>
+        <v>7.1626457683741998E-3</v>
       </c>
       <c r="C7">
-        <v>7.2826356329816402E-3</v>
+        <v>7.19645757604628E-3</v>
       </c>
       <c r="D7">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1292,13 +1420,13 @@
         <v>0.01</v>
       </c>
       <c r="B8">
-        <v>8.2529294614990499E-3</v>
+        <v>7.6575731510917303E-3</v>
       </c>
       <c r="C8">
-        <v>7.9100262423224196E-3</v>
+        <v>7.7527836411002398E-3</v>
       </c>
       <c r="D8">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1309,13 +1437,13 @@
         <v>0.1</v>
       </c>
       <c r="B9">
-        <v>2.1769036209831599E-2</v>
+        <v>2.2226513960709099E-2</v>
       </c>
       <c r="C9">
-        <v>2.48845685174332E-2</v>
+        <v>2.2288309915506399E-2</v>
       </c>
       <c r="D9">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1324,7 +1452,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10">
         <f>MIN(C2:C9)</f>
-        <v>7.1825164548577104E-3</v>
+        <v>7.1208485293182203E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1465,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E7"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1364,13 +1492,13 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>7.5447792583640504E-3</v>
+        <v>7.6397638718419198E-3</v>
       </c>
       <c r="C2">
-        <v>7.8190284523558095E-3</v>
+        <v>7.6496375209473503E-3</v>
       </c>
       <c r="D2">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E2">
         <v>0.25</v>
@@ -1381,13 +1509,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B3">
-        <v>7.5849112509650696E-3</v>
+        <v>7.6253045389943902E-3</v>
       </c>
       <c r="C3">
-        <v>7.8363750288461109E-3</v>
+        <v>7.6386433718924097E-3</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0.25</v>
@@ -1398,13 +1526,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B4">
-        <v>7.5665810690360496E-3</v>
+        <v>7.5912210307619004E-3</v>
       </c>
       <c r="C4">
-        <v>7.8335091362687504E-3</v>
+        <v>7.6103776970759297E-3</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E4">
         <v>0.25</v>
@@ -1415,13 +1543,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B5">
-        <v>7.6310812703710203E-3</v>
+        <v>7.6793472609542101E-3</v>
       </c>
       <c r="C5">
-        <v>7.8745918804185196E-3</v>
+        <v>7.6612010697259501E-3</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E5">
         <v>0.25</v>
@@ -1432,13 +1560,13 @@
         <v>1E-4</v>
       </c>
       <c r="B6">
-        <v>7.7788173617359098E-3</v>
+        <v>7.8432144488188096E-3</v>
       </c>
       <c r="C6">
-        <v>7.8432436071415503E-3</v>
+        <v>7.6396179167514096E-3</v>
       </c>
       <c r="D6">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>0.25</v>
@@ -1449,13 +1577,13 @@
         <v>1E-3</v>
       </c>
       <c r="B7" s="2">
-        <v>9.5662214951787797E-3</v>
+        <v>9.6490678595418603E-3</v>
       </c>
       <c r="C7" s="2">
-        <v>7.7938587067926104E-3</v>
+        <v>7.6265530066287196E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2">
         <v>0.25</v>
@@ -1466,13 +1594,13 @@
         <v>0.01</v>
       </c>
       <c r="B8">
-        <v>2.7892179589005198E-2</v>
+        <v>2.8004535890006E-2</v>
       </c>
       <c r="C8">
-        <v>7.7975009062743496E-3</v>
+        <v>7.6532688368349602E-3</v>
       </c>
       <c r="D8">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>0.25</v>
@@ -1483,13 +1611,13 @@
         <v>0.1</v>
       </c>
       <c r="B9">
-        <v>0.209929840361818</v>
+        <v>0.21036734653914199</v>
       </c>
       <c r="C9">
-        <v>7.9427119988472496E-3</v>
+        <v>8.0013120685644597E-3</v>
       </c>
       <c r="D9">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E9">
         <v>0.25</v>
@@ -1498,7 +1626,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10">
         <f>MIN(C2:C9)</f>
-        <v>7.7938587067926104E-3</v>
+        <v>7.6103776970759297E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1511,7 +1639,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:E8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1538,13 +1666,13 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>7.4233456286898897E-3</v>
+        <v>7.3220529345835103E-3</v>
       </c>
       <c r="C2">
-        <v>7.5154339379452598E-3</v>
+        <v>7.3521711338469901E-3</v>
       </c>
       <c r="D2">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>0.5</v>
@@ -1555,13 +1683,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B3">
-        <v>7.4247979494604299E-3</v>
+        <v>7.3550516947548999E-3</v>
       </c>
       <c r="C3">
-        <v>7.52825720453674E-3</v>
+        <v>7.3698698543012099E-3</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E3">
         <v>0.5</v>
@@ -1572,13 +1700,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B4">
-        <v>7.4150335994806697E-3</v>
+        <v>7.3224466363404003E-3</v>
       </c>
       <c r="C4">
-        <v>7.5170960316949696E-3</v>
+        <v>7.3545148417829198E-3</v>
       </c>
       <c r="D4">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E4">
         <v>0.5</v>
@@ -1589,13 +1717,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B5">
-        <v>7.4183367901144801E-3</v>
+        <v>7.3688968798106E-3</v>
       </c>
       <c r="C5">
-        <v>7.49563392093207E-3</v>
+        <v>7.3809071463790303E-3</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>0.5</v>
@@ -1606,13 +1734,13 @@
         <v>1E-4</v>
       </c>
       <c r="B6">
-        <v>7.6090665459831001E-3</v>
+        <v>7.5343508208963097E-3</v>
       </c>
       <c r="C6">
-        <v>7.5188600359127802E-3</v>
+        <v>7.3470575685434499E-3</v>
       </c>
       <c r="D6">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E6">
         <v>0.5</v>
@@ -1623,13 +1751,13 @@
         <v>1E-3</v>
       </c>
       <c r="B7">
-        <v>9.4366996311285398E-3</v>
+        <v>9.3569290214911699E-3</v>
       </c>
       <c r="C7">
-        <v>7.5019269369225499E-3</v>
+        <v>7.3491481747081904E-3</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E7">
         <v>0.5</v>
@@ -1640,13 +1768,13 @@
         <v>0.01</v>
       </c>
       <c r="B8" s="2">
-        <v>2.7599338541164E-2</v>
+        <v>2.7603182406660001E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>7.4512463241339999E-3</v>
+        <v>7.3268231688106899E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2">
         <v>0.5</v>
@@ -1657,13 +1785,13 @@
         <v>0.1</v>
       </c>
       <c r="B9">
-        <v>0.20936062821048301</v>
+        <v>0.209568214860368</v>
       </c>
       <c r="C9">
-        <v>7.8086755684319302E-3</v>
+        <v>7.64006184552736E-3</v>
       </c>
       <c r="D9">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="E9">
         <v>0.5</v>
@@ -1672,7 +1800,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10">
         <f>MIN(C2:C9)</f>
-        <v>7.4512463241339999E-3</v>
+        <v>7.3268231688106899E-3</v>
       </c>
     </row>
   </sheetData>
@@ -1684,8 +1812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1712,13 +1840,13 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>7.18942379703124E-3</v>
+        <v>7.18448514491319E-3</v>
       </c>
       <c r="C2">
-        <v>7.3500911833995798E-3</v>
+        <v>7.2208198054911597E-3</v>
       </c>
       <c r="D2">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1729,13 +1857,13 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B3">
-        <v>7.1991336072484598E-3</v>
+        <v>7.1793285161256704E-3</v>
       </c>
       <c r="C3">
-        <v>7.35899462225906E-3</v>
+        <v>7.2134269867092302E-3</v>
       </c>
       <c r="D3">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1746,13 +1874,13 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B4">
-        <v>7.1898197159171104E-3</v>
+        <v>7.19988025476535E-3</v>
       </c>
       <c r="C4">
-        <v>7.3522447430072902E-3</v>
+        <v>7.2286857955871104E-3</v>
       </c>
       <c r="D4">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1763,13 +1891,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B5">
-        <v>7.2014565765857698E-3</v>
+        <v>7.2313264918824E-3</v>
       </c>
       <c r="C5">
-        <v>7.3415900412154298E-3</v>
+        <v>7.2426108910920101E-3</v>
       </c>
       <c r="D5">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1780,13 +1908,13 @@
         <v>1E-4</v>
       </c>
       <c r="B6">
-        <v>7.3842379910250503E-3</v>
+        <v>7.4015446367363099E-3</v>
       </c>
       <c r="C6">
-        <v>7.3542706618838398E-3</v>
+        <v>7.23835756566296E-3</v>
       </c>
       <c r="D6">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1797,13 +1925,13 @@
         <v>1E-3</v>
       </c>
       <c r="B7">
-        <v>9.2164418871204003E-3</v>
+        <v>9.2058008797466697E-3</v>
       </c>
       <c r="C7">
-        <v>7.3592416506181304E-3</v>
+        <v>7.2144774046350004E-3</v>
       </c>
       <c r="D7">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1814,13 +1942,13 @@
         <v>0.01</v>
       </c>
       <c r="B8" s="2">
-        <v>2.73568903406461E-2</v>
+        <v>2.7374409963687198E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>7.3229189110087496E-3</v>
+        <v>7.20848670685069E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1831,13 +1959,13 @@
         <v>0.1</v>
       </c>
       <c r="B9">
-        <v>0.20875090022881801</v>
+        <v>0.20882664807637499</v>
       </c>
       <c r="C9">
-        <v>7.6235375624704796E-3</v>
+        <v>7.5826760817398397E-3</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1846,7 +1974,7 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C10">
         <f>MIN(C2:C9)</f>
-        <v>7.3229189110087496E-3</v>
+        <v>7.20848670685069E-3</v>
       </c>
     </row>
   </sheetData>

--- a/eg1.xlsx
+++ b/eg1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF34EE68-290A-1247-BAD2-F1F8A5EE2514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB771651-5A50-944A-AA4F-52754D24F4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="1320" windowWidth="32600" windowHeight="18760" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="51220" yWindow="4220" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -457,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7B8AE4-A984-5E47-83F5-2F9341F82724}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D14" sqref="D14:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -507,79 +507,79 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B3">
-        <v>2.0037667055037498</v>
+        <v>1.00188335275187</v>
       </c>
       <c r="C3">
-        <v>7.9971679456611201E-3</v>
+        <v>7.7183796852192899</v>
       </c>
       <c r="D3">
-        <v>8.0046430824601902E-3</v>
+        <v>7.6955754655472699</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="F3">
         <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>4.0075334110074996</v>
-      </c>
-      <c r="C4" s="4">
-        <v>7.1866380972193198E-3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>7.2729146464707998E-3</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>1.00188335275187</v>
+      </c>
+      <c r="C4">
+        <v>7.7760257264400998</v>
+      </c>
+      <c r="D4">
+        <v>7.7047279692710697</v>
+      </c>
+      <c r="E4">
+        <v>68</v>
+      </c>
+      <c r="F4">
         <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>8.0150668220149992</v>
-      </c>
-      <c r="C5" s="2">
-        <v>7.0946736290971599E-3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>7.2201470339155497E-3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2">
+      <c r="A5">
+        <v>0.5</v>
+      </c>
+      <c r="B5">
+        <v>1.00188335275187</v>
+      </c>
+      <c r="C5">
+        <v>7.8165788954876803</v>
+      </c>
+      <c r="D5">
+        <v>7.7000613466222196</v>
+      </c>
+      <c r="E5">
+        <v>69</v>
+      </c>
+      <c r="F5">
         <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B6">
-        <v>16.030133644029998</v>
+        <v>2.0037667055037498</v>
       </c>
       <c r="C6">
-        <v>7.0570416778246697E-3</v>
+        <v>7.9971679456611201E-3</v>
       </c>
       <c r="D6">
-        <v>7.2243519157091903E-3</v>
+        <v>8.0046430824601902E-3</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>0.25</v>
@@ -587,28 +587,388 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2.0037667055037498</v>
+      </c>
+      <c r="C7">
+        <v>8.3280778192776298E-3</v>
+      </c>
+      <c r="D7">
+        <v>8.2274296449774704E-3</v>
+      </c>
+      <c r="E7">
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2.0037667055037498</v>
+      </c>
+      <c r="C8">
+        <v>8.9233969635468795E-3</v>
+      </c>
+      <c r="D8">
+        <v>8.3881518555844695E-3</v>
+      </c>
+      <c r="E8">
+        <v>71</v>
+      </c>
+      <c r="F8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2.0037667055037498</v>
+      </c>
+      <c r="C9">
+        <v>8.1799878005651694E-3</v>
+      </c>
+      <c r="D9">
+        <v>8.0592092621992201E-3</v>
+      </c>
+      <c r="E9">
+        <v>72</v>
+      </c>
+      <c r="F9">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4.0075334110074996</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7.1866380972193198E-3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7.2729146464707998E-3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4.0075334110074996</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7.2652737243457596E-3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>7.1698649231582198E-3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>73</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4.0075334110074996</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7.3379952054312197E-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6.9756547553821401E-3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>74</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4.0075334110074996</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7.1283921381418997E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>7.1189465952363404E-3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>75</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2">
+        <v>8.0150668220149992</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7.0946736290971599E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>7.2201470339155497E-3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15" s="2">
+        <v>8.0150668220149992</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7.1805251930701598E-3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>7.1247732712629601E-3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>76</v>
+      </c>
+      <c r="F15" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>8.0150668220149992</v>
+      </c>
+      <c r="C16" s="2">
+        <v>7.2356608864712502E-3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>6.9373299546064198E-3</v>
+      </c>
+      <c r="E16" s="2">
+        <v>77</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="2">
+        <v>8.0150668220149992</v>
+      </c>
+      <c r="C17" s="2">
+        <v>6.9832014009118702E-3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>7.0811265663422102E-3</v>
+      </c>
+      <c r="E17" s="2">
+        <v>78</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
+        <v>16.030133644029998</v>
+      </c>
+      <c r="C18">
+        <v>7.0570416778246697E-3</v>
+      </c>
+      <c r="D18">
+        <v>7.2243519157091903E-3</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>16.030133644029998</v>
+      </c>
+      <c r="C19">
+        <v>7.15835482139695E-3</v>
+      </c>
+      <c r="D19">
+        <v>7.0985082061366797E-3</v>
+      </c>
+      <c r="E19">
+        <v>79</v>
+      </c>
+      <c r="F19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>16.030133644029998</v>
+      </c>
+      <c r="C20">
+        <v>7.24233992080739E-3</v>
+      </c>
+      <c r="D20">
+        <v>6.9615096993189502E-3</v>
+      </c>
+      <c r="E20">
+        <v>80</v>
+      </c>
+      <c r="F20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>16.030133644029998</v>
+      </c>
+      <c r="C21">
+        <v>6.9837965705293204E-3</v>
+      </c>
+      <c r="D21">
+        <v>7.0827775387132998E-3</v>
+      </c>
+      <c r="E21">
+        <v>81</v>
+      </c>
+      <c r="F21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>16</v>
       </c>
-      <c r="B7">
+      <c r="B22">
         <v>32.060267288059997</v>
       </c>
-      <c r="C7">
+      <c r="C22">
         <v>7.08464509312142E-3</v>
       </c>
-      <c r="D7">
+      <c r="D22">
         <v>7.2761243209242803E-3</v>
       </c>
-      <c r="E7">
+      <c r="E22">
         <v>6</v>
       </c>
-      <c r="F7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D8">
-        <f>MIN(D2:D7)</f>
-        <v>7.2201470339155497E-3</v>
+      <c r="F22">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>32.060267288059997</v>
+      </c>
+      <c r="C23">
+        <v>7.1663998285348097E-3</v>
+      </c>
+      <c r="D23">
+        <v>7.1125944997084897E-3</v>
+      </c>
+      <c r="E23">
+        <v>82</v>
+      </c>
+      <c r="F23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>32.060267288059997</v>
+      </c>
+      <c r="C24">
+        <v>7.2276993070114802E-3</v>
+      </c>
+      <c r="D24">
+        <v>6.9602687714344002E-3</v>
+      </c>
+      <c r="E24">
+        <v>83</v>
+      </c>
+      <c r="F24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>16</v>
+      </c>
+      <c r="B25">
+        <v>32.060267288059997</v>
+      </c>
+      <c r="C25">
+        <v>6.9853299881945897E-3</v>
+      </c>
+      <c r="D25">
+        <v>7.1213010530126204E-3</v>
+      </c>
+      <c r="E25">
+        <v>84</v>
+      </c>
+      <c r="F25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f>MIN(D2:D22)</f>
+        <v>6.9373299546064198E-3</v>
       </c>
     </row>
   </sheetData>
@@ -618,10 +978,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4411848-26EC-7848-88E5-EF7373A463AB}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -668,59 +1028,59 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B3">
-        <v>2.0037667055037498</v>
+        <v>1.00188335275187</v>
       </c>
       <c r="C3">
-        <v>7.1872958140645803E-3</v>
+        <v>7.7649757862091002</v>
       </c>
       <c r="D3">
-        <v>7.1735628781483497E-3</v>
+        <v>7.6955378309209204</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="F3">
         <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>4.0075334110074996</v>
-      </c>
-      <c r="C4" s="4">
-        <v>7.1140193960015103E-3</v>
-      </c>
-      <c r="D4" s="4">
-        <v>7.1552495442410097E-3</v>
-      </c>
-      <c r="E4" s="4">
-        <v>9</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>1.00188335275187</v>
+      </c>
+      <c r="C4">
+        <v>7.79696418883952</v>
+      </c>
+      <c r="D4">
+        <v>7.7047348935553304</v>
+      </c>
+      <c r="E4">
+        <v>86</v>
+      </c>
+      <c r="F4">
         <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="B5">
-        <v>8.0150668220149992</v>
+        <v>1.00188335275187</v>
       </c>
       <c r="C5">
-        <v>7.0765497772260801E-3</v>
+        <v>7.8093481038479098</v>
       </c>
       <c r="D5">
-        <v>7.1469347458332699E-3</v>
+        <v>7.7000579681802304</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F5">
         <v>0.5</v>
@@ -728,48 +1088,408 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2.0037667055037498</v>
+      </c>
+      <c r="C6">
+        <v>7.1872958140645803E-3</v>
+      </c>
+      <c r="D6">
+        <v>7.1735628781483497E-3</v>
+      </c>
+      <c r="E6">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2.0037667055037498</v>
+      </c>
+      <c r="C7">
+        <v>7.2066281981607704E-3</v>
+      </c>
+      <c r="D7">
+        <v>7.0900986555646698E-3</v>
+      </c>
+      <c r="E7">
+        <v>88</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2.0037667055037498</v>
+      </c>
+      <c r="C8">
+        <v>7.29933294388366E-3</v>
+      </c>
+      <c r="D8">
+        <v>6.9042353227021201E-3</v>
+      </c>
+      <c r="E8">
+        <v>89</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2.0037667055037498</v>
+      </c>
+      <c r="C9">
+        <v>7.2317314259906004E-3</v>
+      </c>
+      <c r="D9">
+        <v>7.0385494903522604E-3</v>
+      </c>
+      <c r="E9">
+        <v>90</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="4">
+        <v>4.0075334110074996</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7.1140193960015103E-3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7.1552495442410097E-3</v>
+      </c>
+      <c r="E10" s="4">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4.0075334110074996</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7.1195927374262998E-3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>7.0846858880224996E-3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>91</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4">
+        <v>4.0075334110074996</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7.2294670786272599E-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>6.8965004856123497E-3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>92</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="4">
+        <v>4.0075334110074996</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7.13352405991246E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>7.0461874946634801E-3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>93</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>8.0150668220149992</v>
+      </c>
+      <c r="C14">
+        <v>7.0765497772260801E-3</v>
+      </c>
+      <c r="D14">
+        <v>7.1469347458332699E-3</v>
+      </c>
+      <c r="E14">
+        <v>10</v>
+      </c>
+      <c r="F14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>8.0150668220149992</v>
+      </c>
+      <c r="C15">
+        <v>7.0776125004990602E-3</v>
+      </c>
+      <c r="D15">
+        <v>7.0511003252752896E-3</v>
+      </c>
+      <c r="E15">
+        <v>94</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>8.0150668220149992</v>
+      </c>
+      <c r="C16">
+        <v>7.1416565766954298E-3</v>
+      </c>
+      <c r="D16">
+        <v>6.8500039088440698E-3</v>
+      </c>
+      <c r="E16">
+        <v>95</v>
+      </c>
+      <c r="F16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>8.0150668220149992</v>
+      </c>
+      <c r="C17">
+        <v>7.0472776944293302E-3</v>
+      </c>
+      <c r="D17">
+        <v>7.0001395627301401E-3</v>
+      </c>
+      <c r="E17">
+        <v>96</v>
+      </c>
+      <c r="F17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18">
         <v>16.030133644029998</v>
       </c>
-      <c r="C6">
+      <c r="C18">
         <v>7.0651250103726301E-3</v>
       </c>
-      <c r="D6">
+      <c r="D18">
         <v>7.1527401649175096E-3</v>
       </c>
-      <c r="E6">
+      <c r="E18">
         <v>11</v>
       </c>
-      <c r="F6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="F18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>16.030133644029998</v>
+      </c>
+      <c r="C19">
+        <v>7.07554553159849E-3</v>
+      </c>
+      <c r="D19">
+        <v>7.0524455612882E-3</v>
+      </c>
+      <c r="E19">
+        <v>97</v>
+      </c>
+      <c r="F19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>16.030133644029998</v>
+      </c>
+      <c r="C20">
+        <v>7.1472707699905E-3</v>
+      </c>
+      <c r="D20">
+        <v>6.8486873704464504E-3</v>
+      </c>
+      <c r="E20">
+        <v>98</v>
+      </c>
+      <c r="F20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>16.030133644029998</v>
+      </c>
+      <c r="C21">
+        <v>7.04490878133776E-3</v>
+      </c>
+      <c r="D21">
+        <v>6.98536223276181E-3</v>
+      </c>
+      <c r="E21">
+        <v>99</v>
+      </c>
+      <c r="F21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>16</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B22" s="2">
         <v>32.060267288059997</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C22" s="2">
         <v>7.0553076443599198E-3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D22" s="2">
         <v>7.1454461901745798E-3</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E22" s="2">
         <v>12</v>
       </c>
-      <c r="F7" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D8">
-        <f>MIN(D2:D7)</f>
-        <v>7.1454461901745798E-3</v>
+      <c r="F22" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2">
+        <v>32.060267288059997</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7.0807930884605299E-3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>7.0614475221868504E-3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>100</v>
+      </c>
+      <c r="F23" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2">
+        <v>32.060267288059997</v>
+      </c>
+      <c r="C24" s="2">
+        <v>7.1521802567579597E-3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>6.8666871458767497E-3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>101</v>
+      </c>
+      <c r="F24" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2">
+        <v>32.060267288059997</v>
+      </c>
+      <c r="C25" s="2">
+        <v>7.0378406869960903E-3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>7.0118684856656996E-3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>102</v>
+      </c>
+      <c r="F25" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f>MIN(D2:D22)</f>
+        <v>6.8486873704464504E-3</v>
       </c>
     </row>
   </sheetData>
@@ -779,10 +1499,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -829,19 +1549,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="B3">
-        <v>2.0037667055037498</v>
+        <v>1.00188335275187</v>
       </c>
       <c r="C3">
-        <v>7.1651178089280898E-3</v>
+        <v>7.7649969863891597</v>
       </c>
       <c r="D3">
-        <v>7.1542299689447602E-3</v>
+        <v>7.6955338538961202</v>
       </c>
       <c r="E3">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -849,88 +1569,448 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="B4">
-        <v>4.0075334110074996</v>
+        <v>1.00188335275187</v>
       </c>
       <c r="C4">
-        <v>7.0861880369484402E-3</v>
+        <v>7.7628896980285598</v>
       </c>
       <c r="D4">
-        <v>7.1047058259632303E-3</v>
+        <v>7.7047304447661</v>
       </c>
       <c r="E4">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4">
-        <v>8.0150668220149992</v>
-      </c>
-      <c r="C5" s="4">
-        <v>7.0765879452228501E-3</v>
-      </c>
-      <c r="D5" s="4">
-        <v>7.1020351494959603E-3</v>
-      </c>
-      <c r="E5" s="4">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="A5">
+        <v>0.5</v>
+      </c>
+      <c r="B5">
+        <v>1.00188335275187</v>
+      </c>
+      <c r="C5">
+        <v>7.7644387842814098</v>
+      </c>
+      <c r="D5">
+        <v>7.7000521294614099</v>
+      </c>
+      <c r="E5">
+        <v>105</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>2.0037667055037498</v>
+      </c>
+      <c r="C6">
+        <v>7.1651178089280898E-3</v>
+      </c>
+      <c r="D6">
+        <v>7.1542299689447602E-3</v>
+      </c>
+      <c r="E6">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>2.0037667055037498</v>
+      </c>
+      <c r="C7">
+        <v>7.1872391824920898E-3</v>
+      </c>
+      <c r="D7">
+        <v>7.0539722962186004E-3</v>
+      </c>
+      <c r="E7">
+        <v>106</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2.0037667055037498</v>
+      </c>
+      <c r="C8">
+        <v>7.5095555496712497E-3</v>
+      </c>
+      <c r="D8">
+        <v>6.8729650179677098E-3</v>
+      </c>
+      <c r="E8">
+        <v>107</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2.0037667055037498</v>
+      </c>
+      <c r="C9">
+        <v>7.2422014685968499E-3</v>
+      </c>
+      <c r="D9">
+        <v>7.01575120415617E-3</v>
+      </c>
+      <c r="E9">
+        <v>108</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>4.0075334110074996</v>
+      </c>
+      <c r="C10">
+        <v>7.0861880369484402E-3</v>
+      </c>
+      <c r="D10">
+        <v>7.1047058259632303E-3</v>
+      </c>
+      <c r="E10">
+        <v>15</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>4.0075334110074996</v>
+      </c>
+      <c r="C11">
+        <v>7.1244871728122199E-3</v>
+      </c>
+      <c r="D11">
+        <v>7.0370939867372799E-3</v>
+      </c>
+      <c r="E11">
+        <v>109</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>4.0075334110074996</v>
+      </c>
+      <c r="C12">
+        <v>7.1566849177082297E-3</v>
+      </c>
+      <c r="D12">
+        <v>6.8379213557915397E-3</v>
+      </c>
+      <c r="E12">
+        <v>110</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>4.0075334110074996</v>
+      </c>
+      <c r="C13">
+        <v>7.1253514488538103E-3</v>
+      </c>
+      <c r="D13">
+        <v>6.9710946731031502E-3</v>
+      </c>
+      <c r="E13">
+        <v>111</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4">
+        <v>8.0150668220149992</v>
+      </c>
+      <c r="C14" s="4">
+        <v>7.0765879452228501E-3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>7.1020351494959603E-3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>16</v>
+      </c>
+      <c r="F14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>4</v>
+      </c>
+      <c r="B15" s="4">
+        <v>8.0150668220149992</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7.1148663647472802E-3</v>
+      </c>
+      <c r="D15" s="4">
+        <v>7.0246250239854799E-3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>112</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>4</v>
+      </c>
+      <c r="B16" s="4">
+        <v>8.0150668220149992</v>
+      </c>
+      <c r="C16" s="4">
+        <v>7.1301264526943296E-3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>6.8057619500905197E-3</v>
+      </c>
+      <c r="E16" s="4">
+        <v>113</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4">
+        <v>8.0150668220149992</v>
+      </c>
+      <c r="C17" s="4">
+        <v>7.1092815597852002E-3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>6.9646330877266597E-3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>114</v>
+      </c>
+      <c r="F17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>8</v>
       </c>
-      <c r="B6">
+      <c r="B18">
         <v>16.030133644029998</v>
       </c>
-      <c r="C6">
+      <c r="C18">
         <v>7.0659971274435497E-3</v>
       </c>
-      <c r="D6">
+      <c r="D18">
         <v>7.0868394525840503E-3</v>
       </c>
-      <c r="E6">
+      <c r="E18">
         <v>17</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19">
+        <v>16.030133644029998</v>
+      </c>
+      <c r="C19">
+        <v>7.1119557258983402E-3</v>
+      </c>
+      <c r="D19">
+        <v>7.02079989392548E-3</v>
+      </c>
+      <c r="E19">
+        <v>115</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>8</v>
+      </c>
+      <c r="B20">
+        <v>16.030133644029998</v>
+      </c>
+      <c r="C20">
+        <v>7.12547410155336E-3</v>
+      </c>
+      <c r="D20">
+        <v>6.8155330001435999E-3</v>
+      </c>
+      <c r="E20">
+        <v>116</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>16.030133644029998</v>
+      </c>
+      <c r="C21">
+        <v>7.1021959297358902E-3</v>
+      </c>
+      <c r="D21">
+        <v>6.9545077536492901E-3</v>
+      </c>
+      <c r="E21">
+        <v>117</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
         <v>16</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B22" s="2">
         <v>32.060267288059997</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C22" s="2">
         <v>7.06166088953614E-3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D22" s="2">
         <v>7.0809356650297899E-3</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E22" s="2">
         <v>18</v>
       </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D8">
-        <f>MIN(D2:D7)</f>
-        <v>7.0809356650297899E-3</v>
+      <c r="F22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>16</v>
+      </c>
+      <c r="B23" s="2">
+        <v>32.060267288059997</v>
+      </c>
+      <c r="C23" s="2">
+        <v>7.1071854258577E-3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>7.0192377043372702E-3</v>
+      </c>
+      <c r="E23" s="2">
+        <v>118</v>
+      </c>
+      <c r="F23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>16</v>
+      </c>
+      <c r="B24" s="2">
+        <v>32.060267288059997</v>
+      </c>
+      <c r="C24" s="2">
+        <v>7.1292381311456304E-3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>6.8074332134045101E-3</v>
+      </c>
+      <c r="E24" s="2">
+        <v>119</v>
+      </c>
+      <c r="F24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>16</v>
+      </c>
+      <c r="B25" s="2">
+        <v>32.060267288059997</v>
+      </c>
+      <c r="C25" s="2">
+        <v>7.0874511487781996E-3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>6.9610122690333901E-3</v>
+      </c>
+      <c r="E25" s="2">
+        <v>120</v>
+      </c>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <f>MIN(D2:D22)</f>
+        <v>6.8057619500905197E-3</v>
       </c>
     </row>
   </sheetData>

--- a/eg1.xlsx
+++ b/eg1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB771651-5A50-944A-AA4F-52754D24F4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EB51FF-48C0-4A4D-A17B-5A0B7B7C7E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51220" yWindow="4220" windowWidth="34560" windowHeight="21580" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="26100" yWindow="4860" windowWidth="34560" windowHeight="19800" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
   <si>
     <t>Gamma</t>
   </si>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>Lip Penalty</t>
+  </si>
+  <si>
+    <t>LipSDP</t>
   </si>
 </sst>
 </file>
@@ -457,15 +460,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7B8AE4-A984-5E47-83F5-2F9341F82724}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14:D17"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,8 +487,26 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -504,8 +525,32 @@
       <c r="F2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <f>AVERAGE(A2:A5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
+        <v>1.00188335275187</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>7.7569377815469727</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>7.7313427836336945</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>51.25</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -524,8 +569,32 @@
       <c r="F3">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <f>AVERAGE(A6:A9)</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
+        <v>2.0037667055037498</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>8.3571576322626993E-3</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>8.1698584613053363E-3</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>53.75</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -544,8 +613,32 @@
       <c r="F4">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <f>AVERAGE(A10:A13)</f>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
+        <v>4.0075334110074996</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>7.2295747912845491E-3</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>7.1343452300618752E-3</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>56.25</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -564,8 +657,32 @@
       <c r="F5">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J5" s="2">
+        <f>AVERAGE(A14:A17)</f>
+        <v>4</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
+        <v>8.0150668220149992</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="3"/>
+        <v>7.1235152773876107E-3</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="3"/>
+        <v>7.0908442065317845E-3</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="3"/>
+        <v>58.75</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -584,8 +701,32 @@
       <c r="F6">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <f>AVERAGE(A18:A21)</f>
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
+        <v>16.030133644029998</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>7.1103832476395821E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>7.0917868399695307E-3</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>61.25</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -604,8 +745,32 @@
       <c r="F7">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <f>AVERAGE(A22:A25)</f>
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
+        <v>32.060267288059997</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>7.1160185542155753E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>7.1175721612699479E-3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>63.75</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -624,8 +789,12 @@
       <c r="F8">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <f>MIN(M2:M7)</f>
+        <v>7.0908442065317845E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -645,7 +814,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -665,7 +834,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -685,7 +854,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -705,7 +874,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -725,7 +894,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>4</v>
       </c>
@@ -745,7 +914,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -765,7 +934,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>4</v>
       </c>
@@ -965,28 +1134,23 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D26">
-        <f>MIN(D2:D22)</f>
-        <v>6.9373299546064198E-3</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4411848-26EC-7848-88E5-EF7373A463AB}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1005,8 +1169,26 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -1025,8 +1207,32 @@
       <c r="F2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <f>AVERAGE(A2:A5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
+        <v>1.00188335275187</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>7.776376041960205</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>7.731330085307988</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>66.25</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -1045,8 +1251,32 @@
       <c r="F3">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <f>AVERAGE(A6:A9)</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
+        <v>2.0037667055037498</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>7.2312470955249036E-3</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>7.0516115866918498E-3</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>68.75</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -1065,8 +1295,32 @@
       <c r="F4">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <f>AVERAGE(A10:A13)</f>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
+        <v>4.0075334110074996</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>7.1491508179918825E-3</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>7.0456558531348341E-3</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>71.25</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -1085,8 +1339,32 @@
       <c r="F5">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J5" s="2">
+        <f>AVERAGE(A14:A17)</f>
+        <v>4</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
+        <v>8.0150668220149992</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="3"/>
+        <v>7.0857741372124753E-3</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="3"/>
+        <v>7.0120446356706926E-3</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="3"/>
+        <v>73.75</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1105,8 +1383,32 @@
       <c r="F6">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <f>AVERAGE(A18:A21)</f>
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
+        <v>16.030133644029998</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>7.0832125233248455E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>7.0098088323534927E-3</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>76.25</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1125,8 +1427,32 @@
       <c r="F7">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <f>AVERAGE(A22:A25)</f>
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
+        <v>32.060267288059997</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>7.0815304191436251E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>7.0213623359759699E-3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>78.75</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1145,8 +1471,12 @@
       <c r="F8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <f>MIN(M2:M7)</f>
+        <v>7.0098088323534927E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1166,7 +1496,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -1186,7 +1516,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>2</v>
       </c>
@@ -1206,7 +1536,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2</v>
       </c>
@@ -1226,7 +1556,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2</v>
       </c>
@@ -1246,83 +1576,83 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>8.0150668220149992</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>7.0765497772260801E-3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>7.1469347458332699E-3</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>10</v>
       </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
+      <c r="F14" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>8.0150668220149992</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>7.0776125004990602E-3</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>7.0511003252752896E-3</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>94</v>
       </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16">
+      <c r="F15" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>4</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>8.0150668220149992</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>7.1416565766954298E-3</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>6.8500039088440698E-3</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>95</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>4</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>8.0150668220149992</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>7.0472776944293302E-3</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>7.0001395627301401E-3</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>96</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>0.5</v>
       </c>
     </row>
@@ -1407,89 +1737,83 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>16</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4">
         <v>32.060267288059997</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>7.0553076443599198E-3</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
         <v>7.1454461901745798E-3</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <v>12</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>16</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <v>32.060267288059997</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>7.0807930884605299E-3</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="4">
         <v>7.0614475221868504E-3</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="4">
         <v>100</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>16</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="4">
         <v>32.060267288059997</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <v>7.1521802567579597E-3</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="4">
         <v>6.8666871458767497E-3</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="4">
         <v>101</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>16</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <v>32.060267288059997</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>7.0378406869960903E-3</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="4">
         <v>7.0118684856656996E-3</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="4">
         <v>102</v>
       </c>
-      <c r="F25" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D26">
-        <f>MIN(D2:D22)</f>
-        <v>6.8486873704464504E-3</v>
+      <c r="F25" s="4">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -1499,15 +1823,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1526,8 +1850,26 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0.5</v>
       </c>
@@ -1546,8 +1888,32 @@
       <c r="F2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <f>AVERAGE(A2:A5)</f>
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
+        <v>1.00188335275187</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>7.7563730726242026</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>7.7313258876191782</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>81.25</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -1566,8 +1932,32 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J3">
+        <f>AVERAGE(A6:A9)</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
+        <v>2.0037667055037498</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>7.2760285024220696E-3</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>7.0242296218218092E-3</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>83.75</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.5</v>
       </c>
@@ -1586,8 +1976,32 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J4">
+        <f>AVERAGE(A10:A13)</f>
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
+        <v>4.0075334110074996</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>7.1231778940806746E-3</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>6.9877039603988E-3</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>86.25</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>0.5</v>
       </c>
@@ -1606,8 +2020,32 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J5" s="2">
+        <f>AVERAGE(A14:A17)</f>
+        <v>4</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
+        <v>8.0150668220149992</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="3"/>
+        <v>7.1077155806124146E-3</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="3"/>
+        <v>6.9742638028246554E-3</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="3"/>
+        <v>88.75</v>
+      </c>
+      <c r="O5" s="2">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1626,8 +2064,32 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J6">
+        <f>AVERAGE(A18:A21)</f>
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
+        <v>16.030133644029998</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>7.1014057211577853E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>6.9694200250756053E-3</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>91.25</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1646,8 +2108,32 @@
       <c r="F7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="J7">
+        <f>AVERAGE(A22:A25)</f>
+        <v>16</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
+        <v>32.060267288059997</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>7.0963838988294175E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>6.9671547129512394E-3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>93.75</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1</v>
       </c>
@@ -1666,8 +2152,12 @@
       <c r="F8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="M8">
+        <f>MIN(M2:M7)</f>
+        <v>6.9671547129512394E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1</v>
       </c>
@@ -1687,7 +2177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
@@ -1707,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1727,7 +2217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1747,7 +2237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1767,83 +2257,83 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>4</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <v>8.0150668220149992</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="2">
         <v>7.0765879452228501E-3</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>7.1020351494959603E-3</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>16</v>
       </c>
-      <c r="F14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <v>8.0150668220149992</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>7.1148663647472802E-3</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>7.0246250239854799E-3</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>112</v>
       </c>
-      <c r="F15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
+      <c r="F15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
         <v>4</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>8.0150668220149992</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>7.1301264526943296E-3</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>6.8057619500905197E-3</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>113</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
+      <c r="A17" s="2">
         <v>4</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <v>8.0150668220149992</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>7.1092815597852002E-3</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>6.9646330877266597E-3</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>114</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="2">
         <v>1</v>
       </c>
     </row>
@@ -1928,89 +2418,83 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>16</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4">
         <v>32.060267288059997</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>7.06166088953614E-3</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
         <v>7.0809356650297899E-3</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <v>18</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>16</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="4">
         <v>32.060267288059997</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C23" s="4">
         <v>7.1071854258577E-3</v>
       </c>
-      <c r="D23" s="2">
+      <c r="D23" s="4">
         <v>7.0192377043372702E-3</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="4">
         <v>118</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>16</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="4">
         <v>32.060267288059997</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C24" s="4">
         <v>7.1292381311456304E-3</v>
       </c>
-      <c r="D24" s="2">
+      <c r="D24" s="4">
         <v>6.8074332134045101E-3</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="4">
         <v>119</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>16</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="4">
         <v>32.060267288059997</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C25" s="4">
         <v>7.0874511487781996E-3</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="4">
         <v>6.9610122690333901E-3</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="4">
         <v>120</v>
       </c>
-      <c r="F25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="D26">
-        <f>MIN(D2:D22)</f>
-        <v>6.8057619500905197E-3</v>
+      <c r="F25" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2020,15 +2504,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F26A9CE-0C1E-AF48-A07D-15710713DB1F}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2044,147 +2528,744 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>7.1815177748732698E-3</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>7.29895844817795E-3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>19</v>
       </c>
-      <c r="E2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="2">
+        <v>7.8390000000000004</v>
+      </c>
+      <c r="J2" s="3">
+        <f>AVERAGE(A2:A5)</f>
+        <v>1E-8</v>
+      </c>
+      <c r="K2" s="2">
+        <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
+        <v>7.2448755443551846E-3</v>
+      </c>
+      <c r="L2" s="2">
+        <f t="shared" si="0"/>
+        <v>7.187035253043577E-3</v>
+      </c>
+      <c r="M2" s="2">
+        <f t="shared" si="0"/>
+        <v>96.25</v>
+      </c>
+      <c r="N2" s="2">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7.3102230424101E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>7.2312498802041703E-3</v>
+      </c>
+      <c r="D3" s="2">
+        <v>121</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="2">
+        <v>8.4870000000000001</v>
+      </c>
+      <c r="J3" s="1">
+        <f>AVERAGE(A6:A9)</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B3" s="2">
+      <c r="K3">
+        <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
+        <v>7.2402143367922799E-3</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>7.1886290692070353E-3</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>98.75</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="B4" s="2">
+        <v>7.3648503823007597E-3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>7.0249537065466602E-3</v>
+      </c>
+      <c r="D4" s="2">
+        <v>122</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="2">
+        <v>8.9390000000000001</v>
+      </c>
+      <c r="J4" s="1">
+        <f>AVERAGE(A10:A13)</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
+        <v>7.2558131985405953E-3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>7.1959295310080025E-3</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>101.25</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>1E-8</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7.12291097783661E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7.1929789772455302E-3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>123</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="2">
+        <v>8.3219999999999992</v>
+      </c>
+      <c r="J5" s="5">
+        <f>AVERAGE(A14:A17)</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
+        <v>7.2538787907762223E-3</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="3"/>
+        <v>7.2017070760534299E-3</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="3"/>
+        <v>103.75</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B6" s="4">
         <v>7.16143659751941E-3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C6" s="4">
         <v>7.2651410059250401E-3</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D6" s="4">
         <v>20</v>
       </c>
-      <c r="E3" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="E6" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="1">
+        <f>AVERAGE(A18:A21)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
+        <v>7.2755244030478427E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>7.207872814181792E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>106.25</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7.2817189093837701E-3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7.2480471596676598E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>124</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="J7" s="1">
+        <f>AVERAGE(A22:A25)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
+        <v>7.3679907190454877E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>7.3069674247737051E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>108.75</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7.3832689457513498E-3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>7.0355725722347799E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>125</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="J8" s="1">
+        <f>AVERAGE(A26:A29)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
+        <v>7.9807669067993078E-3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>7.9187246638924812E-3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>111.25</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7.1344328945145896E-3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7.2057555390006604E-3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>126</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="J9" s="1">
+        <f>AVERAGE(A30:A33)</f>
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
+        <v>3.9111126818399207</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>3.8345109020233394</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>113.75</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B4">
+      <c r="B10">
         <v>7.1848225928446696E-3</v>
       </c>
-      <c r="C4">
+      <c r="C10">
         <v>7.3026222910018597E-3</v>
       </c>
-      <c r="D4">
+      <c r="D10">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="E10">
+        <v>0.25</v>
+      </c>
+      <c r="L10">
+        <f>MIN(L2:L9)</f>
+        <v>7.187035253043577E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B11">
+        <v>7.3091814373718901E-3</v>
+      </c>
+      <c r="C11">
+        <v>7.2441959476217304E-3</v>
+      </c>
+      <c r="D11">
+        <v>127</v>
+      </c>
+      <c r="E11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B12">
+        <v>7.3806441121516703E-3</v>
+      </c>
+      <c r="C12">
+        <v>7.03274540880576E-3</v>
+      </c>
+      <c r="D12">
+        <v>128</v>
+      </c>
+      <c r="E12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B13">
+        <v>7.1486046517941501E-3</v>
+      </c>
+      <c r="C13">
+        <v>7.2041544766026601E-3</v>
+      </c>
+      <c r="D13">
+        <v>129</v>
+      </c>
+      <c r="E13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B5">
+      <c r="B14">
         <v>7.1833734796877798E-3</v>
       </c>
-      <c r="C5">
+      <c r="C14">
         <v>7.3151739135860101E-3</v>
       </c>
-      <c r="D5">
+      <c r="D14">
         <v>22</v>
       </c>
-      <c r="E5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="E14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B15">
+        <v>7.2946145664900498E-3</v>
+      </c>
+      <c r="C15">
+        <v>7.2621687146973701E-3</v>
+      </c>
+      <c r="D15">
+        <v>130</v>
+      </c>
+      <c r="E15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B16">
+        <v>7.3889530303471902E-3</v>
+      </c>
+      <c r="C16">
+        <v>7.0272324993175999E-3</v>
+      </c>
+      <c r="D16">
+        <v>131</v>
+      </c>
+      <c r="E16">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B17">
+        <v>7.1485740865798704E-3</v>
+      </c>
+      <c r="C17">
+        <v>7.2022531766127397E-3</v>
+      </c>
+      <c r="D17">
+        <v>132</v>
+      </c>
+      <c r="E17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>1E-4</v>
       </c>
-      <c r="B6">
+      <c r="B18">
         <v>7.2143815329020903E-3</v>
       </c>
-      <c r="C6">
+      <c r="C18">
         <v>7.3263091134264102E-3</v>
       </c>
-      <c r="D6">
+      <c r="D18">
         <v>23</v>
       </c>
-      <c r="E6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="E18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1E-4</v>
+      </c>
+      <c r="B19">
+        <v>7.3227242200060699E-3</v>
+      </c>
+      <c r="C19">
+        <v>7.2692668838228299E-3</v>
+      </c>
+      <c r="D19">
+        <v>133</v>
+      </c>
+      <c r="E19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1E-4</v>
+      </c>
+      <c r="B20">
+        <v>7.3991128877597904E-3</v>
+      </c>
+      <c r="C20">
+        <v>7.04108424821591E-3</v>
+      </c>
+      <c r="D20">
+        <v>134</v>
+      </c>
+      <c r="E20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1E-4</v>
+      </c>
+      <c r="B21">
+        <v>7.1658789715234204E-3</v>
+      </c>
+      <c r="C21">
+        <v>7.1948310112620196E-3</v>
+      </c>
+      <c r="D21">
+        <v>135</v>
+      </c>
+      <c r="E21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>1E-3</v>
       </c>
-      <c r="B7">
+      <c r="B22">
         <v>7.2746685101710102E-3</v>
       </c>
-      <c r="C7">
+      <c r="C22">
         <v>7.3579598733402298E-3</v>
       </c>
-      <c r="D7">
+      <c r="D22">
         <v>24</v>
       </c>
-      <c r="E7">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="E22">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1E-3</v>
+      </c>
+      <c r="B23">
+        <v>7.4444686141895396E-3</v>
+      </c>
+      <c r="C23">
+        <v>7.49546851705204E-3</v>
+      </c>
+      <c r="D23">
+        <v>136</v>
+      </c>
+      <c r="E23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1E-3</v>
+      </c>
+      <c r="B24">
+        <v>7.5242093496737904E-3</v>
+      </c>
+      <c r="C24">
+        <v>7.1318744077406597E-3</v>
+      </c>
+      <c r="D24">
+        <v>137</v>
+      </c>
+      <c r="E24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1E-3</v>
+      </c>
+      <c r="B25">
+        <v>7.2286164021476097E-3</v>
+      </c>
+      <c r="C25">
+        <v>7.2425669009618899E-3</v>
+      </c>
+      <c r="D25">
+        <v>138</v>
+      </c>
+      <c r="E25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>0.01</v>
       </c>
-      <c r="B8">
+      <c r="B26">
         <v>7.7612170890132099E-3</v>
       </c>
-      <c r="C8">
+      <c r="C26">
         <v>7.88014584736145E-3</v>
       </c>
-      <c r="D8">
+      <c r="D26">
         <v>25</v>
       </c>
-      <c r="E8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="E26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.01</v>
+      </c>
+      <c r="B27">
+        <v>8.0574623437875692E-3</v>
+      </c>
+      <c r="C27">
+        <v>8.6310041394639502E-3</v>
+      </c>
+      <c r="D27">
+        <v>139</v>
+      </c>
+      <c r="E27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.01</v>
+      </c>
+      <c r="B28">
+        <v>8.0746254645922E-3</v>
+      </c>
+      <c r="C28">
+        <v>7.4071318525424602E-3</v>
+      </c>
+      <c r="D28">
+        <v>140</v>
+      </c>
+      <c r="E28">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.01</v>
+      </c>
+      <c r="B29">
+        <v>8.0297627298042493E-3</v>
+      </c>
+      <c r="C29">
+        <v>7.75661681620206E-3</v>
+      </c>
+      <c r="D29">
+        <v>141</v>
+      </c>
+      <c r="E29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>0.1</v>
       </c>
-      <c r="B9">
+      <c r="B30">
         <v>2.1266962297538099E-2</v>
       </c>
-      <c r="C9">
+      <c r="C30">
         <v>2.3481848763619001E-2</v>
       </c>
-      <c r="D9">
+      <c r="D30">
         <v>26</v>
       </c>
-      <c r="E9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10">
-        <f>MIN(C2:C9)</f>
-        <v>7.2651410059250401E-3</v>
+      <c r="E30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.1</v>
+      </c>
+      <c r="B31">
+        <v>2.4345950421659199E-2</v>
+      </c>
+      <c r="C31">
+        <v>2.6427073850038799E-2</v>
+      </c>
+      <c r="D31">
+        <v>142</v>
+      </c>
+      <c r="E31">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.1</v>
+      </c>
+      <c r="B32">
+        <v>15.577385760368101</v>
+      </c>
+      <c r="C32">
+        <v>15.2664203440889</v>
+      </c>
+      <c r="D32">
+        <v>143</v>
+      </c>
+      <c r="E32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33">
+        <v>2.14520542723859E-2</v>
+      </c>
+      <c r="C33">
+        <v>2.1714341390798701E-2</v>
+      </c>
+      <c r="D33">
+        <v>144</v>
+      </c>
+      <c r="E33">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -2194,15 +3275,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F5A6AC-C536-6146-8F68-4021A88D57DE}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2218,8 +3299,26 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1E-8</v>
       </c>
@@ -2235,130 +3334,708 @@
       <c r="E2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J2" s="5">
+        <f>AVERAGE(A2:A5)</f>
+        <v>1E-8</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
+        <v>7.1331626572150751E-3</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0654002706857077E-3</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="0"/>
+        <v>116.25</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B3">
+        <v>7.1123941489396204E-3</v>
+      </c>
+      <c r="C3">
+        <v>7.09436588147853E-3</v>
+      </c>
+      <c r="D3">
+        <v>145</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="1">
+        <f>AVERAGE(A6:A9)</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B3">
+      <c r="K3">
+        <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
+        <v>7.1271380825721174E-3</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>7.0591422387378923E-3</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>118.75</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B4">
+        <v>7.1929706671730901E-3</v>
+      </c>
+      <c r="C4">
+        <v>6.8994952227048401E-3</v>
+      </c>
+      <c r="D4">
+        <v>146</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="3">
+        <f>AVERAGE(A10:A13)</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
+        <v>7.1317646893959922E-3</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="2"/>
+        <v>7.0570511854887727E-3</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" si="2"/>
+        <v>121.25</v>
+      </c>
+      <c r="N4" s="2">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B5">
+        <v>7.1067256639969099E-3</v>
+      </c>
+      <c r="C5">
+        <v>7.0439932243700296E-3</v>
+      </c>
+      <c r="D5">
+        <v>147</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="5">
+        <f>AVERAGE(A14:A17)</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
+        <v>7.1394991283205873E-3</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="3"/>
+        <v>7.0645094668353925E-3</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="3"/>
+        <v>123.75</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B6">
         <v>7.1246453134858204E-3</v>
       </c>
-      <c r="C3">
+      <c r="C6">
         <v>7.2215217997894602E-3</v>
       </c>
-      <c r="D3">
+      <c r="D6">
         <v>28</v>
       </c>
-      <c r="E3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="1">
+        <f>AVERAGE(A18:A21)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
+        <v>7.1717938358717096E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>7.0810467277237351E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>126.25</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B7">
+        <v>7.1024621881425696E-3</v>
+      </c>
+      <c r="C7">
+        <v>7.0997264008334903E-3</v>
+      </c>
+      <c r="D7">
+        <v>148</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="1">
+        <f>AVERAGE(A22:A25)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
+        <v>7.2460078573637066E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>7.1499307251020102E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>128.75</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B8">
+        <v>7.17307373316601E-3</v>
+      </c>
+      <c r="C8">
+        <v>6.8797329886558798E-3</v>
+      </c>
+      <c r="D8">
+        <v>149</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="1">
+        <f>AVERAGE(A26:A29)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
+        <v>7.7715236668851407E-3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>7.6957750220862254E-3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>131.25</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B9">
+        <v>7.1083710954940697E-3</v>
+      </c>
+      <c r="C9">
+        <v>7.0355877656727399E-3</v>
+      </c>
+      <c r="D9">
+        <v>150</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="1">
+        <f>AVERAGE(A30:A33)</f>
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
+        <v>3.9116524717940107</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>3.8410617508405203</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>133.75</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B4">
+      <c r="B10" s="2">
         <v>7.11609261912947E-3</v>
       </c>
-      <c r="C4">
+      <c r="C10" s="2">
         <v>7.2099438848647604E-3</v>
       </c>
-      <c r="D4">
+      <c r="D10" s="2">
         <v>29</v>
       </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="E10" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>7.1420000000000003</v>
+      </c>
+      <c r="L10">
+        <f>MIN(L2:L9)</f>
+        <v>7.0570511854887727E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>7.1119101658621998E-3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>7.0994287590555602E-3</v>
+      </c>
+      <c r="D11" s="2">
+        <v>151</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>8.577</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7.1895449556053596E-3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6.8867547249302496E-3</v>
+      </c>
+      <c r="D12" s="2">
+        <v>152</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>7.9930000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7.1095110169869403E-3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>7.0320773731045198E-3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>153</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>7.2450000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B14" s="4">
         <v>7.12387721014625E-3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C14" s="4">
         <v>7.2067768332805997E-3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D14" s="4">
         <v>30</v>
       </c>
-      <c r="E5" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="E14" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B15" s="4">
+        <v>7.1313953363990497E-3</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7.1229164419259697E-3</v>
+      </c>
+      <c r="D15" s="4">
+        <v>154</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B16" s="4">
+        <v>7.1941715729561496E-3</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6.8921248448338898E-3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>155</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>7.1085523937809E-3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>7.0362197473011097E-3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>156</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>1E-4</v>
       </c>
-      <c r="B6">
+      <c r="B18">
         <v>7.1547118961771397E-3</v>
       </c>
-      <c r="C6">
+      <c r="C18">
         <v>7.2291489948142001E-3</v>
       </c>
-      <c r="D6">
+      <c r="D18">
         <v>31</v>
       </c>
-      <c r="E6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1E-4</v>
+      </c>
+      <c r="B19">
+        <v>7.1709281913539804E-3</v>
+      </c>
+      <c r="C19">
+        <v>7.1272611409980502E-3</v>
+      </c>
+      <c r="D19">
+        <v>157</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1E-4</v>
+      </c>
+      <c r="B20">
+        <v>7.23274463064413E-3</v>
+      </c>
+      <c r="C20">
+        <v>6.9211566513602404E-3</v>
+      </c>
+      <c r="D20">
+        <v>158</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1E-4</v>
+      </c>
+      <c r="B21">
+        <v>7.1287906253115901E-3</v>
+      </c>
+      <c r="C21">
+        <v>7.0466201237224498E-3</v>
+      </c>
+      <c r="D21">
+        <v>159</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>1E-3</v>
       </c>
-      <c r="B7">
+      <c r="B22">
         <v>7.22769993862652E-3</v>
       </c>
-      <c r="C7">
+      <c r="C22">
         <v>7.2928915602808904E-3</v>
       </c>
-      <c r="D7">
+      <c r="D22">
         <v>32</v>
       </c>
-      <c r="E7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1E-3</v>
+      </c>
+      <c r="B23">
+        <v>7.25359357943005E-3</v>
+      </c>
+      <c r="C23">
+        <v>7.25180053825866E-3</v>
+      </c>
+      <c r="D23">
+        <v>160</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1E-3</v>
+      </c>
+      <c r="B24">
+        <v>7.3256225478736297E-3</v>
+      </c>
+      <c r="C24">
+        <v>6.9710249477561402E-3</v>
+      </c>
+      <c r="D24">
+        <v>161</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1E-3</v>
+      </c>
+      <c r="B25">
+        <v>7.1771153635246301E-3</v>
+      </c>
+      <c r="C25">
+        <v>7.0840058541123503E-3</v>
+      </c>
+      <c r="D25">
+        <v>162</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>0.01</v>
       </c>
-      <c r="B8">
+      <c r="B26">
         <v>7.7782118187702002E-3</v>
       </c>
-      <c r="C8">
+      <c r="C26">
         <v>8.08212586103918E-3</v>
       </c>
-      <c r="D8">
+      <c r="D26">
         <v>33</v>
       </c>
-      <c r="E8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.01</v>
+      </c>
+      <c r="B27">
+        <v>7.76377151115856E-3</v>
+      </c>
+      <c r="C27">
+        <v>7.9352585598826408E-3</v>
+      </c>
+      <c r="D27">
+        <v>163</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.01</v>
+      </c>
+      <c r="B28">
+        <v>7.7786809799479297E-3</v>
+      </c>
+      <c r="C28">
+        <v>7.2427685768838802E-3</v>
+      </c>
+      <c r="D28">
+        <v>164</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.01</v>
+      </c>
+      <c r="B29">
+        <v>7.7654303576638701E-3</v>
+      </c>
+      <c r="C29">
+        <v>7.5229470905391997E-3</v>
+      </c>
+      <c r="D29">
+        <v>165</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>0.1</v>
       </c>
-      <c r="B9">
+      <c r="B30">
         <v>2.28514685617522E-2</v>
       </c>
-      <c r="C9">
+      <c r="C30">
         <v>2.3196447506903601E-2</v>
       </c>
-      <c r="D9">
+      <c r="D30">
         <v>34</v>
       </c>
-      <c r="E9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10">
-        <f>MIN(C2:C9)</f>
-        <v>7.2067768332805997E-3</v>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.1</v>
+      </c>
+      <c r="B31">
+        <v>2.7604693274429801E-2</v>
+      </c>
+      <c r="C31">
+        <v>2.4099483149760199E-2</v>
+      </c>
+      <c r="D31">
+        <v>166</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.1</v>
+      </c>
+      <c r="B32">
+        <v>15.573616880051601</v>
+      </c>
+      <c r="C32">
+        <v>15.295582172718399</v>
+      </c>
+      <c r="D32">
+        <v>167</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33">
+        <v>2.2536845288259201E-2</v>
+      </c>
+      <c r="C33">
+        <v>2.1368899987019699E-2</v>
+      </c>
+      <c r="D33">
+        <v>168</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2368,15 +4045,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9902717B-D473-4C4C-BD56-0A1D1459D334}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -2392,147 +4069,743 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>7.0728708890577096E-3</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>7.1208485293182203E-3</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>35</v>
       </c>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <f>AVERAGE(A2:A5)</f>
+        <v>1E-8</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
+        <v>7.1106347531701072E-3</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" si="0"/>
+        <v>6.9907114945074594E-3</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="0"/>
+        <v>136.25</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>7.0945646502077499E-3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7.0153501013571198E-3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>169</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <f>AVERAGE(A6:A9)</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B3">
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
+        <v>7.1087524130319501E-3</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="1"/>
+        <v>6.9905535461618831E-3</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" si="1"/>
+        <v>138.75</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>7.1512374170124501E-3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6.8404369769578203E-3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>170</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <f>AVERAGE(A10:A13)</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
+        <v>7.1173801558713067E-3</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="2"/>
+        <v>7.0020917746079856E-3</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="2"/>
+        <v>141.25</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7.1238660564025202E-3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6.98621037039668E-3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>171</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <f>AVERAGE(A14:A17)</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
+        <v>7.1188367387900698E-3</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="3"/>
+        <v>7.0055830763018773E-3</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="3"/>
+        <v>143.75</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B6" s="2">
         <v>7.0759917584558296E-3</v>
       </c>
-      <c r="C3">
+      <c r="C6" s="2">
         <v>7.1283892995895803E-3</v>
       </c>
-      <c r="D3">
+      <c r="D6" s="2">
         <v>36</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>7.14</v>
+      </c>
+      <c r="J6" s="1">
+        <f>AVERAGE(A18:A21)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
+        <v>7.1300491848960475E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>7.0025262663121019E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>146.25</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7.0979636572301302E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.0173824651840501E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>172</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>7.02</v>
+      </c>
+      <c r="J7" s="1">
+        <f>AVERAGE(A22:A25)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
+        <v>7.1997435155014148E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>7.0615071045393284E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>148.75</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7.1434285504122499E-3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6.8344073320560604E-3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>173</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>7.4950000000000001</v>
+      </c>
+      <c r="J8" s="1">
+        <f>AVERAGE(A26:A29)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
+        <v>7.9159270748496019E-3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>7.5180632064733195E-3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>151.25</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7.1176256860295897E-3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.98203508781784E-3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>174</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>7.0030000000000001</v>
+      </c>
+      <c r="J9" s="1">
+        <f>AVERAGE(A30:A33)</f>
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
+        <v>2.2911180987022748E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>2.2325514919778425E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>153.75</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B10" s="4">
         <v>7.0788969683150396E-3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C10" s="4">
         <v>7.1302317082881901E-3</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D10" s="4">
         <v>37</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f>MIN(L2:L9)</f>
+        <v>6.9905535461618831E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7.0964479682346102E-3</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7.0283551393274897E-3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>175</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B12" s="4">
+        <v>7.1627416263023999E-3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6.8445250867529102E-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>176</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B13" s="4">
+        <v>7.1314340606331798E-3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7.0052551640633499E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>177</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B5">
+      <c r="B14">
         <v>7.0932590911785701E-3</v>
       </c>
-      <c r="C5">
+      <c r="C14">
         <v>7.1533516921261503E-3</v>
       </c>
-      <c r="D5">
+      <c r="D14">
         <v>38</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B15">
+        <v>7.1022130424777596E-3</v>
+      </c>
+      <c r="C15">
+        <v>7.0310108403259103E-3</v>
+      </c>
+      <c r="D15">
+        <v>178</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B16">
+        <v>7.1566905416548202E-3</v>
+      </c>
+      <c r="C16">
+        <v>6.8432383457238304E-3</v>
+      </c>
+      <c r="D16">
+        <v>179</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B17">
+        <v>7.1231842798491303E-3</v>
+      </c>
+      <c r="C17">
+        <v>6.9947314270316198E-3</v>
+      </c>
+      <c r="D17">
+        <v>180</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>1E-4</v>
       </c>
-      <c r="B6">
+      <c r="B18">
         <v>7.0913421002526998E-3</v>
       </c>
-      <c r="C6">
+      <c r="C18">
         <v>7.1229977245898298E-3</v>
       </c>
-      <c r="D6">
+      <c r="D18">
         <v>39</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1E-4</v>
+      </c>
+      <c r="B19">
+        <v>7.1183885571857296E-3</v>
+      </c>
+      <c r="C19">
+        <v>7.0377096751744403E-3</v>
+      </c>
+      <c r="D19">
+        <v>181</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1E-4</v>
+      </c>
+      <c r="B20">
+        <v>7.1771756050487299E-3</v>
+      </c>
+      <c r="C20">
+        <v>6.8522966169613404E-3</v>
+      </c>
+      <c r="D20">
+        <v>182</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1E-4</v>
+      </c>
+      <c r="B21">
+        <v>7.1332904770970299E-3</v>
+      </c>
+      <c r="C21">
+        <v>6.9971010485227999E-3</v>
+      </c>
+      <c r="D21">
+        <v>183</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>1E-3</v>
       </c>
-      <c r="B7">
+      <c r="B22">
         <v>7.1626457683741998E-3</v>
       </c>
-      <c r="C7">
+      <c r="C22">
         <v>7.19645757604628E-3</v>
       </c>
-      <c r="D7">
+      <c r="D22">
         <v>40</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1E-3</v>
+      </c>
+      <c r="B23">
+        <v>7.2028936085601599E-3</v>
+      </c>
+      <c r="C23">
+        <v>7.1197862469373199E-3</v>
+      </c>
+      <c r="D23">
+        <v>184</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1E-3</v>
+      </c>
+      <c r="B24">
+        <v>7.2268524592121403E-3</v>
+      </c>
+      <c r="C24">
+        <v>6.87572764767769E-3</v>
+      </c>
+      <c r="D24">
+        <v>185</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1E-3</v>
+      </c>
+      <c r="B25">
+        <v>7.2065822258591599E-3</v>
+      </c>
+      <c r="C25">
+        <v>7.0540569474960204E-3</v>
+      </c>
+      <c r="D25">
+        <v>186</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
         <v>0.01</v>
       </c>
-      <c r="B8">
+      <c r="B26">
         <v>7.6575731510917303E-3</v>
       </c>
-      <c r="C8">
+      <c r="C26">
         <v>7.7527836411002398E-3</v>
       </c>
-      <c r="D8">
+      <c r="D26">
         <v>41</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.01</v>
+      </c>
+      <c r="B27">
+        <v>8.2296029180288308E-3</v>
+      </c>
+      <c r="C27">
+        <v>7.6108332871994396E-3</v>
+      </c>
+      <c r="D27">
+        <v>187</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.01</v>
+      </c>
+      <c r="B28">
+        <v>8.0325801943739207E-3</v>
+      </c>
+      <c r="C28">
+        <v>7.15097833543698E-3</v>
+      </c>
+      <c r="D28">
+        <v>188</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.01</v>
+      </c>
+      <c r="B29">
+        <v>7.7439520359039301E-3</v>
+      </c>
+      <c r="C29">
+        <v>7.5576575621566196E-3</v>
+      </c>
+      <c r="D29">
+        <v>189</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>0.1</v>
       </c>
-      <c r="B9">
+      <c r="B30">
         <v>2.2226513960709099E-2</v>
       </c>
-      <c r="C9">
+      <c r="C30">
         <v>2.2288309915506399E-2</v>
       </c>
-      <c r="D9">
+      <c r="D30">
         <v>42</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10">
-        <f>MIN(C2:C9)</f>
-        <v>7.1208485293182203E-3</v>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.1</v>
+      </c>
+      <c r="B31">
+        <v>2.3262187105913899E-2</v>
+      </c>
+      <c r="C31">
+        <v>2.34446166122847E-2</v>
+      </c>
+      <c r="D31">
+        <v>190</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.1</v>
+      </c>
+      <c r="B32">
+        <v>2.2613486208021599E-2</v>
+      </c>
+      <c r="C32">
+        <v>2.15598716043887E-2</v>
+      </c>
+      <c r="D32">
+        <v>191</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33">
+        <v>2.3542536673446399E-2</v>
+      </c>
+      <c r="C33">
+        <v>2.20092615469339E-2</v>
+      </c>
+      <c r="D33">
+        <v>192</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2542,15 +4815,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40ADBCB-FBE6-7547-ADA9-23095BA43DDE}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2566,8 +4839,26 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1E-8</v>
       </c>
@@ -2583,130 +4874,708 @@
       <c r="E2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J2" s="5">
+        <f>AVERAGE(A2:A5)</f>
+        <v>1E-8</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
+        <v>7.660322174915365E-3</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" si="0"/>
+        <v>7.5065887055082324E-3</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="0"/>
+        <v>156.25</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B3">
+        <v>7.7359920932336601E-3</v>
+      </c>
+      <c r="C3">
+        <v>7.5598173784686496E-3</v>
+      </c>
+      <c r="D3">
+        <v>193</v>
+      </c>
+      <c r="E3">
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="5">
+        <f>AVERAGE(A6:A9)</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B3">
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
+        <v>7.6721985576713924E-3</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" si="1"/>
+        <v>7.5203711637592948E-3</v>
+      </c>
+      <c r="M3" s="4">
+        <f t="shared" si="1"/>
+        <v>158.75</v>
+      </c>
+      <c r="N3" s="4">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B4">
+        <v>7.7143802228284604E-3</v>
+      </c>
+      <c r="C4">
+        <v>7.2876336994244003E-3</v>
+      </c>
+      <c r="D4">
+        <v>194</v>
+      </c>
+      <c r="E4">
+        <v>0.25</v>
+      </c>
+      <c r="J4" s="5">
+        <f>AVERAGE(A10:A13)</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
+        <v>7.7097539101390403E-3</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="2"/>
+        <v>7.5551098537076453E-3</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="2"/>
+        <v>161.25</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B5">
+        <v>7.5511525117574196E-3</v>
+      </c>
+      <c r="C5">
+        <v>7.5292662231925302E-3</v>
+      </c>
+      <c r="D5">
+        <v>195</v>
+      </c>
+      <c r="E5">
+        <v>0.25</v>
+      </c>
+      <c r="J5" s="5">
+        <f>AVERAGE(A14:A17)</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
+        <v>7.687047935100862E-3</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="3"/>
+        <v>7.5128661267994373E-3</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="3"/>
+        <v>163.75</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B6">
         <v>7.6253045389943902E-3</v>
       </c>
-      <c r="C3">
+      <c r="C6">
         <v>7.6386433718924097E-3</v>
       </c>
-      <c r="D3">
+      <c r="D6">
         <v>44</v>
       </c>
-      <c r="E3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="E6">
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="1">
+        <f>AVERAGE(A18:A21)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
+        <v>7.893163718263355E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>7.5335874373311171E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>166.25</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B7">
+        <v>7.7166950201338199E-3</v>
+      </c>
+      <c r="C7">
+        <v>7.5592120683335802E-3</v>
+      </c>
+      <c r="D7">
+        <v>196</v>
+      </c>
+      <c r="E7">
+        <v>0.25</v>
+      </c>
+      <c r="J7" s="1">
+        <f>AVERAGE(A22:A25)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
+        <v>9.7014470622835136E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>7.5111539397844408E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>168.75</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B8">
+        <v>7.8056692938379699E-3</v>
+      </c>
+      <c r="C8">
+        <v>7.3558747659417502E-3</v>
+      </c>
+      <c r="D8">
+        <v>197</v>
+      </c>
+      <c r="E8">
+        <v>0.25</v>
+      </c>
+      <c r="J8" s="3">
+        <f>AVERAGE(A26:A29)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
+        <v>2.8008065310287003E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="6"/>
+        <v>7.4912361463809231E-3</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="6"/>
+        <v>171.25</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B9">
+        <v>7.5411253777193897E-3</v>
+      </c>
+      <c r="C9">
+        <v>7.5277544488694401E-3</v>
+      </c>
+      <c r="D9">
+        <v>198</v>
+      </c>
+      <c r="E9">
+        <v>0.25</v>
+      </c>
+      <c r="J9" s="1">
+        <f>AVERAGE(A30:A33)</f>
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
+        <v>0.2102275975444845</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>7.7984772109862448E-3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>173.75</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B4">
+      <c r="B10">
         <v>7.5912210307619004E-3</v>
       </c>
-      <c r="C4">
+      <c r="C10">
         <v>7.6103776970759297E-3</v>
       </c>
-      <c r="D4">
+      <c r="D10">
         <v>45</v>
       </c>
-      <c r="E4">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="E10">
+        <v>0.25</v>
+      </c>
+      <c r="L10">
+        <f>MIN(L2:L9)</f>
+        <v>7.4912361463809231E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B11">
+        <v>7.8284099024343995E-3</v>
+      </c>
+      <c r="C11">
+        <v>7.6684397992063703E-3</v>
+      </c>
+      <c r="D11">
+        <v>199</v>
+      </c>
+      <c r="E11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B12">
+        <v>7.79334508239271E-3</v>
+      </c>
+      <c r="C12">
+        <v>7.3455673979317803E-3</v>
+      </c>
+      <c r="D12">
+        <v>200</v>
+      </c>
+      <c r="E12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B13">
+        <v>7.6260396249671503E-3</v>
+      </c>
+      <c r="C13">
+        <v>7.5960545206165001E-3</v>
+      </c>
+      <c r="D13">
+        <v>201</v>
+      </c>
+      <c r="E13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B5">
+      <c r="B14">
         <v>7.6793472609542101E-3</v>
       </c>
-      <c r="C5">
+      <c r="C14">
         <v>7.6612010697259501E-3</v>
       </c>
-      <c r="D5">
+      <c r="D14">
         <v>46</v>
       </c>
-      <c r="E5">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="E14">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B15">
+        <v>7.7612888305745196E-3</v>
+      </c>
+      <c r="C15">
+        <v>7.5721757318031897E-3</v>
+      </c>
+      <c r="D15">
+        <v>202</v>
+      </c>
+      <c r="E15">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B16">
+        <v>7.7272036231737099E-3</v>
+      </c>
+      <c r="C16">
+        <v>7.2779891754877002E-3</v>
+      </c>
+      <c r="D16">
+        <v>203</v>
+      </c>
+      <c r="E16">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B17">
+        <v>7.5803520257010102E-3</v>
+      </c>
+      <c r="C17">
+        <v>7.5400985301809099E-3</v>
+      </c>
+      <c r="D17">
+        <v>204</v>
+      </c>
+      <c r="E17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>1E-4</v>
       </c>
-      <c r="B6">
+      <c r="B18">
         <v>7.8432144488188096E-3</v>
       </c>
-      <c r="C6">
+      <c r="C18">
         <v>7.6396179167514096E-3</v>
       </c>
-      <c r="D6">
+      <c r="D18">
         <v>47</v>
       </c>
-      <c r="E6">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="E18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1E-4</v>
+      </c>
+      <c r="B19">
+        <v>7.9988440092494499E-3</v>
+      </c>
+      <c r="C19">
+        <v>7.6096247178205102E-3</v>
+      </c>
+      <c r="D19">
+        <v>205</v>
+      </c>
+      <c r="E19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1E-4</v>
+      </c>
+      <c r="B20">
+        <v>7.95471905037126E-3</v>
+      </c>
+      <c r="C20">
+        <v>7.3196699327610897E-3</v>
+      </c>
+      <c r="D20">
+        <v>206</v>
+      </c>
+      <c r="E20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1E-4</v>
+      </c>
+      <c r="B21">
+        <v>7.7758773646139003E-3</v>
+      </c>
+      <c r="C21">
+        <v>7.5654371819914596E-3</v>
+      </c>
+      <c r="D21">
+        <v>207</v>
+      </c>
+      <c r="E21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>1E-3</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B22" s="4">
         <v>9.6490678595418603E-3</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C22" s="4">
         <v>7.6265530066287196E-3</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D22" s="4">
         <v>48</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="E22" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="B23" s="4">
+        <v>9.7931185836329093E-3</v>
+      </c>
+      <c r="C23" s="4">
+        <v>7.5672892853617599E-3</v>
+      </c>
+      <c r="D23" s="4">
+        <v>208</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="B24" s="4">
+        <v>9.7398154308741998E-3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>7.2736719999700102E-3</v>
+      </c>
+      <c r="D24" s="4">
+        <v>209</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="B25" s="4">
+        <v>9.6237863750850902E-3</v>
+      </c>
+      <c r="C25" s="4">
+        <v>7.5771014671772701E-3</v>
+      </c>
+      <c r="D25" s="4">
+        <v>210</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>0.01</v>
       </c>
-      <c r="B8">
+      <c r="B26" s="2">
         <v>2.8004535890006E-2</v>
       </c>
-      <c r="C8">
+      <c r="C26" s="2">
         <v>7.6532688368349602E-3</v>
       </c>
-      <c r="D8">
+      <c r="D26" s="2">
         <v>49</v>
       </c>
-      <c r="E8">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="E26" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F26" s="2">
+        <v>18.634</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2.8140323494184501E-2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7.5700220037648001E-3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>211</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F27" s="2">
+        <v>16.401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2.8064057647072201E-2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>7.2566230157191996E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>212</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F28" s="2">
+        <v>25.178999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2.78233442098853E-2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>7.4850307292047297E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>213</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="F29" s="2">
+        <v>17.044</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>0.1</v>
       </c>
-      <c r="B9">
+      <c r="B30">
         <v>0.21036734653914199</v>
       </c>
-      <c r="C9">
+      <c r="C30">
         <v>8.0013120685644597E-3</v>
       </c>
-      <c r="D9">
+      <c r="D30">
         <v>50</v>
       </c>
-      <c r="E9">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10">
-        <f>MIN(C2:C9)</f>
-        <v>7.6103776970759297E-3</v>
+      <c r="E30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.1</v>
+      </c>
+      <c r="B31">
+        <v>0.210349046803535</v>
+      </c>
+      <c r="C31">
+        <v>7.8195977430949096E-3</v>
+      </c>
+      <c r="D31">
+        <v>214</v>
+      </c>
+      <c r="E31">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.1</v>
+      </c>
+      <c r="B32">
+        <v>0.21020323196624099</v>
+      </c>
+      <c r="C32">
+        <v>7.5907224462308104E-3</v>
+      </c>
+      <c r="D32">
+        <v>215</v>
+      </c>
+      <c r="E32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33">
+        <v>0.20999076486901999</v>
+      </c>
+      <c r="C33">
+        <v>7.7822765860547996E-3</v>
+      </c>
+      <c r="D33">
+        <v>216</v>
+      </c>
+      <c r="E33">
+        <v>0.25</v>
       </c>
     </row>
   </sheetData>
@@ -2716,15 +5585,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8CC4B2-8DA2-7044-B8BB-C3865FE0A329}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2740,8 +5609,26 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1E-8</v>
       </c>
@@ -2757,130 +5644,708 @@
       <c r="E2">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J2" s="5">
+        <f>AVERAGE(A2:A5)</f>
+        <v>1E-8</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
+        <v>7.3626082337292925E-3</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" si="0"/>
+        <v>7.2644639641363494E-3</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="0"/>
+        <v>176.25</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B3">
+        <v>7.3625099017938702E-3</v>
+      </c>
+      <c r="C3">
+        <v>7.3214829057217197E-3</v>
+      </c>
+      <c r="D3">
+        <v>217</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="5">
+        <f>AVERAGE(A6:A9)</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B3">
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
+        <v>7.3724965387806651E-3</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" si="1"/>
+        <v>7.2611941017230253E-3</v>
+      </c>
+      <c r="M3" s="4">
+        <f t="shared" si="1"/>
+        <v>178.75</v>
+      </c>
+      <c r="N3" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B4">
+        <v>7.4084234557689104E-3</v>
+      </c>
+      <c r="C4">
+        <v>7.0776941968088399E-3</v>
+      </c>
+      <c r="D4">
+        <v>218</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="5">
+        <f>AVERAGE(A10:A13)</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
+        <v>7.3534015403872175E-3</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="2"/>
+        <v>7.2516502460781831E-3</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="2"/>
+        <v>181.25</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B5">
+        <v>7.35744664277088E-3</v>
+      </c>
+      <c r="C5">
+        <v>7.3065076201678496E-3</v>
+      </c>
+      <c r="D5">
+        <v>219</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="5">
+        <f>AVERAGE(A14:A17)</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
+        <v>7.3860187258105699E-3</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="3"/>
+        <v>7.2596609837652926E-3</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="3"/>
+        <v>183.75</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B6">
         <v>7.3550516947548999E-3</v>
       </c>
-      <c r="C3">
+      <c r="C6">
         <v>7.3698698543012099E-3</v>
       </c>
-      <c r="D3">
+      <c r="D6">
         <v>52</v>
       </c>
-      <c r="E3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="1">
+        <f>AVERAGE(A18:A21)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
+        <v>7.5614156301797098E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>7.2485162465377329E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>186.25</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B7">
+        <v>7.3765563615102404E-3</v>
+      </c>
+      <c r="C7">
+        <v>7.3261689989173604E-3</v>
+      </c>
+      <c r="D7">
+        <v>220</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="1">
+        <f>AVERAGE(A22:A25)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
+        <v>9.3925841074644946E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>7.2559905411834049E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>188.75</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B8">
+        <v>7.4221271813470603E-3</v>
+      </c>
+      <c r="C8">
+        <v>7.0847087004717304E-3</v>
+      </c>
+      <c r="D8">
+        <v>221</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="3">
+        <f>AVERAGE(A26:A29)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
+        <v>2.7601287093389951E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="6"/>
+        <v>7.2219212975432245E-3</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="6"/>
+        <v>191.25</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B9">
+        <v>7.3362509175104599E-3</v>
+      </c>
+      <c r="C9">
+        <v>7.2640288532017996E-3</v>
+      </c>
+      <c r="D9">
+        <v>222</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="1">
+        <f>AVERAGE(A30:A33)</f>
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
+        <v>0.20959784122223502</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>7.5273239214785678E-3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>193.75</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B4">
+      <c r="B10">
         <v>7.3224466363404003E-3</v>
       </c>
-      <c r="C4">
+      <c r="C10">
         <v>7.3545148417829198E-3</v>
       </c>
-      <c r="D4">
+      <c r="D10">
         <v>53</v>
       </c>
-      <c r="E4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="L10">
+        <f>MIN(L2:L9)</f>
+        <v>7.2219212975432245E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B11">
+        <v>7.34350021353902E-3</v>
+      </c>
+      <c r="C11">
+        <v>7.3129955203609202E-3</v>
+      </c>
+      <c r="D11">
+        <v>223</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B12">
+        <v>7.4093675741212402E-3</v>
+      </c>
+      <c r="C12">
+        <v>7.0740622864600101E-3</v>
+      </c>
+      <c r="D12">
+        <v>224</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B13">
+        <v>7.3382917375482103E-3</v>
+      </c>
+      <c r="C13">
+        <v>7.2650283357088797E-3</v>
+      </c>
+      <c r="D13">
+        <v>225</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B5">
+      <c r="B14">
         <v>7.3688968798106E-3</v>
       </c>
-      <c r="C5">
+      <c r="C14">
         <v>7.3809071463790303E-3</v>
       </c>
-      <c r="D5">
+      <c r="D14">
         <v>54</v>
       </c>
-      <c r="E5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B15">
+        <v>7.3588994242488699E-3</v>
+      </c>
+      <c r="C15">
+        <v>7.2907572166320397E-3</v>
+      </c>
+      <c r="D15">
+        <v>226</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B16">
+        <v>7.44175084896306E-3</v>
+      </c>
+      <c r="C16">
+        <v>7.0833554540939104E-3</v>
+      </c>
+      <c r="D16">
+        <v>227</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B17">
+        <v>7.3745277502197497E-3</v>
+      </c>
+      <c r="C17">
+        <v>7.2836241179561898E-3</v>
+      </c>
+      <c r="D17">
+        <v>228</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>1E-4</v>
       </c>
-      <c r="B6">
+      <c r="B18">
         <v>7.5343508208963097E-3</v>
       </c>
-      <c r="C6">
+      <c r="C18">
         <v>7.3470575685434499E-3</v>
       </c>
-      <c r="D6">
+      <c r="D18">
         <v>55</v>
       </c>
-      <c r="E6">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1E-4</v>
+      </c>
+      <c r="B19">
+        <v>7.5660463090629296E-3</v>
+      </c>
+      <c r="C19">
+        <v>7.3119084935318202E-3</v>
+      </c>
+      <c r="D19">
+        <v>229</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1E-4</v>
+      </c>
+      <c r="B20">
+        <v>7.6066516116855901E-3</v>
+      </c>
+      <c r="C20">
+        <v>7.0670370379106104E-3</v>
+      </c>
+      <c r="D20">
+        <v>230</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1E-4</v>
+      </c>
+      <c r="B21">
+        <v>7.5386137790740097E-3</v>
+      </c>
+      <c r="C21">
+        <v>7.2680618861650503E-3</v>
+      </c>
+      <c r="D21">
+        <v>231</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>1E-3</v>
       </c>
-      <c r="B7">
+      <c r="B22">
         <v>9.3569290214911699E-3</v>
       </c>
-      <c r="C7">
+      <c r="C22">
         <v>7.3491481747081904E-3</v>
       </c>
-      <c r="D7">
+      <c r="D22">
         <v>56</v>
       </c>
-      <c r="E7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1E-3</v>
+      </c>
+      <c r="B23">
+        <v>9.3825077860953E-3</v>
+      </c>
+      <c r="C23">
+        <v>7.3147832138582697E-3</v>
+      </c>
+      <c r="D23">
+        <v>232</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1E-3</v>
+      </c>
+      <c r="B24">
+        <v>9.4556933828688992E-3</v>
+      </c>
+      <c r="C24">
+        <v>7.0880300494188296E-3</v>
+      </c>
+      <c r="D24">
+        <v>233</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1E-3</v>
+      </c>
+      <c r="B25">
+        <v>9.3752062394026094E-3</v>
+      </c>
+      <c r="C25">
+        <v>7.2720007267483297E-3</v>
+      </c>
+      <c r="D25">
+        <v>234</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>0.01</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B26" s="2">
         <v>2.7603182406660001E-2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C26" s="2">
         <v>7.3268231688106899E-3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D26" s="2">
         <v>57</v>
       </c>
-      <c r="E8" s="2">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="E26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>17.681000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2.75658417909227E-2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7.2533759001166898E-3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>235</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="2">
+        <v>19.597000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2.76366407547066E-2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>7.0650867047779096E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>236</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>26.338999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2.7599483421270499E-2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>7.2423994164676096E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>237</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="2">
+        <v>18.907</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>0.1</v>
       </c>
-      <c r="B9">
+      <c r="B30">
         <v>0.209568214860368</v>
       </c>
-      <c r="C9">
+      <c r="C30">
         <v>7.64006184552736E-3</v>
       </c>
-      <c r="D9">
+      <c r="D30">
         <v>58</v>
       </c>
-      <c r="E9">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10">
-        <f>MIN(C2:C9)</f>
-        <v>7.3268231688106899E-3</v>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.1</v>
+      </c>
+      <c r="B31">
+        <v>0.209589358736225</v>
+      </c>
+      <c r="C31">
+        <v>7.5932729870397996E-3</v>
+      </c>
+      <c r="D31">
+        <v>238</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.1</v>
+      </c>
+      <c r="B32">
+        <v>0.20966128759244601</v>
+      </c>
+      <c r="C32">
+        <v>7.3451144779299099E-3</v>
+      </c>
+      <c r="D32">
+        <v>239</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33">
+        <v>0.20957250369990099</v>
+      </c>
+      <c r="C33">
+        <v>7.5308463754171998E-3</v>
+      </c>
+      <c r="D33">
+        <v>240</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -2890,15 +6355,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2914,8 +6379,26 @@
       <c r="E1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1E-8</v>
       </c>
@@ -2931,130 +6414,708 @@
       <c r="E2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="J2" s="5">
+        <f>AVERAGE(A2:A5)</f>
+        <v>1E-8</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
+        <v>7.232316485606129E-3</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" si="0"/>
+        <v>7.1134800648693167E-3</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="0"/>
+        <v>196.25</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B3">
+        <v>7.2220437948902396E-3</v>
+      </c>
+      <c r="C3">
+        <v>7.1412491602228598E-3</v>
+      </c>
+      <c r="D3">
+        <v>241</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <f>AVERAGE(A6:A9)</f>
         <v>9.9999999999999995E-8</v>
       </c>
-      <c r="B3">
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
+        <v>7.2317819834376304E-3</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" si="1"/>
+        <v>7.1128283322669829E-3</v>
+      </c>
+      <c r="M3" s="4">
+        <f t="shared" si="1"/>
+        <v>198.75</v>
+      </c>
+      <c r="N3" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B4">
+        <v>7.2453399288157604E-3</v>
+      </c>
+      <c r="C4">
+        <v>6.9497153509725197E-3</v>
+      </c>
+      <c r="D4">
+        <v>242</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <f>AVERAGE(A10:A13)</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
+        <v>7.234322194941337E-3</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="2"/>
+        <v>7.1109686507546174E-3</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="2"/>
+        <v>201.25</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B5">
+        <v>7.2773970738053296E-3</v>
+      </c>
+      <c r="C5">
+        <v>7.14213594279073E-3</v>
+      </c>
+      <c r="D5">
+        <v>243</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <f>AVERAGE(A14:A17)</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
+        <v>7.2660110176851304E-3</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="3"/>
+        <v>7.1229074222154583E-3</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="3"/>
+        <v>203.75</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B6">
         <v>7.1793285161256704E-3</v>
       </c>
-      <c r="C3">
+      <c r="C6">
         <v>7.2134269867092302E-3</v>
       </c>
-      <c r="D3">
+      <c r="D6">
         <v>60</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <f>AVERAGE(A18:A21)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
+        <v>7.4355554208159393E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>7.1185701588624452E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>206.25</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B7">
+        <v>7.2216922057171604E-3</v>
+      </c>
+      <c r="C7">
+        <v>7.1385588417661903E-3</v>
+      </c>
+      <c r="D7">
+        <v>244</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <f>AVERAGE(A22:A25)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
+        <v>9.249177768826479E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>7.1059276555426997E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>208.75</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B8">
+        <v>7.2662687897682102E-3</v>
+      </c>
+      <c r="C8">
+        <v>6.9645014244746001E-3</v>
+      </c>
+      <c r="D8">
+        <v>245</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <f>AVERAGE(A26:A29)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
+        <v>2.7430359680205522E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="6"/>
+        <v>7.0976135915422614E-3</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="6"/>
+        <v>211.25</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B9">
+        <v>7.2598384221394799E-3</v>
+      </c>
+      <c r="C9">
+        <v>7.1348260761179101E-3</v>
+      </c>
+      <c r="D9">
+        <v>246</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <f>AVERAGE(A30:A33)</f>
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
+        <v>0.20888211407264026</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>7.44190525531055E-3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>213.75</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>9.9999999999999995E-7</v>
       </c>
-      <c r="B4">
+      <c r="B10">
         <v>7.19988025476535E-3</v>
       </c>
-      <c r="C4">
+      <c r="C10">
         <v>7.2286857955871104E-3</v>
       </c>
-      <c r="D4">
+      <c r="D10">
         <v>61</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f>MIN(L2:L9)</f>
+        <v>7.0976135915422614E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B11">
+        <v>7.2268102914094896E-3</v>
+      </c>
+      <c r="C11">
+        <v>7.1394532334376499E-3</v>
+      </c>
+      <c r="D11">
+        <v>247</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B12">
+        <v>7.2544404479364501E-3</v>
+      </c>
+      <c r="C12">
+        <v>6.9526084351967596E-3</v>
+      </c>
+      <c r="D12">
+        <v>248</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B13">
+        <v>7.2561577856540601E-3</v>
+      </c>
+      <c r="C13">
+        <v>7.1231271387969504E-3</v>
+      </c>
+      <c r="D13">
+        <v>249</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B5">
+      <c r="B14">
         <v>7.2313264918824E-3</v>
       </c>
-      <c r="C5">
+      <c r="C14">
         <v>7.2426108910920101E-3</v>
       </c>
-      <c r="D5">
+      <c r="D14">
         <v>62</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B15">
+        <v>7.2548679510752298E-3</v>
+      </c>
+      <c r="C15">
+        <v>7.1484007862733399E-3</v>
+      </c>
+      <c r="D15">
+        <v>250</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B16">
+        <v>7.28356246898571E-3</v>
+      </c>
+      <c r="C16">
+        <v>6.9661614326562002E-3</v>
+      </c>
+      <c r="D16">
+        <v>251</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B17">
+        <v>7.2942871587971803E-3</v>
+      </c>
+      <c r="C17">
+        <v>7.1344565788402804E-3</v>
+      </c>
+      <c r="D17">
+        <v>252</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
         <v>1E-4</v>
       </c>
-      <c r="B6">
+      <c r="B18">
         <v>7.4015446367363099E-3</v>
       </c>
-      <c r="C6">
+      <c r="C18">
         <v>7.23835756566296E-3</v>
       </c>
-      <c r="D6">
+      <c r="D18">
         <v>63</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1E-4</v>
+      </c>
+      <c r="B19">
+        <v>7.4307192799945602E-3</v>
+      </c>
+      <c r="C19">
+        <v>7.1465936241710999E-3</v>
+      </c>
+      <c r="D19">
+        <v>253</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1E-4</v>
+      </c>
+      <c r="B20">
+        <v>7.4585479150215701E-3</v>
+      </c>
+      <c r="C20">
+        <v>6.96120531536004E-3</v>
+      </c>
+      <c r="D20">
+        <v>254</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1E-4</v>
+      </c>
+      <c r="B21">
+        <v>7.4514098515113198E-3</v>
+      </c>
+      <c r="C21">
+        <v>7.1281241302556799E-3</v>
+      </c>
+      <c r="D21">
+        <v>255</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
         <v>1E-3</v>
       </c>
-      <c r="B7">
+      <c r="B22">
         <v>9.2058008797466697E-3</v>
       </c>
-      <c r="C7">
+      <c r="C22">
         <v>7.2144774046350004E-3</v>
       </c>
-      <c r="D7">
+      <c r="D22">
         <v>64</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1E-3</v>
+      </c>
+      <c r="B23">
+        <v>9.2400887434681191E-3</v>
+      </c>
+      <c r="C23">
+        <v>7.1300298490739799E-3</v>
+      </c>
+      <c r="D23">
+        <v>256</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1E-3</v>
+      </c>
+      <c r="B24">
+        <v>9.2718729885915892E-3</v>
+      </c>
+      <c r="C24">
+        <v>6.9525566031324098E-3</v>
+      </c>
+      <c r="D24">
+        <v>257</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1E-3</v>
+      </c>
+      <c r="B25">
+        <v>9.2789484634995395E-3</v>
+      </c>
+      <c r="C25">
+        <v>7.1266467653294096E-3</v>
+      </c>
+      <c r="D25">
+        <v>258</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
         <v>0.01</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B26" s="2">
         <v>2.7374409963687198E-2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C26" s="2">
         <v>7.20848670685069E-3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D26" s="2">
         <v>65</v>
       </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
+      <c r="F26" s="2">
+        <v>22.512</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2.74387935996055E-2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>7.1239583144717296E-3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>259</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>23.629000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2.7446739623943901E-2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6.9502423012113897E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>260</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+      <c r="F28" s="2">
+        <v>34.095999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2.7461495533585501E-2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>7.1077670436352396E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>261</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>21.236000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>0.1</v>
       </c>
-      <c r="B9">
+      <c r="B30">
         <v>0.20882664807637499</v>
       </c>
-      <c r="C9">
+      <c r="C30">
         <v>7.5826760817398397E-3</v>
       </c>
-      <c r="D9">
+      <c r="D30">
         <v>66</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10">
-        <f>MIN(C2:C9)</f>
-        <v>7.20848670685069E-3</v>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.1</v>
+      </c>
+      <c r="B31">
+        <v>0.20892260074615401</v>
+      </c>
+      <c r="C31">
+        <v>7.47770295438772E-3</v>
+      </c>
+      <c r="D31">
+        <v>262</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.1</v>
+      </c>
+      <c r="B32">
+        <v>0.20887637428442599</v>
+      </c>
+      <c r="C32">
+        <v>7.3018881759824199E-3</v>
+      </c>
+      <c r="D32">
+        <v>263</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33">
+        <v>0.208902833183606</v>
+      </c>
+      <c r="C33">
+        <v>7.4053538091322204E-3</v>
+      </c>
+      <c r="D33">
+        <v>264</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/eg1.xlsx
+++ b/eg1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EB51FF-48C0-4A4D-A17B-5A0B7B7C7E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404A5649-1DCE-4046-A1C3-C006815BC2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26100" yWindow="4860" windowWidth="34560" windowHeight="19800" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="51200" yWindow="4860" windowWidth="34560" windowHeight="19800" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7B8AE4-A984-5E47-83F5-2F9341F82724}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6357,7 +6357,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>

--- a/eg1.xlsx
+++ b/eg1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{404A5649-1DCE-4046-A1C3-C006815BC2EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DF76DA-7CE5-BD40-9754-FA08CB6068FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="4860" windowWidth="34560" windowHeight="19800" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7B8AE4-A984-5E47-83F5-2F9341F82724}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
@@ -2504,10 +2504,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F26A9CE-0C1E-AF48-A07D-15710713DB1F}">
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3267,6 +3267,54 @@
       <c r="E33">
         <v>0.25</v>
       </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4045,10 +4093,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9902717B-D473-4C4C-BD56-0A1D1459D334}">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4807,6 +4855,54 @@
       <c r="E33">
         <v>1</v>
       </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/eg1.xlsx
+++ b/eg1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DF76DA-7CE5-BD40-9754-FA08CB6068FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92ABF6E-829B-8A4C-9603-9A3130AB4AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="11" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,9 @@
     <sheet name="LRN 0.25" sheetId="7" r:id="rId7"/>
     <sheet name="LRN 0.5" sheetId="8" r:id="rId8"/>
     <sheet name="LRN 1.0" sheetId="9" r:id="rId9"/>
+    <sheet name="FCN 0.25 (2)" sheetId="10" r:id="rId10"/>
+    <sheet name="FCN 0.5 (2)" sheetId="11" r:id="rId11"/>
+    <sheet name="FCN 1.0 (2)" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="9">
   <si>
     <t>Gamma</t>
   </si>
@@ -1140,6 +1143,2397 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8729ECE9-36F1-A546-907B-2B1B5925D4CA}">
+  <dimension ref="A1:O49"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>7.1989122946607897E-3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7.2904249227189596E-3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>265</v>
+      </c>
+      <c r="E2" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="J2" s="5">
+        <f>AVERAGE(A2:A5)</f>
+        <v>1E-8</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
+        <v>7.1974578982298299E-3</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" si="0"/>
+        <v>7.10379757219925E-3</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="0"/>
+        <v>266.5</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>7.2179895657253296E-3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7.1128603625804799E-3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>266</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="J3" s="1">
+        <f>AVERAGE(A6:A9)</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
+        <v>7.1883008981301873E-3</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>7.113731296564587E-3</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>270.5</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>7.2991123541872498E-3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6.93456474394398E-3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>267</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="J4" s="1">
+        <f>AVERAGE(A10:A13)</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
+        <v>7.1805637141570695E-3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>7.1090365762505256E-3</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>274.5</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7.0738173783459497E-3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>7.0773402595535797E-3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>268</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="J5" s="3">
+        <f>AVERAGE(A14:A17)</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
+        <v>7.1737886545188831E-3</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="3"/>
+        <v>7.0993961119885573E-3</v>
+      </c>
+      <c r="M5" s="2">
+        <f t="shared" si="3"/>
+        <v>278.5</v>
+      </c>
+      <c r="N5" s="2">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B6" s="4">
+        <v>7.16795734664861E-3</v>
+      </c>
+      <c r="C6" s="4">
+        <v>7.2915660009342902E-3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>269</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="1">
+        <f>AVERAGE(A18:A21)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
+        <v>7.1955663709346402E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>7.1169933207590628E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>282.5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B7" s="4">
+        <v>7.1995364145395601E-3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>7.0925174885369899E-3</v>
+      </c>
+      <c r="D7" s="4">
+        <v>270</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="J7" s="1">
+        <f>AVERAGE(A22:A25)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
+        <v>7.2485318635293096E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>7.1138513950690426E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>286.5</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B8" s="4">
+        <v>7.2958137879663302E-3</v>
+      </c>
+      <c r="C8" s="4">
+        <v>6.9604135177871E-3</v>
+      </c>
+      <c r="D8" s="4">
+        <v>271</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="J8" s="1">
+        <f>AVERAGE(A26:A29)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
+        <v>7.9194332220333969E-3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>7.905098141488081E-3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>290.5</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>7.0898960433662499E-3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7.1104281789999696E-3</v>
+      </c>
+      <c r="D9" s="4">
+        <v>272</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="J9" s="1">
+        <f>AVERAGE(A30:A33)</f>
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
+        <v>3.925687057153131</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>3.83727180231064</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>294.5</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B10">
+        <v>7.12476952615729E-3</v>
+      </c>
+      <c r="C10">
+        <v>7.2806082378597302E-3</v>
+      </c>
+      <c r="D10">
+        <v>273</v>
+      </c>
+      <c r="E10">
+        <v>0.25</v>
+      </c>
+      <c r="L10">
+        <f>MIN(L2:L9)</f>
+        <v>7.0993961119885573E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B11">
+        <v>7.2306363169658602E-3</v>
+      </c>
+      <c r="C11">
+        <v>7.1137823025755401E-3</v>
+      </c>
+      <c r="D11">
+        <v>274</v>
+      </c>
+      <c r="E11">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B12">
+        <v>7.3170805835422598E-3</v>
+      </c>
+      <c r="C12">
+        <v>6.9430761405841401E-3</v>
+      </c>
+      <c r="D12">
+        <v>275</v>
+      </c>
+      <c r="E12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B13">
+        <v>7.0497684299628697E-3</v>
+      </c>
+      <c r="C13">
+        <v>7.0986796239826903E-3</v>
+      </c>
+      <c r="D13">
+        <v>276</v>
+      </c>
+      <c r="E13">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B14" s="2">
+        <v>7.1288988122993899E-3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>7.2692053521329399E-3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>277</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>7.2053399115325203E-3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>7.1049123120672502E-3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>278</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7.28991949197618E-3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>6.9237370836607902E-3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>279</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>7.0709964022674402E-3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>7.0997297000932498E-3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>280</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1E-4</v>
+      </c>
+      <c r="B18">
+        <v>7.1552841616992604E-3</v>
+      </c>
+      <c r="C18">
+        <v>7.3137714507731898E-3</v>
+      </c>
+      <c r="D18">
+        <v>281</v>
+      </c>
+      <c r="E18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1E-4</v>
+      </c>
+      <c r="B19">
+        <v>7.2394864227464202E-3</v>
+      </c>
+      <c r="C19">
+        <v>7.1517826414647196E-3</v>
+      </c>
+      <c r="D19">
+        <v>282</v>
+      </c>
+      <c r="E19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1E-4</v>
+      </c>
+      <c r="B20">
+        <v>7.3269681479940299E-3</v>
+      </c>
+      <c r="C20">
+        <v>6.9414001711188399E-3</v>
+      </c>
+      <c r="D20">
+        <v>283</v>
+      </c>
+      <c r="E20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1E-4</v>
+      </c>
+      <c r="B21">
+        <v>7.0605267512988497E-3</v>
+      </c>
+      <c r="C21">
+        <v>7.0610190196795002E-3</v>
+      </c>
+      <c r="D21">
+        <v>284</v>
+      </c>
+      <c r="E21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1E-3</v>
+      </c>
+      <c r="B22">
+        <v>7.2092539878522398E-3</v>
+      </c>
+      <c r="C22">
+        <v>7.2704346384853099E-3</v>
+      </c>
+      <c r="D22">
+        <v>285</v>
+      </c>
+      <c r="E22">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1E-3</v>
+      </c>
+      <c r="B23">
+        <v>7.2658582630151097E-3</v>
+      </c>
+      <c r="C23">
+        <v>7.1723862263829699E-3</v>
+      </c>
+      <c r="D23">
+        <v>286</v>
+      </c>
+      <c r="E23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1E-3</v>
+      </c>
+      <c r="B24">
+        <v>7.3967697544697099E-3</v>
+      </c>
+      <c r="C24">
+        <v>6.9394211156016301E-3</v>
+      </c>
+      <c r="D24">
+        <v>287</v>
+      </c>
+      <c r="E24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1E-3</v>
+      </c>
+      <c r="B25">
+        <v>7.1222454487801798E-3</v>
+      </c>
+      <c r="C25">
+        <v>7.0731635998062597E-3</v>
+      </c>
+      <c r="D25">
+        <v>288</v>
+      </c>
+      <c r="E25">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.01</v>
+      </c>
+      <c r="B26">
+        <v>7.8586224377393092E-3</v>
+      </c>
+      <c r="C26">
+        <v>8.1180660797164107E-3</v>
+      </c>
+      <c r="D26">
+        <v>289</v>
+      </c>
+      <c r="E26">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.01</v>
+      </c>
+      <c r="B27">
+        <v>7.9405106891422203E-3</v>
+      </c>
+      <c r="C27">
+        <v>8.4722471383816295E-3</v>
+      </c>
+      <c r="D27">
+        <v>290</v>
+      </c>
+      <c r="E27">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.01</v>
+      </c>
+      <c r="B28">
+        <v>8.0952927658453199E-3</v>
+      </c>
+      <c r="C28">
+        <v>7.3866078659812796E-3</v>
+      </c>
+      <c r="D28">
+        <v>291</v>
+      </c>
+      <c r="E28">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.01</v>
+      </c>
+      <c r="B29">
+        <v>7.7833069954067399E-3</v>
+      </c>
+      <c r="C29">
+        <v>7.6434714818729996E-3</v>
+      </c>
+      <c r="D29">
+        <v>292</v>
+      </c>
+      <c r="E29">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.1</v>
+      </c>
+      <c r="B30">
+        <v>2.34046545810997E-2</v>
+      </c>
+      <c r="C30">
+        <v>2.3993119587527301E-2</v>
+      </c>
+      <c r="D30">
+        <v>293</v>
+      </c>
+      <c r="E30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.1</v>
+      </c>
+      <c r="B31">
+        <v>2.2663181395012302E-2</v>
+      </c>
+      <c r="C31">
+        <v>2.8903957961642301E-2</v>
+      </c>
+      <c r="D31">
+        <v>294</v>
+      </c>
+      <c r="E31">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.1</v>
+      </c>
+      <c r="B32">
+        <v>15.6273815581139</v>
+      </c>
+      <c r="C32">
+        <v>15.273192273809499</v>
+      </c>
+      <c r="D32">
+        <v>295</v>
+      </c>
+      <c r="E32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33">
+        <v>2.92988345225123E-2</v>
+      </c>
+      <c r="C33">
+        <v>2.29978578838896E-2</v>
+      </c>
+      <c r="D33">
+        <v>296</v>
+      </c>
+      <c r="E33">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F88BB6-E34A-BD4D-935E-CE485B912178}">
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B2">
+        <v>7.0893108161126598E-3</v>
+      </c>
+      <c r="C2">
+        <v>7.1941204567221801E-3</v>
+      </c>
+      <c r="D2">
+        <v>297</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="5">
+        <f>AVERAGE(A2:A5)</f>
+        <v>1E-8</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
+        <v>7.1204835381804667E-3</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0137857469393149E-3</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="0"/>
+        <v>298.5</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B3">
+        <v>7.0824441277085098E-3</v>
+      </c>
+      <c r="C3">
+        <v>7.03596670497605E-3</v>
+      </c>
+      <c r="D3">
+        <v>298</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="3">
+        <f>AVERAGE(A6:A9)</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
+        <v>7.1254508641667305E-3</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="1"/>
+        <v>7.0113762309081179E-3</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" si="1"/>
+        <v>302.5</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B4">
+        <v>7.1773362058670598E-3</v>
+      </c>
+      <c r="C4">
+        <v>6.8472632296145497E-3</v>
+      </c>
+      <c r="D4">
+        <v>299</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="5">
+        <f>AVERAGE(A10:A13)</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
+        <v>7.1225328813059249E-3</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="2"/>
+        <v>7.0130635310519203E-3</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="2"/>
+        <v>306.5</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B5">
+        <v>7.13284300303364E-3</v>
+      </c>
+      <c r="C5">
+        <v>6.9777925964444798E-3</v>
+      </c>
+      <c r="D5">
+        <v>300</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="5">
+        <f>AVERAGE(A14:A17)</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
+        <v>7.1286932971486982E-3</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="3"/>
+        <v>7.0223538415565894E-3</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="3"/>
+        <v>310.5</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7.1272802554031298E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7.1702373432035102E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>301</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="1">
+        <f>AVERAGE(A18:A21)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
+        <v>7.1555865356361719E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>7.0302800530508275E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>314.5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7.0983520609901301E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.0487343894436597E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>302</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="1">
+        <f>AVERAGE(A22:A25)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
+        <v>7.2091065075971707E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>7.0586959370709124E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>318.5</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7.1996537141224403E-3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6.8491211686124804E-3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>303</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="1">
+        <f>AVERAGE(A26:A29)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
+        <v>7.9175757034929371E-3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>7.7885901852649524E-3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>322.5</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7.0765174261512203E-3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.9774120223728203E-3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>304</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="1">
+        <f>AVERAGE(A30:A33)</f>
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
+        <v>2.3750871170356697E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>2.23783726204543E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>326.5</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>7.1344114171261802E-3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7.1799423634768102E-3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>305</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="L10">
+        <f>MIN(L2:L9)</f>
+        <v>7.0113762309081179E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7.0857456910047396E-3</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7.0406870341839902E-3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>306</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B12" s="4">
+        <v>7.1818336046875399E-3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6.8510383605322901E-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>307</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B13" s="4">
+        <v>7.08814081240524E-3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>6.9805863660145897E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>308</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B14" s="4">
+        <v>7.1500589986866698E-3</v>
+      </c>
+      <c r="C14" s="4">
+        <v>7.2085325447644299E-3</v>
+      </c>
+      <c r="D14" s="4">
+        <v>309</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B15" s="4">
+        <v>7.0920421523933703E-3</v>
+      </c>
+      <c r="C15" s="4">
+        <v>7.0421751043660196E-3</v>
+      </c>
+      <c r="D15" s="4">
+        <v>310</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B16" s="4">
+        <v>7.1849109817969901E-3</v>
+      </c>
+      <c r="C16" s="4">
+        <v>6.8549499747918002E-3</v>
+      </c>
+      <c r="D16" s="4">
+        <v>311</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="5">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B17" s="4">
+        <v>7.08776105571776E-3</v>
+      </c>
+      <c r="C17" s="4">
+        <v>6.9837577423041098E-3</v>
+      </c>
+      <c r="D17" s="4">
+        <v>312</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1E-4</v>
+      </c>
+      <c r="B18">
+        <v>7.1836881428719197E-3</v>
+      </c>
+      <c r="C18">
+        <v>7.20920832827687E-3</v>
+      </c>
+      <c r="D18">
+        <v>313</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1E-4</v>
+      </c>
+      <c r="B19">
+        <v>7.1085466894301296E-3</v>
+      </c>
+      <c r="C19">
+        <v>7.0525275127209198E-3</v>
+      </c>
+      <c r="D19">
+        <v>314</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1E-4</v>
+      </c>
+      <c r="B20">
+        <v>7.2278519027291696E-3</v>
+      </c>
+      <c r="C20">
+        <v>6.8815422214646904E-3</v>
+      </c>
+      <c r="D20">
+        <v>315</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1E-4</v>
+      </c>
+      <c r="B21">
+        <v>7.1022594075134697E-3</v>
+      </c>
+      <c r="C21">
+        <v>6.9778421497408297E-3</v>
+      </c>
+      <c r="D21">
+        <v>316</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1E-3</v>
+      </c>
+      <c r="B22">
+        <v>7.2234197633658003E-3</v>
+      </c>
+      <c r="C22">
+        <v>7.2249723499284097E-3</v>
+      </c>
+      <c r="D22">
+        <v>317</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1E-3</v>
+      </c>
+      <c r="B23">
+        <v>7.1606398931644997E-3</v>
+      </c>
+      <c r="C23">
+        <v>7.0867198717562401E-3</v>
+      </c>
+      <c r="D23">
+        <v>318</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1E-3</v>
+      </c>
+      <c r="B24">
+        <v>7.2879336472164704E-3</v>
+      </c>
+      <c r="C24">
+        <v>6.90001008556561E-3</v>
+      </c>
+      <c r="D24">
+        <v>319</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1E-3</v>
+      </c>
+      <c r="B25">
+        <v>7.1644327266419099E-3</v>
+      </c>
+      <c r="C25">
+        <v>7.02308144103339E-3</v>
+      </c>
+      <c r="D25">
+        <v>320</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.01</v>
+      </c>
+      <c r="B26">
+        <v>7.71842699032276E-3</v>
+      </c>
+      <c r="C26">
+        <v>8.2904306349364295E-3</v>
+      </c>
+      <c r="D26">
+        <v>321</v>
+      </c>
+      <c r="E26">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.01</v>
+      </c>
+      <c r="B27">
+        <v>7.8205262048249204E-3</v>
+      </c>
+      <c r="C27">
+        <v>7.9776763004508408E-3</v>
+      </c>
+      <c r="D27">
+        <v>322</v>
+      </c>
+      <c r="E27">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.01</v>
+      </c>
+      <c r="B28">
+        <v>7.8445805553743093E-3</v>
+      </c>
+      <c r="C28">
+        <v>7.3244377643741799E-3</v>
+      </c>
+      <c r="D28">
+        <v>323</v>
+      </c>
+      <c r="E28">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.01</v>
+      </c>
+      <c r="B29">
+        <v>8.2867690634497605E-3</v>
+      </c>
+      <c r="C29">
+        <v>7.5618160412983604E-3</v>
+      </c>
+      <c r="D29">
+        <v>324</v>
+      </c>
+      <c r="E29">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.1</v>
+      </c>
+      <c r="B30">
+        <v>2.6294291128424199E-2</v>
+      </c>
+      <c r="C30">
+        <v>2.2031515410685099E-2</v>
+      </c>
+      <c r="D30">
+        <v>325</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.1</v>
+      </c>
+      <c r="B31">
+        <v>2.28985063979362E-2</v>
+      </c>
+      <c r="C31">
+        <v>2.54209629269911E-2</v>
+      </c>
+      <c r="D31">
+        <v>326</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.1</v>
+      </c>
+      <c r="B32">
+        <v>2.3363037317238201E-2</v>
+      </c>
+      <c r="C32">
+        <v>2.0181732658455302E-2</v>
+      </c>
+      <c r="D32">
+        <v>327</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33">
+        <v>2.2447649837828199E-2</v>
+      </c>
+      <c r="C33">
+        <v>2.1879279485685701E-2</v>
+      </c>
+      <c r="D33">
+        <v>328</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94C4891-9F38-8843-A239-8A9A2DCC2679}">
+  <dimension ref="A1:N50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B2" s="4">
+        <v>7.1492775231599796E-3</v>
+      </c>
+      <c r="C2" s="4">
+        <v>7.1142957783601303E-3</v>
+      </c>
+      <c r="D2" s="4">
+        <v>329</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <f>AVERAGE(A2:A5)</f>
+        <v>1E-8</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
+        <v>7.1578272680441497E-3</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" si="0"/>
+        <v>7.0063038382362107E-3</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="0"/>
+        <v>330.5</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B3" s="4">
+        <v>7.1422744629283698E-3</v>
+      </c>
+      <c r="C3" s="4">
+        <v>7.0491974697785096E-3</v>
+      </c>
+      <c r="D3" s="4">
+        <v>330</v>
+      </c>
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <f>AVERAGE(A6:A9)</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="K3" s="2">
+        <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
+        <v>7.1670858658229248E-3</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" si="1"/>
+        <v>7.0027853436569849E-3</v>
+      </c>
+      <c r="M3" s="2">
+        <f t="shared" si="1"/>
+        <v>334.5</v>
+      </c>
+      <c r="N3" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>7.1819297199447896E-3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6.8709602321874504E-3</v>
+      </c>
+      <c r="D4" s="4">
+        <v>331</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <f>AVERAGE(A10:A13)</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
+        <v>7.1437900979071803E-3</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="2"/>
+        <v>7.0066248931168976E-3</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="2"/>
+        <v>338.5</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>1E-8</v>
+      </c>
+      <c r="B5" s="4">
+        <v>7.1578273661434596E-3</v>
+      </c>
+      <c r="C5" s="4">
+        <v>6.9907618726187497E-3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>332</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <f>AVERAGE(A14:A17)</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
+        <v>7.1472050733864256E-3</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="3"/>
+        <v>7.0042236636273861E-3</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="3"/>
+        <v>342.5</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B6" s="2">
+        <v>7.1457966181139101E-3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7.1025681434238796E-3</v>
+      </c>
+      <c r="D6" s="2">
+        <v>333</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="F6" s="2">
+        <v>19.725999999999999</v>
+      </c>
+      <c r="J6" s="1">
+        <f>AVERAGE(A18:A21)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
+        <v>7.1837552705158727E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>7.0205884874164192E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>346.5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>7.1766246259212397E-3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>7.0458298866102002E-3</v>
+      </c>
+      <c r="D7" s="2">
+        <v>334</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2">
+        <v>13.9</v>
+      </c>
+      <c r="J7" s="1">
+        <f>AVERAGE(A22:A25)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
+        <v>7.2188680156444474E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>7.0501803160407245E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>350.5</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7.1801999633510898E-3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>6.8630114980438202E-3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>335</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2">
+        <v>16.242999999999999</v>
+      </c>
+      <c r="J8" s="1">
+        <f>AVERAGE(A26:A29)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
+        <v>7.9658363790561706E-3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>7.5630141741675379E-3</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>354.5</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7.1657222559054603E-3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>6.9997318465500396E-3</v>
+      </c>
+      <c r="D9" s="2">
+        <v>336</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>11.092000000000001</v>
+      </c>
+      <c r="J9" s="1">
+        <f>AVERAGE(A30:A33)</f>
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
+        <v>2.3322123034546727E-2</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>2.1592310951784852E-2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>358.5</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B10" s="4">
+        <v>7.0923959600428703E-3</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7.1030945586476497E-3</v>
+      </c>
+      <c r="D10" s="4">
+        <v>337</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <f>MIN(L2:L9)</f>
+        <v>7.0027853436569849E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B11" s="4">
+        <v>7.1427338607609201E-3</v>
+      </c>
+      <c r="C11" s="4">
+        <v>7.0525701504517702E-3</v>
+      </c>
+      <c r="D11" s="4">
+        <v>338</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B12" s="4">
+        <v>7.1740529946982797E-3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>6.8657390000496704E-3</v>
+      </c>
+      <c r="D12" s="4">
+        <v>339</v>
+      </c>
+      <c r="E12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B13" s="4">
+        <v>7.1659775761266503E-3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>7.0050958633185003E-3</v>
+      </c>
+      <c r="D13" s="4">
+        <v>340</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B14">
+        <v>7.0946736882130301E-3</v>
+      </c>
+      <c r="C14">
+        <v>7.1106207596653304E-3</v>
+      </c>
+      <c r="D14">
+        <v>341</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B15">
+        <v>7.14290727178255E-3</v>
+      </c>
+      <c r="C15">
+        <v>7.0473366080129399E-3</v>
+      </c>
+      <c r="D15">
+        <v>342</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B16">
+        <v>7.18678537756204E-3</v>
+      </c>
+      <c r="C16">
+        <v>6.8662411265788502E-3</v>
+      </c>
+      <c r="D16">
+        <v>343</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B17">
+        <v>7.1644539559880798E-3</v>
+      </c>
+      <c r="C17">
+        <v>6.9926961602524203E-3</v>
+      </c>
+      <c r="D17">
+        <v>344</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1E-4</v>
+      </c>
+      <c r="B18">
+        <v>7.1721041773756301E-3</v>
+      </c>
+      <c r="C18">
+        <v>7.1268293342771002E-3</v>
+      </c>
+      <c r="D18">
+        <v>345</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1E-4</v>
+      </c>
+      <c r="B19">
+        <v>7.1756300404667798E-3</v>
+      </c>
+      <c r="C19">
+        <v>7.0786446659885103E-3</v>
+      </c>
+      <c r="D19">
+        <v>346</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1E-4</v>
+      </c>
+      <c r="B20">
+        <v>7.2050988624493204E-3</v>
+      </c>
+      <c r="C20">
+        <v>6.8767558723846602E-3</v>
+      </c>
+      <c r="D20">
+        <v>347</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1E-4</v>
+      </c>
+      <c r="B21">
+        <v>7.1821880017717598E-3</v>
+      </c>
+      <c r="C21">
+        <v>7.0001240770154096E-3</v>
+      </c>
+      <c r="D21">
+        <v>348</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1E-3</v>
+      </c>
+      <c r="B22">
+        <v>7.2225125158826503E-3</v>
+      </c>
+      <c r="C22">
+        <v>7.1837438042572799E-3</v>
+      </c>
+      <c r="D22">
+        <v>349</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1E-3</v>
+      </c>
+      <c r="B23">
+        <v>7.1981114484369699E-3</v>
+      </c>
+      <c r="C23">
+        <v>7.0878413723821296E-3</v>
+      </c>
+      <c r="D23">
+        <v>350</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1E-3</v>
+      </c>
+      <c r="B24">
+        <v>7.2460788798828901E-3</v>
+      </c>
+      <c r="C24">
+        <v>6.8982612004781004E-3</v>
+      </c>
+      <c r="D24">
+        <v>351</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1E-3</v>
+      </c>
+      <c r="B25">
+        <v>7.20876921837528E-3</v>
+      </c>
+      <c r="C25">
+        <v>7.0308748870453897E-3</v>
+      </c>
+      <c r="D25">
+        <v>352</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>0.01</v>
+      </c>
+      <c r="B26">
+        <v>8.23018150031566E-3</v>
+      </c>
+      <c r="C26">
+        <v>7.6454377911509301E-3</v>
+      </c>
+      <c r="D26">
+        <v>353</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>0.01</v>
+      </c>
+      <c r="B27">
+        <v>7.9917677727838303E-3</v>
+      </c>
+      <c r="C27">
+        <v>7.6930694618916199E-3</v>
+      </c>
+      <c r="D27">
+        <v>354</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>0.01</v>
+      </c>
+      <c r="B28">
+        <v>7.8126000165939305E-3</v>
+      </c>
+      <c r="C28">
+        <v>7.2589273405994498E-3</v>
+      </c>
+      <c r="D28">
+        <v>355</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>0.01</v>
+      </c>
+      <c r="B29">
+        <v>7.8287962265312597E-3</v>
+      </c>
+      <c r="C29">
+        <v>7.6546221030281501E-3</v>
+      </c>
+      <c r="D29">
+        <v>356</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.1</v>
+      </c>
+      <c r="B30">
+        <v>2.2832791149616199E-2</v>
+      </c>
+      <c r="C30">
+        <v>2.10169298931005E-2</v>
+      </c>
+      <c r="D30">
+        <v>357</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.1</v>
+      </c>
+      <c r="B31">
+        <v>2.3678036914517399E-2</v>
+      </c>
+      <c r="C31">
+        <v>2.3182266490890599E-2</v>
+      </c>
+      <c r="D31">
+        <v>358</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.1</v>
+      </c>
+      <c r="B32">
+        <v>2.3865701350073001E-2</v>
+      </c>
+      <c r="C32">
+        <v>2.0248405759202899E-2</v>
+      </c>
+      <c r="D32">
+        <v>359</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33">
+        <v>2.29119627239803E-2</v>
+      </c>
+      <c r="C33">
+        <v>2.1921641663945401E-2</v>
+      </c>
+      <c r="D33">
+        <v>360</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4411848-26EC-7848-88E5-EF7373A463AB}">
   <dimension ref="A1:O25"/>
@@ -2506,8 +4900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F26A9CE-0C1E-AF48-A07D-15710713DB1F}">
   <dimension ref="A1:O49"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4095,7 +6489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9902717B-D473-4C4C-BD56-0A1D1459D334}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>

--- a/eg1.xlsx
+++ b/eg1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A60FEC5-7653-E54A-ADC9-E3C032EDEDED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F106CEB6-32AC-8749-874B-F05EAE1FA8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,13 +511,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>1.0013176202773999</v>
+        <v>1.0050479173660201</v>
       </c>
       <c r="C2">
-        <v>7.4799623844471297</v>
+        <v>4.7457120237471102</v>
       </c>
       <c r="D2">
-        <v>7.5809026677557698</v>
+        <v>4.7347926731351002</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -531,15 +531,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
-        <v>1.0013176202773999</v>
+        <v>1.0050479173660201</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>7.5172618386593202</v>
+        <v>4.8144089096709077</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>7.4921691126011725</v>
+        <v>4.7435352440121772</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
@@ -555,13 +555,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1.0013176202773999</v>
+        <v>1.0050479173660201</v>
       </c>
       <c r="C3">
-        <v>7.4801335791324002</v>
+        <v>4.7790034360523403</v>
       </c>
       <c r="D3">
-        <v>7.4582282482309497</v>
+        <v>4.8193926962116098</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -575,15 +575,15 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.0026352405547998</v>
+        <v>2.0100958347320499</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>1.5204974011755799E-3</v>
+        <v>1.6229400248045675E-3</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>1.559780583038245E-3</v>
+        <v>1.7004656217494175E-3</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
@@ -599,13 +599,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>1.0013176202773999</v>
+        <v>1.0050479173660201</v>
       </c>
       <c r="C4">
-        <v>7.5322454330768904</v>
+        <v>4.9019055758850403</v>
       </c>
       <c r="D4">
-        <v>7.4663970368973702</v>
+        <v>4.6951888512961402</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -619,15 +619,15 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
-        <v>4.0052704811096103</v>
+        <v>4.0201916694641104</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>6.1564773731082251E-4</v>
+        <v>6.19068410235775E-4</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>6.3001448050156175E-4</v>
+        <v>6.3586766835997601E-4</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
@@ -643,13 +643,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>1.0013176202773999</v>
+        <v>1.0050479173660201</v>
       </c>
       <c r="C5">
-        <v>7.5767059579808604</v>
+        <v>4.8310146029991401</v>
       </c>
       <c r="D5">
-        <v>7.4631484975206002</v>
+        <v>4.7247667554058603</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -663,15 +663,15 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
-        <v>8.0105409622192294</v>
+        <v>8.0403833389282209</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="3"/>
-        <v>5.9200699352584922E-4</v>
+        <v>5.7824251996839524E-4</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>6.1368497839058749E-4</v>
+        <v>6.0093953993312858E-4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="3"/>
@@ -687,13 +687,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2.0026352405547998</v>
+        <v>2.0100958347320499</v>
       </c>
       <c r="C6">
-        <v>1.3135032606945199E-3</v>
+        <v>1.76607635862465E-3</v>
       </c>
       <c r="D6">
-        <v>1.3624691699155899E-3</v>
+        <v>1.7090235185467501E-3</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -707,15 +707,15 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
-        <v>16.021081924438398</v>
+        <v>16.080766677856399</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>6.0607300358551941E-4</v>
+        <v>6.0012534498738075E-4</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>6.3055131226490667E-4</v>
+        <v>6.255353762270122E-4</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -731,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2.0026352405547998</v>
+        <v>2.0100958347320499</v>
       </c>
       <c r="C7">
-        <v>1.7171296776529899E-3</v>
+        <v>1.75312340636796E-3</v>
       </c>
       <c r="D7">
-        <v>1.8530967756808501E-3</v>
+        <v>2.0156887380547699E-3</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -751,15 +751,15 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
-        <v>32.042163848876903</v>
+        <v>32.161533355712798</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>6.1962190731255147E-4</v>
+        <v>6.1611708519240522E-4</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>6.4698126469862601E-4</v>
+        <v>6.4377526520925253E-4</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -775,13 +775,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2.0026352405547998</v>
+        <v>2.0100958347320499</v>
       </c>
       <c r="C8">
-        <v>1.43921937659739E-3</v>
+        <v>1.7534439729031499E-3</v>
       </c>
       <c r="D8">
-        <v>1.42561398481236E-3</v>
+        <v>1.7041166451511999E-3</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -791,7 +791,7 @@
       </c>
       <c r="M8">
         <f>MIN(M2:M7)</f>
-        <v>6.1368497839058749E-4</v>
+        <v>6.0093953993312858E-4</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -799,13 +799,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>2.0026352405547998</v>
+        <v>2.0100958347320499</v>
       </c>
       <c r="C9">
-        <v>1.6121372897574199E-3</v>
+        <v>1.21911636132251E-3</v>
       </c>
       <c r="D9">
-        <v>1.59794240174418E-3</v>
+        <v>1.37303358524495E-3</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -819,13 +819,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>4.0052704811096103</v>
+        <v>4.0201916694641104</v>
       </c>
       <c r="C10" s="4">
-        <v>6.1342632459932304E-4</v>
+        <v>6.4306676865237002E-4</v>
       </c>
       <c r="D10" s="4">
-        <v>6.3027361249352995E-4</v>
+        <v>6.4083624592852504E-4</v>
       </c>
       <c r="E10" s="4">
         <v>9</v>
@@ -839,13 +839,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>4.0052704811096103</v>
+        <v>4.0201916694641104</v>
       </c>
       <c r="C11" s="4">
-        <v>6.1742390538169504E-4</v>
+        <v>6.1166549802910998E-4</v>
       </c>
       <c r="D11" s="4">
-        <v>6.3766091702842798E-4</v>
+        <v>6.3684113585991302E-4</v>
       </c>
       <c r="E11" s="4">
         <v>10</v>
@@ -859,13 +859,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>4.0052704811096103</v>
+        <v>4.0201916694641104</v>
       </c>
       <c r="C12" s="4">
-        <v>6.0750180335239804E-4</v>
+        <v>6.3254258041328996E-4</v>
       </c>
       <c r="D12" s="4">
-        <v>6.2049570384415504E-4</v>
+        <v>6.4054125023982095E-4</v>
       </c>
       <c r="E12" s="4">
         <v>11</v>
@@ -879,13 +879,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>4.0052704811096103</v>
+        <v>4.0201916694641104</v>
       </c>
       <c r="C13" s="4">
-        <v>6.2423891590987404E-4</v>
+        <v>5.8899879384833004E-4</v>
       </c>
       <c r="D13" s="4">
-        <v>6.3162768864013401E-4</v>
+        <v>6.2525204141164502E-4</v>
       </c>
       <c r="E13" s="4">
         <v>12</v>
@@ -899,13 +899,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>8.0105409622192294</v>
+        <v>8.0403833389282209</v>
       </c>
       <c r="C14" s="4">
-        <v>5.9807629378988002E-4</v>
+        <v>5.8571830070636502E-4</v>
       </c>
       <c r="D14" s="4">
-        <v>6.1644658389342698E-4</v>
+        <v>5.9330104437621295E-4</v>
       </c>
       <c r="E14" s="4">
         <v>13</v>
@@ -919,13 +919,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>8.0105409622192294</v>
+        <v>8.0403833389282209</v>
       </c>
       <c r="C15" s="4">
-        <v>5.9150923055874001E-4</v>
+        <v>5.6518891073256401E-4</v>
       </c>
       <c r="D15" s="4">
-        <v>6.2206712677737898E-4</v>
+        <v>5.9470152290820805E-4</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -939,13 +939,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="4">
-        <v>8.0105409622192294</v>
+        <v>8.0403833389282209</v>
       </c>
       <c r="C16" s="4">
-        <v>5.8851704407641796E-4</v>
+        <v>5.7958025349704899E-4</v>
       </c>
       <c r="D16" s="4">
-        <v>6.1129645612883403E-4</v>
+        <v>6.0262418605528604E-4</v>
       </c>
       <c r="E16" s="4">
         <v>15</v>
@@ -959,13 +959,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>8.0105409622192294</v>
+        <v>8.0403833389282209</v>
       </c>
       <c r="C17" s="4">
-        <v>5.89925405678359E-4</v>
+        <v>5.8248261493760295E-4</v>
       </c>
       <c r="D17" s="4">
-        <v>6.0492974676270997E-4</v>
+        <v>6.1313140639280704E-4</v>
       </c>
       <c r="E17" s="4">
         <v>16</v>
@@ -979,13 +979,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>16.021081924438398</v>
+        <v>16.080766677856399</v>
       </c>
       <c r="C18">
-        <v>5.9840252853315696E-4</v>
+        <v>6.1419451847978903E-4</v>
       </c>
       <c r="D18">
-        <v>6.19596883436625E-4</v>
+        <v>6.2421370736806601E-4</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -999,13 +999,13 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>16.021081924438398</v>
+        <v>16.080766677856399</v>
       </c>
       <c r="C19">
-        <v>5.9399622346353799E-4</v>
+        <v>5.98991958754538E-4</v>
       </c>
       <c r="D19">
-        <v>6.2390198396082802E-4</v>
+        <v>6.31568254902958E-4</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1019,13 +1019,13 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>16.021081924438398</v>
+        <v>16.080766677856399</v>
       </c>
       <c r="C20">
-        <v>6.1894009605624695E-4</v>
+        <v>5.8982466403512796E-4</v>
       </c>
       <c r="D20">
-        <v>6.4851955431414403E-4</v>
+        <v>6.0765727429025896E-4</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1039,13 +1039,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>16.021081924438398</v>
+        <v>16.080766677856399</v>
       </c>
       <c r="C21">
-        <v>6.1295316628913596E-4</v>
+        <v>5.9749023868006801E-4</v>
       </c>
       <c r="D21">
-        <v>6.3018682734802996E-4</v>
+        <v>6.3870226834676603E-4</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1059,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <v>32.042163848876903</v>
+        <v>32.161533355712798</v>
       </c>
       <c r="C22">
-        <v>6.1434992537041098E-4</v>
+        <v>6.2137892428502602E-4</v>
       </c>
       <c r="D22">
-        <v>6.3807190831829898E-4</v>
+        <v>6.3300114552360695E-4</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1079,13 +1079,13 @@
         <v>16</v>
       </c>
       <c r="B23">
-        <v>32.042163848876903</v>
+        <v>32.161533355712798</v>
       </c>
       <c r="C23">
-        <v>6.1810355722666395E-4</v>
+        <v>6.0564946328714204E-4</v>
       </c>
       <c r="D23">
-        <v>6.5266503704751401E-4</v>
+        <v>6.4270714330310101E-4</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1099,13 +1099,13 @@
         <v>16</v>
       </c>
       <c r="B24">
-        <v>32.042163848876903</v>
+        <v>32.161533355712798</v>
       </c>
       <c r="C24">
-        <v>6.1833704301611796E-4</v>
+        <v>6.2154943220718096E-4</v>
       </c>
       <c r="D24">
-        <v>6.44685437982069E-4</v>
+        <v>6.4550673653949195E-4</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1119,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B25">
-        <v>32.042163848876903</v>
+        <v>32.161533355712798</v>
       </c>
       <c r="C25">
-        <v>6.2769710363701301E-4</v>
+        <v>6.1589052099027199E-4</v>
       </c>
       <c r="D25">
-        <v>6.5250267544662204E-4</v>
+        <v>6.5388603547081E-4</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1145,7 +1145,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="A2" sqref="A2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1193,13 +1193,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>1.0013176202773999</v>
+        <v>1.0050479173660201</v>
       </c>
       <c r="C2">
-        <v>7.4911351812646698</v>
+        <v>4.7085279066851102</v>
       </c>
       <c r="D2">
-        <v>7.5809022213550303</v>
+        <v>4.7348050256318599</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -1213,15 +1213,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
-        <v>1.0013176202773999</v>
+        <v>1.0050479173660201</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>7.5350586302736895</v>
+        <v>4.7787028672588807</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>7.4921447457151178</v>
+        <v>4.7434607872480026</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
@@ -1237,13 +1237,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1.0013176202773999</v>
+        <v>1.0050479173660201</v>
       </c>
       <c r="C3">
-        <v>7.5228072252679299</v>
+        <v>4.7492783768161804</v>
       </c>
       <c r="D3">
-        <v>7.4581486214982702</v>
+        <v>4.8192843093147699</v>
       </c>
       <c r="E3">
         <v>26</v>
@@ -1257,15 +1257,15 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.0026352405547998</v>
+        <v>2.0100958347320499</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>5.8196747058320074E-4</v>
+        <v>6.0654232516858049E-4</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>5.8513656628573205E-4</v>
+        <v>6.0993805675048167E-4</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
@@ -1281,13 +1281,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>1.0013176202773999</v>
+        <v>1.0050479173660201</v>
       </c>
       <c r="C4">
-        <v>7.5567728306384696</v>
+        <v>4.8388549081838796</v>
       </c>
       <c r="D4">
-        <v>7.4663846036221102</v>
+        <v>4.6951790429368803</v>
       </c>
       <c r="E4">
         <v>27</v>
@@ -1301,15 +1301,15 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
-        <v>4.0052704811096103</v>
+        <v>4.0201916694641104</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>5.7436796479568637E-4</v>
+        <v>5.7268465057558132E-4</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>5.8180879708007898E-4</v>
+        <v>5.7724892320936577E-4</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
@@ -1325,13 +1325,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>1.0013176202773999</v>
+        <v>1.0050479173660201</v>
       </c>
       <c r="C5">
-        <v>7.5695192839236896</v>
+        <v>4.81815027735035</v>
       </c>
       <c r="D5">
-        <v>7.4631435363850596</v>
+        <v>4.7245747711085002</v>
       </c>
       <c r="E5">
         <v>28</v>
@@ -1345,15 +1345,15 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
-        <v>8.0105409622192294</v>
+        <v>8.0403833389282209</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="3"/>
-        <v>5.6265573402924885E-4</v>
+        <v>5.5747775656243771E-4</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>5.724208105598235E-4</v>
+        <v>5.6762379779085428E-4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="3"/>
@@ -1369,13 +1369,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2.0026352405547998</v>
+        <v>2.0100958347320499</v>
       </c>
       <c r="C6">
-        <v>5.7427518774428297E-4</v>
+        <v>6.1491449440645495E-4</v>
       </c>
       <c r="D6">
-        <v>5.7933767582537502E-4</v>
+        <v>6.02822131153101E-4</v>
       </c>
       <c r="E6">
         <v>29</v>
@@ -1389,15 +1389,15 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
-        <v>16.021081924438398</v>
+        <v>16.080766677856399</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>5.6459566892838044E-4</v>
+        <v>5.6253634500732445E-4</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>5.7596107232731108E-4</v>
+        <v>5.7322833301349119E-4</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -1413,13 +1413,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2.0026352405547998</v>
+        <v>2.0100958347320499</v>
       </c>
       <c r="C7">
-        <v>5.9765640292019397E-4</v>
+        <v>6.0942241029256195E-4</v>
       </c>
       <c r="D7">
-        <v>6.0155567282097399E-4</v>
+        <v>6.2014758837397501E-4</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -1433,15 +1433,15 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
-        <v>32.042163848876903</v>
+        <v>32.161533355712798</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>5.7483470149275026E-4</v>
+        <v>5.7110909807642554E-4</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>5.8659636139983572E-4</v>
+        <v>5.8235142500098476E-4</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -1457,13 +1457,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2.0026352405547998</v>
+        <v>2.0100958347320499</v>
       </c>
       <c r="C8">
-        <v>5.7559889930726405E-4</v>
+        <v>6.1287957274764303E-4</v>
       </c>
       <c r="D8">
-        <v>5.8047471325250002E-4</v>
+        <v>6.15649961990221E-4</v>
       </c>
       <c r="E8">
         <v>31</v>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="M8">
         <f>MIN(M2:M7)</f>
-        <v>5.724208105598235E-4</v>
+        <v>5.6762379779085428E-4</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1481,13 +1481,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>2.0026352405547998</v>
+        <v>2.0100958347320499</v>
       </c>
       <c r="C9">
-        <v>5.8033939236106196E-4</v>
+        <v>5.8895282322766205E-4</v>
       </c>
       <c r="D9">
-        <v>5.7917820324407897E-4</v>
+        <v>6.0113254548463E-4</v>
       </c>
       <c r="E9">
         <v>32</v>
@@ -1501,13 +1501,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>4.0052704811096103</v>
+        <v>4.0201916694641104</v>
       </c>
       <c r="C10" s="4">
-        <v>5.7340390079882605E-4</v>
+        <v>5.7548714118007096E-4</v>
       </c>
       <c r="D10" s="4">
-        <v>5.8197983580225298E-4</v>
+        <v>5.7063751730219005E-4</v>
       </c>
       <c r="E10" s="4">
         <v>33</v>
@@ -1521,13 +1521,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>4.0052704811096103</v>
+        <v>4.0201916694641104</v>
       </c>
       <c r="C11" s="4">
-        <v>5.7321177139764304E-4</v>
+        <v>5.6458013647556204E-4</v>
       </c>
       <c r="D11" s="4">
-        <v>5.8189319122206097E-4</v>
+        <v>5.7537162225528395E-4</v>
       </c>
       <c r="E11" s="4">
         <v>34</v>
@@ -1541,13 +1541,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>4.0052704811096103</v>
+        <v>4.0201916694641104</v>
       </c>
       <c r="C12" s="4">
-        <v>5.7079667439733804E-4</v>
+        <v>5.7749290784500499E-4</v>
       </c>
       <c r="D12" s="4">
-        <v>5.7847522870399602E-4</v>
+        <v>5.8269070511495196E-4</v>
       </c>
       <c r="E12" s="4">
         <v>35</v>
@@ -1561,13 +1561,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>4.0052704811096103</v>
+        <v>4.0201916694641104</v>
       </c>
       <c r="C13" s="4">
-        <v>5.8005951258893805E-4</v>
+        <v>5.7317841680168695E-4</v>
       </c>
       <c r="D13" s="4">
-        <v>5.8488693259200596E-4</v>
+        <v>5.80295848165037E-4</v>
       </c>
       <c r="E13" s="4">
         <v>36</v>
@@ -1581,13 +1581,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>8.0105409622192294</v>
+        <v>8.0403833389282209</v>
       </c>
       <c r="C14" s="2">
-        <v>5.6340969557764904E-4</v>
+        <v>5.6297997061673295E-4</v>
       </c>
       <c r="D14" s="2">
-        <v>5.7298926936284105E-4</v>
+        <v>5.6128449998854905E-4</v>
       </c>
       <c r="E14" s="2">
         <v>37</v>
@@ -1601,13 +1601,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>8.0105409622192294</v>
+        <v>8.0403833389282209</v>
       </c>
       <c r="C15" s="2">
-        <v>5.6044870716311502E-4</v>
+        <v>5.5537199743157302E-4</v>
       </c>
       <c r="D15" s="2">
-        <v>5.7068760717347096E-4</v>
+        <v>5.7011621759591401E-4</v>
       </c>
       <c r="E15" s="2">
         <v>38</v>
@@ -1621,13 +1621,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>8.0105409622192294</v>
+        <v>8.0403833389282209</v>
       </c>
       <c r="C16" s="2">
-        <v>5.6317315032542099E-4</v>
+        <v>5.5705656273035396E-4</v>
       </c>
       <c r="D16" s="2">
-        <v>5.7653010515694198E-4</v>
+        <v>5.7083024949872705E-4</v>
       </c>
       <c r="E16" s="2">
         <v>39</v>
@@ -1641,13 +1641,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>8.0105409622192294</v>
+        <v>8.0403833389282209</v>
       </c>
       <c r="C17" s="2">
-        <v>5.6359138305081004E-4</v>
+        <v>5.5450249547109103E-4</v>
       </c>
       <c r="D17" s="2">
-        <v>5.6947626054604E-4</v>
+        <v>5.68264224080227E-4</v>
       </c>
       <c r="E17" s="2">
         <v>40</v>
@@ -1661,13 +1661,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>16.021081924438398</v>
+        <v>16.080766677856399</v>
       </c>
       <c r="C18">
-        <v>5.6362191823241799E-4</v>
+        <v>5.6590871373043104E-4</v>
       </c>
       <c r="D18">
-        <v>5.7770044758341196E-4</v>
+        <v>5.6374682330149095E-4</v>
       </c>
       <c r="E18">
         <v>41</v>
@@ -1681,13 +1681,13 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>16.021081924438398</v>
+        <v>16.080766677856399</v>
       </c>
       <c r="C19">
-        <v>5.6088095322806098E-4</v>
+        <v>5.6632355806138896E-4</v>
       </c>
       <c r="D19">
-        <v>5.7066611925813695E-4</v>
+        <v>5.8679588955438001E-4</v>
       </c>
       <c r="E19">
         <v>42</v>
@@ -1701,13 +1701,13 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>16.021081924438398</v>
+        <v>16.080766677856399</v>
       </c>
       <c r="C20">
-        <v>5.6305911377731198E-4</v>
+        <v>5.5974674656554101E-4</v>
       </c>
       <c r="D20">
-        <v>5.7639273445795605E-4</v>
+        <v>5.7098443938206997E-4</v>
       </c>
       <c r="E20">
         <v>43</v>
@@ -1721,13 +1721,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>16.021081924438398</v>
+        <v>16.080766677856399</v>
       </c>
       <c r="C21">
-        <v>5.7082069047573105E-4</v>
+        <v>5.58166361671937E-4</v>
       </c>
       <c r="D21">
-        <v>5.7908498800973902E-4</v>
+        <v>5.7138617981602395E-4</v>
       </c>
       <c r="E21">
         <v>44</v>
@@ -1741,13 +1741,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>32.042163848876903</v>
+        <v>32.161533355712798</v>
       </c>
       <c r="C22" s="4">
-        <v>5.7542019435749396E-4</v>
+        <v>5.7630822882590103E-4</v>
       </c>
       <c r="D22" s="4">
-        <v>5.8600014234159797E-4</v>
+        <v>5.7682032620274897E-4</v>
       </c>
       <c r="E22" s="4">
         <v>45</v>
@@ -1761,13 +1761,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="4">
-        <v>32.042163848876903</v>
+        <v>32.161533355712798</v>
       </c>
       <c r="C23" s="4">
-        <v>5.6909457263363303E-4</v>
+        <v>5.6998818726456801E-4</v>
       </c>
       <c r="D23" s="4">
-        <v>5.8188070382110405E-4</v>
+        <v>5.8730451104266497E-4</v>
       </c>
       <c r="E23" s="4">
         <v>46</v>
@@ -1781,13 +1781,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="4">
-        <v>32.042163848876903</v>
+        <v>32.161533355712798</v>
       </c>
       <c r="C24" s="4">
-        <v>5.7362472456433996E-4</v>
+        <v>5.6695665461218799E-4</v>
       </c>
       <c r="D24" s="4">
-        <v>5.8813967390302898E-4</v>
+        <v>5.7886381076554497E-4</v>
       </c>
       <c r="E24" s="4">
         <v>47</v>
@@ -1801,13 +1801,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="4">
-        <v>32.042163848876903</v>
+        <v>32.161533355712798</v>
       </c>
       <c r="C25" s="4">
-        <v>5.8119931441553399E-4</v>
+        <v>5.7118332160304504E-4</v>
       </c>
       <c r="D25" s="4">
-        <v>5.90364925533612E-4</v>
+        <v>5.8641705199298001E-4</v>
       </c>
       <c r="E25" s="4">
         <v>48</v>
@@ -1825,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1874,13 +1874,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>1.0013176202773999</v>
+        <v>1.0050479173660201</v>
       </c>
       <c r="C2">
-        <v>7.4946187438964804</v>
+        <v>4.7650420993280802</v>
       </c>
       <c r="D2">
-        <v>7.5808989190040696</v>
+        <v>4.7347934276242798</v>
       </c>
       <c r="E2">
         <v>49</v>
@@ -1894,15 +1894,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
-        <v>1.0013176202773999</v>
+        <v>1.0050479173660201</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>7.51662298838297</v>
+        <v>4.7659453852488891</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>7.4921441851778194</v>
+        <v>4.7434568178804604</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
@@ -1918,13 +1918,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1.0013176202773999</v>
+        <v>1.0050479173660201</v>
       </c>
       <c r="C3">
-        <v>7.5248387463887498</v>
+        <v>4.7512111679052698</v>
       </c>
       <c r="D3">
-        <v>7.4581477084058401</v>
+        <v>4.8192820669729501</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -1938,15 +1938,15 @@
       </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.0026352405547998</v>
+        <v>2.0100958347320499</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>5.578138673057153E-4</v>
+        <v>5.5278863253599246E-4</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>5.5339912030328176E-4</v>
+        <v>5.4935553192921374E-4</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
@@ -1962,13 +1962,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>1.0013176202773999</v>
+        <v>1.0050479173660201</v>
       </c>
       <c r="C4">
-        <v>7.5229649976094501</v>
+        <v>4.77785518603583</v>
       </c>
       <c r="D4">
-        <v>7.4663862066066002</v>
+        <v>4.6951802531375098</v>
       </c>
       <c r="E4">
         <v>51</v>
@@ -1982,15 +1982,15 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
-        <v>4.0052704811096103</v>
+        <v>4.0201916694641104</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>5.5429709062445849E-4</v>
+        <v>5.5486714769974481E-4</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>5.5763532741656577E-4</v>
+        <v>5.5651497116085392E-4</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
@@ -2006,13 +2006,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>1.0013176202773999</v>
+        <v>1.0050479173660201</v>
       </c>
       <c r="C5">
-        <v>7.5240694656371998</v>
+        <v>4.76967308772638</v>
       </c>
       <c r="D5">
-        <v>7.4631439066947696</v>
+        <v>4.7245715237871</v>
       </c>
       <c r="E5">
         <v>52</v>
@@ -2026,15 +2026,15 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
-        <v>8.0105409622192294</v>
+        <v>8.0403833389282209</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>5.4999822609048932E-4</v>
+        <v>5.5002421335936043E-4</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
-        <v>5.5456678966677006E-4</v>
+        <v>5.5174406616406192E-4</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="3"/>
@@ -2050,13 +2050,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>2.0026352405547998</v>
+        <v>2.0100958347320499</v>
       </c>
       <c r="C6" s="2">
-        <v>5.6543820219424803E-4</v>
+        <v>5.5440445328294903E-4</v>
       </c>
       <c r="D6" s="2">
-        <v>5.5314240292299202E-4</v>
+        <v>5.4093080762879805E-4</v>
       </c>
       <c r="E6" s="2">
         <v>53</v>
@@ -2070,15 +2070,15 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
-        <v>16.021081924438398</v>
+        <v>16.080766677856399</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>5.5138087111602824E-4</v>
+        <v>5.5042442938382763E-4</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>5.5598692957341549E-4</v>
+        <v>5.5160101687703599E-4</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -2094,13 +2094,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>2.0026352405547998</v>
+        <v>2.0100958347320499</v>
       </c>
       <c r="C7" s="2">
-        <v>5.5807617337753305E-4</v>
+        <v>5.5036859247631104E-4</v>
       </c>
       <c r="D7" s="2">
-        <v>5.5746202966436102E-4</v>
+        <v>5.5346789819931102E-4</v>
       </c>
       <c r="E7" s="2">
         <v>54</v>
@@ -2114,15 +2114,15 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
-        <v>32.042163848876903</v>
+        <v>32.161533355712798</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>5.5322382672845028E-4</v>
+        <v>5.5272140717409072E-4</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>5.5792559888164298E-4</v>
+        <v>5.5592315305758196E-4</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -2138,13 +2138,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>2.0026352405547998</v>
+        <v>2.0100958347320499</v>
       </c>
       <c r="C8" s="2">
-        <v>5.5342416395433205E-4</v>
+        <v>5.5580531678775405E-4</v>
       </c>
       <c r="D8" s="2">
-        <v>5.5286528708591498E-4</v>
+        <v>5.5307214210234296E-4</v>
       </c>
       <c r="E8" s="2">
         <v>55</v>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="M8">
         <f>MIN(M2:M7)</f>
-        <v>5.5339912030328176E-4</v>
+        <v>5.4935553192921374E-4</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -2162,13 +2162,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>2.0026352405547998</v>
+        <v>2.0100958347320499</v>
       </c>
       <c r="C9" s="2">
-        <v>5.5431692969674798E-4</v>
+        <v>5.5057616759695595E-4</v>
       </c>
       <c r="D9" s="2">
-        <v>5.5012676153985902E-4</v>
+        <v>5.4995127978640305E-4</v>
       </c>
       <c r="E9" s="2">
         <v>56</v>
@@ -2182,13 +2182,13 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>4.0052704811096103</v>
+        <v>4.0201916694641104</v>
       </c>
       <c r="C10">
-        <v>5.5681015589895296E-4</v>
+        <v>5.5600013485335999E-4</v>
       </c>
       <c r="D10">
-        <v>5.5989598021891995E-4</v>
+        <v>5.4732387844190098E-4</v>
       </c>
       <c r="E10">
         <v>57</v>
@@ -2202,13 +2202,13 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>4.0052704811096103</v>
+        <v>4.0201916694641104</v>
       </c>
       <c r="C11">
-        <v>5.5317355459555905E-4</v>
+        <v>5.5343053767088605E-4</v>
       </c>
       <c r="D11">
-        <v>5.6067212581376903E-4</v>
+        <v>5.59260124116664E-4</v>
       </c>
       <c r="E11">
         <v>58</v>
@@ -2222,13 +2222,13 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>4.0052704811096103</v>
+        <v>4.0201916694641104</v>
       </c>
       <c r="C12">
-        <v>5.5397409736178795E-4</v>
+        <v>5.5667156431326995E-4</v>
       </c>
       <c r="D12">
-        <v>5.5673916420423701E-4</v>
+        <v>5.6248665802015698E-4</v>
       </c>
       <c r="E12">
         <v>59</v>
@@ -2242,13 +2242,13 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>4.0052704811096103</v>
+        <v>4.0201916694641104</v>
       </c>
       <c r="C13">
-        <v>5.5323055464153402E-4</v>
+        <v>5.5336635396146302E-4</v>
       </c>
       <c r="D13">
-        <v>5.5323403942933696E-4</v>
+        <v>5.5698922406469402E-4</v>
       </c>
       <c r="E13">
         <v>60</v>
@@ -2262,13 +2262,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>8.0105409622192294</v>
+        <v>8.0403833389282209</v>
       </c>
       <c r="C14" s="4">
-        <v>5.4858188936486802E-4</v>
+        <v>5.5376013157704704E-4</v>
       </c>
       <c r="D14" s="4">
-        <v>5.5245187150889101E-4</v>
+        <v>5.4516234837437001E-4</v>
       </c>
       <c r="E14" s="4">
         <v>61</v>
@@ -2282,13 +2282,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>8.0105409622192294</v>
+        <v>8.0403833389282209</v>
       </c>
       <c r="C15" s="4">
-        <v>5.49036485220616E-4</v>
+        <v>5.4846039973943195E-4</v>
       </c>
       <c r="D15" s="4">
-        <v>5.5719424408186703E-4</v>
+        <v>5.5455105508901595E-4</v>
       </c>
       <c r="E15" s="4">
         <v>62</v>
@@ -2302,13 +2302,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="4">
-        <v>8.0105409622192294</v>
+        <v>8.0403833389282209</v>
       </c>
       <c r="C16" s="4">
-        <v>5.5154367947640498E-4</v>
+        <v>5.4927825196512199E-4</v>
       </c>
       <c r="D16" s="4">
-        <v>5.5806544031006603E-4</v>
+        <v>5.5532840108557795E-4</v>
       </c>
       <c r="E16" s="4">
         <v>63</v>
@@ -2322,13 +2322,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>8.0105409622192294</v>
+        <v>8.0403833389282209</v>
       </c>
       <c r="C17" s="4">
-        <v>5.5083085030006797E-4</v>
+        <v>5.4859807015584096E-4</v>
       </c>
       <c r="D17" s="4">
-        <v>5.5055560276625595E-4</v>
+        <v>5.51934460107284E-4</v>
       </c>
       <c r="E17" s="4">
         <v>64</v>
@@ -2342,13 +2342,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>16.021081924438398</v>
+        <v>16.080766677856399</v>
       </c>
       <c r="C18">
-        <v>5.50931830114374E-4</v>
+        <v>5.5187546496335998E-4</v>
       </c>
       <c r="D18">
-        <v>5.55548576967533E-4</v>
+        <v>5.4352034488987602E-4</v>
       </c>
       <c r="E18">
         <v>65</v>
@@ -2362,13 +2362,13 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>16.021081924438398</v>
+        <v>16.080766677856399</v>
       </c>
       <c r="C19">
-        <v>5.4888768393235895E-4</v>
+        <v>5.5278402239161597E-4</v>
       </c>
       <c r="D19">
-        <v>5.5705038880176304E-4</v>
+        <v>5.59331203775504E-4</v>
       </c>
       <c r="E19">
         <v>66</v>
@@ -2382,13 +2382,13 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>16.021081924438398</v>
+        <v>16.080766677856399</v>
       </c>
       <c r="C20">
-        <v>5.5228428961709105E-4</v>
+        <v>5.4792888559618204E-4</v>
       </c>
       <c r="D20">
-        <v>5.5633933825834396E-4</v>
+        <v>5.51941462709933E-4</v>
       </c>
       <c r="E20">
         <v>67</v>
@@ -2402,13 +2402,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>16.021081924438398</v>
+        <v>16.080766677856399</v>
       </c>
       <c r="C21">
-        <v>5.5341968080028895E-4</v>
+        <v>5.4910934458415298E-4</v>
       </c>
       <c r="D21">
-        <v>5.5500941426602196E-4</v>
+        <v>5.5161105613283105E-4</v>
       </c>
       <c r="E21">
         <v>68</v>
@@ -2422,13 +2422,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>32.042163848876903</v>
+        <v>32.161533355712798</v>
       </c>
       <c r="C22" s="4">
-        <v>5.5325702213061302E-4</v>
+        <v>5.5491480354841497E-4</v>
       </c>
       <c r="D22" s="4">
-        <v>5.5888471685280503E-4</v>
+        <v>5.4843613068879596E-4</v>
       </c>
       <c r="E22" s="4">
         <v>69</v>
@@ -2442,13 +2442,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="4">
-        <v>32.042163848876903</v>
+        <v>32.161533355712798</v>
       </c>
       <c r="C23" s="4">
-        <v>5.4979761138868803E-4</v>
+        <v>5.5451760088620205E-4</v>
       </c>
       <c r="D23" s="4">
-        <v>5.5795545445784804E-4</v>
+        <v>5.6272259503720797E-4</v>
       </c>
       <c r="E23" s="4">
         <v>70</v>
@@ -2462,13 +2462,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="4">
-        <v>32.042163848876903</v>
+        <v>32.161533355712798</v>
       </c>
       <c r="C24" s="4">
-        <v>5.5294079659506598E-4</v>
+        <v>5.5111404831934799E-4</v>
       </c>
       <c r="D24" s="4">
-        <v>5.5711708827925097E-4</v>
+        <v>5.5809580695909697E-4</v>
       </c>
       <c r="E24" s="4">
         <v>71</v>
@@ -2482,13 +2482,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="4">
-        <v>32.042163848876903</v>
+        <v>32.161533355712798</v>
       </c>
       <c r="C25" s="4">
-        <v>5.5689987679943397E-4</v>
+        <v>5.5033917594239797E-4</v>
       </c>
       <c r="D25" s="4">
-        <v>5.5774513593666796E-4</v>
+        <v>5.5443807954522705E-4</v>
       </c>
       <c r="E25" s="4">
         <v>72</v>
@@ -2507,7 +2507,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:N2"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2552,10 +2552,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="4">
-        <v>6.7531223597123904E-4</v>
+        <v>6.0277741293340305E-4</v>
       </c>
       <c r="C2" s="4">
-        <v>7.0567543994873099E-4</v>
+        <v>6.0819401155237695E-4</v>
       </c>
       <c r="D2" s="4">
         <v>73</v>
@@ -2570,11 +2570,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>6.2552787424832973E-4</v>
+        <v>6.1992254153135651E-4</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>6.4417600778471427E-4</v>
+        <v>6.371666452570379E-4</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -2590,10 +2590,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="4">
-        <v>5.9428207137859695E-4</v>
+        <v>6.0760681782672302E-4</v>
       </c>
       <c r="C3" s="4">
-        <v>6.2076189243135598E-4</v>
+        <v>6.3358784779976997E-4</v>
       </c>
       <c r="D3" s="4">
         <v>74</v>
@@ -2608,11 +2608,11 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>6.1992938525632897E-4</v>
+        <v>6.2358682209631667E-4</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>6.4045424415838876E-4</v>
+        <v>6.4670592321737193E-4</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
@@ -2628,10 +2628,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="4">
-        <v>5.9225491280271098E-4</v>
+        <v>6.5298742523322499E-4</v>
       </c>
       <c r="C4" s="4">
-        <v>6.0634074133246105E-4</v>
+        <v>6.6188826959556605E-4</v>
       </c>
       <c r="D4" s="4">
         <v>75</v>
@@ -2646,11 +2646,11 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>6.2362648338634219E-4</v>
+        <v>6.2706654366765898E-4</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>6.3941461090469048E-4</v>
+        <v>6.4628675087838403E-4</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
@@ -2666,10 +2666,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="4">
-        <v>6.4026227684077204E-4</v>
+        <v>6.1631851013207496E-4</v>
       </c>
       <c r="C5" s="4">
-        <v>6.4392595742630897E-4</v>
+        <v>6.4499645208043895E-4</v>
       </c>
       <c r="D5" s="4">
         <v>76</v>
@@ -2684,11 +2684,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>6.2537173668735001E-4</v>
+        <v>6.2846399540128755E-4</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>6.4220280956818671E-4</v>
+        <v>6.4383250848342984E-4</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -2705,10 +2705,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="4">
-        <v>6.7147875806574297E-4</v>
+        <v>6.1546329960014798E-4</v>
       </c>
       <c r="C6" s="4">
-        <v>7.0165572848983403E-4</v>
+        <v>6.1608344917716098E-4</v>
       </c>
       <c r="D6" s="4">
         <v>77</v>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>6.2299045694476731E-4</v>
+        <v>6.1771909347470082E-4</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>6.3996320510496102E-4</v>
+        <v>6.5232524456739199E-4</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -2742,10 +2742,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="4">
-        <v>5.8550899043342299E-4</v>
+        <v>6.1479185875858795E-4</v>
       </c>
       <c r="C7" s="4">
-        <v>6.1384727682997501E-4</v>
+        <v>6.3981343933109996E-4</v>
       </c>
       <c r="D7" s="4">
         <v>78</v>
@@ -2759,11 +2759,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>6.0719503984573505E-4</v>
+        <v>6.2827967172503251E-4</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>6.438536272864745E-4</v>
+        <v>7.1769385323034503E-4</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -2779,10 +2779,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="4">
-        <v>6.09775149372426E-4</v>
+        <v>6.4526779040741296E-4</v>
       </c>
       <c r="C8" s="4">
-        <v>6.2403794343365295E-4</v>
+        <v>6.6211189974476595E-4</v>
       </c>
       <c r="D8" s="4">
         <v>79</v>
@@ -2796,11 +2796,11 @@
       </c>
       <c r="K8">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>1.3182328669032275E-3</v>
+        <v>1.1748724513542725E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>1.3307846410440206E-3</v>
+        <v>1.2152624879985783E-3</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
@@ -2816,10 +2816,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="4">
-        <v>6.1295464315372404E-4</v>
+        <v>6.1882433961911801E-4</v>
       </c>
       <c r="C9" s="4">
-        <v>6.2227602788009304E-4</v>
+        <v>6.6881490461646095E-4</v>
       </c>
       <c r="D9" s="4">
         <v>80</v>
@@ -2833,11 +2833,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>3.8116079872886353</v>
+        <v>2.0487410305554128E-2</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>3.7341041522542544</v>
+        <v>1.8328872955436601E-2</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -2853,10 +2853,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10">
-        <v>6.5763658866226798E-4</v>
+        <v>6.2613925657859805E-4</v>
       </c>
       <c r="C10">
-        <v>6.7682467720550502E-4</v>
+        <v>6.2895697155448602E-4</v>
       </c>
       <c r="D10">
         <v>81</v>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>6.3941461090469048E-4</v>
+        <v>6.371666452570379E-4</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2874,10 +2874,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11">
-        <v>5.9201994147944296E-4</v>
+        <v>6.2138536323121205E-4</v>
       </c>
       <c r="C11">
-        <v>6.1257663393452595E-4</v>
+        <v>6.5101721822107298E-4</v>
       </c>
       <c r="D11">
         <v>82</v>
@@ -2891,10 +2891,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12">
-        <v>6.2752878503933305E-4</v>
+        <v>6.4626345970915399E-4</v>
       </c>
       <c r="C12">
-        <v>6.4217671566206796E-4</v>
+        <v>6.6079868333815005E-4</v>
       </c>
       <c r="D12">
         <v>83</v>
@@ -2908,10 +2908,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13">
-        <v>6.17320618364325E-4</v>
+        <v>6.1447809515167203E-4</v>
       </c>
       <c r="C13">
-        <v>6.2608041681666299E-4</v>
+        <v>6.4437413039982697E-4</v>
       </c>
       <c r="D13">
         <v>84</v>
@@ -2925,10 +2925,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>6.7053226124931195E-4</v>
+        <v>6.0852580258764202E-4</v>
       </c>
       <c r="C14">
-        <v>6.8752215419737403E-4</v>
+        <v>6.0703715197506203E-4</v>
       </c>
       <c r="D14">
         <v>85</v>
@@ -2942,10 +2942,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>5.9720041463151498E-4</v>
+        <v>6.2154580785928201E-4</v>
       </c>
       <c r="C15">
-        <v>6.2590164808615798E-4</v>
+        <v>6.3813207936296295E-4</v>
       </c>
       <c r="D15">
         <v>86</v>
@@ -2959,10 +2959,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>6.0772802618807697E-4</v>
+        <v>6.5824184552000097E-4</v>
       </c>
       <c r="C16">
-        <v>6.2062790334977596E-4</v>
+        <v>6.7315522737541704E-4</v>
       </c>
       <c r="D16">
         <v>87</v>
@@ -2976,10 +2976,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>6.2602624468049604E-4</v>
+        <v>6.2554252563822499E-4</v>
       </c>
       <c r="C17">
-        <v>6.34759532639439E-4</v>
+        <v>6.5700557522027701E-4</v>
       </c>
       <c r="D17">
         <v>88</v>
@@ -2993,10 +2993,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>6.8373271100659002E-4</v>
+        <v>6.1456262151698905E-4</v>
       </c>
       <c r="C18">
-        <v>6.9843716188730195E-4</v>
+        <v>6.1623853796362099E-4</v>
       </c>
       <c r="D18">
         <v>89</v>
@@ -3010,10 +3010,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>5.9847355054869699E-4</v>
+        <v>6.2270607811080504E-4</v>
       </c>
       <c r="C19">
-        <v>6.3405631474179602E-4</v>
+        <v>6.4950887647257001E-4</v>
       </c>
       <c r="D19">
         <v>90</v>
@@ -3027,10 +3027,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>6.0050394150745496E-4</v>
+        <v>6.2673896863537802E-4</v>
       </c>
       <c r="C20">
-        <v>6.1333828179680903E-4</v>
+        <v>6.3883514980537896E-4</v>
       </c>
       <c r="D20">
         <v>91</v>
@@ -3044,10 +3044,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>6.0925162471632695E-4</v>
+        <v>6.0686870563563097E-4</v>
       </c>
       <c r="C21">
-        <v>6.1402106199393697E-4</v>
+        <v>7.0471841402799799E-4</v>
       </c>
       <c r="D21">
         <v>92</v>
@@ -3061,10 +3061,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>6.4077915901199298E-4</v>
+        <v>6.4824296484253295E-4</v>
       </c>
       <c r="C22">
-        <v>6.6776440585368903E-4</v>
+        <v>6.61582093615132E-4</v>
       </c>
       <c r="D22">
         <v>93</v>
@@ -3078,10 +3078,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>5.9708537090510201E-4</v>
+        <v>6.2902731367068501E-4</v>
       </c>
       <c r="C23">
-        <v>7.0577336257283995E-4</v>
+        <v>6.5501805032379401E-4</v>
       </c>
       <c r="D23">
         <v>94</v>
@@ -3095,10 +3095,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>6.00635675351789E-4</v>
+        <v>6.2291724003167603E-4</v>
       </c>
       <c r="C24">
-        <v>6.0709400048003796E-4</v>
+        <v>6.2710072851114996E-4</v>
       </c>
       <c r="D24">
         <v>95</v>
@@ -3112,10 +3112,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>5.9027995411405597E-4</v>
+        <v>6.1293116835523605E-4</v>
       </c>
       <c r="C25">
-        <v>5.9478274023933096E-4</v>
+        <v>9.2707454047130395E-4</v>
       </c>
       <c r="D25">
         <v>96</v>
@@ -3129,10 +3129,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>1.1699596528914999E-3</v>
+        <v>1.2193366588989199E-3</v>
       </c>
       <c r="C26">
-        <v>1.18549002961136E-3</v>
+        <v>1.13753317538472E-3</v>
       </c>
       <c r="D26">
         <v>97</v>
@@ -3146,10 +3146,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>1.47226170953759E-3</v>
+        <v>1.1311537981080399E-3</v>
       </c>
       <c r="C27">
-        <v>2.01086776189882E-3</v>
+        <v>1.1044650602366601E-3</v>
       </c>
       <c r="D27">
         <v>98</v>
@@ -3163,10 +3163,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>1.39944149401692E-3</v>
+        <v>1.0677471910190701E-3</v>
       </c>
       <c r="C28">
-        <v>9.7854715831419202E-4</v>
+        <v>9.3720131406348304E-4</v>
       </c>
       <c r="D28">
         <v>99</v>
@@ -3180,10 +3180,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>1.2312686111669001E-3</v>
+        <v>1.2812521573910599E-3</v>
       </c>
       <c r="C29">
-        <v>1.1482336143517099E-3</v>
+        <v>1.68185040230945E-3</v>
       </c>
       <c r="D29">
         <v>100</v>
@@ -3197,10 +3197,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>1.7480199382531401E-2</v>
+        <v>2.0729384334946501E-2</v>
       </c>
       <c r="C30">
-        <v>1.7621067322869801E-2</v>
+        <v>1.7829830068623299E-2</v>
       </c>
       <c r="D30">
         <v>101</v>
@@ -3214,10 +3214,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>1.54613650235486E-2</v>
+        <v>2.1924958496554899E-2</v>
       </c>
       <c r="C31">
-        <v>2.1849541937278401E-2</v>
+        <v>1.9397388568996799E-2</v>
       </c>
       <c r="D31">
         <v>102</v>
@@ -3231,10 +3231,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>15.1973596735203</v>
+        <v>2.0254901135811802E-2</v>
       </c>
       <c r="C32">
-        <v>14.8807073958376</v>
+        <v>1.5809543971620599E-2</v>
       </c>
       <c r="D32">
         <v>103</v>
@@ -3248,10 +3248,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>1.6130711228160701E-2</v>
+        <v>1.90403972549033E-2</v>
       </c>
       <c r="C33">
-        <v>1.6238603919268901E-2</v>
+        <v>2.0278729212505699E-2</v>
       </c>
       <c r="D33">
         <v>104</v>
@@ -3318,7 +3318,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="A2" sqref="A2:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3363,10 +3363,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>6.1077788531621699E-4</v>
+        <v>5.5790457104860696E-4</v>
       </c>
       <c r="C2">
-        <v>6.2356662857247097E-4</v>
+        <v>5.4685722909796996E-4</v>
       </c>
       <c r="D2">
         <v>105</v>
@@ -3380,11 +3380,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>5.681116447104087E-4</v>
+        <v>5.5991212662589648E-4</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>5.7429427142004772E-4</v>
+        <v>5.620266231664017E-4</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -3400,10 +3400,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3">
-        <v>5.5402111629905895E-4</v>
+        <v>5.5995555653883303E-4</v>
       </c>
       <c r="C3">
-        <v>5.5907352609520201E-4</v>
+        <v>5.6576289831884599E-4</v>
       </c>
       <c r="D3">
         <v>106</v>
@@ -3417,11 +3417,11 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>5.6645838478598621E-4</v>
+        <v>5.5991729148989792E-4</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>5.7348139779741245E-4</v>
+        <v>5.6339939982524173E-4</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
@@ -3437,10 +3437,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4">
-        <v>5.5347993552555899E-4</v>
+        <v>5.6965813221659001E-4</v>
       </c>
       <c r="C4">
-        <v>5.5991386049773805E-4</v>
+        <v>5.7783663933035697E-4</v>
       </c>
       <c r="D4">
         <v>107</v>
@@ -3454,11 +3454,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>5.6653976505603644E-4</v>
+        <v>5.5571898103767196E-4</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>5.7396534039264881E-4</v>
+        <v>5.5649369340566776E-4</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -3474,10 +3474,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5">
-        <v>5.5416764170079997E-4</v>
+        <v>5.5213024669955603E-4</v>
       </c>
       <c r="C5">
-        <v>5.5462307051477996E-4</v>
+        <v>5.5764972591843399E-4</v>
       </c>
       <c r="D5">
         <v>108</v>
@@ -3491,11 +3491,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>5.6373357809671326E-4</v>
+        <v>5.5604669948369463E-4</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>5.7144988154214649E-4</v>
+        <v>5.5929215988173727E-4</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -3511,10 +3511,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>6.0489542870237301E-4</v>
+        <v>5.5852700113822999E-4</v>
       </c>
       <c r="C6">
-        <v>6.1913024995753402E-4</v>
+        <v>5.4710005967040795E-4</v>
       </c>
       <c r="D6">
         <v>109</v>
@@ -3528,11 +3528,11 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>5.6995273622847628E-4</v>
+        <v>5.6725891063599278E-4</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>5.7596924214405845E-4</v>
+        <v>5.7194752280108146E-4</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -3548,10 +3548,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>5.5266190611291601E-4</v>
+        <v>5.6008862703741996E-4</v>
       </c>
       <c r="C7">
-        <v>5.5722143015566597E-4</v>
+        <v>5.6487253183333899E-4</v>
       </c>
       <c r="D7">
         <v>110</v>
@@ -3565,11 +3565,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>5.7512403660400552E-4</v>
+        <v>5.7311175818552051E-4</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>5.840319444108355E-4</v>
+        <v>5.7781130066981404E-4</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -3585,10 +3585,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>5.5130177064169599E-4</v>
+        <v>5.6924542692448395E-4</v>
       </c>
       <c r="C8">
-        <v>5.5894279292725097E-4</v>
+        <v>5.8199120818083197E-4</v>
       </c>
       <c r="D8">
         <v>111</v>
@@ -3602,11 +3602,11 @@
       </c>
       <c r="K8">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>1.2712972124489198E-3</v>
+        <v>1.2359753319015499E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>1.1391766594433025E-3</v>
+        <v>1.15844546354897E-3</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
@@ -3622,10 +3622,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>5.5697443368696005E-4</v>
+        <v>5.5180811085945799E-4</v>
       </c>
       <c r="C9">
-        <v>5.5863111814919895E-4</v>
+        <v>5.59633799616388E-4</v>
       </c>
       <c r="D9">
         <v>112</v>
@@ -3639,11 +3639,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>3.7942332606366254</v>
+        <v>2.1057276243372072E-2</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>3.7155913556368434</v>
+        <v>1.7405489319272278E-2</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -3659,10 +3659,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="4">
-        <v>6.0530340155348801E-4</v>
+        <v>5.5633436396842497E-4</v>
       </c>
       <c r="C10" s="4">
-        <v>6.1970018779244603E-4</v>
+        <v>5.4415224799355798E-4</v>
       </c>
       <c r="D10" s="4">
         <v>113</v>
@@ -3673,7 +3673,7 @@
       <c r="F10" s="2"/>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>5.7144988154214649E-4</v>
+        <v>5.5649369340566776E-4</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -3681,10 +3681,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="4">
-        <v>5.52887550432562E-4</v>
+        <v>5.5734051897925998E-4</v>
       </c>
       <c r="C11" s="4">
-        <v>5.5943926959793903E-4</v>
+        <v>5.5989469887830203E-4</v>
       </c>
       <c r="D11" s="4">
         <v>114</v>
@@ -3699,10 +3699,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="4">
-        <v>5.5370247424976402E-4</v>
+        <v>5.5772290846101504E-4</v>
       </c>
       <c r="C12" s="4">
-        <v>5.6072114471425395E-4</v>
+        <v>5.6590724521304804E-4</v>
       </c>
       <c r="D12" s="4">
         <v>115</v>
@@ -3717,10 +3717,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="4">
-        <v>5.5426563398833196E-4</v>
+        <v>5.5147813274198797E-4</v>
       </c>
       <c r="C13" s="4">
-        <v>5.5600075946595601E-4</v>
+        <v>5.5602058153776299E-4</v>
       </c>
       <c r="D13" s="4">
         <v>116</v>
@@ -3735,10 +3735,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14" s="4">
-        <v>5.9715697298475304E-4</v>
+        <v>5.5788383058384997E-4</v>
       </c>
       <c r="C14" s="4">
-        <v>6.1234872679206205E-4</v>
+        <v>5.45418039524244E-4</v>
       </c>
       <c r="D14" s="4">
         <v>117</v>
@@ -3752,10 +3752,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15" s="4">
-        <v>5.5415427715993103E-4</v>
+        <v>5.5459239534962502E-4</v>
       </c>
       <c r="C15" s="4">
-        <v>5.6072590040399603E-4</v>
+        <v>5.6400334114751105E-4</v>
       </c>
       <c r="D15" s="4">
         <v>118</v>
@@ -3769,10 +3769,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16" s="4">
-        <v>5.51589571609548E-4</v>
+        <v>5.6150515143356102E-4</v>
       </c>
       <c r="C16" s="4">
-        <v>5.5934546237930297E-4</v>
+        <v>5.7018749913955195E-4</v>
       </c>
       <c r="D16" s="4">
         <v>119</v>
@@ -3786,10 +3786,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17" s="4">
-        <v>5.5203349063262096E-4</v>
+        <v>5.5020542056774297E-4</v>
       </c>
       <c r="C17" s="4">
-        <v>5.5337943659322501E-4</v>
+        <v>5.5755975971564196E-4</v>
       </c>
       <c r="D17" s="4">
         <v>120</v>
@@ -3803,10 +3803,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>6.12014258451304E-4</v>
+        <v>5.6709624993003804E-4</v>
       </c>
       <c r="C18">
-        <v>6.2009717704371498E-4</v>
+        <v>5.5764072951919601E-4</v>
       </c>
       <c r="D18">
         <v>121</v>
@@ -3820,10 +3820,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>5.5908040822226003E-4</v>
+        <v>5.64253587790343E-4</v>
       </c>
       <c r="C19">
-        <v>5.6648457006729601E-4</v>
+        <v>5.7356802840964703E-4</v>
       </c>
       <c r="D19">
         <v>122</v>
@@ -3837,10 +3837,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>5.5539726212799E-4</v>
+        <v>5.7392573050092698E-4</v>
       </c>
       <c r="C20">
-        <v>5.6196183047970696E-4</v>
+        <v>5.8329950125086299E-4</v>
       </c>
       <c r="D20">
         <v>123</v>
@@ -3854,10 +3854,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>5.5331901611235096E-4</v>
+        <v>5.63760074322663E-4</v>
       </c>
       <c r="C21">
-        <v>5.5533339098551597E-4</v>
+        <v>5.7328183202462002E-4</v>
       </c>
       <c r="D21">
         <v>124</v>
@@ -3871,10 +3871,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>5.8137537292923098E-4</v>
+        <v>5.7702047667305902E-4</v>
       </c>
       <c r="C22">
-        <v>6.0503643892824302E-4</v>
+        <v>5.6891518724563504E-4</v>
       </c>
       <c r="D22">
         <v>125</v>
@@ -3888,10 +3888,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>5.7792697910546303E-4</v>
+        <v>5.6727869350130895E-4</v>
       </c>
       <c r="C23">
-        <v>5.8829273652047495E-4</v>
+        <v>5.6942994558971502E-4</v>
       </c>
       <c r="D23">
         <v>126</v>
@@ -3905,10 +3905,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>5.7086448740595503E-4</v>
+        <v>5.7347875127752705E-4</v>
       </c>
       <c r="C24">
-        <v>5.7334139134407899E-4</v>
+        <v>5.7596938509222901E-4</v>
       </c>
       <c r="D24">
         <v>127</v>
@@ -3922,10 +3922,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>5.7032930697537303E-4</v>
+        <v>5.7466911129018701E-4</v>
       </c>
       <c r="C25">
-        <v>5.6945721085054502E-4</v>
+        <v>5.9693068475167698E-4</v>
       </c>
       <c r="D25">
         <v>128</v>
@@ -3939,10 +3939,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>1.3237700486763699E-3</v>
+        <v>1.3617931944495999E-3</v>
       </c>
       <c r="C26">
-        <v>1.0636906551960001E-3</v>
+        <v>1.1074064046002999E-3</v>
       </c>
       <c r="D26">
         <v>129</v>
@@ -3956,10 +3956,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>1.2564666171687E-3</v>
+        <v>1.2433350072865101E-3</v>
       </c>
       <c r="C27">
-        <v>1.38782513169373E-3</v>
+        <v>1.12499105979841E-3</v>
       </c>
       <c r="D27">
         <v>130</v>
@@ -3973,10 +3973,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>1.33935560904532E-3</v>
+        <v>1.12794238609071E-3</v>
       </c>
       <c r="C28">
-        <v>1.0321882375060199E-3</v>
+        <v>1.0826792752169801E-3</v>
       </c>
       <c r="D28">
         <v>131</v>
@@ -3990,10 +3990,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>1.1655965749052899E-3</v>
+        <v>1.2108307397793801E-3</v>
       </c>
       <c r="C29">
-        <v>1.0730026133774599E-3</v>
+        <v>1.31870511458019E-3</v>
       </c>
       <c r="D29">
         <v>132</v>
@@ -4007,10 +4007,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>1.6318844482698901E-2</v>
+        <v>2.1324819323879599E-2</v>
       </c>
       <c r="C30">
-        <v>1.85683110922059E-2</v>
+        <v>1.6145660163233402E-2</v>
       </c>
       <c r="D30">
         <v>133</v>
@@ -4024,10 +4024,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>2.7349568882392299E-2</v>
+        <v>1.92772654147676E-2</v>
       </c>
       <c r="C31">
-        <v>1.6563240272745899E-2</v>
+        <v>1.99835585176803E-2</v>
       </c>
       <c r="D31">
         <v>134</v>
@@ -4041,10 +4041,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>15.1177433602353</v>
+        <v>2.4327690732386501E-2</v>
       </c>
       <c r="C32">
-        <v>14.8119982557093</v>
+        <v>1.4428749147071601E-2</v>
       </c>
       <c r="D32">
         <v>135</v>
@@ -4058,10 +4058,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>1.55212689461087E-2</v>
+        <v>1.9299329502454599E-2</v>
       </c>
       <c r="C33">
-        <v>1.5235615473121701E-2</v>
+        <v>1.9063989449103799E-2</v>
       </c>
       <c r="D33">
         <v>136</v>
@@ -4080,7 +4080,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F21"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4125,10 +4125,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="4">
-        <v>5.7213526770161997E-4</v>
+        <v>5.5343359059761203E-4</v>
       </c>
       <c r="C2" s="4">
-        <v>5.7967979321008501E-4</v>
+        <v>5.4072018689181199E-4</v>
       </c>
       <c r="D2" s="4">
         <v>137</v>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>5.5886484566144599E-4</v>
+        <v>5.5115335220552795E-4</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>5.60838353347672E-4</v>
+        <v>5.5023289498905455E-4</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -4162,10 +4162,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="4">
-        <v>5.5633761850185602E-4</v>
+        <v>5.50398194512275E-4</v>
       </c>
       <c r="C3" s="4">
-        <v>5.5990011946476501E-4</v>
+        <v>5.5498450027802301E-4</v>
       </c>
       <c r="D3" s="4">
         <v>138</v>
@@ -4179,11 +4179,11 @@
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>5.577222857585483E-4</v>
+        <v>5.5114568699580449E-4</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>5.5881259160084048E-4</v>
+        <v>5.5000474223354176E-4</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="1"/>
@@ -4199,10 +4199,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="4">
-        <v>5.5304856551811096E-4</v>
+        <v>5.5032955791679198E-4</v>
       </c>
       <c r="C4" s="4">
-        <v>5.5389056611370195E-4</v>
+        <v>5.5409974530575001E-4</v>
       </c>
       <c r="D4" s="4">
         <v>139</v>
@@ -4216,11 +4216,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>5.5757641303352974E-4</v>
+        <v>5.5090128311633703E-4</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>5.5906469424371575E-4</v>
+        <v>5.4991911204098506E-4</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -4236,10 +4236,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="4">
-        <v>5.53937930924197E-4</v>
+        <v>5.5045206579543301E-4</v>
       </c>
       <c r="C5" s="4">
-        <v>5.4988293460213604E-4</v>
+        <v>5.5112714748063295E-4</v>
       </c>
       <c r="D5" s="4">
         <v>140</v>
@@ -4253,11 +4253,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>5.5786461808020207E-4</v>
+        <v>5.5152816193426723E-4</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>5.5908525068166679E-4</v>
+        <v>5.5045413429542279E-4</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -4273,10 +4273,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="4">
-        <v>5.6727242873360695E-4</v>
+        <v>5.5277989132139396E-4</v>
       </c>
       <c r="C6" s="4">
-        <v>5.7172984970941501E-4</v>
+        <v>5.4067717806164902E-4</v>
       </c>
       <c r="D6" s="4">
         <v>141</v>
@@ -4291,11 +4291,11 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>5.575966974138278E-4</v>
+        <v>5.5533733632963725E-4</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="4"/>
-        <v>5.5755873015980153E-4</v>
+        <v>5.559606071085597E-4</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="4"/>
@@ -4311,10 +4311,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="4">
-        <v>5.5619322671554897E-4</v>
+        <v>5.5058654139231904E-4</v>
       </c>
       <c r="C7" s="4">
-        <v>5.5934000138609401E-4</v>
+        <v>5.5504683184119099E-4</v>
       </c>
       <c r="D7" s="4">
         <v>142</v>
@@ -4329,11 +4329,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>5.7657102254840185E-4</v>
+        <v>5.794705158882823E-4</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>5.8266314056496329E-4</v>
+        <v>5.8353469197570506E-4</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -4349,10 +4349,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="4">
-        <v>5.5352003282556903E-4</v>
+        <v>5.5056226758893299E-4</v>
       </c>
       <c r="C8" s="4">
-        <v>5.5424090533051596E-4</v>
+        <v>5.5341240750991099E-4</v>
       </c>
       <c r="D8" s="4">
         <v>143</v>
@@ -4367,11 +4367,11 @@
       </c>
       <c r="K8">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>1.47066866497819E-3</v>
+        <v>1.5474635625191849E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>9.9103632485221332E-4</v>
+        <v>1.240744731275515E-3</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
@@ -4387,10 +4387,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="4">
-        <v>5.5390345475946805E-4</v>
+        <v>5.5065404768057198E-4</v>
       </c>
       <c r="C9" s="4">
-        <v>5.4993960997733703E-4</v>
+        <v>5.5088255152141604E-4</v>
       </c>
       <c r="D9" s="4">
         <v>144</v>
@@ -4405,11 +4405,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>2.1123981047732124E-2</v>
+        <v>2.1260397495071803E-2</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>1.5199818058271249E-2</v>
+        <v>1.7580974797712298E-2</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -4425,10 +4425,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="4">
-        <v>5.6740354203308602E-4</v>
+        <v>5.5294964875737297E-4</v>
       </c>
       <c r="C10" s="4">
-        <v>5.73384049509533E-4</v>
+        <v>5.4065243759534405E-4</v>
       </c>
       <c r="D10" s="4">
         <v>145</v>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>5.5755873015980153E-4</v>
+        <v>5.4991911204098506E-4</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -4446,10 +4446,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="4">
-        <v>5.5612229369580697E-4</v>
+        <v>5.49927702918946E-4</v>
       </c>
       <c r="C11" s="4">
-        <v>5.5946558627220698E-4</v>
+        <v>5.5372723616966104E-4</v>
       </c>
       <c r="D11" s="4">
         <v>146</v>
@@ -4463,10 +4463,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="4">
-        <v>5.5301293195225297E-4</v>
+        <v>5.5026984420239E-4</v>
       </c>
       <c r="C12" s="4">
-        <v>5.5358422383854197E-4</v>
+        <v>5.5372275675859099E-4</v>
       </c>
       <c r="D12" s="4">
         <v>147</v>
@@ -4480,10 +4480,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="4">
-        <v>5.5376688445297302E-4</v>
+        <v>5.5045793658663905E-4</v>
       </c>
       <c r="C13" s="4">
-        <v>5.4982491735458105E-4</v>
+        <v>5.5157401764034403E-4</v>
       </c>
       <c r="D13" s="4">
         <v>148</v>
@@ -4497,10 +4497,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>5.6692848393383101E-4</v>
+        <v>5.53275916551332E-4</v>
       </c>
       <c r="C14">
-        <v>5.70611742775926E-4</v>
+        <v>5.4109182107097201E-4</v>
       </c>
       <c r="D14">
         <v>149</v>
@@ -4514,10 +4514,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>5.5697996766927303E-4</v>
+        <v>5.5072631072490997E-4</v>
       </c>
       <c r="C15">
-        <v>5.6032605711965101E-4</v>
+        <v>5.5411476877671197E-4</v>
       </c>
       <c r="D15">
         <v>150</v>
@@ -4531,10 +4531,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>5.5347614075678005E-4</v>
+        <v>5.5101420600175499E-4</v>
       </c>
       <c r="C16">
-        <v>5.5412525537750705E-4</v>
+        <v>5.5372517127130999E-4</v>
       </c>
       <c r="D16">
         <v>151</v>
@@ -4543,15 +4543,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>5.5407387996092398E-4</v>
+        <v>5.5109621445907197E-4</v>
       </c>
       <c r="C17">
-        <v>5.5127794745358301E-4</v>
+        <v>5.5288477606269698E-4</v>
       </c>
       <c r="D17">
         <v>152</v>
@@ -4560,15 +4560,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>1E-4</v>
       </c>
       <c r="B18" s="2">
-        <v>5.5849309770079902E-4</v>
+        <v>5.5660608339126402E-4</v>
       </c>
       <c r="C18" s="2">
-        <v>5.6121656064320505E-4</v>
+        <v>5.47794777681886E-4</v>
       </c>
       <c r="D18" s="2">
         <v>153</v>
@@ -4576,19 +4576,16 @@
       <c r="E18" s="2">
         <v>1</v>
       </c>
-      <c r="F18">
-        <v>4.2850000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>1E-4</v>
       </c>
       <c r="B19" s="2">
-        <v>5.5910072762829495E-4</v>
+        <v>5.52824733815283E-4</v>
       </c>
       <c r="C19" s="2">
-        <v>5.6178662665881804E-4</v>
+        <v>5.5608334744797097E-4</v>
       </c>
       <c r="D19" s="2">
         <v>154</v>
@@ -4596,19 +4593,16 @@
       <c r="E19" s="2">
         <v>1</v>
       </c>
-      <c r="F19">
-        <v>3.7719999999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>1E-4</v>
       </c>
       <c r="B20" s="2">
-        <v>5.5608052054109604E-4</v>
+        <v>5.5766394895578799E-4</v>
       </c>
       <c r="C20" s="2">
-        <v>5.5464549873153002E-4</v>
+        <v>5.5765186965500897E-4</v>
       </c>
       <c r="D20" s="2">
         <v>155</v>
@@ -4616,19 +4610,16 @@
       <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="F20">
-        <v>3.4710000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>1E-4</v>
       </c>
       <c r="B21" s="2">
-        <v>5.5671244378512096E-4</v>
+        <v>5.5425457915621399E-4</v>
       </c>
       <c r="C21" s="2">
-        <v>5.5258623460565303E-4</v>
+        <v>5.6231243364937295E-4</v>
       </c>
       <c r="D21" s="2">
         <v>156</v>
@@ -4636,19 +4627,16 @@
       <c r="E21" s="2">
         <v>1</v>
       </c>
-      <c r="F21">
-        <v>3.6960000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>5.77870686926568E-4</v>
+        <v>5.7422408436874303E-4</v>
       </c>
       <c r="C22">
-        <v>6.0604680936406996E-4</v>
+        <v>5.6707261673976403E-4</v>
       </c>
       <c r="D22">
         <v>157</v>
@@ -4657,15 +4645,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>5.7696052671720496E-4</v>
+        <v>5.7014813187335699E-4</v>
       </c>
       <c r="C23">
-        <v>5.7789786010386103E-4</v>
+        <v>5.7490078269657198E-4</v>
       </c>
       <c r="D23">
         <v>158</v>
@@ -4674,15 +4662,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>5.7213057810440605E-4</v>
+        <v>5.9865172716235503E-4</v>
       </c>
       <c r="C24">
-        <v>5.6605695460754503E-4</v>
+        <v>5.7058914378874798E-4</v>
       </c>
       <c r="D24">
         <v>159</v>
@@ -4691,15 +4679,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>5.7932229844542805E-4</v>
+        <v>5.7485812014867403E-4</v>
       </c>
       <c r="C25">
-        <v>5.8065093818437702E-4</v>
+        <v>6.2157622467773604E-4</v>
       </c>
       <c r="D25">
         <v>160</v>
@@ -4708,15 +4696,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>1.3135946316954899E-3</v>
+        <v>1.5346376212706501E-3</v>
       </c>
       <c r="C26">
-        <v>9.0158546771953204E-4</v>
+        <v>1.07975459150687E-3</v>
       </c>
       <c r="D26">
         <v>161</v>
@@ -4725,15 +4713,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>1.40552546021838E-3</v>
+        <v>1.6855742483319401E-3</v>
       </c>
       <c r="C27">
-        <v>1.1542474998389E-3</v>
+        <v>1.0763634492855301E-3</v>
       </c>
       <c r="D27">
         <v>162</v>
@@ -4742,15 +4730,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>1.23156331836556E-3</v>
+        <v>1.4829659574522301E-3</v>
       </c>
       <c r="C28">
-        <v>9.2040589128799199E-4</v>
+        <v>1.06521336733116E-3</v>
       </c>
       <c r="D28">
         <v>163</v>
@@ -4759,15 +4747,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>1.9319912496333299E-3</v>
+        <v>1.4866764230219199E-3</v>
       </c>
       <c r="C29">
-        <v>9.8790644056242897E-4</v>
+        <v>1.7416475169785E-3</v>
       </c>
       <c r="D29">
         <v>164</v>
@@ -4776,15 +4764,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>1.6005175056867299E-2</v>
+        <v>2.6457107910803E-2</v>
       </c>
       <c r="C30">
-        <v>1.5834851242463099E-2</v>
+        <v>1.4186851459236999E-2</v>
       </c>
       <c r="D30">
         <v>165</v>
@@ -4793,15 +4781,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>3.6089579729984202E-2</v>
+        <v>2.0228579875450702E-2</v>
       </c>
       <c r="C31">
-        <v>1.5813778644982401E-2</v>
+        <v>1.8354028705035899E-2</v>
       </c>
       <c r="D31">
         <v>166</v>
@@ -4810,15 +4798,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>1.6268470665750399E-2</v>
+        <v>1.9150206269830199E-2</v>
       </c>
       <c r="C32">
-        <v>1.38435089549525E-2</v>
+        <v>1.72224632328777E-2</v>
       </c>
       <c r="D32">
         <v>167</v>
@@ -4832,10 +4820,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>1.6132698738326599E-2</v>
+        <v>1.9205695924203299E-2</v>
       </c>
       <c r="C33">
-        <v>1.5307133390687001E-2</v>
+        <v>2.0560555793698601E-2</v>
       </c>
       <c r="D33">
         <v>168</v>
@@ -4899,329 +4887,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B40ADBCB-FBE6-7547-ADA9-23095BA43DDE}">
-  <dimension ref="A1:N29"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="J2" s="5" t="e">
-        <f>AVERAGE(A2:A5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K2" s="4" t="e">
-        <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N2" s="4" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="J3" s="5" t="e">
-        <f>AVERAGE(A6:A9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="4" t="e">
-        <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N3" s="4" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="J4" s="5" t="e">
-        <f>AVERAGE(A10:A13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="4" t="e">
-        <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="4" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="J5" s="5" t="e">
-        <f>AVERAGE(A14:A17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="4" t="e">
-        <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="4" t="e">
-        <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="J6" s="1" t="e">
-        <f>AVERAGE(A18:A21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" t="e">
-        <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="J7" s="1" t="e">
-        <f>AVERAGE(A22:A25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" t="e">
-        <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="J8" s="3" t="e">
-        <f>AVERAGE(A26:A29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="2" t="e">
-        <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="2" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="J9" s="1" t="e">
-        <f>AVERAGE(A30:A33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" t="e">
-        <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" t="e">
-        <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="L10" t="e">
-        <f>MIN(L2:L9)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8CC4B2-8DA2-7044-B8BB-C3865FE0A329}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:F33"/>
@@ -5265,248 +4931,1478 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="J2" s="5" t="e">
+      <c r="A2" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B2">
+        <v>6.5367025488256604E-3</v>
+      </c>
+      <c r="C2">
+        <v>6.64530609604678E-3</v>
+      </c>
+      <c r="D2">
+        <v>169</v>
+      </c>
+      <c r="E2">
+        <v>0.25</v>
+      </c>
+      <c r="J2" s="5">
         <f>AVERAGE(A2:A5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K2" s="4" t="e">
+        <v>1E-8</v>
+      </c>
+      <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L2" s="4" t="e">
+        <v>5.1504986897063752E-3</v>
+      </c>
+      <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" s="4" t="e">
+        <v>5.1820272391166801E-3</v>
+      </c>
+      <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N2" s="4" t="e">
+        <v>170.5</v>
+      </c>
+      <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="J3" s="5" t="e">
+      <c r="A3" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B3">
+        <v>3.5767385624113301E-3</v>
+      </c>
+      <c r="C3">
+        <v>3.6242245814373901E-3</v>
+      </c>
+      <c r="D3">
+        <v>170</v>
+      </c>
+      <c r="E3">
+        <v>0.25</v>
+      </c>
+      <c r="J3" s="5">
         <f>AVERAGE(A6:A9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="4" t="e">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="K3" s="4">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="4" t="e">
+        <v>5.1295808140671747E-3</v>
+      </c>
+      <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" s="4" t="e">
+        <v>5.165983954462207E-3</v>
+      </c>
+      <c r="M3" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N3" s="4" t="e">
+        <v>174.5</v>
+      </c>
+      <c r="N3" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="J4" s="5" t="e">
+      <c r="A4" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B4">
+        <v>5.9081509921558297E-3</v>
+      </c>
+      <c r="C4">
+        <v>5.9426493258981699E-3</v>
+      </c>
+      <c r="D4">
+        <v>171</v>
+      </c>
+      <c r="E4">
+        <v>0.25</v>
+      </c>
+      <c r="J4" s="5">
         <f>AVERAGE(A10:A13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="4" t="e">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="4" t="e">
+        <v>5.2632599615173572E-3</v>
+      </c>
+      <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="4" t="e">
+        <v>5.2994690302028422E-3</v>
+      </c>
+      <c r="M4" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="4" t="e">
+        <v>178.5</v>
+      </c>
+      <c r="N4" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="J5" s="5" t="e">
+      <c r="A5" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B5">
+        <v>4.5804026554326803E-3</v>
+      </c>
+      <c r="C5">
+        <v>4.5159289530843803E-3</v>
+      </c>
+      <c r="D5">
+        <v>172</v>
+      </c>
+      <c r="E5">
+        <v>0.25</v>
+      </c>
+      <c r="J5" s="5">
         <f>AVERAGE(A14:A17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="4" t="e">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="4" t="e">
+        <v>5.4266109651461471E-3</v>
+      </c>
+      <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="4" t="e">
+        <v>5.4232918913770852E-3</v>
+      </c>
+      <c r="M5" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="4" t="e">
+        <v>182.5</v>
+      </c>
+      <c r="N5" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="J6" s="1" t="e">
+      <c r="A6" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B6">
+        <v>6.5048278274038099E-3</v>
+      </c>
+      <c r="C6">
+        <v>6.6201810406733104E-3</v>
+      </c>
+      <c r="D6">
+        <v>173</v>
+      </c>
+      <c r="E6">
+        <v>0.25</v>
+      </c>
+      <c r="J6" s="1">
         <f>AVERAGE(A18:A21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" t="e">
+        <v>1E-4</v>
+      </c>
+      <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" t="e">
+        <v>5.5936553222245104E-3</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" t="e">
+        <v>5.4134691172409051E-3</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" t="e">
+        <v>186.5</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="J7" s="1" t="e">
+      <c r="A7" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B7">
+        <v>3.4879745172831799E-3</v>
+      </c>
+      <c r="C7">
+        <v>3.5509462438853799E-3</v>
+      </c>
+      <c r="D7">
+        <v>174</v>
+      </c>
+      <c r="E7">
+        <v>0.25</v>
+      </c>
+      <c r="J7" s="1">
         <f>AVERAGE(A22:A25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" t="e">
+        <v>1E-3</v>
+      </c>
+      <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" t="e">
+        <v>7.3292235890992799E-3</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" t="e">
+        <v>5.2300259460624325E-3</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" t="e">
+        <v>190.5</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="J8" s="3" t="e">
+      <c r="A8" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B8">
+        <v>5.93133247162722E-3</v>
+      </c>
+      <c r="C8">
+        <v>5.9426574366567998E-3</v>
+      </c>
+      <c r="D8">
+        <v>175</v>
+      </c>
+      <c r="E8">
+        <v>0.25</v>
+      </c>
+      <c r="J8" s="3">
         <f>AVERAGE(A26:A29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="2" t="e">
+        <v>0.01</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="2" t="e">
+        <v>2.636505176513625E-2</v>
+      </c>
+      <c r="L8" s="2">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="2" t="e">
+        <v>5.1440464029135725E-3</v>
+      </c>
+      <c r="M8" s="2">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="2" t="e">
+        <v>194.5</v>
+      </c>
+      <c r="N8" s="2">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="J9" s="1" t="e">
+      <c r="A9" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B9">
+        <v>4.5941884399544903E-3</v>
+      </c>
+      <c r="C9">
+        <v>4.5501510966333399E-3</v>
+      </c>
+      <c r="D9">
+        <v>176</v>
+      </c>
+      <c r="E9">
+        <v>0.25</v>
+      </c>
+      <c r="J9" s="1">
         <f>AVERAGE(A30:A33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" t="e">
+        <v>0.1</v>
+      </c>
+      <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" t="e">
+        <v>0.21570133620613702</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" t="e">
+        <v>5.9336495056712991E-3</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" t="e">
+        <v>198.5</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="L10" t="e">
+      <c r="A10" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B10">
+        <v>6.7620873510177296E-3</v>
+      </c>
+      <c r="C10">
+        <v>6.8854563397980099E-3</v>
+      </c>
+      <c r="D10">
+        <v>177</v>
+      </c>
+      <c r="E10">
+        <v>0.25</v>
+      </c>
+      <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>#DIV/0!</v>
+        <v>5.1440464029135725E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B11">
+        <v>3.47503049511321E-3</v>
+      </c>
+      <c r="C11">
+        <v>3.5386606874062199E-3</v>
+      </c>
+      <c r="D11">
+        <v>178</v>
+      </c>
+      <c r="E11">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B12">
+        <v>5.9915450460548596E-3</v>
+      </c>
+      <c r="C12">
+        <v>6.0227333945281096E-3</v>
+      </c>
+      <c r="D12">
+        <v>179</v>
+      </c>
+      <c r="E12">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B13">
+        <v>4.8243769538836301E-3</v>
+      </c>
+      <c r="C13">
+        <v>4.7510256990790298E-3</v>
+      </c>
+      <c r="D13">
+        <v>180</v>
+      </c>
+      <c r="E13">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B14">
+        <v>6.9613902699909597E-3</v>
+      </c>
+      <c r="C14">
+        <v>7.0600131220078096E-3</v>
+      </c>
+      <c r="D14">
+        <v>181</v>
+      </c>
+      <c r="E14">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B15">
+        <v>3.55436517326514E-3</v>
+      </c>
+      <c r="C15">
+        <v>3.5796228477943501E-3</v>
+      </c>
+      <c r="D15">
+        <v>182</v>
+      </c>
+      <c r="E15">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B16">
+        <v>6.6278196718025E-3</v>
+      </c>
+      <c r="C16">
+        <v>6.5677891827270896E-3</v>
+      </c>
+      <c r="D16">
+        <v>183</v>
+      </c>
+      <c r="E16">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B17">
+        <v>4.5628687455259902E-3</v>
+      </c>
+      <c r="C17">
+        <v>4.4857424129790902E-3</v>
+      </c>
+      <c r="D17">
+        <v>184</v>
+      </c>
+      <c r="E17">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1E-4</v>
+      </c>
+      <c r="B18">
+        <v>6.8464488191883697E-3</v>
+      </c>
+      <c r="C18">
+        <v>6.7202494291093498E-3</v>
+      </c>
+      <c r="D18">
+        <v>185</v>
+      </c>
+      <c r="E18">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1E-4</v>
+      </c>
+      <c r="B19">
+        <v>3.6834122000049901E-3</v>
+      </c>
+      <c r="C19">
+        <v>3.5371684080249101E-3</v>
+      </c>
+      <c r="D19">
+        <v>186</v>
+      </c>
+      <c r="E19">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1E-4</v>
+      </c>
+      <c r="B20">
+        <v>6.6775070986698701E-3</v>
+      </c>
+      <c r="C20">
+        <v>6.4792498132756199E-3</v>
+      </c>
+      <c r="D20">
+        <v>187</v>
+      </c>
+      <c r="E20">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1E-4</v>
+      </c>
+      <c r="B21">
+        <v>5.1672531710348097E-3</v>
+      </c>
+      <c r="C21">
+        <v>4.9172088185537397E-3</v>
+      </c>
+      <c r="D21">
+        <v>188</v>
+      </c>
+      <c r="E21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="B22" s="4">
+        <v>8.5986753383392005E-3</v>
+      </c>
+      <c r="C22" s="4">
+        <v>6.5702749769898901E-3</v>
+      </c>
+      <c r="D22" s="4">
+        <v>189</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="B23" s="4">
+        <v>5.5460158641202498E-3</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3.5056631829400902E-3</v>
+      </c>
+      <c r="D23" s="4">
+        <v>190</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="B24" s="4">
+        <v>8.3428928274896993E-3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>6.1957367188945596E-3</v>
+      </c>
+      <c r="D24" s="4">
+        <v>191</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>1E-3</v>
+      </c>
+      <c r="B25" s="4">
+        <v>6.8293103264479701E-3</v>
+      </c>
+      <c r="C25" s="4">
+        <v>4.6484289054251901E-3</v>
+      </c>
+      <c r="D25" s="4">
+        <v>192</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2.8401250113980599E-2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>7.0457514316503702E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>193</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.25</v>
+      </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="A27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2.3997702128902201E-2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3.1670448959722499E-3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>194</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.25</v>
+      </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="A28" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2.7554209426611201E-2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>5.9242550153992598E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>195</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.25</v>
+      </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="A29" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2.5507045391051E-2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4.4391342686324097E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>196</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.25</v>
+      </c>
       <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.1</v>
+      </c>
+      <c r="B30">
+        <v>0.21756833244728099</v>
+      </c>
+      <c r="C30">
+        <v>7.5269080934267998E-3</v>
+      </c>
+      <c r="D30">
+        <v>197</v>
+      </c>
+      <c r="E30">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.1</v>
+      </c>
+      <c r="B31">
+        <v>0.21305504384674601</v>
+      </c>
+      <c r="C31">
+        <v>4.75092170040913E-3</v>
+      </c>
+      <c r="D31">
+        <v>198</v>
+      </c>
+      <c r="E31">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.1</v>
+      </c>
+      <c r="B32">
+        <v>0.21897726930394901</v>
+      </c>
+      <c r="C32">
+        <v>6.2163354168775697E-3</v>
+      </c>
+      <c r="D32">
+        <v>199</v>
+      </c>
+      <c r="E32">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33">
+        <v>0.21320469922657201</v>
+      </c>
+      <c r="C33">
+        <v>5.2404328119716997E-3</v>
+      </c>
+      <c r="D33">
+        <v>200</v>
+      </c>
+      <c r="E33">
+        <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8CC4B2-8DA2-7044-B8BB-C3865FE0A329}">
+  <dimension ref="A1:N33"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B2">
+        <v>1.77884578577296E-3</v>
+      </c>
+      <c r="C2">
+        <v>1.7971621967757801E-3</v>
+      </c>
+      <c r="D2">
+        <v>201</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="5">
+        <f>AVERAGE(A2:A5)</f>
+        <v>1E-8</v>
+      </c>
+      <c r="K2" s="4">
+        <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
+        <v>1.5237353978289998E-3</v>
+      </c>
+      <c r="L2" s="4">
+        <f t="shared" si="0"/>
+        <v>1.53837799200717E-3</v>
+      </c>
+      <c r="M2" s="4">
+        <f t="shared" si="0"/>
+        <v>202.5</v>
+      </c>
+      <c r="N2" s="4">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B3">
+        <v>1.28747296303059E-3</v>
+      </c>
+      <c r="C3">
+        <v>1.32012235065568E-3</v>
+      </c>
+      <c r="D3">
+        <v>202</v>
+      </c>
+      <c r="E3">
+        <v>0.5</v>
+      </c>
+      <c r="J3" s="5">
+        <f>AVERAGE(A6:A9)</f>
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
+        <v>1.5022019895718974E-3</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" si="1"/>
+        <v>1.5155407872722924E-3</v>
+      </c>
+      <c r="M3" s="4">
+        <f t="shared" si="1"/>
+        <v>206.5</v>
+      </c>
+      <c r="N3" s="4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B4">
+        <v>1.5693911941496599E-3</v>
+      </c>
+      <c r="C4">
+        <v>1.58037587298858E-3</v>
+      </c>
+      <c r="D4">
+        <v>203</v>
+      </c>
+      <c r="E4">
+        <v>0.5</v>
+      </c>
+      <c r="J4" s="5">
+        <f>AVERAGE(A10:A13)</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
+        <v>1.5225026333499901E-3</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5350730052288526E-3</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="2"/>
+        <v>210.5</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B5">
+        <v>1.45923164836279E-3</v>
+      </c>
+      <c r="C5">
+        <v>1.4558515476086401E-3</v>
+      </c>
+      <c r="D5">
+        <v>204</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="5">
+        <f>AVERAGE(A14:A17)</f>
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
+        <v>1.5492305724220125E-3</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="3"/>
+        <v>1.5427397956034176E-3</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="3"/>
+        <v>214.5</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B6">
+        <v>1.7587118144414E-3</v>
+      </c>
+      <c r="C6">
+        <v>1.7738830168507499E-3</v>
+      </c>
+      <c r="D6">
+        <v>205</v>
+      </c>
+      <c r="E6">
+        <v>0.5</v>
+      </c>
+      <c r="J6" s="1">
+        <f>AVERAGE(A18:A21)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
+        <v>1.7164201858663975E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>1.5243585339358302E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>218.5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B7">
+        <v>1.2720715726138401E-3</v>
+      </c>
+      <c r="C7">
+        <v>1.3032096122756901E-3</v>
+      </c>
+      <c r="D7">
+        <v>206</v>
+      </c>
+      <c r="E7">
+        <v>0.5</v>
+      </c>
+      <c r="J7" s="1">
+        <f>AVERAGE(A22:A25)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
+        <v>3.577948844128515E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="5"/>
+        <v>1.5213765208373599E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="5"/>
+        <v>222.5</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B8">
+        <v>1.5196850594536499E-3</v>
+      </c>
+      <c r="C8">
+        <v>1.5300526828917701E-3</v>
+      </c>
+      <c r="D8">
+        <v>207</v>
+      </c>
+      <c r="E8">
+        <v>0.5</v>
+      </c>
+      <c r="J8" s="3">
+        <f>AVERAGE(A26:A29)</f>
+        <v>0.01</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
+        <v>2.2106779765954598E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="6"/>
+        <v>1.4620949248960076E-3</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" si="6"/>
+        <v>226.5</v>
+      </c>
+      <c r="N8" s="2">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B9">
+        <v>1.4583395117787001E-3</v>
+      </c>
+      <c r="C9">
+        <v>1.4550178370709599E-3</v>
+      </c>
+      <c r="D9">
+        <v>208</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="J9" s="1">
+        <f>AVERAGE(A30:A33)</f>
+        <v>0.1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
+        <v>0.20683521454691076</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="7"/>
+        <v>2.3684965806152576E-3</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="7"/>
+        <v>230.5</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B10">
+        <v>1.7628746424582101E-3</v>
+      </c>
+      <c r="C10">
+        <v>1.77892342893571E-3</v>
+      </c>
+      <c r="D10">
+        <v>209</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="L10">
+        <f>MIN(L2:L9)</f>
+        <v>1.4620949248960076E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B11">
+        <v>1.2881169014070501E-3</v>
+      </c>
+      <c r="C11">
+        <v>1.31927758508326E-3</v>
+      </c>
+      <c r="D11">
+        <v>210</v>
+      </c>
+      <c r="E11">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B12">
+        <v>1.5662641792445399E-3</v>
+      </c>
+      <c r="C12">
+        <v>1.57500272233605E-3</v>
+      </c>
+      <c r="D12">
+        <v>211</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B13">
+        <v>1.47275481029016E-3</v>
+      </c>
+      <c r="C13">
+        <v>1.4670882845603901E-3</v>
+      </c>
+      <c r="D13">
+        <v>212</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B14">
+        <v>1.8239443770247899E-3</v>
+      </c>
+      <c r="C14">
+        <v>1.82267447898187E-3</v>
+      </c>
+      <c r="D14">
+        <v>213</v>
+      </c>
+      <c r="E14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B15">
+        <v>1.29476885213427E-3</v>
+      </c>
+      <c r="C15">
+        <v>1.3061533799937201E-3</v>
+      </c>
+      <c r="D15">
+        <v>214</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B16">
+        <v>1.57254306187224E-3</v>
+      </c>
+      <c r="C16">
+        <v>1.5644293935686501E-3</v>
+      </c>
+      <c r="D16">
+        <v>215</v>
+      </c>
+      <c r="E16">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B17">
+        <v>1.50566599865675E-3</v>
+      </c>
+      <c r="C17">
+        <v>1.47770192986943E-3</v>
+      </c>
+      <c r="D17">
+        <v>216</v>
+      </c>
+      <c r="E17">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1E-4</v>
+      </c>
+      <c r="B18">
+        <v>1.9946430533958198E-3</v>
+      </c>
+      <c r="C18">
+        <v>1.80691802473385E-3</v>
+      </c>
+      <c r="D18">
+        <v>217</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1E-4</v>
+      </c>
+      <c r="B19">
+        <v>1.4655526073435901E-3</v>
+      </c>
+      <c r="C19">
+        <v>1.29217443150715E-3</v>
+      </c>
+      <c r="D19">
+        <v>218</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1E-4</v>
+      </c>
+      <c r="B20">
+        <v>1.7352977079475699E-3</v>
+      </c>
+      <c r="C20">
+        <v>1.54093246836262E-3</v>
+      </c>
+      <c r="D20">
+        <v>219</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1E-4</v>
+      </c>
+      <c r="B21">
+        <v>1.6701873747786099E-3</v>
+      </c>
+      <c r="C21">
+        <v>1.4574092111396999E-3</v>
+      </c>
+      <c r="D21">
+        <v>220</v>
+      </c>
+      <c r="E21">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1E-3</v>
+      </c>
+      <c r="B22">
+        <v>3.87979635915416E-3</v>
+      </c>
+      <c r="C22">
+        <v>1.82451998455379E-3</v>
+      </c>
+      <c r="D22">
+        <v>221</v>
+      </c>
+      <c r="E22">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1E-3</v>
+      </c>
+      <c r="B23">
+        <v>3.3347941252883399E-3</v>
+      </c>
+      <c r="C23">
+        <v>1.30460995155139E-3</v>
+      </c>
+      <c r="D23">
+        <v>222</v>
+      </c>
+      <c r="E23">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1E-3</v>
+      </c>
+      <c r="B24">
+        <v>3.5897746109729901E-3</v>
+      </c>
+      <c r="C24">
+        <v>1.5202578425383799E-3</v>
+      </c>
+      <c r="D24">
+        <v>223</v>
+      </c>
+      <c r="E24">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1E-3</v>
+      </c>
+      <c r="B25">
+        <v>3.50743028109857E-3</v>
+      </c>
+      <c r="C25">
+        <v>1.43611830470588E-3</v>
+      </c>
+      <c r="D25">
+        <v>224</v>
+      </c>
+      <c r="E25">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2.2420305355339201E-2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.69412703459634E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>225</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2.1794526950474E-2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.2796084113607599E-3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>226</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2.2170726981037701E-2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1.4557357246787099E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>227</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2.20415597769675E-2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1.4189085289482201E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>228</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.1</v>
+      </c>
+      <c r="B30">
+        <v>0.20799754417625901</v>
+      </c>
+      <c r="C30">
+        <v>2.7043908463107199E-3</v>
+      </c>
+      <c r="D30">
+        <v>229</v>
+      </c>
+      <c r="E30">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.1</v>
+      </c>
+      <c r="B31">
+        <v>0.20661122736277801</v>
+      </c>
+      <c r="C31">
+        <v>2.19636327952523E-3</v>
+      </c>
+      <c r="D31">
+        <v>230</v>
+      </c>
+      <c r="E31">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.1</v>
+      </c>
+      <c r="B32">
+        <v>0.20613657403144101</v>
+      </c>
+      <c r="C32">
+        <v>2.21232969691104E-3</v>
+      </c>
+      <c r="D32">
+        <v>231</v>
+      </c>
+      <c r="E32">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33">
+        <v>0.20659551261716499</v>
+      </c>
+      <c r="C33">
+        <v>2.3609024997140399E-3</v>
+      </c>
+      <c r="D33">
+        <v>232</v>
+      </c>
+      <c r="E33">
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5515,10 +6411,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5559,248 +6455,716 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
-      <c r="J2" s="5" t="e">
+      <c r="A2" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B2">
+        <v>9.9767008242152705E-4</v>
+      </c>
+      <c r="C2">
+        <v>9.8618136827916393E-4</v>
+      </c>
+      <c r="D2">
+        <v>233</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
         <f>AVERAGE(A2:A5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K2" s="4" t="e">
+        <v>1E-8</v>
+      </c>
+      <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L2" s="4" t="e">
+        <v>9.5947488151027979E-4</v>
+      </c>
+      <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M2" s="4" t="e">
+        <v>9.6096264627980213E-4</v>
+      </c>
+      <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N2" s="4" t="e">
+        <v>234.5</v>
+      </c>
+      <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
-      <c r="J3" s="5" t="e">
+      <c r="A3" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B3">
+        <v>9.2148025555107598E-4</v>
+      </c>
+      <c r="C3">
+        <v>9.3177945612446403E-4</v>
+      </c>
+      <c r="D3">
+        <v>234</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
         <f>AVERAGE(A6:A9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K3" s="4" t="e">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="K3" s="4">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L3" s="4" t="e">
+        <v>9.597589274568585E-4</v>
+      </c>
+      <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M3" s="4" t="e">
+        <v>9.6084900097950917E-4</v>
+      </c>
+      <c r="M3" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N3" s="4" t="e">
+        <v>238.5</v>
+      </c>
+      <c r="N3" s="4">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
-      <c r="J4" s="5" t="e">
+      <c r="A4" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B4">
+        <v>9.5339407274029403E-4</v>
+      </c>
+      <c r="C4">
+        <v>9.59990674311507E-4</v>
+      </c>
+      <c r="D4">
+        <v>235</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
         <f>AVERAGE(A10:A13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K4" s="4" t="e">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="4" t="e">
+        <v>9.6764815684865948E-4</v>
+      </c>
+      <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="4" t="e">
+        <v>9.6702461626050522E-4</v>
+      </c>
+      <c r="M4" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="4" t="e">
+        <v>242.5</v>
+      </c>
+      <c r="N4" s="4">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-      <c r="J5" s="5" t="e">
+      <c r="A5" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="B5">
+        <v>9.65355115328222E-4</v>
+      </c>
+      <c r="C5">
+        <v>9.6589908640407301E-4</v>
+      </c>
+      <c r="D5">
+        <v>236</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
         <f>AVERAGE(A14:A17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K5" s="4" t="e">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="4" t="e">
+        <v>9.8158269038292893E-4</v>
+      </c>
+      <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="4" t="e">
+        <v>9.6236621792268997E-4</v>
+      </c>
+      <c r="M5" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="4" t="e">
+        <v>246.5</v>
+      </c>
+      <c r="N5" s="4">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
-      <c r="J6" s="1" t="e">
+      <c r="A6" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B6">
+        <v>9.9518094896175208E-4</v>
+      </c>
+      <c r="C6">
+        <v>9.8326038554475792E-4</v>
+      </c>
+      <c r="D6">
+        <v>237</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
         <f>AVERAGE(A18:A21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K6" t="e">
+        <v>1E-4</v>
+      </c>
+      <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L6" t="e">
+        <v>1.1655166177521625E-3</v>
+      </c>
+      <c r="L6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M6" t="e">
+        <v>9.6219996708044411E-4</v>
+      </c>
+      <c r="M6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N6" t="e">
+        <v>250.5</v>
+      </c>
+      <c r="N6">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="J7" s="1" t="e">
+      <c r="A7" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B7">
+        <v>9.2647618951853105E-4</v>
+      </c>
+      <c r="C7">
+        <v>9.3685688386093498E-4</v>
+      </c>
+      <c r="D7">
+        <v>238</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
         <f>AVERAGE(A22:A25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K7" t="e">
+        <v>1E-3</v>
+      </c>
+      <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L7" t="e">
+        <v>3.0047134572518028E-3</v>
+      </c>
+      <c r="L7">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M7" t="e">
+        <v>9.5432318096444024E-4</v>
+      </c>
+      <c r="M7">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N7" t="e">
+        <v>254.5</v>
+      </c>
+      <c r="N7">
         <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="J8" s="3" t="e">
+      <c r="A8" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B8">
+        <v>9.4991779090991297E-4</v>
+      </c>
+      <c r="C8">
+        <v>9.5643786215400203E-4</v>
+      </c>
+      <c r="D8">
+        <v>239</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
         <f>AVERAGE(A26:A29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" s="2" t="e">
+        <v>0.01</v>
+      </c>
+      <c r="K8" s="2">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" s="2" t="e">
+        <v>2.1383219841903348E-2</v>
+      </c>
+      <c r="L8" s="2">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" s="2" t="e">
+        <v>9.4416983778547155E-4</v>
+      </c>
+      <c r="M8" s="2">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" s="2" t="e">
+        <v>258.5</v>
+      </c>
+      <c r="N8" s="2">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="J9" s="1" t="e">
+      <c r="A9" s="1">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="B9">
+        <v>9.6746078043723801E-4</v>
+      </c>
+      <c r="C9">
+        <v>9.6684087235834198E-4</v>
+      </c>
+      <c r="D9">
+        <v>240</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
         <f>AVERAGE(A30:A33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" t="e">
+        <v>0.1</v>
+      </c>
+      <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" t="e">
+        <v>0.20498049949495098</v>
+      </c>
+      <c r="L9">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" t="e">
+        <v>1.7196528887659076E-3</v>
+      </c>
+      <c r="M9">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" t="e">
+        <v>262.5</v>
+      </c>
+      <c r="N9">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="L10" t="e">
+      <c r="A10" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B10">
+        <v>1.01159085570194E-3</v>
+      </c>
+      <c r="C10">
+        <v>9.9797288171027398E-4</v>
+      </c>
+      <c r="D10">
+        <v>241</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>#DIV/0!</v>
+        <v>9.4416983778547155E-4</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B11">
+        <v>9.3718886821004101E-4</v>
+      </c>
+      <c r="C11">
+        <v>9.4636894623996502E-4</v>
+      </c>
+      <c r="D11">
+        <v>242</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B12">
+        <v>9.4727720000064002E-4</v>
+      </c>
+      <c r="C12">
+        <v>9.5147071362036803E-4</v>
+      </c>
+      <c r="D12">
+        <v>243</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B13">
+        <v>9.74535703482017E-4</v>
+      </c>
+      <c r="C13">
+        <v>9.7228592347141395E-4</v>
+      </c>
+      <c r="D13">
+        <v>244</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B14">
+        <v>1.01748761626484E-3</v>
+      </c>
+      <c r="C14">
+        <v>9.8591014931473505E-4</v>
+      </c>
+      <c r="D14">
+        <v>245</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B15">
+        <v>9.5289946922782402E-4</v>
+      </c>
+      <c r="C15">
+        <v>9.4216007995713905E-4</v>
+      </c>
+      <c r="D15">
+        <v>246</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B16">
+        <v>9.7016556621395196E-4</v>
+      </c>
+      <c r="C16">
+        <v>9.5622040791130502E-4</v>
+      </c>
+      <c r="D16">
+        <v>247</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B17">
+        <v>9.8577810982510006E-4</v>
+      </c>
+      <c r="C17">
+        <v>9.6517423450758096E-4</v>
+      </c>
+      <c r="D17">
+        <v>248</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1E-4</v>
+      </c>
+      <c r="B18">
+        <v>1.2007969369838001E-3</v>
+      </c>
+      <c r="C18">
+        <v>9.8427197279974407E-4</v>
+      </c>
+      <c r="D18">
+        <v>249</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1E-4</v>
+      </c>
+      <c r="B19">
+        <v>1.13205815637156E-3</v>
+      </c>
+      <c r="C19">
+        <v>9.3844967682056005E-4</v>
+      </c>
+      <c r="D19">
+        <v>250</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1E-4</v>
+      </c>
+      <c r="B20">
+        <v>1.15469757083672E-3</v>
+      </c>
+      <c r="C20">
+        <v>9.5616560503015199E-4</v>
+      </c>
+      <c r="D20">
+        <v>251</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1E-4</v>
+      </c>
+      <c r="B21">
+        <v>1.17451380681657E-3</v>
+      </c>
+      <c r="C21">
+        <v>9.6991261367132E-4</v>
+      </c>
+      <c r="D21">
+        <v>252</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1E-3</v>
+      </c>
+      <c r="B22">
+        <v>3.0483196202379902E-3</v>
+      </c>
+      <c r="C22">
+        <v>9.8336595434789795E-4</v>
+      </c>
+      <c r="D22">
+        <v>253</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1E-3</v>
+      </c>
+      <c r="B23">
+        <v>2.9648033814272598E-3</v>
+      </c>
+      <c r="C23">
+        <v>9.2394243044590003E-4</v>
+      </c>
+      <c r="D23">
+        <v>254</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1E-3</v>
+      </c>
+      <c r="B24">
+        <v>2.99146225655112E-3</v>
+      </c>
+      <c r="C24">
+        <v>9.4398948190073601E-4</v>
+      </c>
+      <c r="D24">
+        <v>255</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1E-3</v>
+      </c>
+      <c r="B25">
+        <v>3.01426857079084E-3</v>
+      </c>
+      <c r="C25">
+        <v>9.6599485716322697E-4</v>
+      </c>
+      <c r="D25">
+        <v>256</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="A26" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2.14395333236208E-2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>9.7906691334622895E-4</v>
+      </c>
+      <c r="D26" s="2">
+        <v>257</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1</v>
+      </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
+      <c r="A27" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B27" s="2">
+        <v>2.1372529847648501E-2</v>
+      </c>
+      <c r="C27" s="2">
+        <v>9.1469166962477005E-4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>258</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="A28" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2.1366966376527401E-2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>9.4087175948285901E-4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>259</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="A29" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2.1353849819816698E-2</v>
+      </c>
+      <c r="C29" s="2">
+        <v>9.4204900868802798E-4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>260</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
       <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>0.1</v>
+      </c>
+      <c r="B30">
+        <v>0.20536400453922399</v>
+      </c>
+      <c r="C30">
+        <v>1.81456569941785E-3</v>
+      </c>
+      <c r="D30">
+        <v>261</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>0.1</v>
+      </c>
+      <c r="B31">
+        <v>0.20473173979562601</v>
+      </c>
+      <c r="C31">
+        <v>1.6624161832128801E-3</v>
+      </c>
+      <c r="D31">
+        <v>262</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>0.1</v>
+      </c>
+      <c r="B32">
+        <v>0.20490716288264901</v>
+      </c>
+      <c r="C32">
+        <v>1.6494592094699601E-3</v>
+      </c>
+      <c r="D32">
+        <v>263</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.1</v>
+      </c>
+      <c r="B33">
+        <v>0.204919090762305</v>
+      </c>
+      <c r="C33">
+        <v>1.7521704629629401E-3</v>
+      </c>
+      <c r="D33">
+        <v>264</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/eg1.xlsx
+++ b/eg1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F106CEB6-32AC-8749-874B-F05EAE1FA8BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD2C60C-A85B-F043-B501-A7ADA72DDD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -463,7 +463,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A2" sqref="A2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,13 +511,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>1.0050479173660201</v>
+        <v>1.00504899024963</v>
       </c>
       <c r="C2">
-        <v>4.7457120237471102</v>
+        <v>3.4132827455347199</v>
       </c>
       <c r="D2">
-        <v>4.7347926731351002</v>
+        <v>3.4388895034789999</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -531,15 +531,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
-        <v>1.0050479173660201</v>
+        <v>1.00504899024963</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>4.8144089096709077</v>
+        <v>3.4355944292111804</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>4.7435352440121772</v>
+        <v>3.4497718968174622</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
@@ -555,13 +555,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1.0050479173660201</v>
+        <v>1.00504899024963</v>
       </c>
       <c r="C3">
-        <v>4.7790034360523403</v>
+        <v>3.4701599359512301</v>
       </c>
       <c r="D3">
-        <v>4.8193926962116098</v>
+        <v>3.4450843420895598</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -575,15 +575,15 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.0100958347320499</v>
+        <v>2.01009798049926</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>1.6229400248045675E-3</v>
+        <v>9.3572587542108685E-4</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>1.7004656217494175E-3</v>
+        <v>9.6484803507337154E-4</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
@@ -599,13 +599,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>1.0050479173660201</v>
+        <v>1.00504899024963</v>
       </c>
       <c r="C4">
-        <v>4.9019055758850403</v>
+        <v>3.3709489865736502</v>
       </c>
       <c r="D4">
-        <v>4.6951888512961402</v>
+        <v>3.48927094502882</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -619,15 +619,15 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
-        <v>4.0201916694641104</v>
+        <v>4.0201959609985298</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>6.19068410235775E-4</v>
+        <v>5.8061252321666931E-4</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>6.3586766835997601E-4</v>
+        <v>5.9243992079493796E-4</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
@@ -643,13 +643,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>1.0050479173660201</v>
+        <v>1.00504899024963</v>
       </c>
       <c r="C5">
-        <v>4.8310146029991401</v>
+        <v>3.4879860487851202</v>
       </c>
       <c r="D5">
-        <v>4.7247667554058603</v>
+        <v>3.42584279667247</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -663,15 +663,15 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
-        <v>8.0403833389282209</v>
+        <v>8.0403919219970703</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="3"/>
-        <v>5.7824251996839524E-4</v>
+        <v>5.640959919467355E-4</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>6.0093953993312858E-4</v>
+        <v>5.7541524332588149E-4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="3"/>
@@ -687,13 +687,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2.0100958347320499</v>
+        <v>2.01009798049926</v>
       </c>
       <c r="C6">
-        <v>1.76607635862465E-3</v>
+        <v>8.5400857338258399E-4</v>
       </c>
       <c r="D6">
-        <v>1.7090235185467501E-3</v>
+        <v>8.9099823169156204E-4</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -707,15 +707,15 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
-        <v>16.080766677856399</v>
+        <v>16.080783843994102</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>6.0012534498738075E-4</v>
+        <v>5.7211699326713077E-4</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>6.255353762270122E-4</v>
+        <v>5.8550502944854045E-4</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -731,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2.0100958347320499</v>
+        <v>2.01009798049926</v>
       </c>
       <c r="C7">
-        <v>1.75312340636796E-3</v>
+        <v>8.2825333705510598E-4</v>
       </c>
       <c r="D7">
-        <v>2.0156887380547699E-3</v>
+        <v>8.4645071130415197E-4</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -751,15 +751,15 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
-        <v>32.161533355712798</v>
+        <v>32.161567687988203</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>6.1611708519240522E-4</v>
+        <v>5.8424474019292609E-4</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>6.4377526520925253E-4</v>
+        <v>5.9898633586602567E-4</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -775,13 +775,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2.0100958347320499</v>
+        <v>2.01009798049926</v>
       </c>
       <c r="C8">
-        <v>1.7534439729031499E-3</v>
+        <v>8.2674835840324695E-4</v>
       </c>
       <c r="D8">
-        <v>1.7041166451511999E-3</v>
+        <v>8.5922873907045205E-4</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -791,7 +791,7 @@
       </c>
       <c r="M8">
         <f>MIN(M2:M7)</f>
-        <v>6.0093953993312858E-4</v>
+        <v>5.7541524332588149E-4</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -799,13 +799,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>2.0100958347320499</v>
+        <v>2.01009798049926</v>
       </c>
       <c r="C9">
-        <v>1.21911636132251E-3</v>
+        <v>1.2338932328434099E-3</v>
       </c>
       <c r="D9">
-        <v>1.37303358524495E-3</v>
+        <v>1.2627144582273201E-3</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -819,13 +819,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>4.0201916694641104</v>
+        <v>4.0201959609985298</v>
       </c>
       <c r="C10" s="4">
-        <v>6.4306676865237002E-4</v>
+        <v>5.8273408424363204E-4</v>
       </c>
       <c r="D10" s="4">
-        <v>6.4083624592852504E-4</v>
+        <v>5.9566776088269596E-4</v>
       </c>
       <c r="E10" s="4">
         <v>9</v>
@@ -839,13 +839,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>4.0201916694641104</v>
+        <v>4.0201959609985298</v>
       </c>
       <c r="C11" s="4">
-        <v>6.1166549802910998E-4</v>
+        <v>5.6992139751938203E-4</v>
       </c>
       <c r="D11" s="4">
-        <v>6.3684113585991302E-4</v>
+        <v>5.8171367801895097E-4</v>
       </c>
       <c r="E11" s="4">
         <v>10</v>
@@ -859,13 +859,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>4.0201916694641104</v>
+        <v>4.0201959609985298</v>
       </c>
       <c r="C12" s="4">
-        <v>6.3254258041328996E-4</v>
+        <v>5.8110459834675901E-4</v>
       </c>
       <c r="D12" s="4">
-        <v>6.4054125023982095E-4</v>
+        <v>5.9667690233750699E-4</v>
       </c>
       <c r="E12" s="4">
         <v>11</v>
@@ -879,13 +879,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>4.0201916694641104</v>
+        <v>4.0201959609985298</v>
       </c>
       <c r="C13" s="4">
-        <v>5.8899879384833004E-4</v>
+        <v>5.8869001275690404E-4</v>
       </c>
       <c r="D13" s="4">
-        <v>6.2525204141164502E-4</v>
+        <v>5.9570134194059804E-4</v>
       </c>
       <c r="E13" s="4">
         <v>12</v>
@@ -899,13 +899,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>8.0403833389282209</v>
+        <v>8.0403919219970703</v>
       </c>
       <c r="C14" s="4">
-        <v>5.8571830070636502E-4</v>
+        <v>5.7598670193163501E-4</v>
       </c>
       <c r="D14" s="4">
-        <v>5.9330104437621295E-4</v>
+        <v>5.8949776311320297E-4</v>
       </c>
       <c r="E14" s="4">
         <v>13</v>
@@ -919,13 +919,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>8.0403833389282209</v>
+        <v>8.0403919219970703</v>
       </c>
       <c r="C15" s="4">
-        <v>5.6518891073256401E-4</v>
+        <v>5.5601611569396797E-4</v>
       </c>
       <c r="D15" s="4">
-        <v>5.9470152290820805E-4</v>
+        <v>5.7147390008057298E-4</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -939,13 +939,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="4">
-        <v>8.0403833389282209</v>
+        <v>8.0403919219970703</v>
       </c>
       <c r="C16" s="4">
-        <v>5.7958025349704899E-4</v>
+        <v>5.6400653662752695E-4</v>
       </c>
       <c r="D16" s="4">
-        <v>6.0262418605528604E-4</v>
+        <v>5.7286358681845999E-4</v>
       </c>
       <c r="E16" s="4">
         <v>15</v>
@@ -959,13 +959,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>8.0403833389282209</v>
+        <v>8.0403919219970703</v>
       </c>
       <c r="C17" s="4">
-        <v>5.8248261493760295E-4</v>
+        <v>5.6037461353381196E-4</v>
       </c>
       <c r="D17" s="4">
-        <v>6.1313140639280704E-4</v>
+        <v>5.6782572329129003E-4</v>
       </c>
       <c r="E17" s="4">
         <v>16</v>
@@ -979,13 +979,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>16.080766677856399</v>
+        <v>16.080783843994102</v>
       </c>
       <c r="C18">
-        <v>6.1419451847978903E-4</v>
+        <v>5.7377456422810498E-4</v>
       </c>
       <c r="D18">
-        <v>6.2421370736806601E-4</v>
+        <v>5.8356439192059695E-4</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -999,13 +999,13 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>16.080766677856399</v>
+        <v>16.080783843994102</v>
       </c>
       <c r="C19">
-        <v>5.98991958754538E-4</v>
+        <v>5.7163134042639201E-4</v>
       </c>
       <c r="D19">
-        <v>6.31568254902958E-4</v>
+        <v>5.9295271745544195E-4</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1019,13 +1019,13 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>16.080766677856399</v>
+        <v>16.080783843994102</v>
       </c>
       <c r="C20">
-        <v>5.8982466403512796E-4</v>
+        <v>5.6946612047878095E-4</v>
       </c>
       <c r="D20">
-        <v>6.0765727429025896E-4</v>
+        <v>5.8032722551036901E-4</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1039,13 +1039,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>16.080766677856399</v>
+        <v>16.080783843994102</v>
       </c>
       <c r="C21">
-        <v>5.9749023868006801E-4</v>
+        <v>5.7359594793524504E-4</v>
       </c>
       <c r="D21">
-        <v>6.3870226834676603E-4</v>
+        <v>5.8517578290775399E-4</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1059,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <v>32.161533355712798</v>
+        <v>32.161567687988203</v>
       </c>
       <c r="C22">
-        <v>6.2137892428502602E-4</v>
+        <v>5.95876006727022E-4</v>
       </c>
       <c r="D22">
-        <v>6.3300114552360695E-4</v>
+        <v>6.1297133533199397E-4</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1079,13 +1079,13 @@
         <v>16</v>
       </c>
       <c r="B23">
-        <v>32.161533355712798</v>
+        <v>32.161567687988203</v>
       </c>
       <c r="C23">
-        <v>6.0564946328714204E-4</v>
+        <v>5.8740301438691897E-4</v>
       </c>
       <c r="D23">
-        <v>6.4270714330310101E-4</v>
+        <v>6.0951128781942397E-4</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1099,13 +1099,13 @@
         <v>16</v>
       </c>
       <c r="B24">
-        <v>32.161533355712798</v>
+        <v>32.161567687988203</v>
       </c>
       <c r="C24">
-        <v>6.2154943220718096E-4</v>
+        <v>5.7432869851419802E-4</v>
       </c>
       <c r="D24">
-        <v>6.4550673653949195E-4</v>
+        <v>5.8645573021335999E-4</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1119,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B25">
-        <v>32.161533355712798</v>
+        <v>32.161567687988203</v>
       </c>
       <c r="C25">
-        <v>6.1589052099027199E-4</v>
+        <v>5.7937124114356504E-4</v>
       </c>
       <c r="D25">
-        <v>6.5388603547081E-4</v>
+        <v>5.8700699009932495E-4</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1193,13 +1193,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>1.0050479173660201</v>
+        <v>1.00504899024963</v>
       </c>
       <c r="C2">
-        <v>4.7085279066851102</v>
+        <v>3.4443687423723399</v>
       </c>
       <c r="D2">
-        <v>4.7348050256318599</v>
+        <v>3.4388178283517998</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -1213,15 +1213,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
-        <v>1.0050479173660201</v>
+        <v>1.00504899024963</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>4.7787028672588807</v>
+        <v>3.4431836915342728</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>4.7434607872480026</v>
+        <v>3.4497516090219653</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
@@ -1237,13 +1237,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1.0050479173660201</v>
+        <v>1.00504899024963</v>
       </c>
       <c r="C3">
-        <v>4.7492783768161804</v>
+        <v>3.4592437689707101</v>
       </c>
       <c r="D3">
-        <v>4.8192843093147699</v>
+        <v>3.4450826514850901</v>
       </c>
       <c r="E3">
         <v>26</v>
@@ -1257,15 +1257,15 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.0100958347320499</v>
+        <v>2.01009798049926</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>6.0654232516858049E-4</v>
+        <v>5.5996622295133671E-4</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>6.0993805675048167E-4</v>
+        <v>5.5918798124449381E-4</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
@@ -1281,13 +1281,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>1.0050479173660201</v>
+        <v>1.00504899024963</v>
       </c>
       <c r="C4">
-        <v>4.8388549081838796</v>
+        <v>3.4166553303531302</v>
       </c>
       <c r="D4">
-        <v>4.6951790429368803</v>
+        <v>3.4892823999578302</v>
       </c>
       <c r="E4">
         <v>27</v>
@@ -1301,15 +1301,15 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
-        <v>4.0201916694641104</v>
+        <v>4.0201959609985298</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>5.7268465057558132E-4</v>
+        <v>5.6239292418932912E-4</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>5.7724892320936577E-4</v>
+        <v>5.6463308150837626E-4</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
@@ -1325,13 +1325,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>1.0050479173660201</v>
+        <v>1.00504899024963</v>
       </c>
       <c r="C5">
-        <v>4.81815027735035</v>
+        <v>3.4524669244409099</v>
       </c>
       <c r="D5">
-        <v>4.7245747711085002</v>
+        <v>3.4258235562931398</v>
       </c>
       <c r="E5">
         <v>28</v>
@@ -1345,15 +1345,15 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
-        <v>8.0403833389282209</v>
+        <v>8.0403919219970703</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="3"/>
-        <v>5.5747775656243771E-4</v>
+        <v>5.5164947747529246E-4</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>5.6762379779085428E-4</v>
+        <v>5.5472161329816983E-4</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="3"/>
@@ -1369,13 +1369,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2.0100958347320499</v>
+        <v>2.01009798049926</v>
       </c>
       <c r="C6">
-        <v>6.1491449440645495E-4</v>
+        <v>5.5985982060968199E-4</v>
       </c>
       <c r="D6">
-        <v>6.02822131153101E-4</v>
+        <v>5.5672946195541397E-4</v>
       </c>
       <c r="E6">
         <v>29</v>
@@ -1389,15 +1389,15 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
-        <v>16.080766677856399</v>
+        <v>16.080783843994102</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>5.6253634500732445E-4</v>
+        <v>5.5319078567094373E-4</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>5.7322833301349119E-4</v>
+        <v>5.5730405993844256E-4</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -1413,13 +1413,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2.0100958347320499</v>
+        <v>2.01009798049926</v>
       </c>
       <c r="C7">
-        <v>6.0942241029256195E-4</v>
+        <v>5.5409330764644995E-4</v>
       </c>
       <c r="D7">
-        <v>6.2014758837397501E-4</v>
+        <v>5.57768839644268E-4</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -1433,15 +1433,15 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
-        <v>32.161533355712798</v>
+        <v>32.161567687988203</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>5.7110909807642554E-4</v>
+        <v>5.5751946355938047E-4</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>5.8235142500098476E-4</v>
+        <v>5.6234245586727553E-4</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -1457,13 +1457,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2.0100958347320499</v>
+        <v>2.01009798049926</v>
       </c>
       <c r="C8">
-        <v>6.1287957274764303E-4</v>
+        <v>5.6067722055903597E-4</v>
       </c>
       <c r="D8">
-        <v>6.15649961990221E-4</v>
+        <v>5.5773811737625705E-4</v>
       </c>
       <c r="E8">
         <v>31</v>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="M8">
         <f>MIN(M2:M7)</f>
-        <v>5.6762379779085428E-4</v>
+        <v>5.5472161329816983E-4</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1481,13 +1481,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>2.0100958347320499</v>
+        <v>2.01009798049926</v>
       </c>
       <c r="C9">
-        <v>5.8895282322766205E-4</v>
+        <v>5.6523454299017904E-4</v>
       </c>
       <c r="D9">
-        <v>6.0113254548463E-4</v>
+        <v>5.6451550600203598E-4</v>
       </c>
       <c r="E9">
         <v>32</v>
@@ -1501,13 +1501,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>4.0201916694641104</v>
+        <v>4.0201959609985298</v>
       </c>
       <c r="C10" s="4">
-        <v>5.7548714118007096E-4</v>
+        <v>5.6604229202961804E-4</v>
       </c>
       <c r="D10" s="4">
-        <v>5.7063751730219005E-4</v>
+        <v>5.6762636707968599E-4</v>
       </c>
       <c r="E10" s="4">
         <v>33</v>
@@ -1521,13 +1521,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>4.0201916694641104</v>
+        <v>4.0201959609985298</v>
       </c>
       <c r="C11" s="4">
-        <v>5.6458013647556204E-4</v>
+        <v>5.5758085991702399E-4</v>
       </c>
       <c r="D11" s="4">
-        <v>5.7537162225528395E-4</v>
+        <v>5.6395240773616097E-4</v>
       </c>
       <c r="E11" s="4">
         <v>34</v>
@@ -1541,13 +1541,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>4.0201916694641104</v>
+        <v>4.0201959609985298</v>
       </c>
       <c r="C12" s="4">
-        <v>5.7749290784500499E-4</v>
+        <v>5.5914171562066503E-4</v>
       </c>
       <c r="D12" s="4">
-        <v>5.8269070511495196E-4</v>
+        <v>5.6022523759483196E-4</v>
       </c>
       <c r="E12" s="4">
         <v>35</v>
@@ -1561,13 +1561,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>4.0201916694641104</v>
+        <v>4.0201959609985298</v>
       </c>
       <c r="C13" s="4">
-        <v>5.7317841680168695E-4</v>
+        <v>5.6680682919000897E-4</v>
       </c>
       <c r="D13" s="4">
-        <v>5.80295848165037E-4</v>
+        <v>5.6672831362282602E-4</v>
       </c>
       <c r="E13" s="4">
         <v>36</v>
@@ -1581,13 +1581,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>8.0403833389282209</v>
+        <v>8.0403919219970703</v>
       </c>
       <c r="C14" s="2">
-        <v>5.6297997061673295E-4</v>
+        <v>5.5435926137283595E-4</v>
       </c>
       <c r="D14" s="2">
-        <v>5.6128449998854905E-4</v>
+        <v>5.5689832237972405E-4</v>
       </c>
       <c r="E14" s="2">
         <v>37</v>
@@ -1601,13 +1601,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>8.0403833389282209</v>
+        <v>8.0403919219970703</v>
       </c>
       <c r="C15" s="2">
-        <v>5.5537199743157302E-4</v>
+        <v>5.4996296857509196E-4</v>
       </c>
       <c r="D15" s="2">
-        <v>5.7011621759591401E-4</v>
+        <v>5.5873702274931698E-4</v>
       </c>
       <c r="E15" s="2">
         <v>38</v>
@@ -1621,13 +1621,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>8.0403833389282209</v>
+        <v>8.0403919219970703</v>
       </c>
       <c r="C16" s="2">
-        <v>5.5705656273035396E-4</v>
+        <v>5.5064318183869001E-4</v>
       </c>
       <c r="D16" s="2">
-        <v>5.7083024949872705E-4</v>
+        <v>5.5177305634556805E-4</v>
       </c>
       <c r="E16" s="2">
         <v>39</v>
@@ -1641,13 +1641,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>8.0403833389282209</v>
+        <v>8.0403919219970703</v>
       </c>
       <c r="C17" s="2">
-        <v>5.5450249547109103E-4</v>
+        <v>5.5163249811455203E-4</v>
       </c>
       <c r="D17" s="2">
-        <v>5.68264224080227E-4</v>
+        <v>5.5147805171807003E-4</v>
       </c>
       <c r="E17" s="2">
         <v>40</v>
@@ -1661,13 +1661,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>16.080766677856399</v>
+        <v>16.080783843994102</v>
       </c>
       <c r="C18">
-        <v>5.6590871373043104E-4</v>
+        <v>5.5570647874783195E-4</v>
       </c>
       <c r="D18">
-        <v>5.6374682330149095E-4</v>
+        <v>5.61199409474449E-4</v>
       </c>
       <c r="E18">
         <v>41</v>
@@ -1681,13 +1681,13 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>16.080766677856399</v>
+        <v>16.080783843994102</v>
       </c>
       <c r="C19">
-        <v>5.6632355806138896E-4</v>
+        <v>5.5490405278569503E-4</v>
       </c>
       <c r="D19">
-        <v>5.8679588955438001E-4</v>
+        <v>5.6441101584244803E-4</v>
       </c>
       <c r="E19">
         <v>42</v>
@@ -1701,13 +1701,13 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>16.080766677856399</v>
+        <v>16.080783843994102</v>
       </c>
       <c r="C20">
-        <v>5.5974674656554101E-4</v>
+        <v>5.5060631645520105E-4</v>
       </c>
       <c r="D20">
-        <v>5.7098443938206997E-4</v>
+        <v>5.5231597057585997E-4</v>
       </c>
       <c r="E20">
         <v>43</v>
@@ -1721,13 +1721,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>16.080766677856399</v>
+        <v>16.080783843994102</v>
       </c>
       <c r="C21">
-        <v>5.58166361671937E-4</v>
+        <v>5.5154629469504699E-4</v>
       </c>
       <c r="D21">
-        <v>5.7138617981602395E-4</v>
+        <v>5.5128984386101302E-4</v>
       </c>
       <c r="E21">
         <v>44</v>
@@ -1741,13 +1741,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>32.161533355712798</v>
+        <v>32.161567687988203</v>
       </c>
       <c r="C22" s="4">
-        <v>5.7630822882590103E-4</v>
+        <v>5.6090252739738797E-4</v>
       </c>
       <c r="D22" s="4">
-        <v>5.7682032620274897E-4</v>
+        <v>5.6434915644455296E-4</v>
       </c>
       <c r="E22" s="4">
         <v>45</v>
@@ -1761,13 +1761,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="4">
-        <v>32.161533355712798</v>
+        <v>32.161567687988203</v>
       </c>
       <c r="C23" s="4">
-        <v>5.6998818726456801E-4</v>
+        <v>5.5849657194118995E-4</v>
       </c>
       <c r="D23" s="4">
-        <v>5.8730451104266497E-4</v>
+        <v>5.7053423052738303E-4</v>
       </c>
       <c r="E23" s="4">
         <v>46</v>
@@ -1781,13 +1781,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="4">
-        <v>32.161533355712798</v>
+        <v>32.161567687988203</v>
       </c>
       <c r="C24" s="4">
-        <v>5.6695665461218799E-4</v>
+        <v>5.5528561011611603E-4</v>
       </c>
       <c r="D24" s="4">
-        <v>5.7886381076554497E-4</v>
+        <v>5.5724950877695601E-4</v>
       </c>
       <c r="E24" s="4">
         <v>47</v>
@@ -1801,13 +1801,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="4">
-        <v>32.161533355712798</v>
+        <v>32.161567687988203</v>
       </c>
       <c r="C25" s="4">
-        <v>5.7118332160304504E-4</v>
+        <v>5.5539314478282803E-4</v>
       </c>
       <c r="D25" s="4">
-        <v>5.8641705199298001E-4</v>
+        <v>5.5723692772021002E-4</v>
       </c>
       <c r="E25" s="4">
         <v>48</v>
@@ -1874,13 +1874,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>1.0050479173660201</v>
+        <v>1.00504899024963</v>
       </c>
       <c r="C2">
-        <v>4.7650420993280802</v>
+        <v>3.45415784507037</v>
       </c>
       <c r="D2">
-        <v>4.7347934276242798</v>
+        <v>3.4388178023424998</v>
       </c>
       <c r="E2">
         <v>49</v>
@@ -1894,15 +1894,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
-        <v>1.0050479173660201</v>
+        <v>1.00504899024963</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>4.7659453852488891</v>
+        <v>3.4534865572844424</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>4.7434568178804604</v>
+        <v>3.4497481378641974</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
@@ -1918,13 +1918,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1.0050479173660201</v>
+        <v>1.00504899024963</v>
       </c>
       <c r="C3">
-        <v>4.7512111679052698</v>
+        <v>3.4537952528696598</v>
       </c>
       <c r="D3">
-        <v>4.8192820669729501</v>
+        <v>3.4450831911780599</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -1938,15 +1938,15 @@
       </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.0100958347320499</v>
+        <v>2.01009798049926</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>5.5278863253599246E-4</v>
+        <v>7.0058912442867867E-4</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>5.4935553192921374E-4</v>
+        <v>5.4819634123387767E-4</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
@@ -1962,13 +1962,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>1.0050479173660201</v>
+        <v>1.00504899024963</v>
       </c>
       <c r="C4">
-        <v>4.77785518603583</v>
+        <v>3.44606332419669</v>
       </c>
       <c r="D4">
-        <v>4.6951802531375098</v>
+        <v>3.48926777622916</v>
       </c>
       <c r="E4">
         <v>51</v>
@@ -1982,15 +1982,15 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
-        <v>4.0201916694641104</v>
+        <v>4.0201959609985298</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>5.5486714769974481E-4</v>
+        <v>5.5156426645985987E-4</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>5.5651497116085392E-4</v>
+        <v>5.5051091952588028E-4</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
@@ -2006,13 +2006,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>1.0050479173660201</v>
+        <v>1.00504899024963</v>
       </c>
       <c r="C5">
-        <v>4.76967308772638</v>
+        <v>3.4599298070010498</v>
       </c>
       <c r="D5">
-        <v>4.7245715237871</v>
+        <v>3.42582378170707</v>
       </c>
       <c r="E5">
         <v>52</v>
@@ -2026,15 +2026,15 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
-        <v>8.0403833389282209</v>
+        <v>8.0403919219970703</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>5.5002421335936043E-4</v>
+        <v>5.4897520181241308E-4</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
-        <v>5.5174406616406192E-4</v>
+        <v>5.4835368170064245E-4</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="3"/>
@@ -2050,13 +2050,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>2.0100958347320499</v>
+        <v>2.01009798049926</v>
       </c>
       <c r="C6" s="2">
-        <v>5.5440445328294903E-4</v>
+        <v>1.1290216753466599E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>5.4093080762879805E-4</v>
+        <v>5.4965448322367202E-4</v>
       </c>
       <c r="E6" s="2">
         <v>53</v>
@@ -2070,15 +2070,15 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
-        <v>16.080766677856399</v>
+        <v>16.080783843994102</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>5.5042442938382763E-4</v>
+        <v>5.4912574242199196E-4</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>5.5160101687703599E-4</v>
+        <v>5.4859452595172218E-4</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -2094,13 +2094,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>2.0100958347320499</v>
+        <v>2.01009798049926</v>
       </c>
       <c r="C7" s="2">
-        <v>5.5036859247631104E-4</v>
+        <v>5.7005469055238195E-4</v>
       </c>
       <c r="D7" s="2">
-        <v>5.5346789819931102E-4</v>
+        <v>5.5325351078698202E-4</v>
       </c>
       <c r="E7" s="2">
         <v>54</v>
@@ -2114,15 +2114,15 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
-        <v>32.161533355712798</v>
+        <v>32.161567687988203</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>5.5272140717409072E-4</v>
+        <v>5.4940111321433193E-4</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>5.5592315305758196E-4</v>
+        <v>5.4887806598509774E-4</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -2138,13 +2138,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>2.0100958347320499</v>
+        <v>2.01009798049926</v>
       </c>
       <c r="C8" s="2">
-        <v>5.5580531678775405E-4</v>
+        <v>5.5103847079487195E-4</v>
       </c>
       <c r="D8" s="2">
-        <v>5.5307214210234296E-4</v>
+        <v>5.4601114693055399E-4</v>
       </c>
       <c r="E8" s="2">
         <v>55</v>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="M8">
         <f>MIN(M2:M7)</f>
-        <v>5.4935553192921374E-4</v>
+        <v>5.4819634123387767E-4</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -2162,13 +2162,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>2.0100958347320499</v>
+        <v>2.01009798049926</v>
       </c>
       <c r="C9" s="2">
-        <v>5.5057616759695595E-4</v>
+        <v>5.52241661020801E-4</v>
       </c>
       <c r="D9" s="2">
-        <v>5.4995127978640305E-4</v>
+        <v>5.4386622399430298E-4</v>
       </c>
       <c r="E9" s="2">
         <v>56</v>
@@ -2182,13 +2182,13 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>4.0201916694641104</v>
+        <v>4.0201959609985298</v>
       </c>
       <c r="C10">
-        <v>5.5600013485335999E-4</v>
+        <v>5.5104154477068098E-4</v>
       </c>
       <c r="D10">
-        <v>5.4732387844190098E-4</v>
+        <v>5.5170863739807501E-4</v>
       </c>
       <c r="E10">
         <v>57</v>
@@ -2202,13 +2202,13 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>4.0201916694641104</v>
+        <v>4.0201959609985298</v>
       </c>
       <c r="C11">
-        <v>5.5343053767088605E-4</v>
+        <v>5.4977203708154803E-4</v>
       </c>
       <c r="D11">
-        <v>5.59260124116664E-4</v>
+        <v>5.5465515232009895E-4</v>
       </c>
       <c r="E11">
         <v>58</v>
@@ -2222,13 +2222,13 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>4.0201916694641104</v>
+        <v>4.0201959609985298</v>
       </c>
       <c r="C12">
-        <v>5.5667156431326995E-4</v>
+        <v>5.5108179071690605E-4</v>
       </c>
       <c r="D12">
-        <v>5.6248665802015698E-4</v>
+        <v>5.4603270598983496E-4</v>
       </c>
       <c r="E12">
         <v>59</v>
@@ -2242,13 +2242,13 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>4.0201916694641104</v>
+        <v>4.0201959609985298</v>
       </c>
       <c r="C13">
-        <v>5.5336635396146302E-4</v>
+        <v>5.5436169327030397E-4</v>
       </c>
       <c r="D13">
-        <v>5.5698922406469402E-4</v>
+        <v>5.49647182395512E-4</v>
       </c>
       <c r="E13">
         <v>60</v>
@@ -2262,13 +2262,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>8.0403833389282209</v>
+        <v>8.0403919219970703</v>
       </c>
       <c r="C14" s="4">
-        <v>5.5376013157704704E-4</v>
+        <v>5.49070460941923E-4</v>
       </c>
       <c r="D14" s="4">
-        <v>5.4516234837437001E-4</v>
+        <v>5.5021588314874896E-4</v>
       </c>
       <c r="E14" s="4">
         <v>61</v>
@@ -2282,13 +2282,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>8.0403833389282209</v>
+        <v>8.0403919219970703</v>
       </c>
       <c r="C15" s="4">
-        <v>5.4846039973943195E-4</v>
+        <v>5.4722843472697E-4</v>
       </c>
       <c r="D15" s="4">
-        <v>5.5455105508901595E-4</v>
+        <v>5.5231456380252803E-4</v>
       </c>
       <c r="E15" s="4">
         <v>62</v>
@@ -2302,13 +2302,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="4">
-        <v>8.0403833389282209</v>
+        <v>8.0403919219970703</v>
       </c>
       <c r="C16" s="4">
-        <v>5.4927825196512199E-4</v>
+        <v>5.5025569470248405E-4</v>
       </c>
       <c r="D16" s="4">
-        <v>5.5532840108557795E-4</v>
+        <v>5.4671905183402598E-4</v>
       </c>
       <c r="E16" s="4">
         <v>63</v>
@@ -2322,13 +2322,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>8.0403833389282209</v>
+        <v>8.0403919219970703</v>
       </c>
       <c r="C17" s="4">
-        <v>5.4859807015584096E-4</v>
+        <v>5.4934621687827503E-4</v>
       </c>
       <c r="D17" s="4">
-        <v>5.51934460107284E-4</v>
+        <v>5.4416522801726695E-4</v>
       </c>
       <c r="E17" s="4">
         <v>64</v>
@@ -2342,13 +2342,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>16.080766677856399</v>
+        <v>16.080783843994102</v>
       </c>
       <c r="C18">
-        <v>5.5187546496335998E-4</v>
+        <v>5.4912291275556295E-4</v>
       </c>
       <c r="D18">
-        <v>5.4352034488987602E-4</v>
+        <v>5.5019172723405E-4</v>
       </c>
       <c r="E18">
         <v>65</v>
@@ -2362,13 +2362,13 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>16.080766677856399</v>
+        <v>16.080783843994102</v>
       </c>
       <c r="C19">
-        <v>5.5278402239161597E-4</v>
+        <v>5.4755226859650602E-4</v>
       </c>
       <c r="D19">
-        <v>5.59331203775504E-4</v>
+        <v>5.5263862410687202E-4</v>
       </c>
       <c r="E19">
         <v>66</v>
@@ -2382,13 +2382,13 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>16.080766677856399</v>
+        <v>16.080783843994102</v>
       </c>
       <c r="C20">
-        <v>5.4792888559618204E-4</v>
+        <v>5.4986200938065004E-4</v>
       </c>
       <c r="D20">
-        <v>5.51941462709933E-4</v>
+        <v>5.4683898871933797E-4</v>
       </c>
       <c r="E20">
         <v>67</v>
@@ -2402,13 +2402,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>16.080766677856399</v>
+        <v>16.080783843994102</v>
       </c>
       <c r="C21">
-        <v>5.4910934458415298E-4</v>
+        <v>5.4996577895524896E-4</v>
       </c>
       <c r="D21">
-        <v>5.5161105613283105E-4</v>
+        <v>5.4470876374662896E-4</v>
       </c>
       <c r="E21">
         <v>68</v>
@@ -2422,13 +2422,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>32.161533355712798</v>
+        <v>32.161567687988203</v>
       </c>
       <c r="C22" s="4">
-        <v>5.5491480354841497E-4</v>
+        <v>5.4942482087567599E-4</v>
       </c>
       <c r="D22" s="4">
-        <v>5.4843613068879596E-4</v>
+        <v>5.4990341542923596E-4</v>
       </c>
       <c r="E22" s="4">
         <v>69</v>
@@ -2442,13 +2442,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="4">
-        <v>32.161533355712798</v>
+        <v>32.161567687988203</v>
       </c>
       <c r="C23" s="4">
-        <v>5.5451760088620205E-4</v>
+        <v>5.4813599389112299E-4</v>
       </c>
       <c r="D23" s="4">
-        <v>5.6272259503720797E-4</v>
+        <v>5.53154112474823E-4</v>
       </c>
       <c r="E23" s="4">
         <v>70</v>
@@ -2462,13 +2462,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="4">
-        <v>32.161533355712798</v>
+        <v>32.161567687988203</v>
       </c>
       <c r="C24" s="4">
-        <v>5.5111404831934799E-4</v>
+        <v>5.4951800203820395E-4</v>
       </c>
       <c r="D24" s="4">
-        <v>5.5809580695909697E-4</v>
+        <v>5.4674319557803199E-4</v>
       </c>
       <c r="E24" s="4">
         <v>71</v>
@@ -2482,13 +2482,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="4">
-        <v>32.161533355712798</v>
+        <v>32.161567687988203</v>
       </c>
       <c r="C25" s="4">
-        <v>5.5033917594239797E-4</v>
+        <v>5.5052563605232502E-4</v>
       </c>
       <c r="D25" s="4">
-        <v>5.5443807954522705E-4</v>
+        <v>5.4571154045830001E-4</v>
       </c>
       <c r="E25" s="4">
         <v>72</v>
@@ -2507,7 +2507,7 @@
   <dimension ref="A1:O49"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="A2" sqref="A2:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2552,10 +2552,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="4">
-        <v>6.0277741293340305E-4</v>
+        <v>5.8735344738868804E-4</v>
       </c>
       <c r="C2" s="4">
-        <v>6.0819401155237695E-4</v>
+        <v>5.8242525767788903E-4</v>
       </c>
       <c r="D2" s="4">
         <v>73</v>
@@ -2570,11 +2570,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>6.1992254153135651E-4</v>
+        <v>5.7367372110919907E-4</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>6.371666452570379E-4</v>
+        <v>5.7645119337724799E-4</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -2590,10 +2590,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="4">
-        <v>6.0760681782672302E-4</v>
+        <v>5.6008719733323495E-4</v>
       </c>
       <c r="C3" s="4">
-        <v>6.3358784779976997E-4</v>
+        <v>5.7128557501445396E-4</v>
       </c>
       <c r="D3" s="4">
         <v>74</v>
@@ -2608,11 +2608,11 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>6.2358682209631667E-4</v>
+        <v>5.6678684632061028E-4</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>6.4670592321737193E-4</v>
+        <v>5.6986809795489491E-4</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
@@ -2628,10 +2628,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="4">
-        <v>6.5298742523322499E-4</v>
+        <v>5.8634415776892101E-4</v>
       </c>
       <c r="C4" s="4">
-        <v>6.6188826959556605E-4</v>
+        <v>5.9324533318762002E-4</v>
       </c>
       <c r="D4" s="4">
         <v>75</v>
@@ -2646,11 +2646,11 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>6.2706654366765898E-4</v>
+        <v>5.6675249784761503E-4</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>6.4628675087838403E-4</v>
+        <v>5.6950817637367731E-4</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
@@ -2666,10 +2666,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="4">
-        <v>6.1631851013207496E-4</v>
+        <v>5.6091008194595205E-4</v>
       </c>
       <c r="C5" s="4">
-        <v>6.4499645208043895E-4</v>
+        <v>5.5884860762902904E-4</v>
       </c>
       <c r="D5" s="4">
         <v>76</v>
@@ -2684,11 +2684,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>6.2846399540128755E-4</v>
+        <v>5.7019039946184851E-4</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>6.4383250848342984E-4</v>
+        <v>5.7689645393772674E-4</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -2705,10 +2705,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="4">
-        <v>6.1546329960014798E-4</v>
+        <v>5.7637122332711104E-4</v>
       </c>
       <c r="C6" s="4">
-        <v>6.1608344917716098E-4</v>
+        <v>5.8051223485645898E-4</v>
       </c>
       <c r="D6" s="4">
         <v>77</v>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>6.1771909347470082E-4</v>
+        <v>5.8239874832162757E-4</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>6.5232524456739199E-4</v>
+        <v>5.8967835145515572E-4</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -2742,10 +2742,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="4">
-        <v>6.1479185875858795E-4</v>
+        <v>5.5876467509237502E-4</v>
       </c>
       <c r="C7" s="4">
-        <v>6.3981343933109996E-4</v>
+        <v>5.69674393839456E-4</v>
       </c>
       <c r="D7" s="4">
         <v>78</v>
@@ -2759,11 +2759,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>6.2827967172503251E-4</v>
+        <v>6.078468516617163E-4</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>7.1769385323034503E-4</v>
+        <v>6.1895125558790302E-4</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -2779,10 +2779,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="4">
-        <v>6.4526779040741296E-4</v>
+        <v>5.7251200778409797E-4</v>
       </c>
       <c r="C8" s="4">
-        <v>6.6211189974476595E-4</v>
+        <v>5.73468941200355E-4</v>
       </c>
       <c r="D8" s="4">
         <v>79</v>
@@ -2796,11 +2796,11 @@
       </c>
       <c r="K8">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>1.1748724513542725E-3</v>
+        <v>1.6687873768122701E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>1.2152624879985783E-3</v>
+        <v>1.3626759677373909E-3</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
@@ -2816,10 +2816,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="4">
-        <v>6.1882433961911801E-4</v>
+        <v>5.5949947907885697E-4</v>
       </c>
       <c r="C9" s="4">
-        <v>6.6881490461646095E-4</v>
+        <v>5.5581682192331E-4</v>
       </c>
       <c r="D9" s="4">
         <v>80</v>
@@ -2833,11 +2833,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>2.0487410305554128E-2</v>
+        <v>5.8651065095227235</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>1.8328872955436601E-2</v>
+        <v>5.2038403961691024</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -2853,10 +2853,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10">
-        <v>6.2613925657859805E-4</v>
+        <v>5.7421452630395905E-4</v>
       </c>
       <c r="C10">
-        <v>6.2895697155448602E-4</v>
+        <v>5.7647195115516098E-4</v>
       </c>
       <c r="D10">
         <v>81</v>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>6.371666452570379E-4</v>
+        <v>5.6950817637367731E-4</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2874,10 +2874,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11">
-        <v>6.2138536323121205E-4</v>
+        <v>5.6187477312050703E-4</v>
       </c>
       <c r="C11">
-        <v>6.5101721822107298E-4</v>
+        <v>5.7120688434224504E-4</v>
       </c>
       <c r="D11">
         <v>82</v>
@@ -2891,10 +2891,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12">
-        <v>6.4626345970915399E-4</v>
+        <v>5.7485204200598999E-4</v>
       </c>
       <c r="C12">
-        <v>6.6079868333815005E-4</v>
+        <v>5.7856513197872403E-4</v>
       </c>
       <c r="D12">
         <v>83</v>
@@ -2908,10 +2908,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13">
-        <v>6.1447809515167203E-4</v>
+        <v>5.5606864996000395E-4</v>
       </c>
       <c r="C13">
-        <v>6.4437413039982697E-4</v>
+        <v>5.5178873801857897E-4</v>
       </c>
       <c r="D13">
         <v>84</v>
@@ -2925,10 +2925,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>6.0852580258764202E-4</v>
+        <v>5.73432450817728E-4</v>
       </c>
       <c r="C14">
-        <v>6.0703715197506203E-4</v>
+        <v>5.7413970088501505E-4</v>
       </c>
       <c r="D14">
         <v>85</v>
@@ -2942,10 +2942,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>6.2154580785928201E-4</v>
+        <v>5.70584397593682E-4</v>
       </c>
       <c r="C15">
-        <v>6.3813207936296295E-4</v>
+        <v>5.8011732868511504E-4</v>
       </c>
       <c r="D15">
         <v>86</v>
@@ -2959,10 +2959,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>6.5824184552000097E-4</v>
+        <v>5.7553671914237399E-4</v>
       </c>
       <c r="C16">
-        <v>6.7315522737541704E-4</v>
+        <v>5.9400558080100797E-4</v>
       </c>
       <c r="D16">
         <v>87</v>
@@ -2976,10 +2976,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>6.2554252563822499E-4</v>
+        <v>5.6120803029360996E-4</v>
       </c>
       <c r="C17">
-        <v>6.5700557522027701E-4</v>
+        <v>5.5932320537976899E-4</v>
       </c>
       <c r="D17">
         <v>88</v>
@@ -2993,10 +2993,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>6.1456262151698905E-4</v>
+        <v>5.89783015047115E-4</v>
       </c>
       <c r="C18">
-        <v>6.1623853796362099E-4</v>
+        <v>5.9063861739228995E-4</v>
       </c>
       <c r="D18">
         <v>89</v>
@@ -3010,10 +3010,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>6.2270607811080504E-4</v>
+        <v>5.65980905031954E-4</v>
       </c>
       <c r="C19">
-        <v>6.4950887647257001E-4</v>
+        <v>5.7339724259112298E-4</v>
       </c>
       <c r="D19">
         <v>90</v>
@@ -3027,10 +3027,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>6.2673896863537802E-4</v>
+        <v>6.0006647201424205E-4</v>
       </c>
       <c r="C20">
-        <v>6.3883514980537896E-4</v>
+        <v>6.2520392609506095E-4</v>
       </c>
       <c r="D20">
         <v>91</v>
@@ -3044,10 +3044,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>6.0686870563563097E-4</v>
+        <v>5.73764601193199E-4</v>
       </c>
       <c r="C21">
-        <v>7.0471841402799799E-4</v>
+        <v>5.6947361974214901E-4</v>
       </c>
       <c r="D21">
         <v>92</v>
@@ -3061,10 +3061,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>6.4824296484253295E-4</v>
+        <v>6.2832437132866203E-4</v>
       </c>
       <c r="C22">
-        <v>6.61582093615132E-4</v>
+        <v>6.0903070182327798E-4</v>
       </c>
       <c r="D22">
         <v>93</v>
@@ -3078,10 +3078,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>6.2902731367068501E-4</v>
+        <v>5.9418556894260299E-4</v>
       </c>
       <c r="C23">
-        <v>6.5501805032379401E-4</v>
+        <v>6.1176231511953199E-4</v>
       </c>
       <c r="D23">
         <v>94</v>
@@ -3095,10 +3095,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>6.2291724003167603E-4</v>
+        <v>6.0846953949129001E-4</v>
       </c>
       <c r="C24">
-        <v>6.2710072851114996E-4</v>
+        <v>6.74539527443068E-4</v>
       </c>
       <c r="D24">
         <v>95</v>
@@ -3112,10 +3112,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>6.1293116835523605E-4</v>
+        <v>6.0040792688431004E-4</v>
       </c>
       <c r="C25">
-        <v>9.2707454047130395E-4</v>
+        <v>5.80472477965734E-4</v>
       </c>
       <c r="D25">
         <v>96</v>
@@ -3129,10 +3129,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>1.2193366588989199E-3</v>
+        <v>1.9892895461949001E-3</v>
       </c>
       <c r="C26">
-        <v>1.13753317538472E-3</v>
+        <v>1.19352549557912E-3</v>
       </c>
       <c r="D26">
         <v>97</v>
@@ -3146,10 +3146,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>1.1311537981080399E-3</v>
+        <v>1.43754678958264E-3</v>
       </c>
       <c r="C27">
-        <v>1.1044650602366601E-3</v>
+        <v>1.45109236684881E-3</v>
       </c>
       <c r="D27">
         <v>98</v>
@@ -3163,10 +3163,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>1.0677471910190701E-3</v>
+        <v>1.44009027122096E-3</v>
       </c>
       <c r="C28">
-        <v>9.3720131406348304E-4</v>
+        <v>1.88188611752014E-3</v>
       </c>
       <c r="D28">
         <v>99</v>
@@ -3180,10 +3180,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>1.2812521573910599E-3</v>
+        <v>1.80822290025058E-3</v>
       </c>
       <c r="C29">
-        <v>1.68185040230945E-3</v>
+        <v>9.2419989100149405E-4</v>
       </c>
       <c r="D29">
         <v>100</v>
@@ -3197,10 +3197,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>2.0729384334946501E-2</v>
+        <v>9.4980369307778094</v>
       </c>
       <c r="C30">
-        <v>1.7829830068623299E-2</v>
+        <v>6.9178126205097499</v>
       </c>
       <c r="D30">
         <v>101</v>
@@ -3214,10 +3214,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>2.1924958496554899E-2</v>
+        <v>6.9286814256147897</v>
       </c>
       <c r="C31">
-        <v>1.9397388568996799E-2</v>
+        <v>6.9571490981361999</v>
       </c>
       <c r="D31">
         <v>102</v>
@@ -3231,10 +3231,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>2.0254901135811802E-2</v>
+        <v>3.1813801547766397E-2</v>
       </c>
       <c r="C32">
-        <v>1.5809543971620599E-2</v>
+        <v>2.4703197405588899E-2</v>
       </c>
       <c r="D32">
         <v>103</v>
@@ -3248,10 +3248,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>1.90403972549033E-2</v>
+        <v>7.0018938801505302</v>
       </c>
       <c r="C33">
-        <v>2.0278729212505699E-2</v>
+        <v>6.9156966686248698</v>
       </c>
       <c r="D33">
         <v>104</v>
@@ -3360,72 +3360,72 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1E-8</v>
+        <v>0.1</v>
       </c>
       <c r="B2">
-        <v>5.5790457104860696E-4</v>
+        <v>9.4980369307778094</v>
       </c>
       <c r="C2">
-        <v>5.4685722909796996E-4</v>
+        <v>6.9178126205097499</v>
       </c>
       <c r="D2">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J2" s="5">
         <f>AVERAGE(A2:A5)</f>
-        <v>1E-8</v>
+        <v>0.1</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>5.5991212662589648E-4</v>
+        <v>5.8651065095227235</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>5.620266231664017E-4</v>
+        <v>5.2038403961691024</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>106.5</v>
+        <v>102.5</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>1E-8</v>
+        <v>0.1</v>
       </c>
       <c r="B3">
-        <v>5.5995555653883303E-4</v>
+        <v>6.9286814256147897</v>
       </c>
       <c r="C3">
-        <v>5.6576289831884599E-4</v>
+        <v>6.9571490981361999</v>
       </c>
       <c r="D3">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E3">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J3" s="1">
         <f>AVERAGE(A6:A9)</f>
-        <v>9.9999999999999995E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>5.5991729148989792E-4</v>
+        <v>5.5261976223813173E-4</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>5.6339939982524173E-4</v>
+        <v>5.5030957843303977E-4</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>110.5</v>
+        <v>106.5</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
@@ -3434,35 +3434,35 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>1E-8</v>
+        <v>0.1</v>
       </c>
       <c r="B4">
-        <v>5.6965813221659001E-4</v>
+        <v>3.1813801547766397E-2</v>
       </c>
       <c r="C4">
-        <v>5.7783663933035697E-4</v>
+        <v>2.4703197405588899E-2</v>
       </c>
       <c r="D4">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J4" s="5">
         <f>AVERAGE(A10:A13)</f>
-        <v>9.9999999999999995E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>5.5571898103767196E-4</v>
+        <v>5.5175779176584597E-4</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>5.5649369340566776E-4</v>
+        <v>5.5079056163032678E-4</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
-        <v>114.5</v>
+        <v>110.5</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="2"/>
@@ -3471,35 +3471,35 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>1E-8</v>
+        <v>0.1</v>
       </c>
       <c r="B5">
-        <v>5.5213024669955603E-4</v>
+        <v>7.0018938801505302</v>
       </c>
       <c r="C5">
-        <v>5.5764972591843399E-4</v>
+        <v>6.9156966686248698</v>
       </c>
       <c r="D5">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="J5" s="5">
         <f>AVERAGE(A14:A17)</f>
-        <v>1.0000000000000001E-5</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>5.5604669948369463E-4</v>
+        <v>5.5220492856473903E-4</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>5.5929215988173727E-4</v>
+        <v>5.4989971924276817E-4</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
-        <v>118.5</v>
+        <v>114.5</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="3"/>
@@ -3508,35 +3508,35 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>9.9999999999999995E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="B6">
-        <v>5.5852700113822999E-4</v>
+        <v>5.5277348189300001E-4</v>
       </c>
       <c r="C6">
-        <v>5.4710005967040795E-4</v>
+        <v>5.5041241787628003E-4</v>
       </c>
       <c r="D6">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E6">
         <v>0.5</v>
       </c>
       <c r="J6" s="1">
         <f>AVERAGE(A18:A21)</f>
-        <v>1E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>5.6725891063599278E-4</v>
+        <v>5.5272063109773856E-4</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>5.7194752280108146E-4</v>
+        <v>5.5222210225606776E-4</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>122.5</v>
+        <v>118.5</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -3545,35 +3545,35 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>9.9999999999999995E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="B7">
-        <v>5.6008862703741996E-4</v>
+        <v>5.5046824655457301E-4</v>
       </c>
       <c r="C7">
-        <v>5.6487253183333899E-4</v>
+        <v>5.5539308020591E-4</v>
       </c>
       <c r="D7">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E7">
         <v>0.5</v>
       </c>
       <c r="J7" s="1">
         <f>AVERAGE(A22:A25)</f>
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>5.7311175818552051E-4</v>
+        <v>5.5931082851073716E-4</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>5.7781130066981404E-4</v>
+        <v>5.5519916343407371E-4</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>126.5</v>
+        <v>122.5</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -3582,35 +3582,35 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>9.9999999999999995E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="B8">
-        <v>5.6924542692448395E-4</v>
+        <v>5.5639283836831895E-4</v>
       </c>
       <c r="C8">
-        <v>5.8199120818083197E-4</v>
+        <v>5.5103283137379296E-4</v>
       </c>
       <c r="D8">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E8">
         <v>0.5</v>
       </c>
       <c r="J8" s="1">
         <f>AVERAGE(A26:A29)</f>
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>1.2359753319015499E-3</v>
+        <v>5.8179177373347823E-4</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>1.15844546354897E-3</v>
+        <v>5.840982177522326E-4</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
-        <v>130.5</v>
+        <v>126.5</v>
       </c>
       <c r="N8">
         <f t="shared" si="6"/>
@@ -3619,35 +3619,35 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>9.9999999999999995E-8</v>
+        <v>1E-8</v>
       </c>
       <c r="B9">
-        <v>5.5180811085945799E-4</v>
+        <v>5.5084448213663496E-4</v>
       </c>
       <c r="C9">
-        <v>5.59633799616388E-4</v>
+        <v>5.4439998427617596E-4</v>
       </c>
       <c r="D9">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E9">
         <v>0.5</v>
       </c>
       <c r="J9" s="1">
         <f>AVERAGE(A30:A33)</f>
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>2.1057276243372072E-2</v>
+        <v>1.78341889602039E-3</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>1.7405489319272278E-2</v>
+        <v>1.1462661140037435E-3</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
-        <v>134.5</v>
+        <v>130.5</v>
       </c>
       <c r="N9">
         <f t="shared" si="7"/>
@@ -3656,16 +3656,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>9.9999999999999995E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="B10" s="4">
-        <v>5.5633436396842497E-4</v>
+        <v>5.5256347263924995E-4</v>
       </c>
       <c r="C10" s="4">
-        <v>5.4415224799355798E-4</v>
+        <v>5.5123604146171002E-4</v>
       </c>
       <c r="D10" s="4">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E10" s="4">
         <v>0.5</v>
@@ -3673,21 +3673,21 @@
       <c r="F10" s="2"/>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>5.5649369340566776E-4</v>
+        <v>5.4989971924276817E-4</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>9.9999999999999995E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="B11" s="4">
-        <v>5.5734051897925998E-4</v>
+        <v>5.5037277695386901E-4</v>
       </c>
       <c r="C11" s="4">
-        <v>5.5989469887830203E-4</v>
+        <v>5.5499077319506201E-4</v>
       </c>
       <c r="D11" s="4">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E11" s="4">
         <v>0.5</v>
@@ -3696,16 +3696,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>9.9999999999999995E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="B12" s="4">
-        <v>5.5772290846101504E-4</v>
+        <v>5.5295734926228898E-4</v>
       </c>
       <c r="C12" s="4">
-        <v>5.6590724521304804E-4</v>
+        <v>5.52137548484924E-4</v>
       </c>
       <c r="D12" s="4">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E12" s="4">
         <v>0.5</v>
@@ -3714,16 +3714,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>9.9999999999999995E-7</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="B13" s="4">
-        <v>5.5147813274198797E-4</v>
+        <v>5.5113756820797605E-4</v>
       </c>
       <c r="C13" s="4">
-        <v>5.5602058153776299E-4</v>
+        <v>5.4479788337961097E-4</v>
       </c>
       <c r="D13" s="4">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E13" s="4">
         <v>0.5</v>
@@ -3732,16 +3732,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>1.0000000000000001E-5</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="B14" s="4">
-        <v>5.5788383058384997E-4</v>
+        <v>5.5290665636987299E-4</v>
       </c>
       <c r="C14" s="4">
-        <v>5.45418039524244E-4</v>
+        <v>5.5075914741874697E-4</v>
       </c>
       <c r="D14" s="4">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E14" s="4">
         <v>0.5</v>
@@ -3749,16 +3749,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>1.0000000000000001E-5</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="B15" s="4">
-        <v>5.5459239534962502E-4</v>
+        <v>5.4922239263818404E-4</v>
       </c>
       <c r="C15" s="4">
-        <v>5.6400334114751105E-4</v>
+        <v>5.5407065612433296E-4</v>
       </c>
       <c r="D15" s="4">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E15" s="4">
         <v>0.5</v>
@@ -3766,16 +3766,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>1.0000000000000001E-5</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="B16" s="4">
-        <v>5.6150515143356102E-4</v>
+        <v>5.5564091273489899E-4</v>
       </c>
       <c r="C16" s="4">
-        <v>5.7018749913955195E-4</v>
+        <v>5.5006252183705895E-4</v>
       </c>
       <c r="D16" s="4">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E16" s="4">
         <v>0.5</v>
@@ -3783,84 +3783,84 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="B17" s="4">
+        <v>5.51049752516E-4</v>
+      </c>
+      <c r="C17" s="4">
+        <v>5.4470655159093401E-4</v>
+      </c>
+      <c r="D17" s="4">
+        <v>116</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="B17" s="4">
-        <v>5.5020542056774297E-4</v>
-      </c>
-      <c r="C17" s="4">
-        <v>5.5755975971564196E-4</v>
-      </c>
-      <c r="D17" s="4">
+      <c r="B18">
+        <v>5.5301866133178497E-4</v>
+      </c>
+      <c r="C18">
+        <v>5.5196126764216799E-4</v>
+      </c>
+      <c r="D18">
+        <v>117</v>
+      </c>
+      <c r="E18">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B19">
+        <v>5.50126509776032E-4</v>
+      </c>
+      <c r="C19">
+        <v>5.5543833560394904E-4</v>
+      </c>
+      <c r="D19">
+        <v>118</v>
+      </c>
+      <c r="E19">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B20">
+        <v>5.5608395994725902E-4</v>
+      </c>
+      <c r="C20">
+        <v>5.5587269704450199E-4</v>
+      </c>
+      <c r="D20">
+        <v>119</v>
+      </c>
+      <c r="E20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="B21">
+        <v>5.5165339333587801E-4</v>
+      </c>
+      <c r="C21">
+        <v>5.4561610873365203E-4</v>
+      </c>
+      <c r="D21">
         <v>120</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>1E-4</v>
-      </c>
-      <c r="B18">
-        <v>5.6709624993003804E-4</v>
-      </c>
-      <c r="C18">
-        <v>5.5764072951919601E-4</v>
-      </c>
-      <c r="D18">
-        <v>121</v>
-      </c>
-      <c r="E18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>1E-4</v>
-      </c>
-      <c r="B19">
-        <v>5.64253587790343E-4</v>
-      </c>
-      <c r="C19">
-        <v>5.7356802840964703E-4</v>
-      </c>
-      <c r="D19">
-        <v>122</v>
-      </c>
-      <c r="E19">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>1E-4</v>
-      </c>
-      <c r="B20">
-        <v>5.7392573050092698E-4</v>
-      </c>
-      <c r="C20">
-        <v>5.8329950125086299E-4</v>
-      </c>
-      <c r="D20">
-        <v>123</v>
-      </c>
-      <c r="E20">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>1E-4</v>
-      </c>
-      <c r="B21">
-        <v>5.63760074322663E-4</v>
-      </c>
-      <c r="C21">
-        <v>5.7328183202462002E-4</v>
-      </c>
-      <c r="D21">
-        <v>124</v>
       </c>
       <c r="E21">
         <v>0.5</v>
@@ -3868,16 +3868,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="B22">
-        <v>5.7702047667305902E-4</v>
+        <v>5.5695325521577799E-4</v>
       </c>
       <c r="C22">
-        <v>5.6891518724563504E-4</v>
+        <v>5.53742025460285E-4</v>
       </c>
       <c r="D22">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E22">
         <v>0.5</v>
@@ -3885,16 +3885,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="B23">
-        <v>5.6727869350130895E-4</v>
+        <v>5.5853585958731699E-4</v>
       </c>
       <c r="C23">
-        <v>5.6942994558971502E-4</v>
+        <v>5.6268374107524004E-4</v>
       </c>
       <c r="D23">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E23">
         <v>0.5</v>
@@ -3902,16 +3902,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="B24">
-        <v>5.7347875127752705E-4</v>
+        <v>5.6426661470734797E-4</v>
       </c>
       <c r="C24">
-        <v>5.7596938509222901E-4</v>
+        <v>5.5532436077059596E-4</v>
       </c>
       <c r="D24">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E24">
         <v>0.5</v>
@@ -3919,16 +3919,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1E-3</v>
+        <v>1E-4</v>
       </c>
       <c r="B25">
-        <v>5.7466911129018701E-4</v>
+        <v>5.5748758453250601E-4</v>
       </c>
       <c r="C25">
-        <v>5.9693068475167698E-4</v>
+        <v>5.4904652643017395E-4</v>
       </c>
       <c r="D25">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="E25">
         <v>0.5</v>
@@ -3936,16 +3936,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="B26">
-        <v>1.3617931944495999E-3</v>
+        <v>5.7468488086844199E-4</v>
       </c>
       <c r="C26">
-        <v>1.1074064046002999E-3</v>
+        <v>5.6386309046171197E-4</v>
       </c>
       <c r="D26">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E26">
         <v>0.5</v>
@@ -3953,16 +3953,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="B27">
-        <v>1.2433350072865101E-3</v>
+        <v>5.7699912045359298E-4</v>
       </c>
       <c r="C27">
-        <v>1.12499105979841E-3</v>
+        <v>5.8442364415069105E-4</v>
       </c>
       <c r="D27">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E27">
         <v>0.5</v>
@@ -3970,16 +3970,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="B28">
-        <v>1.12794238609071E-3</v>
+        <v>5.8710789289346697E-4</v>
       </c>
       <c r="C28">
-        <v>1.0826792752169801E-3</v>
+        <v>6.2918949274303902E-4</v>
       </c>
       <c r="D28">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E28">
         <v>0.5</v>
@@ -3987,16 +3987,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="B29">
-        <v>1.2108307397793801E-3</v>
+        <v>5.88375200718411E-4</v>
       </c>
       <c r="C29">
-        <v>1.31870511458019E-3</v>
+        <v>5.5891664365348805E-4</v>
       </c>
       <c r="D29">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E29">
         <v>0.5</v>
@@ -4004,16 +4004,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="B30">
-        <v>2.1324819323879599E-2</v>
+        <v>2.2174900343969002E-3</v>
       </c>
       <c r="C30">
-        <v>1.6145660163233402E-2</v>
+        <v>9.9838694017803805E-4</v>
       </c>
       <c r="D30">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E30">
         <v>0.5</v>
@@ -4021,16 +4021,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="B31">
-        <v>1.92772654147676E-2</v>
+        <v>1.42634462538073E-3</v>
       </c>
       <c r="C31">
-        <v>1.99835585176803E-2</v>
+        <v>1.3670966452495601E-3</v>
       </c>
       <c r="D31">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E31">
         <v>0.5</v>
@@ -4038,16 +4038,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="B32">
-        <v>2.4327690732386501E-2</v>
+        <v>1.9548366882319399E-3</v>
       </c>
       <c r="C32">
-        <v>1.4428749147071601E-2</v>
+        <v>1.29361795208586E-3</v>
       </c>
       <c r="D32">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E32">
         <v>0.5</v>
@@ -4055,16 +4055,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="B33">
-        <v>1.9299329502454599E-2</v>
+        <v>1.5350042360719901E-3</v>
       </c>
       <c r="C33">
-        <v>1.9063989449103799E-2</v>
+        <v>9.2596291850151596E-4</v>
       </c>
       <c r="D33">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E33">
         <v>0.5</v>
@@ -4079,8 +4079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9902717B-D473-4C4C-BD56-0A1D1459D334}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4125,10 +4125,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="4">
-        <v>5.5343359059761203E-4</v>
+        <v>5.5058234373636997E-4</v>
       </c>
       <c r="C2" s="4">
-        <v>5.4072018689181199E-4</v>
+        <v>5.5066947163802296E-4</v>
       </c>
       <c r="D2" s="4">
         <v>137</v>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>5.5115335220552795E-4</v>
+        <v>5.552428839819927E-4</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>5.5023289498905455E-4</v>
+        <v>5.4987742405501153E-4</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -4162,10 +4162,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="4">
-        <v>5.50398194512275E-4</v>
+        <v>5.5454088482350804E-4</v>
       </c>
       <c r="C3" s="4">
-        <v>5.5498450027802301E-4</v>
+        <v>5.5552978407252904E-4</v>
       </c>
       <c r="D3" s="4">
         <v>138</v>
@@ -4179,11 +4179,11 @@
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>5.5114568699580449E-4</v>
+        <v>5.5515609137603804E-4</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>5.5000474223354176E-4</v>
+        <v>5.4969791334852629E-4</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="1"/>
@@ -4199,10 +4199,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="4">
-        <v>5.5032955791679198E-4</v>
+        <v>5.6347726653149203E-4</v>
       </c>
       <c r="C4" s="4">
-        <v>5.5409974530575001E-4</v>
+        <v>5.47606518904847E-4</v>
       </c>
       <c r="D4" s="4">
         <v>139</v>
@@ -4216,11 +4216,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>5.5090128311633703E-4</v>
+        <v>5.5538563353602717E-4</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>5.4991911204098506E-4</v>
+        <v>5.5016514921920646E-4</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -4236,10 +4236,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="4">
-        <v>5.5045206579543301E-4</v>
+        <v>5.5237104083660099E-4</v>
       </c>
       <c r="C5" s="4">
-        <v>5.5112714748063295E-4</v>
+        <v>5.4570392160464701E-4</v>
       </c>
       <c r="D5" s="4">
         <v>140</v>
@@ -4253,11 +4253,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>5.5152816193426723E-4</v>
+        <v>5.5305634926394276E-4</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>5.5045413429542279E-4</v>
+        <v>5.5104900027138379E-4</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -4273,10 +4273,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="4">
-        <v>5.5277989132139396E-4</v>
+        <v>5.5063604163250405E-4</v>
       </c>
       <c r="C6" s="4">
-        <v>5.4067717806164902E-4</v>
+        <v>5.5071605231866896E-4</v>
       </c>
       <c r="D6" s="4">
         <v>141</v>
@@ -4291,11 +4291,11 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>5.5533733632963725E-4</v>
+        <v>5.5600683755410328E-4</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="4"/>
-        <v>5.559606071085597E-4</v>
+        <v>5.5358583313963247E-4</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="4"/>
@@ -4311,10 +4311,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="4">
-        <v>5.5058654139231904E-4</v>
+        <v>5.5424915407369601E-4</v>
       </c>
       <c r="C7" s="4">
-        <v>5.5504683184119099E-4</v>
+        <v>5.5523678152398601E-4</v>
       </c>
       <c r="D7" s="4">
         <v>142</v>
@@ -4329,11 +4329,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>5.794705158882823E-4</v>
+        <v>5.8201668743755347E-4</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>5.8353469197570506E-4</v>
+        <v>5.7247182081813304E-4</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -4349,10 +4349,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="4">
-        <v>5.5056226758893299E-4</v>
+        <v>5.6332190098192002E-4</v>
       </c>
       <c r="C8" s="4">
-        <v>5.5341240750991099E-4</v>
+        <v>5.4737133958207595E-4</v>
       </c>
       <c r="D8" s="4">
         <v>143</v>
@@ -4367,11 +4367,11 @@
       </c>
       <c r="K8">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>1.5474635625191849E-3</v>
+        <v>1.6436303477726549E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>1.240744731275515E-3</v>
+        <v>1.1195761381796608E-3</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
@@ -4387,10 +4387,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="4">
-        <v>5.5065404768057198E-4</v>
+        <v>5.5241726881603197E-4</v>
       </c>
       <c r="C9" s="4">
-        <v>5.5088255152141604E-4</v>
+        <v>5.4546747996937403E-4</v>
       </c>
       <c r="D9" s="4">
         <v>144</v>
@@ -4405,11 +4405,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>2.1260397495071803E-2</v>
+        <v>3.4963285275071132</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>1.7580974797712298E-2</v>
+        <v>3.4755216142464302</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -4425,10 +4425,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="4">
-        <v>5.5294964875737297E-4</v>
+        <v>5.5030316637231396E-4</v>
       </c>
       <c r="C10" s="4">
-        <v>5.4065243759534405E-4</v>
+        <v>5.5085701486942403E-4</v>
       </c>
       <c r="D10" s="4">
         <v>145</v>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>5.4991911204098506E-4</v>
+        <v>5.4969791334852629E-4</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -4446,10 +4446,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="4">
-        <v>5.49927702918946E-4</v>
+        <v>5.5455339541733099E-4</v>
       </c>
       <c r="C11" s="4">
-        <v>5.5372723616966104E-4</v>
+        <v>5.5564329800703895E-4</v>
       </c>
       <c r="D11" s="4">
         <v>146</v>
@@ -4463,10 +4463,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="4">
-        <v>5.5026984420239E-4</v>
+        <v>5.6421314685107897E-4</v>
       </c>
       <c r="C12" s="4">
-        <v>5.5372275675859099E-4</v>
+        <v>5.4860782058147495E-4</v>
       </c>
       <c r="D12" s="4">
         <v>147</v>
@@ -4480,10 +4480,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="4">
-        <v>5.5045793658663905E-4</v>
+        <v>5.5247282550338497E-4</v>
       </c>
       <c r="C13" s="4">
-        <v>5.5157401764034403E-4</v>
+        <v>5.4555246341888805E-4</v>
       </c>
       <c r="D13" s="4">
         <v>148</v>
@@ -4497,10 +4497,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>5.53275916551332E-4</v>
+        <v>5.5100938218080099E-4</v>
       </c>
       <c r="C14">
-        <v>5.4109182107097201E-4</v>
+        <v>5.5134691753085997E-4</v>
       </c>
       <c r="D14">
         <v>149</v>
@@ -4514,10 +4514,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>5.5072631072490997E-4</v>
+        <v>5.5058174890191701E-4</v>
       </c>
       <c r="C15">
-        <v>5.5411476877671197E-4</v>
+        <v>5.5605295399965805E-4</v>
       </c>
       <c r="D15">
         <v>150</v>
@@ -4531,10 +4531,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>5.5101420600175499E-4</v>
+        <v>5.5736550771829003E-4</v>
       </c>
       <c r="C16">
-        <v>5.5372517127130999E-4</v>
+        <v>5.5125163793987096E-4</v>
       </c>
       <c r="D16">
         <v>151</v>
@@ -4548,10 +4548,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>5.5109621445907197E-4</v>
+        <v>5.53268758254763E-4</v>
       </c>
       <c r="C17">
-        <v>5.5288477606269698E-4</v>
+        <v>5.4554449161514596E-4</v>
       </c>
       <c r="D17">
         <v>152</v>
@@ -4565,10 +4565,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18" s="2">
-        <v>5.5660608339126402E-4</v>
+        <v>5.52614707474226E-4</v>
       </c>
       <c r="C18" s="2">
-        <v>5.47794777681886E-4</v>
+        <v>5.5283201138742904E-4</v>
       </c>
       <c r="D18" s="2">
         <v>153</v>
@@ -4582,10 +4582,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19" s="2">
-        <v>5.52824733815283E-4</v>
+        <v>5.6020790301996898E-4</v>
       </c>
       <c r="C19" s="2">
-        <v>5.5608334744797097E-4</v>
+        <v>5.5950300778600897E-4</v>
       </c>
       <c r="D19" s="2">
         <v>154</v>
@@ -4599,10 +4599,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20" s="2">
-        <v>5.5766394895578799E-4</v>
+        <v>5.5539710503007698E-4</v>
       </c>
       <c r="C20" s="2">
-        <v>5.5765186965500897E-4</v>
+        <v>5.5546943172389096E-4</v>
       </c>
       <c r="D20" s="2">
         <v>155</v>
@@ -4616,10 +4616,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21" s="2">
-        <v>5.5425457915621399E-4</v>
+        <v>5.5580763469214103E-4</v>
       </c>
       <c r="C21" s="2">
-        <v>5.6231243364937295E-4</v>
+        <v>5.4653888166120103E-4</v>
       </c>
       <c r="D21" s="2">
         <v>156</v>
@@ -4633,10 +4633,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>5.7422408436874303E-4</v>
+        <v>5.72345630926522E-4</v>
       </c>
       <c r="C22">
-        <v>5.6707261673976403E-4</v>
+        <v>5.6706749019213003E-4</v>
       </c>
       <c r="D22">
         <v>157</v>
@@ -4650,10 +4650,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>5.7014813187335699E-4</v>
+        <v>5.7372279348517398E-4</v>
       </c>
       <c r="C23">
-        <v>5.7490078269657198E-4</v>
+        <v>5.7317901677875302E-4</v>
       </c>
       <c r="D23">
         <v>158</v>
@@ -4667,10 +4667,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>5.9865172716235503E-4</v>
+        <v>5.9095409831146897E-4</v>
       </c>
       <c r="C24">
-        <v>5.7058914378874798E-4</v>
+        <v>5.8530396146869103E-4</v>
       </c>
       <c r="D24">
         <v>159</v>
@@ -4684,10 +4684,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>5.7485812014867403E-4</v>
+        <v>5.9104422702704895E-4</v>
       </c>
       <c r="C25">
-        <v>6.2157622467773604E-4</v>
+        <v>5.6433681483295797E-4</v>
       </c>
       <c r="D25">
         <v>160</v>
@@ -4701,10 +4701,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>1.5346376212706501E-3</v>
+        <v>1.31148792317957E-3</v>
       </c>
       <c r="C26">
-        <v>1.07975459150687E-3</v>
+        <v>1.1582383436193099E-3</v>
       </c>
       <c r="D26">
         <v>161</v>
@@ -4718,10 +4718,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>1.6855742483319401E-3</v>
+        <v>1.3188736411061299E-3</v>
       </c>
       <c r="C27">
-        <v>1.0763634492855301E-3</v>
+        <v>1.2399697448761901E-3</v>
       </c>
       <c r="D27">
         <v>162</v>
@@ -4735,10 +4735,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>1.4829659574522301E-3</v>
+        <v>2.1830921561816498E-3</v>
       </c>
       <c r="C28">
-        <v>1.06521336733116E-3</v>
+        <v>1.15434750279581E-3</v>
       </c>
       <c r="D28">
         <v>163</v>
@@ -4752,10 +4752,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>1.4866764230219199E-3</v>
+        <v>1.7610676706232701E-3</v>
       </c>
       <c r="C29">
-        <v>1.7416475169785E-3</v>
+        <v>9.2574896142733304E-4</v>
       </c>
       <c r="D29">
         <v>164</v>
@@ -4769,10 +4769,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>2.6457107910803E-2</v>
+        <v>2.5593163714038199E-2</v>
       </c>
       <c r="C30">
-        <v>1.4186851459236999E-2</v>
+        <v>1.7643355383453001E-2</v>
       </c>
       <c r="D30">
         <v>165</v>
@@ -4786,10 +4786,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>2.0228579875450702E-2</v>
+        <v>6.95233771028039</v>
       </c>
       <c r="C31">
-        <v>1.8354028705035899E-2</v>
+        <v>6.9744341503490102</v>
       </c>
       <c r="D31">
         <v>166</v>
@@ -4803,10 +4803,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>1.9150206269830199E-2</v>
+        <v>2.4382646201703599E-2</v>
       </c>
       <c r="C32">
-        <v>1.72224632328777E-2</v>
+        <v>2.0579655106518002E-2</v>
       </c>
       <c r="D32">
         <v>167</v>
@@ -4820,10 +4820,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>1.9205695924203299E-2</v>
+        <v>6.9830005898323204</v>
       </c>
       <c r="C33">
-        <v>2.0560555793698601E-2</v>
+        <v>6.8894292961467398</v>
       </c>
       <c r="D33">
         <v>168</v>
@@ -6413,7 +6413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>

--- a/eg1.xlsx
+++ b/eg1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD2C60C-A85B-F043-B501-A7ADA72DDD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7398504A-FC81-F646-A21F-979A33975AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
@@ -1826,7 +1826,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G25"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1874,13 +1874,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>1.00504899024963</v>
+        <v>1.00516498088836</v>
       </c>
       <c r="C2">
-        <v>3.45415784507037</v>
+        <v>3.7111983474993799</v>
       </c>
       <c r="D2">
-        <v>3.4388178023424998</v>
+        <v>3.71895884766298</v>
       </c>
       <c r="E2">
         <v>49</v>
@@ -1894,15 +1894,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
-        <v>1.00504899024963</v>
+        <v>1.00516498088836</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>3.4534865572844424</v>
+        <v>3.7161201275244351</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>3.4497481378641974</v>
+        <v>3.6963717621915446</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
@@ -1918,13 +1918,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1.00504899024963</v>
+        <v>1.00516498088836</v>
       </c>
       <c r="C3">
-        <v>3.4537952528696598</v>
+        <v>3.7249668077989</v>
       </c>
       <c r="D3">
-        <v>3.4450831911780599</v>
+        <v>3.65572946211871</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -1938,15 +1938,15 @@
       </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.01009798049926</v>
+        <v>2.0103299617767298</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>7.0058912442867867E-4</v>
+        <v>2.8023535442362325E-3</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>5.4819634123387767E-4</v>
+        <v>2.7594845667800977E-3</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
@@ -1962,13 +1962,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>1.00504899024963</v>
+        <v>1.00516498088836</v>
       </c>
       <c r="C4">
-        <v>3.44606332419669</v>
+        <v>3.72675972254329</v>
       </c>
       <c r="D4">
-        <v>3.48926777622916</v>
+        <v>3.6528811361275402</v>
       </c>
       <c r="E4">
         <v>51</v>
@@ -1982,15 +1982,15 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
-        <v>4.0201959609985298</v>
+        <v>4.0206599235534597</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>5.5156426645985987E-4</v>
+        <v>2.7366201572076648E-3</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>5.5051091952588028E-4</v>
+        <v>2.7574574627329124E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
@@ -2006,13 +2006,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>1.00504899024963</v>
+        <v>1.00516498088836</v>
       </c>
       <c r="C5">
-        <v>3.4599298070010498</v>
+        <v>3.70155563225617</v>
       </c>
       <c r="D5">
-        <v>3.42582378170707</v>
+        <v>3.7579176028569501</v>
       </c>
       <c r="E5">
         <v>52</v>
@@ -2026,15 +2026,15 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
-        <v>8.0403919219970703</v>
+        <v>8.04131984710693</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>5.4897520181241308E-4</v>
+        <v>2.7346570377697974E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
-        <v>5.4835368170064245E-4</v>
+        <v>2.7531292620480178E-3</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="3"/>
@@ -2050,13 +2050,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>2.01009798049926</v>
+        <v>2.0103299617767298</v>
       </c>
       <c r="C6" s="2">
-        <v>1.1290216753466599E-3</v>
+        <v>2.89042268568508E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>5.4965448322367202E-4</v>
+        <v>2.7464996343113299E-3</v>
       </c>
       <c r="E6" s="2">
         <v>53</v>
@@ -2070,15 +2070,15 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
-        <v>16.080783843994102</v>
+        <v>16.0826396942138</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>5.4912574242199196E-4</v>
+        <v>2.73605392566774E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>5.4859452595172218E-4</v>
+        <v>2.7547802846860452E-3</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -2094,13 +2094,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>2.01009798049926</v>
+        <v>2.0103299617767298</v>
       </c>
       <c r="C7" s="2">
-        <v>5.7005469055238195E-4</v>
+        <v>2.74596928849962E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>5.5325351078698202E-4</v>
+        <v>2.7736349752647601E-3</v>
       </c>
       <c r="E7" s="2">
         <v>54</v>
@@ -2114,15 +2114,15 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
-        <v>32.161567687988203</v>
+        <v>32.165279388427699</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>5.4940111321433193E-4</v>
+        <v>2.7375390588109051E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>5.4887806598509774E-4</v>
+        <v>2.7561194067090402E-3</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -2138,13 +2138,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>2.01009798049926</v>
+        <v>2.0103299617767298</v>
       </c>
       <c r="C8" s="2">
-        <v>5.5103847079487195E-4</v>
+        <v>2.7844865780085699E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>5.4601114693055399E-4</v>
+        <v>2.7526423823563198E-3</v>
       </c>
       <c r="E8" s="2">
         <v>55</v>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="M8">
         <f>MIN(M2:M7)</f>
-        <v>5.4819634123387767E-4</v>
+        <v>2.7531292620480178E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -2162,13 +2162,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>2.01009798049926</v>
+        <v>2.0103299617767298</v>
       </c>
       <c r="C9" s="2">
-        <v>5.52241661020801E-4</v>
+        <v>2.7885356247516601E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>5.4386622399430298E-4</v>
+        <v>2.76516127518798E-3</v>
       </c>
       <c r="E9" s="2">
         <v>56</v>
@@ -2182,13 +2182,13 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>4.0201959609985298</v>
+        <v>4.0206599235534597</v>
       </c>
       <c r="C10">
-        <v>5.5104154477068098E-4</v>
+        <v>2.7386976316735902E-3</v>
       </c>
       <c r="D10">
-        <v>5.5170863739807501E-4</v>
+        <v>2.74370259413605E-3</v>
       </c>
       <c r="E10">
         <v>57</v>
@@ -2202,13 +2202,13 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>4.0201959609985298</v>
+        <v>4.0206599235534597</v>
       </c>
       <c r="C11">
-        <v>5.4977203708154803E-4</v>
+        <v>2.7362045349154998E-3</v>
       </c>
       <c r="D11">
-        <v>5.5465515232009895E-4</v>
+        <v>2.7685939293245099E-3</v>
       </c>
       <c r="E11">
         <v>58</v>
@@ -2222,13 +2222,13 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>4.0201959609985298</v>
+        <v>4.0206599235534597</v>
       </c>
       <c r="C12">
-        <v>5.5108179071690605E-4</v>
+        <v>2.7366107420112502E-3</v>
       </c>
       <c r="D12">
-        <v>5.4603270598983496E-4</v>
+        <v>2.7521485691050099E-3</v>
       </c>
       <c r="E12">
         <v>59</v>
@@ -2242,13 +2242,13 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>4.0201959609985298</v>
+        <v>4.0206599235534597</v>
       </c>
       <c r="C13">
-        <v>5.5436169327030397E-4</v>
+        <v>2.7349677202303199E-3</v>
       </c>
       <c r="D13">
-        <v>5.49647182395512E-4</v>
+        <v>2.7653847583660801E-3</v>
       </c>
       <c r="E13">
         <v>60</v>
@@ -2262,13 +2262,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>8.0403919219970703</v>
+        <v>8.04131984710693</v>
       </c>
       <c r="C14" s="4">
-        <v>5.49070460941923E-4</v>
+        <v>2.7382002470680701E-3</v>
       </c>
       <c r="D14" s="4">
-        <v>5.5021588314874896E-4</v>
+        <v>2.73559204823173E-3</v>
       </c>
       <c r="E14" s="4">
         <v>61</v>
@@ -2282,13 +2282,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>8.0403919219970703</v>
+        <v>8.04131984710693</v>
       </c>
       <c r="C15" s="4">
-        <v>5.4722843472697E-4</v>
+        <v>2.7327902010969201E-3</v>
       </c>
       <c r="D15" s="4">
-        <v>5.5231456380252803E-4</v>
+        <v>2.7681398639163202E-3</v>
       </c>
       <c r="E15" s="4">
         <v>62</v>
@@ -2302,13 +2302,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="4">
-        <v>8.0403919219970703</v>
+        <v>8.04131984710693</v>
       </c>
       <c r="C16" s="4">
-        <v>5.5025569470248405E-4</v>
+        <v>2.7341735400533999E-3</v>
       </c>
       <c r="D16" s="4">
-        <v>5.4671905183402598E-4</v>
+        <v>2.74817341500345E-3</v>
       </c>
       <c r="E16" s="4">
         <v>63</v>
@@ -2322,13 +2322,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>8.0403919219970703</v>
+        <v>8.04131984710693</v>
       </c>
       <c r="C17" s="4">
-        <v>5.4934621687827503E-4</v>
+        <v>2.7334641628608001E-3</v>
       </c>
       <c r="D17" s="4">
-        <v>5.4416522801726695E-4</v>
+        <v>2.7606117210405702E-3</v>
       </c>
       <c r="E17" s="4">
         <v>64</v>
@@ -2342,13 +2342,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>16.080783843994102</v>
+        <v>16.0826396942138</v>
       </c>
       <c r="C18">
-        <v>5.4912291275556295E-4</v>
+        <v>2.7397154162223701E-3</v>
       </c>
       <c r="D18">
-        <v>5.5019172723405E-4</v>
+        <v>2.7370014269014402E-3</v>
       </c>
       <c r="E18">
         <v>65</v>
@@ -2362,13 +2362,13 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>16.080783843994102</v>
+        <v>16.0826396942138</v>
       </c>
       <c r="C19">
-        <v>5.4755226859650602E-4</v>
+        <v>2.7370956738957601E-3</v>
       </c>
       <c r="D19">
-        <v>5.5263862410687202E-4</v>
+        <v>2.7697361553745202E-3</v>
       </c>
       <c r="E19">
         <v>66</v>
@@ -2382,13 +2382,13 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>16.080783843994102</v>
+        <v>16.0826396942138</v>
       </c>
       <c r="C20">
-        <v>5.4986200938065004E-4</v>
+        <v>2.7347323662058999E-3</v>
       </c>
       <c r="D20">
-        <v>5.4683898871933797E-4</v>
+        <v>2.74937534385232E-3</v>
       </c>
       <c r="E20">
         <v>67</v>
@@ -2402,13 +2402,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>16.080783843994102</v>
+        <v>16.0826396942138</v>
       </c>
       <c r="C21">
-        <v>5.4996577895524896E-4</v>
+        <v>2.7326722463469301E-3</v>
       </c>
       <c r="D21">
-        <v>5.4470876374662896E-4</v>
+        <v>2.7630082126159001E-3</v>
       </c>
       <c r="E21">
         <v>68</v>
@@ -2422,13 +2422,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>32.161567687988203</v>
+        <v>32.165279388427699</v>
       </c>
       <c r="C22" s="4">
-        <v>5.4942482087567599E-4</v>
+        <v>2.74248882391345E-3</v>
       </c>
       <c r="D22" s="4">
-        <v>5.4990341542923596E-4</v>
+        <v>2.74083115315685E-3</v>
       </c>
       <c r="E22" s="4">
         <v>69</v>
@@ -2442,13 +2442,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="4">
-        <v>32.161567687988203</v>
+        <v>32.165279388427699</v>
       </c>
       <c r="C23" s="4">
-        <v>5.4813599389112299E-4</v>
+        <v>2.7380647287642201E-3</v>
       </c>
       <c r="D23" s="4">
-        <v>5.53154112474823E-4</v>
+        <v>2.7708606885782599E-3</v>
       </c>
       <c r="E23" s="4">
         <v>70</v>
@@ -2462,13 +2462,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="4">
-        <v>32.161567687988203</v>
+        <v>32.165279388427699</v>
       </c>
       <c r="C24" s="4">
-        <v>5.4951800203820395E-4</v>
+        <v>2.7365227263072998E-3</v>
       </c>
       <c r="D24" s="4">
-        <v>5.4674319557803199E-4</v>
+        <v>2.75409896401505E-3</v>
       </c>
       <c r="E24" s="4">
         <v>71</v>
@@ -2482,13 +2482,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="4">
-        <v>32.161567687988203</v>
+        <v>32.165279388427699</v>
       </c>
       <c r="C25" s="4">
-        <v>5.5052563605232502E-4</v>
+        <v>2.7330799562586502E-3</v>
       </c>
       <c r="D25" s="4">
-        <v>5.4571154045830001E-4</v>
+        <v>2.7586868210860002E-3</v>
       </c>
       <c r="E25" s="4">
         <v>72</v>
@@ -4080,7 +4080,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4125,16 +4125,19 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="4">
-        <v>5.5058234373636997E-4</v>
+        <v>2.7510661423590702E-3</v>
       </c>
       <c r="C2" s="4">
-        <v>5.5066947163802296E-4</v>
+        <v>2.7462593918921902E-3</v>
       </c>
       <c r="D2" s="4">
         <v>137</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
+      </c>
+      <c r="F2">
+        <v>41.628999999999998</v>
       </c>
       <c r="J2" s="5">
         <f>AVERAGE(A2:A5)</f>
@@ -4142,11 +4145,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>5.552428839819927E-4</v>
+        <v>2.749053339893795E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>5.4987742405501153E-4</v>
+        <v>2.76081850832127E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -4162,16 +4165,19 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="4">
-        <v>5.5454088482350804E-4</v>
+        <v>2.7456310776769301E-3</v>
       </c>
       <c r="C3" s="4">
-        <v>5.5552978407252904E-4</v>
+        <v>2.7744358396340199E-3</v>
       </c>
       <c r="D3" s="4">
         <v>138</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
+      </c>
+      <c r="F3">
+        <v>10.77</v>
       </c>
       <c r="J3" s="5">
         <f>AVERAGE(A6:A9)</f>
@@ -4179,11 +4185,11 @@
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>5.5515609137603804E-4</v>
+        <v>2.7493530913274373E-3</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>5.4969791334852629E-4</v>
+        <v>2.7609639789671651E-3</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="1"/>
@@ -4199,16 +4205,19 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="4">
-        <v>5.6347726653149203E-4</v>
+        <v>2.7518001938792499E-3</v>
       </c>
       <c r="C4" s="4">
-        <v>5.47606518904847E-4</v>
+        <v>2.75330646557039E-3</v>
       </c>
       <c r="D4" s="4">
         <v>139</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
+      </c>
+      <c r="F4">
+        <v>16.486000000000001</v>
       </c>
       <c r="J4" s="5">
         <f>AVERAGE(A10:A13)</f>
@@ -4216,11 +4225,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>5.5538563353602717E-4</v>
+        <v>2.7490961020732252E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>5.5016514921920646E-4</v>
+        <v>2.7609876654905172E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -4236,16 +4245,19 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="4">
-        <v>5.5237104083660099E-4</v>
+        <v>2.7477159456599301E-3</v>
       </c>
       <c r="C5" s="4">
-        <v>5.4570392160464701E-4</v>
+        <v>2.76927233618848E-3</v>
       </c>
       <c r="D5" s="4">
         <v>140</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
+      </c>
+      <c r="F5">
+        <v>11.263999999999999</v>
       </c>
       <c r="J5" s="5">
         <f>AVERAGE(A14:A17)</f>
@@ -4253,11 +4265,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>5.5305634926394276E-4</v>
+        <v>2.7500889695956524E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>5.5104900027138379E-4</v>
+        <v>2.7623949355591823E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -4273,10 +4285,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="4">
-        <v>5.5063604163250405E-4</v>
+        <v>2.7522934716268E-3</v>
       </c>
       <c r="C6" s="4">
-        <v>5.5071605231866896E-4</v>
+        <v>2.7472540307059501E-3</v>
       </c>
       <c r="D6" s="4">
         <v>141</v>
@@ -4291,11 +4303,11 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>5.5600683755410328E-4</v>
+        <v>2.754900246945545E-3</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="4"/>
-        <v>5.5358583313963247E-4</v>
+        <v>2.7692852491585898E-3</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="4"/>
@@ -4311,10 +4323,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="4">
-        <v>5.5424915407369601E-4</v>
+        <v>2.7460405466899602E-3</v>
       </c>
       <c r="C7" s="4">
-        <v>5.5523678152398601E-4</v>
+        <v>2.7748211515227299E-3</v>
       </c>
       <c r="D7" s="4">
         <v>142</v>
@@ -4329,11 +4341,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>5.8201668743755347E-4</v>
+        <v>2.7770483484480198E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>5.7247182081813304E-4</v>
+        <v>2.7996139131787677E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -4349,10 +4361,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="4">
-        <v>5.6332190098192002E-4</v>
+        <v>2.7510192284145398E-3</v>
       </c>
       <c r="C8" s="4">
-        <v>5.4737133958207595E-4</v>
+        <v>2.7523087383266101E-3</v>
       </c>
       <c r="D8" s="4">
         <v>143</v>
@@ -4367,11 +4379,11 @@
       </c>
       <c r="K8">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>1.6436303477726549E-3</v>
+        <v>3.567874433326298E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>1.1195761381796608E-3</v>
+        <v>3.5486980809318748E-3</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
@@ -4387,10 +4399,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="4">
-        <v>5.5241726881603197E-4</v>
+        <v>2.7480591185784502E-3</v>
       </c>
       <c r="C9" s="4">
-        <v>5.4546747996937403E-4</v>
+        <v>2.7694719953133698E-3</v>
       </c>
       <c r="D9" s="4">
         <v>144</v>
@@ -4405,11 +4417,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>3.4963285275071132</v>
+        <v>5.9028108725329975</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>3.4755216142464302</v>
+        <v>5.5528142719230491</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -4425,10 +4437,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="4">
-        <v>5.5030316637231396E-4</v>
+        <v>2.7518563421044901E-3</v>
       </c>
       <c r="C10" s="4">
-        <v>5.5085701486942403E-4</v>
+        <v>2.7468642197074501E-3</v>
       </c>
       <c r="D10" s="4">
         <v>145</v>
@@ -4438,7 +4450,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>5.4969791334852629E-4</v>
+        <v>2.76081850832127E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -4446,10 +4458,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="4">
-        <v>5.5455339541733099E-4</v>
+        <v>2.74577923347894E-3</v>
       </c>
       <c r="C11" s="4">
-        <v>5.5564329800703895E-4</v>
+        <v>2.7738236890667502E-3</v>
       </c>
       <c r="D11" s="4">
         <v>146</v>
@@ -4463,10 +4475,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="4">
-        <v>5.6421314685107897E-4</v>
+        <v>2.75102361730077E-3</v>
       </c>
       <c r="C12" s="4">
-        <v>5.4860782058147495E-4</v>
+        <v>2.7531207671535E-3</v>
       </c>
       <c r="D12" s="4">
         <v>147</v>
@@ -4480,10 +4492,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="4">
-        <v>5.5247282550338497E-4</v>
+        <v>2.7477252154086999E-3</v>
       </c>
       <c r="C13" s="4">
-        <v>5.4555246341888805E-4</v>
+        <v>2.7701419860343699E-3</v>
       </c>
       <c r="D13" s="4">
         <v>148</v>
@@ -4497,10 +4509,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>5.5100938218080099E-4</v>
+        <v>2.7525851420637099E-3</v>
       </c>
       <c r="C14">
-        <v>5.5134691753085997E-4</v>
+        <v>2.7464160709367901E-3</v>
       </c>
       <c r="D14">
         <v>149</v>
@@ -4514,10 +4526,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>5.5058174890191701E-4</v>
+        <v>2.7464651027854499E-3</v>
       </c>
       <c r="C15">
-        <v>5.5605295399965805E-4</v>
+        <v>2.7775536861964498E-3</v>
       </c>
       <c r="D15">
         <v>150</v>
@@ -4531,10 +4543,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>5.5736550771829003E-4</v>
+        <v>2.7517903200293399E-3</v>
       </c>
       <c r="C16">
-        <v>5.5125163793987096E-4</v>
+        <v>2.7542775474013901E-3</v>
       </c>
       <c r="D16">
         <v>151</v>
@@ -4548,10 +4560,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>5.53268758254763E-4</v>
+        <v>2.7495153135041099E-3</v>
       </c>
       <c r="C17">
-        <v>5.4554449161514596E-4</v>
+        <v>2.7713324377020999E-3</v>
       </c>
       <c r="D17">
         <v>152</v>
@@ -4565,10 +4577,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18" s="2">
-        <v>5.52614707474226E-4</v>
+        <v>2.7571433579608598E-3</v>
       </c>
       <c r="C18" s="2">
-        <v>5.5283201138742904E-4</v>
+        <v>2.7512883899879501E-3</v>
       </c>
       <c r="D18" s="2">
         <v>153</v>
@@ -4582,10 +4594,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19" s="2">
-        <v>5.6020790301996898E-4</v>
+        <v>2.7516194663859401E-3</v>
       </c>
       <c r="C19" s="2">
-        <v>5.5950300778600897E-4</v>
+        <v>2.78108079424675E-3</v>
       </c>
       <c r="D19" s="2">
         <v>154</v>
@@ -4599,10 +4611,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20" s="2">
-        <v>5.5539710503007698E-4</v>
+        <v>2.7557168824081002E-3</v>
       </c>
       <c r="C20" s="2">
-        <v>5.5546943172389096E-4</v>
+        <v>2.7604729379983798E-3</v>
       </c>
       <c r="D20" s="2">
         <v>155</v>
@@ -4616,10 +4628,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21" s="2">
-        <v>5.5580763469214103E-4</v>
+        <v>2.7551212810272801E-3</v>
       </c>
       <c r="C21" s="2">
-        <v>5.4653888166120103E-4</v>
+        <v>2.7842988744012798E-3</v>
       </c>
       <c r="D21" s="2">
         <v>156</v>
@@ -4633,10 +4645,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>5.72345630926522E-4</v>
+        <v>2.7798204059215998E-3</v>
       </c>
       <c r="C22">
-        <v>5.6706749019213003E-4</v>
+        <v>2.77821909563214E-3</v>
       </c>
       <c r="D22">
         <v>157</v>
@@ -4650,10 +4662,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>5.7372279348517398E-4</v>
+        <v>2.7671093378600401E-3</v>
       </c>
       <c r="C23">
-        <v>5.7317901677875302E-4</v>
+        <v>2.8059059872711902E-3</v>
       </c>
       <c r="D23">
         <v>158</v>
@@ -4667,10 +4679,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>5.9095409831146897E-4</v>
+        <v>2.7832257851994799E-3</v>
       </c>
       <c r="C24">
-        <v>5.8530396146869103E-4</v>
+        <v>2.79139567111783E-3</v>
       </c>
       <c r="D24">
         <v>159</v>
@@ -4684,10 +4696,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>5.9104422702704895E-4</v>
+        <v>2.77803786481096E-3</v>
       </c>
       <c r="C25">
-        <v>5.6433681483295797E-4</v>
+        <v>2.8229348986939101E-3</v>
       </c>
       <c r="D25">
         <v>160</v>
@@ -4701,10 +4713,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>1.31148792317957E-3</v>
+        <v>3.7350207967660701E-3</v>
       </c>
       <c r="C26">
-        <v>1.1582383436193099E-3</v>
+        <v>3.4914198742412401E-3</v>
       </c>
       <c r="D26">
         <v>161</v>
@@ -4718,10 +4730,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>1.3188736411061299E-3</v>
+        <v>3.46581194737436E-3</v>
       </c>
       <c r="C27">
-        <v>1.2399697448761901E-3</v>
+        <v>3.7657933802727299E-3</v>
       </c>
       <c r="D27">
         <v>162</v>
@@ -4735,10 +4747,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>2.1830921561816498E-3</v>
+        <v>3.55622978338683E-3</v>
       </c>
       <c r="C28">
-        <v>1.15434750279581E-3</v>
+        <v>3.4214750676434102E-3</v>
       </c>
       <c r="D28">
         <v>163</v>
@@ -4752,10 +4764,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>1.7610676706232701E-3</v>
+        <v>3.5144352057779301E-3</v>
       </c>
       <c r="C29">
-        <v>9.2574896142733304E-4</v>
+        <v>3.5161040015701198E-3</v>
       </c>
       <c r="D29">
         <v>164</v>
@@ -4769,10 +4781,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>2.5593163714038199E-2</v>
+        <v>7.5144736573502797</v>
       </c>
       <c r="C30">
-        <v>1.7643355383453001E-2</v>
+        <v>7.3506418302947401</v>
       </c>
       <c r="D30">
         <v>165</v>
@@ -4786,10 +4798,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>6.95233771028039</v>
+        <v>2.8817708347752401E-2</v>
       </c>
       <c r="C31">
-        <v>6.9744341503490102</v>
+        <v>2.0018142086508501E-2</v>
       </c>
       <c r="D31">
         <v>166</v>
@@ -4803,10 +4815,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>2.4382646201703599E-2</v>
+        <v>8.2011242334614192</v>
       </c>
       <c r="C32">
-        <v>2.0579655106518002E-2</v>
+        <v>7.3066062693502296</v>
       </c>
       <c r="D32">
         <v>167</v>
@@ -4820,10 +4832,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>6.9830005898323204</v>
+        <v>7.86682789097254</v>
       </c>
       <c r="C33">
-        <v>6.8894292961467398</v>
+        <v>7.5339908459607203</v>
       </c>
       <c r="D33">
         <v>168</v>

--- a/eg1.xlsx
+++ b/eg1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7398504A-FC81-F646-A21F-979A33975AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1E9832-537E-B64A-8DA1-6EE64731970A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
@@ -1826,7 +1826,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="A2" sqref="A2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1874,13 +1874,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>1.00516498088836</v>
+        <v>1.0051465034484801</v>
       </c>
       <c r="C2">
-        <v>3.7111983474993799</v>
+        <v>3.99383485857645</v>
       </c>
       <c r="D2">
-        <v>3.71895884766298</v>
+        <v>4.0815576746108597</v>
       </c>
       <c r="E2">
         <v>49</v>
@@ -1894,15 +1894,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
-        <v>1.00516498088836</v>
+        <v>1.0051465034484801</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>3.7161201275244351</v>
+        <v>4.0144308584531103</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>3.6963717621915446</v>
+        <v>3.9985696692415975</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
@@ -1918,13 +1918,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1.00516498088836</v>
+        <v>1.0051465034484801</v>
       </c>
       <c r="C3">
-        <v>3.7249668077989</v>
+        <v>4.0237323322296099</v>
       </c>
       <c r="D3">
-        <v>3.65572946211871</v>
+        <v>3.9603695970900499</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -1938,15 +1938,15 @@
       </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.0103299617767298</v>
+        <v>2.01029300689697</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>2.8023535442362325E-3</v>
+        <v>2.71851257871215E-3</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>2.7594845667800977E-3</v>
+        <v>2.7039651616545778E-3</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
@@ -1962,13 +1962,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>1.00516498088836</v>
+        <v>1.0051465034484801</v>
       </c>
       <c r="C4">
-        <v>3.72675972254329</v>
+        <v>4.0174071801503501</v>
       </c>
       <c r="D4">
-        <v>3.6528811361275402</v>
+        <v>3.9867562359951898</v>
       </c>
       <c r="E4">
         <v>51</v>
@@ -1982,15 +1982,15 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
-        <v>4.0206599235534597</v>
+        <v>4.02058601379394</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>2.7366201572076648E-3</v>
+        <v>2.6952839504616926E-3</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>2.7574574627329124E-3</v>
+        <v>2.7069672465354069E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
@@ -2006,13 +2006,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>1.00516498088836</v>
+        <v>1.0051465034484801</v>
       </c>
       <c r="C5">
-        <v>3.70155563225617</v>
+        <v>4.0227490628560298</v>
       </c>
       <c r="D5">
-        <v>3.7579176028569501</v>
+        <v>3.9655951692702902</v>
       </c>
       <c r="E5">
         <v>52</v>
@@ -2026,15 +2026,15 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
-        <v>8.04131984710693</v>
+        <v>8.0411720275878906</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>2.7346570377697974E-3</v>
+        <v>2.6920143331711425E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
-        <v>2.7531292620480178E-3</v>
+        <v>2.7010589392181998E-3</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="3"/>
@@ -2050,13 +2050,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>2.0103299617767298</v>
+        <v>2.01029300689697</v>
       </c>
       <c r="C6" s="2">
-        <v>2.89042268568508E-3</v>
+        <v>2.7009991928935002E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>2.7464996343113299E-3</v>
+        <v>2.7138313149755902E-3</v>
       </c>
       <c r="E6" s="2">
         <v>53</v>
@@ -2070,15 +2070,15 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
-        <v>16.0826396942138</v>
+        <v>16.0823440551757</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>2.73605392566774E-3</v>
+        <v>2.6922960008184072E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>2.7547802846860452E-3</v>
+        <v>2.7016038997742771E-3</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -2094,13 +2094,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>2.0103299617767298</v>
+        <v>2.01029300689697</v>
       </c>
       <c r="C7" s="2">
-        <v>2.74596928849962E-3</v>
+        <v>2.7020915554215501E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>2.7736349752647601E-3</v>
+        <v>2.71133401064558E-3</v>
       </c>
       <c r="E7" s="2">
         <v>54</v>
@@ -2114,15 +2114,15 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
-        <v>32.165279388427699</v>
+        <v>32.164688110351499</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.7375390588109051E-3</v>
+        <v>2.6901424449558022E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>2.7561194067090402E-3</v>
+        <v>2.7010136096926448E-3</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -2138,13 +2138,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>2.0103299617767298</v>
+        <v>2.01029300689697</v>
       </c>
       <c r="C8" s="2">
-        <v>2.7844865780085699E-3</v>
+        <v>2.75670906280477E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.7526423823563198E-3</v>
+        <v>2.7122137612326301E-3</v>
       </c>
       <c r="E8" s="2">
         <v>55</v>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="M8">
         <f>MIN(M2:M7)</f>
-        <v>2.7531292620480178E-3</v>
+        <v>2.7010136096926448E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -2162,13 +2162,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>2.0103299617767298</v>
+        <v>2.01029300689697</v>
       </c>
       <c r="C9" s="2">
-        <v>2.7885356247516601E-3</v>
+        <v>2.7142505037287801E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>2.76516127518798E-3</v>
+        <v>2.6784815597645098E-3</v>
       </c>
       <c r="E9" s="2">
         <v>56</v>
@@ -2182,13 +2182,13 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>4.0206599235534597</v>
+        <v>4.02058601379394</v>
       </c>
       <c r="C10">
-        <v>2.7386976316735902E-3</v>
+        <v>2.6945409787197902E-3</v>
       </c>
       <c r="D10">
-        <v>2.74370259413605E-3</v>
+        <v>2.7211765867677699E-3</v>
       </c>
       <c r="E10">
         <v>57</v>
@@ -2202,13 +2202,13 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>4.0206599235534597</v>
+        <v>4.02058601379394</v>
       </c>
       <c r="C11">
-        <v>2.7362045349154998E-3</v>
+        <v>2.69425845518708E-3</v>
       </c>
       <c r="D11">
-        <v>2.7685939293245099E-3</v>
+        <v>2.7150508249178498E-3</v>
       </c>
       <c r="E11">
         <v>58</v>
@@ -2222,13 +2222,13 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>4.0206599235534597</v>
+        <v>4.02058601379394</v>
       </c>
       <c r="C12">
-        <v>2.7366107420112502E-3</v>
+        <v>2.6908617603282098E-3</v>
       </c>
       <c r="D12">
-        <v>2.7521485691050099E-3</v>
+        <v>2.7134165940608098E-3</v>
       </c>
       <c r="E12">
         <v>59</v>
@@ -2242,13 +2242,13 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>4.0206599235534597</v>
+        <v>4.02058601379394</v>
       </c>
       <c r="C13">
-        <v>2.7349677202303199E-3</v>
+        <v>2.7014746076116898E-3</v>
       </c>
       <c r="D13">
-        <v>2.7653847583660801E-3</v>
+        <v>2.6782249803951998E-3</v>
       </c>
       <c r="E13">
         <v>60</v>
@@ -2262,13 +2262,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>8.04131984710693</v>
+        <v>8.0411720275878906</v>
       </c>
       <c r="C14" s="4">
-        <v>2.7382002470680701E-3</v>
+        <v>2.68804251402616E-3</v>
       </c>
       <c r="D14" s="4">
-        <v>2.73559204823173E-3</v>
+        <v>2.7072684556998699E-3</v>
       </c>
       <c r="E14" s="4">
         <v>61</v>
@@ -2282,13 +2282,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>8.04131984710693</v>
+        <v>8.0411720275878906</v>
       </c>
       <c r="C15" s="4">
-        <v>2.7327902010969201E-3</v>
+        <v>2.6940142804135802E-3</v>
       </c>
       <c r="D15" s="4">
-        <v>2.7681398639163202E-3</v>
+        <v>2.7109438137329599E-3</v>
       </c>
       <c r="E15" s="4">
         <v>62</v>
@@ -2302,13 +2302,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="4">
-        <v>8.04131984710693</v>
+        <v>8.0411720275878906</v>
       </c>
       <c r="C16" s="4">
-        <v>2.7341735400533999E-3</v>
+        <v>2.6854767054319299E-3</v>
       </c>
       <c r="D16" s="4">
-        <v>2.74817341500345E-3</v>
+        <v>2.7110840050265802E-3</v>
       </c>
       <c r="E16" s="4">
         <v>63</v>
@@ -2322,13 +2322,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>8.04131984710693</v>
+        <v>8.0411720275878906</v>
       </c>
       <c r="C17" s="4">
-        <v>2.7334641628608001E-3</v>
+        <v>2.7005238328129001E-3</v>
       </c>
       <c r="D17" s="4">
-        <v>2.7606117210405702E-3</v>
+        <v>2.6749394824133899E-3</v>
       </c>
       <c r="E17" s="4">
         <v>64</v>
@@ -2342,13 +2342,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>16.0826396942138</v>
+        <v>16.0823440551757</v>
       </c>
       <c r="C18">
-        <v>2.7397154162223701E-3</v>
+        <v>2.6864388218770401E-3</v>
       </c>
       <c r="D18">
-        <v>2.7370014269014402E-3</v>
+        <v>2.7104580348872699E-3</v>
       </c>
       <c r="E18">
         <v>65</v>
@@ -2362,13 +2362,13 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>16.0826396942138</v>
+        <v>16.0823440551757</v>
       </c>
       <c r="C19">
-        <v>2.7370956738957601E-3</v>
+        <v>2.6942681291451001E-3</v>
       </c>
       <c r="D19">
-        <v>2.7697361553745202E-3</v>
+        <v>2.7125561585094999E-3</v>
       </c>
       <c r="E19">
         <v>66</v>
@@ -2382,13 +2382,13 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>16.0826396942138</v>
+        <v>16.0823440551757</v>
       </c>
       <c r="C20">
-        <v>2.7347323662058999E-3</v>
+        <v>2.6915125045925302E-3</v>
       </c>
       <c r="D20">
-        <v>2.74937534385232E-3</v>
+        <v>2.7100747832632102E-3</v>
       </c>
       <c r="E20">
         <v>67</v>
@@ -2402,13 +2402,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>16.0826396942138</v>
+        <v>16.0823440551757</v>
       </c>
       <c r="C21">
-        <v>2.7326722463469301E-3</v>
+        <v>2.6969645476589599E-3</v>
       </c>
       <c r="D21">
-        <v>2.7630082126159001E-3</v>
+        <v>2.6733266224371298E-3</v>
       </c>
       <c r="E21">
         <v>68</v>
@@ -2422,13 +2422,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>32.165279388427699</v>
+        <v>32.164688110351499</v>
       </c>
       <c r="C22" s="4">
-        <v>2.74248882391345E-3</v>
+        <v>2.6868907238046299E-3</v>
       </c>
       <c r="D22" s="4">
-        <v>2.74083115315685E-3</v>
+        <v>2.7104732852944301E-3</v>
       </c>
       <c r="E22" s="4">
         <v>69</v>
@@ -2442,13 +2442,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="4">
-        <v>32.165279388427699</v>
+        <v>32.164688110351499</v>
       </c>
       <c r="C23" s="4">
-        <v>2.7380647287642201E-3</v>
+        <v>2.6953122795869899E-3</v>
       </c>
       <c r="D23" s="4">
-        <v>2.7708606885782599E-3</v>
+        <v>2.7111147287638502E-3</v>
       </c>
       <c r="E23" s="4">
         <v>70</v>
@@ -2462,13 +2462,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="4">
-        <v>32.165279388427699</v>
+        <v>32.164688110351499</v>
       </c>
       <c r="C24" s="4">
-        <v>2.7365227263072998E-3</v>
+        <v>2.6849886210014401E-3</v>
       </c>
       <c r="D24" s="4">
-        <v>2.75409896401505E-3</v>
+        <v>2.7137002189386002E-3</v>
       </c>
       <c r="E24" s="4">
         <v>71</v>
@@ -2482,13 +2482,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="4">
-        <v>32.165279388427699</v>
+        <v>32.164688110351499</v>
       </c>
       <c r="C25" s="4">
-        <v>2.7330799562586502E-3</v>
+        <v>2.6933781554301498E-3</v>
       </c>
       <c r="D25" s="4">
-        <v>2.7586868210860002E-3</v>
+        <v>2.6687662057737001E-3</v>
       </c>
       <c r="E25" s="4">
         <v>72</v>
@@ -4080,7 +4080,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A2" sqref="A2:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4125,19 +4125,16 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="4">
-        <v>2.7510661423590702E-3</v>
+        <v>2.7012779166301001E-3</v>
       </c>
       <c r="C2" s="4">
-        <v>2.7462593918921902E-3</v>
+        <v>2.7149062940573401E-3</v>
       </c>
       <c r="D2" s="4">
         <v>137</v>
       </c>
       <c r="E2" s="4">
         <v>1</v>
-      </c>
-      <c r="F2">
-        <v>41.628999999999998</v>
       </c>
       <c r="J2" s="5">
         <f>AVERAGE(A2:A5)</f>
@@ -4145,11 +4142,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>2.749053339893795E-3</v>
+        <v>2.7060564863495501E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>2.76081850832127E-3</v>
+        <v>2.7070108707003401E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -4165,19 +4162,16 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="4">
-        <v>2.7456310776769301E-3</v>
+        <v>2.7058274478961998E-3</v>
       </c>
       <c r="C3" s="4">
-        <v>2.7744358396340199E-3</v>
+        <v>2.7129735346843901E-3</v>
       </c>
       <c r="D3" s="4">
         <v>138</v>
       </c>
       <c r="E3" s="4">
         <v>1</v>
-      </c>
-      <c r="F3">
-        <v>10.77</v>
       </c>
       <c r="J3" s="5">
         <f>AVERAGE(A6:A9)</f>
@@ -4185,11 +4179,11 @@
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.7493530913274373E-3</v>
+        <v>2.7064487651611326E-3</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>2.7609639789671651E-3</v>
+        <v>2.7069269011956274E-3</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="1"/>
@@ -4205,19 +4199,16 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="4">
-        <v>2.7518001938792499E-3</v>
+        <v>2.7032260609169802E-3</v>
       </c>
       <c r="C4" s="4">
-        <v>2.75330646557039E-3</v>
+        <v>2.7171842867825501E-3</v>
       </c>
       <c r="D4" s="4">
         <v>139</v>
       </c>
       <c r="E4" s="4">
         <v>1</v>
-      </c>
-      <c r="F4">
-        <v>16.486000000000001</v>
       </c>
       <c r="J4" s="5">
         <f>AVERAGE(A10:A13)</f>
@@ -4225,11 +4216,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>2.7490961020732252E-3</v>
+        <v>2.7056101583875672E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>2.7609876654905172E-3</v>
+        <v>2.7073147413172174E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -4245,19 +4236,16 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="4">
-        <v>2.7477159456599301E-3</v>
+        <v>2.7138945199549199E-3</v>
       </c>
       <c r="C5" s="4">
-        <v>2.76927233618848E-3</v>
+        <v>2.6829793672770801E-3</v>
       </c>
       <c r="D5" s="4">
         <v>140</v>
       </c>
       <c r="E5" s="4">
         <v>1</v>
-      </c>
-      <c r="F5">
-        <v>11.263999999999999</v>
       </c>
       <c r="J5" s="5">
         <f>AVERAGE(A14:A17)</f>
@@ -4265,11 +4253,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>2.7500889695956524E-3</v>
+        <v>2.706634074759975E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>2.7623949355591823E-3</v>
+        <v>2.7077151889704676E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -4285,10 +4273,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="4">
-        <v>2.7522934716268E-3</v>
+        <v>2.70377609692513E-3</v>
       </c>
       <c r="C6" s="4">
-        <v>2.7472540307059501E-3</v>
+        <v>2.7139784986192801E-3</v>
       </c>
       <c r="D6" s="4">
         <v>141</v>
@@ -4303,11 +4291,11 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>2.754900246945545E-3</v>
+        <v>2.7115936808598477E-3</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="4"/>
-        <v>2.7692852491585898E-3</v>
+        <v>2.713899749846373E-3</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="4"/>
@@ -4323,10 +4311,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="4">
-        <v>2.7460405466899602E-3</v>
+        <v>2.7057569107661601E-3</v>
       </c>
       <c r="C7" s="4">
-        <v>2.7748211515227299E-3</v>
+        <v>2.7139221461727498E-3</v>
       </c>
       <c r="D7" s="4">
         <v>142</v>
@@ -4341,11 +4329,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>2.7770483484480198E-3</v>
+        <v>2.7525374895582553E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.7996139131787677E-3</v>
+        <v>2.7432989928514646E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -4361,10 +4349,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="4">
-        <v>2.7510192284145398E-3</v>
+        <v>2.70296789705753E-3</v>
       </c>
       <c r="C8" s="4">
-        <v>2.7523087383266101E-3</v>
+        <v>2.71779897949717E-3</v>
       </c>
       <c r="D8" s="4">
         <v>143</v>
@@ -4379,11 +4367,11 @@
       </c>
       <c r="K8">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>3.567874433326298E-3</v>
+        <v>3.6999805523082571E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>3.5486980809318748E-3</v>
+        <v>3.3125195161815926E-3</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
@@ -4399,10 +4387,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="4">
-        <v>2.7480591185784502E-3</v>
+        <v>2.7132941558957102E-3</v>
       </c>
       <c r="C9" s="4">
-        <v>2.7694719953133698E-3</v>
+        <v>2.6820079804933099E-3</v>
       </c>
       <c r="D9" s="4">
         <v>144</v>
@@ -4417,11 +4405,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>5.9028108725329975</v>
+        <v>2.0316516177921229</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>5.5528142719230491</v>
+        <v>2.004507209873446</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -4437,10 +4425,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="4">
-        <v>2.7518563421044901E-3</v>
+        <v>2.7022040051718501E-3</v>
       </c>
       <c r="C10" s="4">
-        <v>2.7468642197074501E-3</v>
+        <v>2.7148933942489099E-3</v>
       </c>
       <c r="D10" s="4">
         <v>145</v>
@@ -4450,7 +4438,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>2.76081850832127E-3</v>
+        <v>2.7069269011956274E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -4458,10 +4446,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="4">
-        <v>2.74577923347894E-3</v>
+        <v>2.7056983125706498E-3</v>
       </c>
       <c r="C11" s="4">
-        <v>2.7738236890667502E-3</v>
+        <v>2.7137425148542498E-3</v>
       </c>
       <c r="D11" s="4">
         <v>146</v>
@@ -4475,10 +4463,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="4">
-        <v>2.75102361730077E-3</v>
+        <v>2.70130941395958E-3</v>
       </c>
       <c r="C12" s="4">
-        <v>2.7531207671535E-3</v>
+        <v>2.7169471562027599E-3</v>
       </c>
       <c r="D12" s="4">
         <v>147</v>
@@ -4492,10 +4480,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="4">
-        <v>2.7477252154086999E-3</v>
+        <v>2.7132289018481901E-3</v>
       </c>
       <c r="C13" s="4">
-        <v>2.7701419860343699E-3</v>
+        <v>2.68367589996295E-3</v>
       </c>
       <c r="D13" s="4">
         <v>148</v>
@@ -4509,10 +4497,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>2.7525851420637099E-3</v>
+        <v>2.7037448349098302E-3</v>
       </c>
       <c r="C14">
-        <v>2.7464160709367901E-3</v>
+        <v>2.7146706521075101E-3</v>
       </c>
       <c r="D14">
         <v>149</v>
@@ -4526,10 +4514,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>2.7464651027854499E-3</v>
+        <v>2.7059592219690399E-3</v>
       </c>
       <c r="C15">
-        <v>2.7775536861964498E-3</v>
+        <v>2.7123083226739402E-3</v>
       </c>
       <c r="D15">
         <v>150</v>
@@ -4543,10 +4531,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>2.7517903200293399E-3</v>
+        <v>2.7036874921371498E-3</v>
       </c>
       <c r="C16">
-        <v>2.7542775474013901E-3</v>
+        <v>2.7192989042266499E-3</v>
       </c>
       <c r="D16">
         <v>151</v>
@@ -4560,10 +4548,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>2.7495153135041099E-3</v>
+        <v>2.71314475002388E-3</v>
       </c>
       <c r="C17">
-        <v>2.7713324377020999E-3</v>
+        <v>2.6845828768737698E-3</v>
       </c>
       <c r="D17">
         <v>152</v>
@@ -4577,10 +4565,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18" s="2">
-        <v>2.7571433579608598E-3</v>
+        <v>2.7091250345110799E-3</v>
       </c>
       <c r="C18" s="2">
-        <v>2.7512883899879501E-3</v>
+        <v>2.7293450362544402E-3</v>
       </c>
       <c r="D18" s="2">
         <v>153</v>
@@ -4594,10 +4582,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19" s="2">
-        <v>2.7516194663859401E-3</v>
+        <v>2.7112020943313802E-3</v>
       </c>
       <c r="C19" s="2">
-        <v>2.78108079424675E-3</v>
+        <v>2.7138193836435602E-3</v>
       </c>
       <c r="D19" s="2">
         <v>154</v>
@@ -4611,10 +4599,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20" s="2">
-        <v>2.7557168824081002E-3</v>
+        <v>2.7075151825944502E-3</v>
       </c>
       <c r="C20" s="2">
-        <v>2.7604729379983798E-3</v>
+        <v>2.7211809040423702E-3</v>
       </c>
       <c r="D20" s="2">
         <v>155</v>
@@ -4628,10 +4616,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21" s="2">
-        <v>2.7551212810272801E-3</v>
+        <v>2.7185324120024799E-3</v>
       </c>
       <c r="C21" s="2">
-        <v>2.7842988744012798E-3</v>
+        <v>2.6912536754451202E-3</v>
       </c>
       <c r="D21" s="2">
         <v>156</v>
@@ -4645,10 +4633,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>2.7798204059215998E-3</v>
+        <v>2.7403550061086798E-3</v>
       </c>
       <c r="C22">
-        <v>2.77821909563214E-3</v>
+        <v>2.80384805073287E-3</v>
       </c>
       <c r="D22">
         <v>157</v>
@@ -4662,10 +4650,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>2.7671093378600401E-3</v>
+        <v>2.7259454373270201E-3</v>
       </c>
       <c r="C23">
-        <v>2.8059059872711902E-3</v>
+        <v>2.7273368248914099E-3</v>
       </c>
       <c r="D23">
         <v>158</v>
@@ -4679,10 +4667,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>2.7832257851994799E-3</v>
+        <v>2.7280574391285498E-3</v>
       </c>
       <c r="C24">
-        <v>2.79139567111783E-3</v>
+        <v>2.7327392562391502E-3</v>
       </c>
       <c r="D24">
         <v>159</v>
@@ -4696,10 +4684,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>2.77803786481096E-3</v>
+        <v>2.81579207566877E-3</v>
       </c>
       <c r="C25">
-        <v>2.8229348986939101E-3</v>
+        <v>2.70927183954243E-3</v>
       </c>
       <c r="D25">
         <v>160</v>
@@ -4713,10 +4701,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>3.7350207967660701E-3</v>
+        <v>3.9786405519892697E-3</v>
       </c>
       <c r="C26">
-        <v>3.4914198742412401E-3</v>
+        <v>3.34730431031277E-3</v>
       </c>
       <c r="D26">
         <v>161</v>
@@ -4730,10 +4718,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>3.46581194737436E-3</v>
+        <v>3.55851563562949E-3</v>
       </c>
       <c r="C27">
-        <v>3.7657933802727299E-3</v>
+        <v>3.3997450534135401E-3</v>
       </c>
       <c r="D27">
         <v>162</v>
@@ -4747,10 +4735,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>3.55622978338683E-3</v>
+        <v>3.5629832639048498E-3</v>
       </c>
       <c r="C28">
-        <v>3.4214750676434102E-3</v>
+        <v>3.1811922362589402E-3</v>
       </c>
       <c r="D28">
         <v>163</v>
@@ -4764,10 +4752,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>3.5144352057779301E-3</v>
+        <v>3.6997827577094199E-3</v>
       </c>
       <c r="C29">
-        <v>3.5161040015701198E-3</v>
+        <v>3.32183646474112E-3</v>
       </c>
       <c r="D29">
         <v>164</v>
@@ -4781,10 +4769,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>7.5144736573502797</v>
+        <v>2.4794088771566698E-2</v>
       </c>
       <c r="C30">
-        <v>7.3506418302947401</v>
+        <v>2.1319112299564898E-2</v>
       </c>
       <c r="D30">
         <v>165</v>
@@ -4798,10 +4786,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>2.8817708347752401E-2</v>
+        <v>2.8040398836135801E-2</v>
       </c>
       <c r="C31">
-        <v>2.0018142086508501E-2</v>
+        <v>2.3027894223366398E-2</v>
       </c>
       <c r="D31">
         <v>166</v>
@@ -4815,10 +4803,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>8.2011242334614192</v>
+        <v>8.0513851737976001</v>
       </c>
       <c r="C32">
-        <v>7.3066062693502296</v>
+        <v>7.9522394017970299</v>
       </c>
       <c r="D32">
         <v>167</v>
@@ -4832,10 +4820,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>7.86682789097254</v>
+        <v>2.23868097631881E-2</v>
       </c>
       <c r="C33">
-        <v>7.5339908459607203</v>
+        <v>2.1442431173822302E-2</v>
       </c>
       <c r="D33">
         <v>168</v>

--- a/eg1.xlsx
+++ b/eg1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1E9832-537E-B64A-8DA1-6EE64731970A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40694501-E4C5-2449-8ABB-2A2982A13F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
@@ -463,7 +463,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G25"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,13 +511,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>1.00504899024963</v>
+        <v>1.0051465034484801</v>
       </c>
       <c r="C2">
-        <v>3.4132827455347199</v>
+        <v>3.9905199700213401</v>
       </c>
       <c r="D2">
-        <v>3.4388895034789999</v>
+        <v>4.0815740367199496</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -531,15 +531,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
-        <v>1.00504899024963</v>
+        <v>1.0051465034484801</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>3.4355944292111804</v>
+        <v>4.0159642049606772</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>3.4497718968174622</v>
+        <v>3.9986029933107625</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
@@ -555,13 +555,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1.00504899024963</v>
+        <v>1.0051465034484801</v>
       </c>
       <c r="C3">
-        <v>3.4701599359512301</v>
+        <v>3.9766386037177202</v>
       </c>
       <c r="D3">
-        <v>3.4450843420895598</v>
+        <v>3.96039424804931</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -575,15 +575,15 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.01009798049926</v>
+        <v>2.01029300689697</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>9.3572587542108685E-4</v>
+        <v>3.2708673481581722E-3</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>9.6484803507337154E-4</v>
+        <v>3.3044107072550677E-3</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
@@ -599,13 +599,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>1.00504899024963</v>
+        <v>1.0051465034484801</v>
       </c>
       <c r="C4">
-        <v>3.3709489865736502</v>
+        <v>4.0370110273361197</v>
       </c>
       <c r="D4">
-        <v>3.48927094502882</v>
+        <v>3.9868442124508698</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -619,15 +619,15 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
-        <v>4.0201959609985298</v>
+        <v>4.02058601379394</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>5.8061252321666931E-4</v>
+        <v>2.7220800501651047E-3</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>5.9243992079493796E-4</v>
+        <v>2.7639833309915525E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
@@ -643,13 +643,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>1.00504899024963</v>
+        <v>1.0051465034484801</v>
       </c>
       <c r="C5">
-        <v>3.4879860487851202</v>
+        <v>4.0596872187675297</v>
       </c>
       <c r="D5">
-        <v>3.42584279667247</v>
+        <v>3.9655994760229198</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -663,15 +663,15 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
-        <v>8.0403919219970703</v>
+        <v>8.0411720275878906</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="3"/>
-        <v>5.640959919467355E-4</v>
+        <v>2.6815480743336648E-3</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>5.7541524332588149E-4</v>
+        <v>2.7467398421264174E-3</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="3"/>
@@ -687,13 +687,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2.01009798049926</v>
+        <v>2.01029300689697</v>
       </c>
       <c r="C6">
-        <v>8.5400857338258399E-4</v>
+        <v>3.09144807830849E-3</v>
       </c>
       <c r="D6">
-        <v>8.9099823169156204E-4</v>
+        <v>3.1453529050811399E-3</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -707,15 +707,15 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
-        <v>16.080783843994102</v>
+        <v>16.0823440551757</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>5.7211699326713077E-4</v>
+        <v>2.6820014847660448E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>5.8550502944854045E-4</v>
+        <v>2.7518095430036204E-3</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -731,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2.01009798049926</v>
+        <v>2.01029300689697</v>
       </c>
       <c r="C7">
-        <v>8.2825333705510598E-4</v>
+        <v>3.53847885197226E-3</v>
       </c>
       <c r="D7">
-        <v>8.4645071130415197E-4</v>
+        <v>3.59742910145445E-3</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -751,15 +751,15 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
-        <v>32.161567687988203</v>
+        <v>32.164688110351499</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>5.8424474019292609E-4</v>
+        <v>2.6922283299079001E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>5.9898633586602567E-4</v>
+        <v>2.7688724438392279E-3</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -775,13 +775,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2.01009798049926</v>
+        <v>2.01029300689697</v>
       </c>
       <c r="C8">
-        <v>8.2674835840324695E-4</v>
+        <v>3.19365561355222E-3</v>
       </c>
       <c r="D8">
-        <v>8.5922873907045205E-4</v>
+        <v>3.2654722553103199E-3</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -791,7 +791,7 @@
       </c>
       <c r="M8">
         <f>MIN(M2:M7)</f>
-        <v>5.7541524332588149E-4</v>
+        <v>2.7467398421264174E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -799,13 +799,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>2.01009798049926</v>
+        <v>2.01029300689697</v>
       </c>
       <c r="C9">
-        <v>1.2338932328434099E-3</v>
+        <v>3.2598868487997202E-3</v>
       </c>
       <c r="D9">
-        <v>1.2627144582273201E-3</v>
+        <v>3.2093885671743601E-3</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -819,13 +819,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>4.0201959609985298</v>
+        <v>4.02058601379394</v>
       </c>
       <c r="C10" s="4">
-        <v>5.8273408424363204E-4</v>
+        <v>2.7295463257766398E-3</v>
       </c>
       <c r="D10" s="4">
-        <v>5.9566776088269596E-4</v>
+        <v>2.7691486757248601E-3</v>
       </c>
       <c r="E10" s="4">
         <v>9</v>
@@ -839,13 +839,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>4.0201959609985298</v>
+        <v>4.02058601379394</v>
       </c>
       <c r="C11" s="4">
-        <v>5.6992139751938203E-4</v>
+        <v>2.7247713259520301E-3</v>
       </c>
       <c r="D11" s="4">
-        <v>5.8171367801895097E-4</v>
+        <v>2.7681476575263002E-3</v>
       </c>
       <c r="E11" s="4">
         <v>10</v>
@@ -859,13 +859,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>4.0201959609985298</v>
+        <v>4.02058601379394</v>
       </c>
       <c r="C12" s="4">
-        <v>5.8110459834675901E-4</v>
+        <v>2.7115444821166801E-3</v>
       </c>
       <c r="D12" s="4">
-        <v>5.9667690233750699E-4</v>
+        <v>2.7804058144225699E-3</v>
       </c>
       <c r="E12" s="4">
         <v>11</v>
@@ -879,13 +879,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>4.0201959609985298</v>
+        <v>4.02058601379394</v>
       </c>
       <c r="C13" s="4">
-        <v>5.8869001275690404E-4</v>
+        <v>2.7224580668150701E-3</v>
       </c>
       <c r="D13" s="4">
-        <v>5.9570134194059804E-4</v>
+        <v>2.73823117629248E-3</v>
       </c>
       <c r="E13" s="4">
         <v>12</v>
@@ -899,13 +899,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>8.0403919219970703</v>
+        <v>8.0411720275878906</v>
       </c>
       <c r="C14" s="4">
-        <v>5.7598670193163501E-4</v>
+        <v>2.6860656439663499E-3</v>
       </c>
       <c r="D14" s="4">
-        <v>5.8949776311320297E-4</v>
+        <v>2.75545612849453E-3</v>
       </c>
       <c r="E14" s="4">
         <v>13</v>
@@ -919,13 +919,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>8.0403919219970703</v>
+        <v>8.0411720275878906</v>
       </c>
       <c r="C15" s="4">
-        <v>5.5601611569396797E-4</v>
+        <v>2.6980413525226499E-3</v>
       </c>
       <c r="D15" s="4">
-        <v>5.7147390008057298E-4</v>
+        <v>2.75213329587131E-3</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -939,13 +939,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="4">
-        <v>8.0403919219970703</v>
+        <v>8.0411720275878906</v>
       </c>
       <c r="C16" s="4">
-        <v>5.6400653662752695E-4</v>
+        <v>2.6704181540519599E-3</v>
       </c>
       <c r="D16" s="4">
-        <v>5.7286358681845999E-4</v>
+        <v>2.7639850889867599E-3</v>
       </c>
       <c r="E16" s="4">
         <v>15</v>
@@ -959,13 +959,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>8.0403919219970703</v>
+        <v>8.0411720275878906</v>
       </c>
       <c r="C17" s="4">
-        <v>5.6037461353381196E-4</v>
+        <v>2.6716671467937E-3</v>
       </c>
       <c r="D17" s="4">
-        <v>5.6782572329129003E-4</v>
+        <v>2.7153848551530698E-3</v>
       </c>
       <c r="E17" s="4">
         <v>16</v>
@@ -979,13 +979,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>16.080783843994102</v>
+        <v>16.0823440551757</v>
       </c>
       <c r="C18">
-        <v>5.7377456422810498E-4</v>
+        <v>2.6861542137339698E-3</v>
       </c>
       <c r="D18">
-        <v>5.8356439192059695E-4</v>
+        <v>2.7616324046864402E-3</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -999,13 +999,13 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>16.080783843994102</v>
+        <v>16.0823440551757</v>
       </c>
       <c r="C19">
-        <v>5.7163134042639201E-4</v>
+        <v>2.6968394163401502E-3</v>
       </c>
       <c r="D19">
-        <v>5.9295271745544195E-4</v>
+        <v>2.7533645687149201E-3</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1019,13 +1019,13 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>16.080783843994102</v>
+        <v>16.0823440551757</v>
       </c>
       <c r="C20">
-        <v>5.6946612047878095E-4</v>
+        <v>2.6603535689572002E-3</v>
       </c>
       <c r="D20">
-        <v>5.8032722551036901E-4</v>
+        <v>2.7589746651814299E-3</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1039,13 +1039,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>16.080783843994102</v>
+        <v>16.0823440551757</v>
       </c>
       <c r="C21">
-        <v>5.7359594793524504E-4</v>
+        <v>2.68465874003286E-3</v>
       </c>
       <c r="D21">
-        <v>5.8517578290775399E-4</v>
+        <v>2.7332665334316901E-3</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1059,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <v>32.161567687988203</v>
+        <v>32.164688110351499</v>
       </c>
       <c r="C22">
-        <v>5.95876006727022E-4</v>
+        <v>2.6954477107984502E-3</v>
       </c>
       <c r="D22">
-        <v>6.1297133533199397E-4</v>
+        <v>2.7724201716680702E-3</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1079,13 +1079,13 @@
         <v>16</v>
       </c>
       <c r="B23">
-        <v>32.161567687988203</v>
+        <v>32.164688110351499</v>
       </c>
       <c r="C23">
-        <v>5.8740301438691897E-4</v>
+        <v>2.69106338097852E-3</v>
       </c>
       <c r="D23">
-        <v>6.0951128781942397E-4</v>
+        <v>2.7595725618897201E-3</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1099,13 +1099,13 @@
         <v>16</v>
       </c>
       <c r="B24">
-        <v>32.161567687988203</v>
+        <v>32.164688110351499</v>
       </c>
       <c r="C24">
-        <v>5.7432869851419802E-4</v>
+        <v>2.6942496856753799E-3</v>
       </c>
       <c r="D24">
-        <v>5.8645573021335999E-4</v>
+        <v>2.7942595621967201E-3</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1119,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B25">
-        <v>32.161567687988203</v>
+        <v>32.164688110351499</v>
       </c>
       <c r="C25">
-        <v>5.7937124114356504E-4</v>
+        <v>2.6881525421792499E-3</v>
       </c>
       <c r="D25">
-        <v>5.8700699009932495E-4</v>
+        <v>2.7492374796024002E-3</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1193,13 +1193,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>1.00504899024963</v>
+        <v>1.0051465034484801</v>
       </c>
       <c r="C2">
-        <v>3.4443687423723399</v>
+        <v>3.9868496897372698</v>
       </c>
       <c r="D2">
-        <v>3.4388178283517998</v>
+        <v>4.0815568528276804</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -1213,15 +1213,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
-        <v>1.00504899024963</v>
+        <v>1.0051465034484801</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>3.4431836915342728</v>
+        <v>4.0273708973793205</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>3.4497516090219653</v>
+        <v>3.9985692742022998</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
@@ -1237,13 +1237,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1.00504899024963</v>
+        <v>1.0051465034484801</v>
       </c>
       <c r="C3">
-        <v>3.4592437689707101</v>
+        <v>4.0150403114075299</v>
       </c>
       <c r="D3">
-        <v>3.4450826514850901</v>
+        <v>3.9603691633711402</v>
       </c>
       <c r="E3">
         <v>26</v>
@@ -1257,15 +1257,15 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.01009798049926</v>
+        <v>2.01029300689697</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>5.5996622295133671E-4</v>
+        <v>2.7184508090090723E-3</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>5.5918798124449381E-4</v>
+        <v>2.7242439787864576E-3</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
@@ -1281,13 +1281,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>1.00504899024963</v>
+        <v>1.0051465034484801</v>
       </c>
       <c r="C4">
-        <v>3.4166553303531302</v>
+        <v>4.0416184334044702</v>
       </c>
       <c r="D4">
-        <v>3.4892823999578302</v>
+        <v>3.9867558251035899</v>
       </c>
       <c r="E4">
         <v>27</v>
@@ -1301,15 +1301,15 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
-        <v>4.0201959609985298</v>
+        <v>4.02058601379394</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>5.6239292418932912E-4</v>
+        <v>2.6947510892530225E-3</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>5.6463308150837626E-4</v>
+        <v>2.7285950002012751E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
@@ -1325,13 +1325,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>1.00504899024963</v>
+        <v>1.0051465034484801</v>
       </c>
       <c r="C5">
-        <v>3.4524669244409099</v>
+        <v>4.0659751549680099</v>
       </c>
       <c r="D5">
-        <v>3.4258235562931398</v>
+        <v>3.9655952555067899</v>
       </c>
       <c r="E5">
         <v>28</v>
@@ -1345,15 +1345,15 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
-        <v>8.0403919219970703</v>
+        <v>8.0411720275878906</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="3"/>
-        <v>5.5164947747529246E-4</v>
+        <v>2.6748600079024047E-3</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>5.5472161329816983E-4</v>
+        <v>2.7093906457129648E-3</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="3"/>
@@ -1369,13 +1369,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2.01009798049926</v>
+        <v>2.01029300689697</v>
       </c>
       <c r="C6">
-        <v>5.5985982060968199E-4</v>
+        <v>2.7136699744856798E-3</v>
       </c>
       <c r="D6">
-        <v>5.5672946195541397E-4</v>
+        <v>2.7305450552995202E-3</v>
       </c>
       <c r="E6">
         <v>29</v>
@@ -1389,15 +1389,15 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
-        <v>16.080783843994102</v>
+        <v>16.0823440551757</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>5.5319078567094373E-4</v>
+        <v>2.6742071328199175E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>5.5730405993844256E-4</v>
+        <v>2.7153365477483628E-3</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -1413,13 +1413,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2.01009798049926</v>
+        <v>2.01029300689697</v>
       </c>
       <c r="C7">
-        <v>5.5409330764644995E-4</v>
+        <v>2.7254954577383998E-3</v>
       </c>
       <c r="D7">
-        <v>5.57768839644268E-4</v>
+        <v>2.7366244466975301E-3</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -1433,15 +1433,15 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
-        <v>32.161567687988203</v>
+        <v>32.164688110351499</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>5.5751946355938047E-4</v>
+        <v>2.6773426776499172E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>5.6234245586727553E-4</v>
+        <v>2.7191343548846328E-3</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -1457,13 +1457,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2.01009798049926</v>
+        <v>2.01029300689697</v>
       </c>
       <c r="C8">
-        <v>5.6067722055903597E-4</v>
+        <v>2.7018455042939699E-3</v>
       </c>
       <c r="D8">
-        <v>5.5773811737625705E-4</v>
+        <v>2.7305256288022999E-3</v>
       </c>
       <c r="E8">
         <v>31</v>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="M8">
         <f>MIN(M2:M7)</f>
-        <v>5.5472161329816983E-4</v>
+        <v>2.7093906457129648E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1481,13 +1481,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>2.01009798049926</v>
+        <v>2.01029300689697</v>
       </c>
       <c r="C9">
-        <v>5.6523454299017904E-4</v>
+        <v>2.73279229951824E-3</v>
       </c>
       <c r="D9">
-        <v>5.6451550600203598E-4</v>
+        <v>2.6992807843464802E-3</v>
       </c>
       <c r="E9">
         <v>32</v>
@@ -1501,13 +1501,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>4.0201959609985298</v>
+        <v>4.02058601379394</v>
       </c>
       <c r="C10" s="4">
-        <v>5.6604229202961804E-4</v>
+        <v>2.68964284778315E-3</v>
       </c>
       <c r="D10" s="4">
-        <v>5.6762636707968599E-4</v>
+        <v>2.7398987836699802E-3</v>
       </c>
       <c r="E10" s="4">
         <v>33</v>
@@ -1521,13 +1521,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>4.0201959609985298</v>
+        <v>4.02058601379394</v>
       </c>
       <c r="C11" s="4">
-        <v>5.5758085991702399E-4</v>
+        <v>2.7062656045792198E-3</v>
       </c>
       <c r="D11" s="4">
-        <v>5.6395240773616097E-4</v>
+        <v>2.7447790402839699E-3</v>
       </c>
       <c r="E11" s="4">
         <v>34</v>
@@ -1541,13 +1541,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>4.0201959609985298</v>
+        <v>4.02058601379394</v>
       </c>
       <c r="C12" s="4">
-        <v>5.5914171562066503E-4</v>
+        <v>2.6775543253492302E-3</v>
       </c>
       <c r="D12" s="4">
-        <v>5.6022523759483196E-4</v>
+        <v>2.7321405074697798E-3</v>
       </c>
       <c r="E12" s="4">
         <v>35</v>
@@ -1561,13 +1561,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>4.0201959609985298</v>
+        <v>4.02058601379394</v>
       </c>
       <c r="C13" s="4">
-        <v>5.6680682919000897E-4</v>
+        <v>2.7055415793004901E-3</v>
       </c>
       <c r="D13" s="4">
-        <v>5.6672831362282602E-4</v>
+        <v>2.69756166938137E-3</v>
       </c>
       <c r="E13" s="4">
         <v>36</v>
@@ -1581,13 +1581,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>8.0403919219970703</v>
+        <v>8.0411720275878906</v>
       </c>
       <c r="C14" s="2">
-        <v>5.5435926137283595E-4</v>
+        <v>2.6758643835683902E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>5.5689832237972405E-4</v>
+        <v>2.72101418739382E-3</v>
       </c>
       <c r="E14" s="2">
         <v>37</v>
@@ -1601,13 +1601,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>8.0403919219970703</v>
+        <v>8.0411720275878906</v>
       </c>
       <c r="C15" s="2">
-        <v>5.4996296857509196E-4</v>
+        <v>2.6815065289253E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>5.5873702274931698E-4</v>
+        <v>2.7148564732534402E-3</v>
       </c>
       <c r="E15" s="2">
         <v>38</v>
@@ -1621,13 +1621,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>8.0403919219970703</v>
+        <v>8.0411720275878906</v>
       </c>
       <c r="C16" s="2">
-        <v>5.5064318183869001E-4</v>
+        <v>2.65856807125098E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>5.5177305634556805E-4</v>
+        <v>2.7196692312730698E-3</v>
       </c>
       <c r="E16" s="2">
         <v>39</v>
@@ -1641,13 +1641,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>8.0403919219970703</v>
+        <v>8.0411720275878906</v>
       </c>
       <c r="C17" s="2">
-        <v>5.5163249811455203E-4</v>
+        <v>2.6835010478649499E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>5.5147805171807003E-4</v>
+        <v>2.6820226909315299E-3</v>
       </c>
       <c r="E17" s="2">
         <v>40</v>
@@ -1661,13 +1661,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>16.080783843994102</v>
+        <v>16.0823440551757</v>
       </c>
       <c r="C18">
-        <v>5.5570647874783195E-4</v>
+        <v>2.6730969845455998E-3</v>
       </c>
       <c r="D18">
-        <v>5.61199409474449E-4</v>
+        <v>2.7262754267715701E-3</v>
       </c>
       <c r="E18">
         <v>41</v>
@@ -1681,13 +1681,13 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>16.080783843994102</v>
+        <v>16.0823440551757</v>
       </c>
       <c r="C19">
-        <v>5.5490405278569503E-4</v>
+        <v>2.6808722809135402E-3</v>
       </c>
       <c r="D19">
-        <v>5.6441101584244803E-4</v>
+        <v>2.7179244677833399E-3</v>
       </c>
       <c r="E19">
         <v>42</v>
@@ -1701,13 +1701,13 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>16.080783843994102</v>
+        <v>16.0823440551757</v>
       </c>
       <c r="C20">
-        <v>5.5060631645520105E-4</v>
+        <v>2.65396232196585E-3</v>
       </c>
       <c r="D20">
-        <v>5.5231597057585997E-4</v>
+        <v>2.7267093785067502E-3</v>
       </c>
       <c r="E20">
         <v>43</v>
@@ -1721,13 +1721,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>16.080783843994102</v>
+        <v>16.0823440551757</v>
       </c>
       <c r="C21">
-        <v>5.5154629469504699E-4</v>
+        <v>2.6888969438546798E-3</v>
       </c>
       <c r="D21">
-        <v>5.5128984386101302E-4</v>
+        <v>2.6904369179317901E-3</v>
       </c>
       <c r="E21">
         <v>44</v>
@@ -1741,13 +1741,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>32.161567687988203</v>
+        <v>32.164688110351499</v>
       </c>
       <c r="C22" s="4">
-        <v>5.6090252739738797E-4</v>
+        <v>2.6733850319671602E-3</v>
       </c>
       <c r="D22" s="4">
-        <v>5.6434915644455296E-4</v>
+        <v>2.7243855974062301E-3</v>
       </c>
       <c r="E22" s="4">
         <v>45</v>
@@ -1761,13 +1761,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="4">
-        <v>32.161567687988203</v>
+        <v>32.164688110351499</v>
       </c>
       <c r="C23" s="4">
-        <v>5.5849657194118995E-4</v>
+        <v>2.6870989500782701E-3</v>
       </c>
       <c r="D23" s="4">
-        <v>5.7053423052738303E-4</v>
+        <v>2.72546931259096E-3</v>
       </c>
       <c r="E23" s="4">
         <v>46</v>
@@ -1781,13 +1781,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="4">
-        <v>32.161567687988203</v>
+        <v>32.164688110351499</v>
       </c>
       <c r="C24" s="4">
-        <v>5.5528561011611603E-4</v>
+        <v>2.66429344984762E-3</v>
       </c>
       <c r="D24" s="4">
-        <v>5.5724950877695601E-4</v>
+        <v>2.7373214177985401E-3</v>
       </c>
       <c r="E24" s="4">
         <v>47</v>
@@ -1801,13 +1801,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="4">
-        <v>32.161567687988203</v>
+        <v>32.164688110351499</v>
       </c>
       <c r="C25" s="4">
-        <v>5.5539314478282803E-4</v>
+        <v>2.6845932787066202E-3</v>
       </c>
       <c r="D25" s="4">
-        <v>5.5723692772021002E-4</v>
+        <v>2.6893610917427999E-3</v>
       </c>
       <c r="E25" s="4">
         <v>48</v>
@@ -1826,7 +1826,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G25"/>
+      <selection activeCell="T18" sqref="T18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2552,10 +2552,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="4">
-        <v>5.8735344738868804E-4</v>
+        <v>2.7257302166656199E-3</v>
       </c>
       <c r="C2" s="4">
-        <v>5.8242525767788903E-4</v>
+        <v>2.7751342908657601E-3</v>
       </c>
       <c r="D2" s="4">
         <v>73</v>
@@ -2570,11 +2570,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>5.7367372110919907E-4</v>
+        <v>2.7306071603967873E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>5.7645119337724799E-4</v>
+        <v>2.7655959352256426E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -2590,10 +2590,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="4">
-        <v>5.6008719733323495E-4</v>
+        <v>2.7257246683609201E-3</v>
       </c>
       <c r="C3" s="4">
-        <v>5.7128557501445396E-4</v>
+        <v>2.75849596290116E-3</v>
       </c>
       <c r="D3" s="4">
         <v>74</v>
@@ -2608,11 +2608,11 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>5.6678684632061028E-4</v>
+        <v>2.7307489455895475E-3</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>5.6986809795489491E-4</v>
+        <v>2.7685818519998049E-3</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
@@ -2628,10 +2628,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="4">
-        <v>5.8634415776892101E-4</v>
+        <v>2.74552970361757E-3</v>
       </c>
       <c r="C4" s="4">
-        <v>5.9324533318762002E-4</v>
+        <v>2.7915718271694198E-3</v>
       </c>
       <c r="D4" s="4">
         <v>75</v>
@@ -2646,11 +2646,11 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>5.6675249784761503E-4</v>
+        <v>2.7327064760376048E-3</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>5.6950817637367731E-4</v>
+        <v>2.7665113875434307E-3</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
@@ -2666,10 +2666,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="4">
-        <v>5.6091008194595205E-4</v>
+        <v>2.7254440529430402E-3</v>
       </c>
       <c r="C5" s="4">
-        <v>5.5884860762902904E-4</v>
+        <v>2.7371816599662301E-3</v>
       </c>
       <c r="D5" s="4">
         <v>76</v>
@@ -2684,11 +2684,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>5.7019039946184851E-4</v>
+        <v>2.7388261304177475E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>5.7689645393772674E-4</v>
+        <v>2.7798705256266579E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -2705,10 +2705,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="4">
-        <v>5.7637122332711104E-4</v>
+        <v>2.7306082564346598E-3</v>
       </c>
       <c r="C6" s="4">
-        <v>5.8051223485645898E-4</v>
+        <v>2.77566645254797E-3</v>
       </c>
       <c r="D6" s="4">
         <v>77</v>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>5.8239874832162757E-4</v>
+        <v>2.7335508530860349E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>5.8967835145515572E-4</v>
+        <v>2.7781482123363579E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -2742,10 +2742,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="4">
-        <v>5.5876467509237502E-4</v>
+        <v>2.7412299780135399E-3</v>
       </c>
       <c r="C7" s="4">
-        <v>5.69674393839456E-4</v>
+        <v>2.7869361641004301E-3</v>
       </c>
       <c r="D7" s="4">
         <v>78</v>
@@ -2759,11 +2759,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>6.078468516617163E-4</v>
+        <v>2.7565024904609454E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>6.1895125558790302E-4</v>
+        <v>2.8048849000813425E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -2779,10 +2779,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="4">
-        <v>5.7251200778409797E-4</v>
+        <v>2.71228173044212E-3</v>
       </c>
       <c r="C8" s="4">
-        <v>5.73468941200355E-4</v>
+        <v>2.7586286813218799E-3</v>
       </c>
       <c r="D8" s="4">
         <v>79</v>
@@ -2796,11 +2796,11 @@
       </c>
       <c r="K8">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>1.6687873768122701E-3</v>
+        <v>4.16853940027686E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>1.3626759677373909E-3</v>
+        <v>3.6058612496027323E-3</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
@@ -2816,10 +2816,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="4">
-        <v>5.5949947907885697E-4</v>
+        <v>2.7388758174678699E-3</v>
       </c>
       <c r="C9" s="4">
-        <v>5.5581682192331E-4</v>
+        <v>2.75309611002894E-3</v>
       </c>
       <c r="D9" s="4">
         <v>80</v>
@@ -2833,11 +2833,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>5.8651065095227235</v>
+        <v>4.0216854302877634</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>5.2038403961691024</v>
+        <v>3.9770107898487126</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -2853,10 +2853,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10">
-        <v>5.7421452630395905E-4</v>
+        <v>2.7489177833132901E-3</v>
       </c>
       <c r="C10">
-        <v>5.7647195115516098E-4</v>
+        <v>2.7853179242501502E-3</v>
       </c>
       <c r="D10">
         <v>81</v>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>5.6950817637367731E-4</v>
+        <v>2.7655959352256426E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2874,10 +2874,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11">
-        <v>5.6187477312050703E-4</v>
+        <v>2.71747192427357E-3</v>
       </c>
       <c r="C11">
-        <v>5.7120688434224504E-4</v>
+        <v>2.75686056046013E-3</v>
       </c>
       <c r="D11">
         <v>82</v>
@@ -2891,10 +2891,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12">
-        <v>5.7485204200598999E-4</v>
+        <v>2.7386563498170099E-3</v>
       </c>
       <c r="C12">
-        <v>5.7856513197872403E-4</v>
+        <v>2.78959326951348E-3</v>
       </c>
       <c r="D12">
         <v>83</v>
@@ -2908,10 +2908,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13">
-        <v>5.5606864996000395E-4</v>
+        <v>2.7257798467465498E-3</v>
       </c>
       <c r="C13">
-        <v>5.5178873801857897E-4</v>
+        <v>2.7342737959499602E-3</v>
       </c>
       <c r="D13">
         <v>84</v>
@@ -2925,10 +2925,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>5.73432450817728E-4</v>
+        <v>2.75137827067853E-3</v>
       </c>
       <c r="C14">
-        <v>5.7413970088501505E-4</v>
+        <v>2.7996631923745902E-3</v>
       </c>
       <c r="D14">
         <v>85</v>
@@ -2942,10 +2942,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>5.70584397593682E-4</v>
+        <v>2.7158181282117E-3</v>
       </c>
       <c r="C15">
-        <v>5.8011732868511504E-4</v>
+        <v>2.7637618638456101E-3</v>
       </c>
       <c r="D15">
         <v>86</v>
@@ -2959,10 +2959,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>5.7553671914237399E-4</v>
+        <v>2.7279288042336698E-3</v>
       </c>
       <c r="C16">
-        <v>5.9400558080100797E-4</v>
+        <v>2.78265674677776E-3</v>
       </c>
       <c r="D16">
         <v>87</v>
@@ -2976,10 +2976,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>5.6120803029360996E-4</v>
+        <v>2.7601793185470899E-3</v>
       </c>
       <c r="C17">
-        <v>5.5932320537976899E-4</v>
+        <v>2.7734002995086701E-3</v>
       </c>
       <c r="D17">
         <v>88</v>
@@ -2993,10 +2993,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>5.89783015047115E-4</v>
+        <v>2.7422338199028901E-3</v>
       </c>
       <c r="C18">
-        <v>5.9063861739228995E-4</v>
+        <v>2.7908231478501501E-3</v>
       </c>
       <c r="D18">
         <v>89</v>
@@ -3010,10 +3010,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>5.65980905031954E-4</v>
+        <v>2.7529943308376801E-3</v>
       </c>
       <c r="C19">
-        <v>5.7339724259112298E-4</v>
+        <v>2.81007216371437E-3</v>
       </c>
       <c r="D19">
         <v>90</v>
@@ -3027,10 +3027,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>6.0006647201424205E-4</v>
+        <v>2.7201100217891798E-3</v>
       </c>
       <c r="C20">
-        <v>6.2520392609506095E-4</v>
+        <v>2.7757980142462399E-3</v>
       </c>
       <c r="D20">
         <v>91</v>
@@ -3044,10 +3044,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>5.73764601193199E-4</v>
+        <v>2.7188652398143901E-3</v>
       </c>
       <c r="C21">
-        <v>5.6947361974214901E-4</v>
+        <v>2.73589952353467E-3</v>
       </c>
       <c r="D21">
         <v>92</v>
@@ -3061,10 +3061,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>6.2832437132866203E-4</v>
+        <v>2.7656892978368199E-3</v>
       </c>
       <c r="C22">
-        <v>6.0903070182327798E-4</v>
+        <v>2.8187337633658201E-3</v>
       </c>
       <c r="D22">
         <v>93</v>
@@ -3078,10 +3078,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>5.9418556894260299E-4</v>
+        <v>2.7741918568202099E-3</v>
       </c>
       <c r="C23">
-        <v>6.1176231511953199E-4</v>
+        <v>2.87702419557311E-3</v>
       </c>
       <c r="D23">
         <v>94</v>
@@ -3095,10 +3095,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>6.0846953949129001E-4</v>
+        <v>2.7463921132754999E-3</v>
       </c>
       <c r="C24">
-        <v>6.74539527443068E-4</v>
+        <v>2.7764119069151401E-3</v>
       </c>
       <c r="D24">
         <v>95</v>
@@ -3112,10 +3112,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>6.0040792688431004E-4</v>
+        <v>2.7397366939112501E-3</v>
       </c>
       <c r="C25">
-        <v>5.80472477965734E-4</v>
+        <v>2.7473697344713001E-3</v>
       </c>
       <c r="D25">
         <v>96</v>
@@ -3129,10 +3129,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>1.9892895461949001E-3</v>
+        <v>4.2998838941863803E-3</v>
       </c>
       <c r="C26">
-        <v>1.19352549557912E-3</v>
+        <v>4.0468407913725399E-3</v>
       </c>
       <c r="D26">
         <v>97</v>
@@ -3146,10 +3146,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>1.43754678958264E-3</v>
+        <v>3.8956560892984202E-3</v>
       </c>
       <c r="C27">
-        <v>1.45109236684881E-3</v>
+        <v>3.9073975974733503E-3</v>
       </c>
       <c r="D27">
         <v>98</v>
@@ -3163,10 +3163,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>1.44009027122096E-3</v>
+        <v>3.4131514369212801E-3</v>
       </c>
       <c r="C28">
-        <v>1.88188611752014E-3</v>
+        <v>3.2416049148292899E-3</v>
       </c>
       <c r="D28">
         <v>99</v>
@@ -3180,10 +3180,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>1.80822290025058E-3</v>
+        <v>5.0654661807013604E-3</v>
       </c>
       <c r="C29">
-        <v>9.2419989100149405E-4</v>
+        <v>3.2276016947357499E-3</v>
       </c>
       <c r="D29">
         <v>100</v>
@@ -3197,10 +3197,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>9.4980369307778094</v>
+        <v>3.6139121571397197E-2</v>
       </c>
       <c r="C30">
-        <v>6.9178126205097499</v>
+        <v>2.6866663480177501E-2</v>
       </c>
       <c r="D30">
         <v>101</v>
@@ -3214,10 +3214,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>6.9286814256147897</v>
+        <v>7.84038393548194</v>
       </c>
       <c r="C31">
-        <v>6.9571490981361999</v>
+        <v>7.9492737130915803</v>
       </c>
       <c r="D31">
         <v>102</v>
@@ -3231,10 +3231,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>3.1813801547766397E-2</v>
+        <v>8.1856437743978301</v>
       </c>
       <c r="C32">
-        <v>2.4703197405588899E-2</v>
+        <v>7.9078371930629601</v>
       </c>
       <c r="D32">
         <v>103</v>
@@ -3248,10 +3248,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>7.0018938801505302</v>
+        <v>2.4574889699888799E-2</v>
       </c>
       <c r="C33">
-        <v>6.9156966686248698</v>
+        <v>2.4065589760132899E-2</v>
       </c>
       <c r="D33">
         <v>104</v>
@@ -3360,72 +3360,72 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>0.1</v>
+        <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>9.4980369307778094</v>
+        <v>2.7043887344684299E-3</v>
       </c>
       <c r="C2">
-        <v>6.9178126205097499</v>
+        <v>2.7440551301821099E-3</v>
       </c>
       <c r="D2">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="E2">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J2" s="5">
         <f>AVERAGE(A2:A5)</f>
-        <v>0.1</v>
+        <v>1E-8</v>
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>5.8651065095227235</v>
+        <v>2.6992448959177527E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>5.2038403961691024</v>
+        <v>2.7168794662661899E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
-        <v>102.5</v>
+        <v>106.5</v>
       </c>
       <c r="N2" s="4">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>0.1</v>
+        <v>1E-8</v>
       </c>
       <c r="B3">
-        <v>6.9286814256147897</v>
+        <v>2.6945148413862101E-3</v>
       </c>
       <c r="C3">
-        <v>6.9571490981361999</v>
+        <v>2.7150742640282802E-3</v>
       </c>
       <c r="D3">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E3">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="1">
         <f>AVERAGE(A6:A9)</f>
-        <v>1E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="K3">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>5.5261976223813173E-4</v>
+        <v>2.7004799228458748E-3</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>5.5030957843303977E-4</v>
+        <v>2.7179818382446997E-3</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>106.5</v>
+        <v>110.5</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
@@ -3434,35 +3434,35 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>0.1</v>
+        <v>1E-8</v>
       </c>
       <c r="B4">
-        <v>3.1813801547766397E-2</v>
+        <v>2.6907187061721099E-3</v>
       </c>
       <c r="C4">
-        <v>2.4703197405588899E-2</v>
+        <v>2.7197528942587198E-3</v>
       </c>
       <c r="D4">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E4">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J4" s="5">
         <f>AVERAGE(A10:A13)</f>
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>5.5175779176584597E-4</v>
+        <v>2.6978013775078549E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>5.5079056163032678E-4</v>
+        <v>2.7136725232381549E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
-        <v>110.5</v>
+        <v>114.5</v>
       </c>
       <c r="N4" s="4">
         <f t="shared" si="2"/>
@@ -3471,35 +3471,35 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>0.1</v>
+        <v>1E-8</v>
       </c>
       <c r="B5">
-        <v>7.0018938801505302</v>
+        <v>2.70735730164426E-3</v>
       </c>
       <c r="C5">
-        <v>6.9156966686248698</v>
+        <v>2.6886355765956501E-3</v>
       </c>
       <c r="D5">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E5">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="5">
         <f>AVERAGE(A14:A17)</f>
-        <v>9.9999999999999995E-7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>5.5220492856473903E-4</v>
+        <v>2.6997448365634973E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>5.4989971924276817E-4</v>
+        <v>2.71531913313083E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
-        <v>114.5</v>
+        <v>118.5</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="3"/>
@@ -3508,35 +3508,35 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>1E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>5.5277348189300001E-4</v>
+        <v>2.71231343132503E-3</v>
       </c>
       <c r="C6">
-        <v>5.5041241787628003E-4</v>
+        <v>2.75484311265593E-3</v>
       </c>
       <c r="D6">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E6">
         <v>0.5</v>
       </c>
       <c r="J6" s="1">
         <f>AVERAGE(A18:A21)</f>
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>5.5272063109773856E-4</v>
+        <v>2.70943875558317E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>5.5222210225606776E-4</v>
+        <v>2.7267466741366301E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>118.5</v>
+        <v>122.5</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -3545,35 +3545,35 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>1E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>5.5046824655457301E-4</v>
+        <v>2.6956029147147398E-3</v>
       </c>
       <c r="C7">
-        <v>5.5539308020591E-4</v>
+        <v>2.71743567947773E-3</v>
       </c>
       <c r="D7">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E7">
         <v>0.5</v>
       </c>
       <c r="J7" s="1">
         <f>AVERAGE(A22:A25)</f>
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>5.5931082851073716E-4</v>
+        <v>2.7312148310382725E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>5.5519916343407371E-4</v>
+        <v>2.7685964676957674E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>122.5</v>
+        <v>126.5</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -3582,35 +3582,35 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>1E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>5.5639283836831895E-4</v>
+        <v>2.6892881835513601E-3</v>
       </c>
       <c r="C8">
-        <v>5.5103283137379296E-4</v>
+        <v>2.7165892261496499E-3</v>
       </c>
       <c r="D8">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E8">
         <v>0.5</v>
       </c>
       <c r="J8" s="1">
         <f>AVERAGE(A26:A29)</f>
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="K8">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>5.8179177373347823E-4</v>
+        <v>3.9494193377012845E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>5.840982177522326E-4</v>
+        <v>3.3507608614138651E-3</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
-        <v>126.5</v>
+        <v>130.5</v>
       </c>
       <c r="N8">
         <f t="shared" si="6"/>
@@ -3619,35 +3619,35 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>1E-8</v>
+        <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>5.5084448213663496E-4</v>
+        <v>2.7047151617923702E-3</v>
       </c>
       <c r="C9">
-        <v>5.4439998427617596E-4</v>
+        <v>2.6830593346954899E-3</v>
       </c>
       <c r="D9">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E9">
         <v>0.5</v>
       </c>
       <c r="J9" s="1">
         <f>AVERAGE(A30:A33)</f>
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>1.78341889602039E-3</v>
+        <v>2.0386687947587001</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>1.1462661140037435E-3</v>
+        <v>1.9918459066656709</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
-        <v>130.5</v>
+        <v>134.5</v>
       </c>
       <c r="N9">
         <f t="shared" si="7"/>
@@ -3656,16 +3656,16 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="4">
-        <v>5.5256347263924995E-4</v>
+        <v>2.6948392747881498E-3</v>
       </c>
       <c r="C10" s="4">
-        <v>5.5123604146171002E-4</v>
+        <v>2.72643716728433E-3</v>
       </c>
       <c r="D10" s="4">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E10" s="4">
         <v>0.5</v>
@@ -3673,21 +3673,21 @@
       <c r="F10" s="2"/>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>5.4989971924276817E-4</v>
+        <v>2.7136725232381549E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="4">
-        <v>5.5037277695386901E-4</v>
+        <v>2.6963473201055601E-3</v>
       </c>
       <c r="C11" s="4">
-        <v>5.5499077319506201E-4</v>
+        <v>2.71531075308535E-3</v>
       </c>
       <c r="D11" s="4">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E11" s="4">
         <v>0.5</v>
@@ -3696,16 +3696,16 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="4">
-        <v>5.5295734926228898E-4</v>
+        <v>2.6942456148544998E-3</v>
       </c>
       <c r="C12" s="4">
-        <v>5.52137548484924E-4</v>
+        <v>2.72638667771156E-3</v>
       </c>
       <c r="D12" s="4">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E12" s="4">
         <v>0.5</v>
@@ -3714,16 +3714,16 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
-        <v>9.9999999999999995E-8</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="4">
-        <v>5.5113756820797605E-4</v>
+        <v>2.70577330028321E-3</v>
       </c>
       <c r="C13" s="4">
-        <v>5.4479788337961097E-4</v>
+        <v>2.6865554948713802E-3</v>
       </c>
       <c r="D13" s="4">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E13" s="4">
         <v>0.5</v>
@@ -3732,16 +3732,16 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>9.9999999999999995E-7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14" s="4">
-        <v>5.5290665636987299E-4</v>
+        <v>2.7066680994082899E-3</v>
       </c>
       <c r="C14" s="4">
-        <v>5.5075914741874697E-4</v>
+        <v>2.74105225392478E-3</v>
       </c>
       <c r="D14" s="4">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E14" s="4">
         <v>0.5</v>
@@ -3749,16 +3749,16 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
-        <v>9.9999999999999995E-7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15" s="4">
-        <v>5.4922239263818404E-4</v>
+        <v>2.6959771726359702E-3</v>
       </c>
       <c r="C15" s="4">
-        <v>5.5407065612433296E-4</v>
+        <v>2.7132033434835198E-3</v>
       </c>
       <c r="D15" s="4">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E15" s="4">
         <v>0.5</v>
@@ -3766,16 +3766,16 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
-        <v>9.9999999999999995E-7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16" s="4">
-        <v>5.5564091273489899E-4</v>
+        <v>2.6902848807599401E-3</v>
       </c>
       <c r="C16" s="4">
-        <v>5.5006252183705895E-4</v>
+        <v>2.7206857624325E-3</v>
       </c>
       <c r="D16" s="4">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E16" s="4">
         <v>0.5</v>
@@ -3783,16 +3783,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
-        <v>9.9999999999999995E-7</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17" s="4">
-        <v>5.51049752516E-4</v>
+        <v>2.7060491934497899E-3</v>
       </c>
       <c r="C17" s="4">
-        <v>5.4470655159093401E-4</v>
+        <v>2.68633517268252E-3</v>
       </c>
       <c r="D17" s="4">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E17" s="4">
         <v>0.5</v>
@@ -3800,16 +3800,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>5.5301866133178497E-4</v>
+        <v>2.72431068538509E-3</v>
       </c>
       <c r="C18">
-        <v>5.5196126764216799E-4</v>
+        <v>2.76343656971337E-3</v>
       </c>
       <c r="D18">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E18">
         <v>0.5</v>
@@ -3817,16 +3817,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>5.50126509776032E-4</v>
+        <v>2.70460121596152E-3</v>
       </c>
       <c r="C19">
-        <v>5.5543833560394904E-4</v>
+        <v>2.72099319795899E-3</v>
       </c>
       <c r="D19">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E19">
         <v>0.5</v>
@@ -3834,16 +3834,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>5.5608395994725902E-4</v>
+        <v>2.6973784490032702E-3</v>
       </c>
       <c r="C20">
-        <v>5.5587269704450199E-4</v>
+        <v>2.72231815541361E-3</v>
       </c>
       <c r="D20">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E20">
         <v>0.5</v>
@@ -3851,16 +3851,16 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>5.5165339333587801E-4</v>
+        <v>2.7114646719827999E-3</v>
       </c>
       <c r="C21">
-        <v>5.4561610873365203E-4</v>
+        <v>2.7002387734605502E-3</v>
       </c>
       <c r="D21">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E21">
         <v>0.5</v>
@@ -3868,16 +3868,16 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>5.5695325521577799E-4</v>
+        <v>2.7408189427583101E-3</v>
       </c>
       <c r="C22">
-        <v>5.53742025460285E-4</v>
+        <v>2.8473997211202599E-3</v>
       </c>
       <c r="D22">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E22">
         <v>0.5</v>
@@ -3885,16 +3885,16 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>5.5853585958731699E-4</v>
+        <v>2.7300875814770201E-3</v>
       </c>
       <c r="C23">
-        <v>5.6268374107524004E-4</v>
+        <v>2.7410785761721201E-3</v>
       </c>
       <c r="D23">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E23">
         <v>0.5</v>
@@ -3902,16 +3902,16 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>5.6426661470734797E-4</v>
+        <v>2.7107861254641601E-3</v>
       </c>
       <c r="C24">
-        <v>5.5532436077059596E-4</v>
+        <v>2.74045946958296E-3</v>
       </c>
       <c r="D24">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E24">
         <v>0.5</v>
@@ -3919,16 +3919,16 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>5.5748758453250601E-4</v>
+        <v>2.7431666744536002E-3</v>
       </c>
       <c r="C25">
-        <v>5.4904652643017395E-4</v>
+        <v>2.7454481039077298E-3</v>
       </c>
       <c r="D25">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E25">
         <v>0.5</v>
@@ -3936,16 +3936,16 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="B26">
-        <v>5.7468488086844199E-4</v>
+        <v>4.2111656462595296E-3</v>
       </c>
       <c r="C26">
-        <v>5.6386309046171197E-4</v>
+        <v>3.4449400845915001E-3</v>
       </c>
       <c r="D26">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E26">
         <v>0.5</v>
@@ -3953,16 +3953,16 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="B27">
-        <v>5.7699912045359298E-4</v>
+        <v>3.4797689939373498E-3</v>
       </c>
       <c r="C27">
-        <v>5.8442364415069105E-4</v>
+        <v>3.5131843933994102E-3</v>
       </c>
       <c r="D27">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E27">
         <v>0.5</v>
@@ -3970,16 +3970,16 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="B28">
-        <v>5.8710789289346697E-4</v>
+        <v>3.6479456949622298E-3</v>
       </c>
       <c r="C28">
-        <v>6.2918949274303902E-4</v>
+        <v>3.3002687083121302E-3</v>
       </c>
       <c r="D28">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E28">
         <v>0.5</v>
@@ -3987,16 +3987,16 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="B29">
-        <v>5.88375200718411E-4</v>
+        <v>4.4587970156460301E-3</v>
       </c>
       <c r="C29">
-        <v>5.5891664365348805E-4</v>
+        <v>3.1446502593524199E-3</v>
       </c>
       <c r="D29">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E29">
         <v>0.5</v>
@@ -4004,16 +4004,16 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="B30">
-        <v>2.2174900343969002E-3</v>
+        <v>2.4750156801174102E-2</v>
       </c>
       <c r="C30">
-        <v>9.9838694017803805E-4</v>
+        <v>2.32705648374208E-2</v>
       </c>
       <c r="D30">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E30">
         <v>0.5</v>
@@ -4021,16 +4021,16 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="B31">
-        <v>1.42634462538073E-3</v>
+        <v>3.1892339835200997E-2</v>
       </c>
       <c r="C31">
-        <v>1.3670966452495601E-3</v>
+        <v>2.0217741136141901E-2</v>
       </c>
       <c r="D31">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E31">
         <v>0.5</v>
@@ -4038,16 +4038,16 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="B32">
-        <v>1.9548366882319399E-3</v>
+        <v>8.07408204991766</v>
       </c>
       <c r="C32">
-        <v>1.29361795208586E-3</v>
+        <v>7.9021472017815704</v>
       </c>
       <c r="D32">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E32">
         <v>0.5</v>
@@ -4055,16 +4055,16 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="B33">
-        <v>1.5350042360719901E-3</v>
+        <v>2.3950632480765701E-2</v>
       </c>
       <c r="C33">
-        <v>9.2596291850151596E-4</v>
+        <v>2.1748118907550001E-2</v>
       </c>
       <c r="D33">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E33">
         <v>0.5</v>
@@ -4080,7 +4080,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F34"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/eg1.xlsx
+++ b/eg1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40694501-E4C5-2449-8ABB-2A2982A13F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B8232C-818D-B643-9D6E-2319EFB33F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
@@ -463,7 +463,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="A2" sqref="A2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,13 +511,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>1.0051465034484801</v>
+        <v>1.0051130056381199</v>
       </c>
       <c r="C2">
-        <v>3.9905199700213401</v>
+        <v>4.7369372935234697</v>
       </c>
       <c r="D2">
-        <v>4.0815740367199496</v>
+        <v>4.73587787000438</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -531,15 +531,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
-        <v>1.0051465034484801</v>
+        <v>1.0051130056381199</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>4.0159642049606772</v>
+        <v>4.8134259921085949</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>3.9986029933107625</v>
+        <v>4.7453772146490474</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
@@ -555,13 +555,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1.0051465034484801</v>
+        <v>1.0051130056381199</v>
       </c>
       <c r="C3">
-        <v>3.9766386037177202</v>
+        <v>4.7747979284841797</v>
       </c>
       <c r="D3">
-        <v>3.96039424804931</v>
+        <v>4.8216172894345002</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -575,15 +575,15 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.01029300689697</v>
+        <v>2.0102260112762398</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>3.2708673481581722E-3</v>
+        <v>4.0434067243639371E-3</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>3.3044107072550677E-3</v>
+        <v>4.1001253154223077E-3</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
@@ -599,13 +599,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>1.0051465034484801</v>
+        <v>1.0051130056381199</v>
       </c>
       <c r="C4">
-        <v>4.0370110273361197</v>
+        <v>4.9143579579606804</v>
       </c>
       <c r="D4">
-        <v>3.9868442124508698</v>
+        <v>4.6967655556111296</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -619,15 +619,15 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
-        <v>4.02058601379394</v>
+        <v>4.0204520225524902</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>2.7220800501651047E-3</v>
+        <v>2.7652662807391747E-3</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>2.7639833309915525E-3</v>
+        <v>2.8119975306046476E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
@@ -643,13 +643,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>1.0051465034484801</v>
+        <v>1.0051130056381199</v>
       </c>
       <c r="C5">
-        <v>4.0596872187675297</v>
+        <v>4.8276107884660497</v>
       </c>
       <c r="D5">
-        <v>3.9655994760229198</v>
+        <v>4.7272481435461797</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -663,15 +663,15 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
-        <v>8.0411720275878906</v>
+        <v>8.0409040451049805</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="3"/>
-        <v>2.6815480743336648E-3</v>
+        <v>2.7049768780935774E-3</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>2.7467398421264174E-3</v>
+        <v>2.7741846544491176E-3</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="3"/>
@@ -687,13 +687,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2.01029300689697</v>
+        <v>2.0102260112762398</v>
       </c>
       <c r="C6">
-        <v>3.09144807830849E-3</v>
+        <v>4.12465941420272E-3</v>
       </c>
       <c r="D6">
-        <v>3.1453529050811399E-3</v>
+        <v>3.9929660844699099E-3</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -707,15 +707,15 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
-        <v>16.0823440551757</v>
+        <v>16.081808090209901</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>2.6820014847660448E-3</v>
+        <v>2.7123877809595125E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>2.7518095430036204E-3</v>
+        <v>2.7945339451308174E-3</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -731,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2.01029300689697</v>
+        <v>2.0102260112762398</v>
       </c>
       <c r="C7">
-        <v>3.53847885197226E-3</v>
+        <v>4.1768785589669302E-3</v>
       </c>
       <c r="D7">
-        <v>3.59742910145445E-3</v>
+        <v>4.4282032884185802E-3</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -751,15 +751,15 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
-        <v>32.164688110351499</v>
+        <v>32.163616180419901</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.6922283299079001E-3</v>
+        <v>2.7262779156076149E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>2.7688724438392279E-3</v>
+        <v>2.8207608317378599E-3</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -775,13 +775,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2.01029300689697</v>
+        <v>2.0102260112762398</v>
       </c>
       <c r="C8">
-        <v>3.19365561355222E-3</v>
+        <v>4.4921434814511199E-3</v>
       </c>
       <c r="D8">
-        <v>3.2654722553103199E-3</v>
+        <v>4.4170082163631497E-3</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -791,7 +791,7 @@
       </c>
       <c r="M8">
         <f>MIN(M2:M7)</f>
-        <v>2.7467398421264174E-3</v>
+        <v>2.7741846544491176E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -799,13 +799,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>2.01029300689697</v>
+        <v>2.0102260112762398</v>
       </c>
       <c r="C9">
-        <v>3.2598868487997202E-3</v>
+        <v>3.3799454428349801E-3</v>
       </c>
       <c r="D9">
-        <v>3.2093885671743601E-3</v>
+        <v>3.56232367243759E-3</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -819,13 +819,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>4.02058601379394</v>
+        <v>4.0204520225524902</v>
       </c>
       <c r="C10" s="4">
-        <v>2.7295463257766398E-3</v>
+        <v>2.7869461970757401E-3</v>
       </c>
       <c r="D10" s="4">
-        <v>2.7691486757248601E-3</v>
+        <v>2.7636317536234799E-3</v>
       </c>
       <c r="E10" s="4">
         <v>9</v>
@@ -839,13 +839,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>4.02058601379394</v>
+        <v>4.0204520225524902</v>
       </c>
       <c r="C11" s="4">
-        <v>2.7247713259520301E-3</v>
+        <v>2.7151886031880402E-3</v>
       </c>
       <c r="D11" s="4">
-        <v>2.7681476575263002E-3</v>
+        <v>2.79247099121065E-3</v>
       </c>
       <c r="E11" s="4">
         <v>10</v>
@@ -859,13 +859,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>4.02058601379394</v>
+        <v>4.0204520225524902</v>
       </c>
       <c r="C12" s="4">
-        <v>2.7115444821166801E-3</v>
+        <v>2.8344497815528998E-3</v>
       </c>
       <c r="D12" s="4">
-        <v>2.7804058144225699E-3</v>
+        <v>2.8670264107375498E-3</v>
       </c>
       <c r="E12" s="4">
         <v>11</v>
@@ -879,13 +879,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>4.02058601379394</v>
+        <v>4.0204520225524902</v>
       </c>
       <c r="C13" s="4">
-        <v>2.7224580668150701E-3</v>
+        <v>2.72448054114002E-3</v>
       </c>
       <c r="D13" s="4">
-        <v>2.73823117629248E-3</v>
+        <v>2.82486096684691E-3</v>
       </c>
       <c r="E13" s="4">
         <v>12</v>
@@ -899,13 +899,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>8.0411720275878906</v>
+        <v>8.0409040451049805</v>
       </c>
       <c r="C14" s="4">
-        <v>2.6860656439663499E-3</v>
+        <v>2.7406069603336E-3</v>
       </c>
       <c r="D14" s="4">
-        <v>2.75545612849453E-3</v>
+        <v>2.73877515787659E-3</v>
       </c>
       <c r="E14" s="4">
         <v>13</v>
@@ -919,13 +919,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>8.0411720275878906</v>
+        <v>8.0409040451049805</v>
       </c>
       <c r="C15" s="4">
-        <v>2.6980413525226499E-3</v>
+        <v>2.6657633907809998E-3</v>
       </c>
       <c r="D15" s="4">
-        <v>2.75213329587131E-3</v>
+        <v>2.76990589402804E-3</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -939,13 +939,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="4">
-        <v>8.0411720275878906</v>
+        <v>8.0409040451049805</v>
       </c>
       <c r="C16" s="4">
-        <v>2.6704181540519599E-3</v>
+        <v>2.7193826464110898E-3</v>
       </c>
       <c r="D16" s="4">
-        <v>2.7639850889867599E-3</v>
+        <v>2.7921478576439398E-3</v>
       </c>
       <c r="E16" s="4">
         <v>15</v>
@@ -959,13 +959,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>8.0411720275878906</v>
+        <v>8.0409040451049805</v>
       </c>
       <c r="C17" s="4">
-        <v>2.6716671467937E-3</v>
+        <v>2.6941545148486202E-3</v>
       </c>
       <c r="D17" s="4">
-        <v>2.7153848551530698E-3</v>
+        <v>2.7959097082479001E-3</v>
       </c>
       <c r="E17" s="4">
         <v>16</v>
@@ -979,13 +979,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>16.0823440551757</v>
+        <v>16.081808090209901</v>
       </c>
       <c r="C18">
-        <v>2.6861542137339698E-3</v>
+        <v>2.7402334764033902E-3</v>
       </c>
       <c r="D18">
-        <v>2.7616324046864402E-3</v>
+        <v>2.7593189638249402E-3</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -999,13 +999,13 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>16.0823440551757</v>
+        <v>16.081808090209901</v>
       </c>
       <c r="C19">
-        <v>2.6968394163401502E-3</v>
+        <v>2.67569784110388E-3</v>
       </c>
       <c r="D19">
-        <v>2.7533645687149201E-3</v>
+        <v>2.8049187540206302E-3</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1019,13 +1019,13 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>16.0823440551757</v>
+        <v>16.081808090209901</v>
       </c>
       <c r="C20">
-        <v>2.6603535689572002E-3</v>
+        <v>2.72181298866679E-3</v>
       </c>
       <c r="D20">
-        <v>2.7589746651814299E-3</v>
+        <v>2.80160065504569E-3</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1039,13 +1039,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>16.0823440551757</v>
+        <v>16.081808090209901</v>
       </c>
       <c r="C21">
-        <v>2.68465874003286E-3</v>
+        <v>2.7118068176639901E-3</v>
       </c>
       <c r="D21">
-        <v>2.7332665334316901E-3</v>
+        <v>2.8122974076320098E-3</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1059,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <v>32.164688110351499</v>
+        <v>32.163616180419901</v>
       </c>
       <c r="C22">
-        <v>2.6954477107984502E-3</v>
+        <v>2.7635941824203799E-3</v>
       </c>
       <c r="D22">
-        <v>2.7724201716680702E-3</v>
+        <v>2.7698106545058902E-3</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1079,13 +1079,13 @@
         <v>16</v>
       </c>
       <c r="B23">
-        <v>32.164688110351499</v>
+        <v>32.163616180419901</v>
       </c>
       <c r="C23">
-        <v>2.69106338097852E-3</v>
+        <v>2.7064558684448598E-3</v>
       </c>
       <c r="D23">
-        <v>2.7595725618897201E-3</v>
+        <v>2.8378029406966598E-3</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1099,13 +1099,13 @@
         <v>16</v>
       </c>
       <c r="B24">
-        <v>32.164688110351499</v>
+        <v>32.163616180419901</v>
       </c>
       <c r="C24">
-        <v>2.6942496856753799E-3</v>
+        <v>2.7230005605217E-3</v>
       </c>
       <c r="D24">
-        <v>2.7942595621967201E-3</v>
+        <v>2.8236693248765701E-3</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1119,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B25">
-        <v>32.164688110351499</v>
+        <v>32.163616180419901</v>
       </c>
       <c r="C25">
-        <v>2.6881525421792499E-3</v>
+        <v>2.7120610510435201E-3</v>
       </c>
       <c r="D25">
-        <v>2.7492374796024002E-3</v>
+        <v>2.8517604068723202E-3</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1193,13 +1193,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>1.0051465034484801</v>
+        <v>1.0051130056381199</v>
       </c>
       <c r="C2">
-        <v>3.9868496897372698</v>
+        <v>4.7155650876889501</v>
       </c>
       <c r="D2">
-        <v>4.0815568528276804</v>
+        <v>4.7359046030648102</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -1213,15 +1213,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
-        <v>1.0051465034484801</v>
+        <v>1.0051130056381199</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>4.0273708973793205</v>
+        <v>4.7788409689429425</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>3.9985692742022998</v>
+        <v>4.7452759320222828</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
@@ -1237,13 +1237,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1.0051465034484801</v>
+        <v>1.0051130056381199</v>
       </c>
       <c r="C3">
-        <v>4.0150403114075299</v>
+        <v>4.7463869076625498</v>
       </c>
       <c r="D3">
-        <v>3.9603691633711402</v>
+        <v>4.8215069891531197</v>
       </c>
       <c r="E3">
         <v>26</v>
@@ -1257,15 +1257,15 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.01029300689697</v>
+        <v>2.0102260112762398</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>2.7184508090090723E-3</v>
+        <v>2.7718137676091973E-3</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>2.7242439787864576E-3</v>
+        <v>2.7747789443517651E-3</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
@@ -1281,13 +1281,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>1.0051465034484801</v>
+        <v>1.0051130056381199</v>
       </c>
       <c r="C4">
-        <v>4.0416184334044702</v>
+        <v>4.8392751277631998</v>
       </c>
       <c r="D4">
-        <v>3.9867558251035899</v>
+        <v>4.6967579805398199</v>
       </c>
       <c r="E4">
         <v>27</v>
@@ -1301,15 +1301,15 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
-        <v>4.02058601379394</v>
+        <v>4.0204520225524902</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>2.6947510892530225E-3</v>
+        <v>2.7230160487341152E-3</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>2.7285950002012751E-3</v>
+        <v>2.7446201066722276E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
@@ -1325,13 +1325,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>1.0051465034484801</v>
+        <v>1.0051130056381199</v>
       </c>
       <c r="C5">
-        <v>4.0659751549680099</v>
+        <v>4.8141367526570704</v>
       </c>
       <c r="D5">
-        <v>3.9655952555067899</v>
+        <v>4.7269341553313797</v>
       </c>
       <c r="E5">
         <v>28</v>
@@ -1345,15 +1345,15 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
-        <v>8.0411720275878906</v>
+        <v>8.0409040451049805</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="3"/>
-        <v>2.6748600079024047E-3</v>
+        <v>2.6979670981479077E-3</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>2.7093906457129648E-3</v>
+        <v>2.7280712288014477E-3</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="3"/>
@@ -1369,13 +1369,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2.01029300689697</v>
+        <v>2.0102260112762398</v>
       </c>
       <c r="C6">
-        <v>2.7136699744856798E-3</v>
+        <v>2.7946164656525302E-3</v>
       </c>
       <c r="D6">
-        <v>2.7305450552995202E-3</v>
+        <v>2.7267105282060299E-3</v>
       </c>
       <c r="E6">
         <v>29</v>
@@ -1389,15 +1389,15 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
-        <v>16.0823440551757</v>
+        <v>16.081808090209901</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>2.6742071328199175E-3</v>
+        <v>2.6973192769126448E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>2.7153365477483628E-3</v>
+        <v>2.735501584078215E-3</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -1413,13 +1413,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2.01029300689697</v>
+        <v>2.0102260112762398</v>
       </c>
       <c r="C7">
-        <v>2.7254954577383998E-3</v>
+        <v>2.7725730880288099E-3</v>
       </c>
       <c r="D7">
-        <v>2.7366244466975301E-3</v>
+        <v>2.8058061777036401E-3</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -1433,15 +1433,15 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
-        <v>32.164688110351499</v>
+        <v>32.163616180419901</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.6773426776499172E-3</v>
+        <v>2.7042316112690975E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>2.7191343548846328E-3</v>
+        <v>2.7449793282518977E-3</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -1457,13 +1457,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2.01029300689697</v>
+        <v>2.0102260112762398</v>
       </c>
       <c r="C8">
-        <v>2.7018455042939699E-3</v>
+        <v>2.77553347924095E-3</v>
       </c>
       <c r="D8">
-        <v>2.7305256288022999E-3</v>
+        <v>2.7930811813831999E-3</v>
       </c>
       <c r="E8">
         <v>31</v>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="M8">
         <f>MIN(M2:M7)</f>
-        <v>2.7093906457129648E-3</v>
+        <v>2.7280712288014477E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1481,13 +1481,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>2.01029300689697</v>
+        <v>2.0102260112762398</v>
       </c>
       <c r="C9">
-        <v>2.73279229951824E-3</v>
+        <v>2.7445320375144998E-3</v>
       </c>
       <c r="D9">
-        <v>2.6992807843464802E-3</v>
+        <v>2.7735178901141899E-3</v>
       </c>
       <c r="E9">
         <v>32</v>
@@ -1501,13 +1501,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>4.02058601379394</v>
+        <v>4.0204520225524902</v>
       </c>
       <c r="C10" s="4">
-        <v>2.68964284778315E-3</v>
+        <v>2.73454994271705E-3</v>
       </c>
       <c r="D10" s="4">
-        <v>2.7398987836699802E-3</v>
+        <v>2.69774538818511E-3</v>
       </c>
       <c r="E10" s="4">
         <v>33</v>
@@ -1521,13 +1521,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>4.02058601379394</v>
+        <v>4.0204520225524902</v>
       </c>
       <c r="C11" s="4">
-        <v>2.7062656045792198E-3</v>
+        <v>2.7186284271798499E-3</v>
       </c>
       <c r="D11" s="4">
-        <v>2.7447790402839699E-3</v>
+        <v>2.76084098068973E-3</v>
       </c>
       <c r="E11" s="4">
         <v>34</v>
@@ -1541,13 +1541,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>4.02058601379394</v>
+        <v>4.0204520225524902</v>
       </c>
       <c r="C12" s="4">
-        <v>2.6775543253492302E-3</v>
+        <v>2.7356197253747502E-3</v>
       </c>
       <c r="D12" s="4">
-        <v>2.7321405074697798E-3</v>
+        <v>2.7770334088443901E-3</v>
       </c>
       <c r="E12" s="4">
         <v>35</v>
@@ -1561,13 +1561,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>4.02058601379394</v>
+        <v>4.0204520225524902</v>
       </c>
       <c r="C13" s="4">
-        <v>2.7055415793004901E-3</v>
+        <v>2.70326609966481E-3</v>
       </c>
       <c r="D13" s="4">
-        <v>2.69756166938137E-3</v>
+        <v>2.7428606489696798E-3</v>
       </c>
       <c r="E13" s="4">
         <v>36</v>
@@ -1581,13 +1581,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>8.0411720275878906</v>
+        <v>8.0409040451049805</v>
       </c>
       <c r="C14" s="2">
-        <v>2.6758643835683902E-3</v>
+        <v>2.71625143689382E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>2.72101418739382E-3</v>
+        <v>2.6920593367252901E-3</v>
       </c>
       <c r="E14" s="2">
         <v>37</v>
@@ -1601,13 +1601,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>8.0411720275878906</v>
+        <v>8.0409040451049805</v>
       </c>
       <c r="C15" s="2">
-        <v>2.6815065289253E-3</v>
+        <v>2.6958775172710001E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>2.7148564732534402E-3</v>
+        <v>2.7422927750298102E-3</v>
       </c>
       <c r="E15" s="2">
         <v>38</v>
@@ -1621,13 +1621,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>8.0411720275878906</v>
+        <v>8.0409040451049805</v>
       </c>
       <c r="C16" s="2">
-        <v>2.65856807125098E-3</v>
+        <v>2.6976807861571099E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>2.7196692312730698E-3</v>
+        <v>2.74937193180564E-3</v>
       </c>
       <c r="E16" s="2">
         <v>39</v>
@@ -1641,13 +1641,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>8.0411720275878906</v>
+        <v>8.0409040451049805</v>
       </c>
       <c r="C17" s="2">
-        <v>2.6835010478649499E-3</v>
+        <v>2.6820586522696998E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>2.6820226909315299E-3</v>
+        <v>2.7285608716450501E-3</v>
       </c>
       <c r="E17" s="2">
         <v>40</v>
@@ -1661,13 +1661,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>16.0823440551757</v>
+        <v>16.081808090209901</v>
       </c>
       <c r="C18">
-        <v>2.6730969845455998E-3</v>
+        <v>2.7229852268507901E-3</v>
       </c>
       <c r="D18">
-        <v>2.7262754267715701E-3</v>
+        <v>2.6937091304578701E-3</v>
       </c>
       <c r="E18">
         <v>41</v>
@@ -1681,13 +1681,13 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>16.0823440551757</v>
+        <v>16.081808090209901</v>
       </c>
       <c r="C19">
-        <v>2.6808722809135402E-3</v>
+        <v>2.6890169146951198E-3</v>
       </c>
       <c r="D19">
-        <v>2.7179244677833399E-3</v>
+        <v>2.76662182664097E-3</v>
       </c>
       <c r="E19">
         <v>42</v>
@@ -1701,13 +1701,13 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>16.0823440551757</v>
+        <v>16.081808090209901</v>
       </c>
       <c r="C20">
-        <v>2.65396232196585E-3</v>
+        <v>2.6912590100246002E-3</v>
       </c>
       <c r="D20">
-        <v>2.7267093785067502E-3</v>
+        <v>2.7428403602842199E-3</v>
       </c>
       <c r="E20">
         <v>43</v>
@@ -1721,13 +1721,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>16.0823440551757</v>
+        <v>16.081808090209901</v>
       </c>
       <c r="C21">
-        <v>2.6888969438546798E-3</v>
+        <v>2.6860159560800701E-3</v>
       </c>
       <c r="D21">
-        <v>2.6904369179317901E-3</v>
+        <v>2.7388350189297998E-3</v>
       </c>
       <c r="E21">
         <v>44</v>
@@ -1741,13 +1741,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>32.164688110351499</v>
+        <v>32.163616180419901</v>
       </c>
       <c r="C22" s="4">
-        <v>2.6733850319671602E-3</v>
+        <v>2.7182777071146202E-3</v>
       </c>
       <c r="D22" s="4">
-        <v>2.7243855974062301E-3</v>
+        <v>2.7005630604262499E-3</v>
       </c>
       <c r="E22" s="4">
         <v>45</v>
@@ -1761,13 +1761,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="4">
-        <v>32.164688110351499</v>
+        <v>32.163616180419901</v>
       </c>
       <c r="C23" s="4">
-        <v>2.6870989500782701E-3</v>
+        <v>2.7151317884374299E-3</v>
       </c>
       <c r="D23" s="4">
-        <v>2.72546931259096E-3</v>
+        <v>2.7752905123265802E-3</v>
       </c>
       <c r="E23" s="4">
         <v>46</v>
@@ -1781,13 +1781,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="4">
-        <v>32.164688110351499</v>
+        <v>32.163616180419901</v>
       </c>
       <c r="C24" s="4">
-        <v>2.66429344984762E-3</v>
+        <v>2.7002455773437002E-3</v>
       </c>
       <c r="D24" s="4">
-        <v>2.7373214177985401E-3</v>
+        <v>2.7638589815955701E-3</v>
       </c>
       <c r="E24" s="4">
         <v>47</v>
@@ -1801,13 +1801,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="4">
-        <v>32.164688110351499</v>
+        <v>32.163616180419901</v>
       </c>
       <c r="C25" s="4">
-        <v>2.6845932787066202E-3</v>
+        <v>2.6832713721806401E-3</v>
       </c>
       <c r="D25" s="4">
-        <v>2.6893610917427999E-3</v>
+        <v>2.7402047586591901E-3</v>
       </c>
       <c r="E25" s="4">
         <v>48</v>
@@ -1826,7 +1826,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1874,13 +1874,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>1.0051465034484801</v>
+        <v>1.0051130056381199</v>
       </c>
       <c r="C2">
-        <v>3.99383485857645</v>
+        <v>4.7671599662341997</v>
       </c>
       <c r="D2">
-        <v>4.0815576746108597</v>
+        <v>4.7358747252935096</v>
       </c>
       <c r="E2">
         <v>49</v>
@@ -1894,15 +1894,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
-        <v>1.0051465034484801</v>
+        <v>1.0051130056381199</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>4.0144308584531103</v>
+        <v>4.7677583452611652</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>3.9985696692415975</v>
+        <v>4.7452680046045295</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
@@ -1918,13 +1918,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1.0051465034484801</v>
+        <v>1.0051130056381199</v>
       </c>
       <c r="C3">
-        <v>4.0237323322296099</v>
+        <v>4.75381206475888</v>
       </c>
       <c r="D3">
-        <v>3.9603695970900499</v>
+        <v>4.8215067386627197</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -1938,15 +1938,15 @@
       </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.01029300689697</v>
+        <v>2.0102260112762398</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>2.71851257871215E-3</v>
+        <v>2.7445555382301051E-3</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>2.7039651616545778E-3</v>
+        <v>2.7251304440289873E-3</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
@@ -1962,13 +1962,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>1.0051465034484801</v>
+        <v>1.0051130056381199</v>
       </c>
       <c r="C4">
-        <v>4.0174071801503501</v>
+        <v>4.7792963280845298</v>
       </c>
       <c r="D4">
-        <v>3.9867562359951898</v>
+        <v>4.6967578900011198</v>
       </c>
       <c r="E4">
         <v>51</v>
@@ -1982,15 +1982,15 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
-        <v>4.02058601379394</v>
+        <v>4.0204520225524902</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>2.6952839504616926E-3</v>
+        <v>2.7142447616961473E-3</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>2.7069672465354069E-3</v>
+        <v>2.7220470040942276E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
@@ -2006,13 +2006,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>1.0051465034484801</v>
+        <v>1.0051130056381199</v>
       </c>
       <c r="C5">
-        <v>4.0227490628560298</v>
+        <v>4.7707650219670503</v>
       </c>
       <c r="D5">
-        <v>3.9655951692702902</v>
+        <v>4.7269326644607697</v>
       </c>
       <c r="E5">
         <v>52</v>
@@ -2026,15 +2026,15 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
-        <v>8.0411720275878906</v>
+        <v>8.0409040451049805</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>2.6920143331711425E-3</v>
+        <v>2.7047393814892675E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
-        <v>2.7010589392181998E-3</v>
+        <v>2.7094031846197852E-3</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="3"/>
@@ -2050,13 +2050,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>2.01029300689697</v>
+        <v>2.0102260112762398</v>
       </c>
       <c r="C6" s="2">
-        <v>2.7009991928935002E-3</v>
+        <v>2.7420944467294E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>2.7138313149755902E-3</v>
+        <v>2.715E-3</v>
       </c>
       <c r="E6" s="2">
         <v>53</v>
@@ -2070,15 +2070,15 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
-        <v>16.0823440551757</v>
+        <v>16.081808090209901</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>2.6922960008184072E-3</v>
+        <v>2.702230451659805E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>2.7016038997742771E-3</v>
+        <v>2.708126233059533E-3</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -2094,13 +2094,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>2.01029300689697</v>
+        <v>2.0102260112762398</v>
       </c>
       <c r="C7" s="2">
-        <v>2.7020915554215501E-3</v>
+        <v>2.7180931704957902E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>2.71133401064558E-3</v>
+        <v>2.7339738510737599E-3</v>
       </c>
       <c r="E7" s="2">
         <v>54</v>
@@ -2114,15 +2114,15 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
-        <v>32.164688110351499</v>
+        <v>32.163616180419901</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.6901424449558022E-3</v>
+        <v>2.7028219402431448E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>2.7010136096926448E-3</v>
+        <v>2.7125172230084899E-3</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -2138,13 +2138,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>2.01029300689697</v>
+        <v>2.0102260112762398</v>
       </c>
       <c r="C8" s="2">
-        <v>2.75670906280477E-3</v>
+        <v>2.7877355251794498E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.7122137612326301E-3</v>
+        <v>2.7327790879939102E-3</v>
       </c>
       <c r="E8" s="2">
         <v>55</v>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="M8">
         <f>MIN(M2:M7)</f>
-        <v>2.7010136096926448E-3</v>
+        <v>2.708126233059533E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -2162,13 +2162,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>2.01029300689697</v>
+        <v>2.0102260112762398</v>
       </c>
       <c r="C9" s="2">
-        <v>2.7142505037287801E-3</v>
+        <v>2.7302990105157799E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>2.6784815597645098E-3</v>
+        <v>2.71876883704828E-3</v>
       </c>
       <c r="E9" s="2">
         <v>56</v>
@@ -2182,13 +2182,13 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>4.02058601379394</v>
+        <v>4.0204520225524902</v>
       </c>
       <c r="C10">
-        <v>2.6945409787197902E-3</v>
+        <v>2.7210066569582198E-3</v>
       </c>
       <c r="D10">
-        <v>2.7211765867677699E-3</v>
+        <v>2.6809168873425499E-3</v>
       </c>
       <c r="E10">
         <v>57</v>
@@ -2202,13 +2202,13 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>4.02058601379394</v>
+        <v>4.0204520225524902</v>
       </c>
       <c r="C11">
-        <v>2.69425845518708E-3</v>
+        <v>2.7095329242582899E-3</v>
       </c>
       <c r="D11">
-        <v>2.7150508249178498E-3</v>
+        <v>2.7356609831788101E-3</v>
       </c>
       <c r="E11">
         <v>58</v>
@@ -2222,13 +2222,13 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>4.02058601379394</v>
+        <v>4.0204520225524902</v>
       </c>
       <c r="C12">
-        <v>2.6908617603282098E-3</v>
+        <v>2.71954302699825E-3</v>
       </c>
       <c r="D12">
-        <v>2.7134165940608098E-3</v>
+        <v>2.7491653402913598E-3</v>
       </c>
       <c r="E12">
         <v>59</v>
@@ -2242,13 +2242,13 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>4.02058601379394</v>
+        <v>4.0204520225524902</v>
       </c>
       <c r="C13">
-        <v>2.7014746076116898E-3</v>
+        <v>2.7068964385698301E-3</v>
       </c>
       <c r="D13">
-        <v>2.6782249803951998E-3</v>
+        <v>2.7224448055641901E-3</v>
       </c>
       <c r="E13">
         <v>60</v>
@@ -2262,13 +2262,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>8.0411720275878906</v>
+        <v>8.0409040451049805</v>
       </c>
       <c r="C14" s="4">
-        <v>2.68804251402616E-3</v>
+        <v>2.7153055003573401E-3</v>
       </c>
       <c r="D14" s="4">
-        <v>2.7072684556998699E-3</v>
+        <v>2.67263768311542E-3</v>
       </c>
       <c r="E14" s="4">
         <v>61</v>
@@ -2282,13 +2282,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>8.0411720275878906</v>
+        <v>8.0409040451049805</v>
       </c>
       <c r="C15" s="4">
-        <v>2.6940142804135802E-3</v>
+        <v>2.7010805537394499E-3</v>
       </c>
       <c r="D15" s="4">
-        <v>2.7109438137329599E-3</v>
+        <v>2.7308998087161702E-3</v>
       </c>
       <c r="E15" s="4">
         <v>62</v>
@@ -2302,13 +2302,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="4">
-        <v>8.0411720275878906</v>
+        <v>8.0409040451049805</v>
       </c>
       <c r="C16" s="4">
-        <v>2.6854767054319299E-3</v>
+        <v>2.7023559784332199E-3</v>
       </c>
       <c r="D16" s="4">
-        <v>2.7110840050265802E-3</v>
+        <v>2.72575557479469E-3</v>
       </c>
       <c r="E16" s="4">
         <v>63</v>
@@ -2322,13 +2322,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>8.0411720275878906</v>
+        <v>8.0409040451049805</v>
       </c>
       <c r="C17" s="4">
-        <v>2.7005238328129001E-3</v>
+        <v>2.7002154934270598E-3</v>
       </c>
       <c r="D17" s="4">
-        <v>2.6749394824133899E-3</v>
+        <v>2.7083196718528601E-3</v>
       </c>
       <c r="E17" s="4">
         <v>64</v>
@@ -2342,13 +2342,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>16.0823440551757</v>
+        <v>16.081808090209901</v>
       </c>
       <c r="C18">
-        <v>2.6864388218770401E-3</v>
+        <v>2.7124746509205799E-3</v>
       </c>
       <c r="D18">
-        <v>2.7104580348872699E-3</v>
+        <v>2.6692689125296402E-3</v>
       </c>
       <c r="E18">
         <v>65</v>
@@ -2362,13 +2362,13 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>16.0823440551757</v>
+        <v>16.081808090209901</v>
       </c>
       <c r="C19">
-        <v>2.6942681291451001E-3</v>
+        <v>2.6963994869539801E-3</v>
       </c>
       <c r="D19">
-        <v>2.7125561585094999E-3</v>
+        <v>2.7292697525382798E-3</v>
       </c>
       <c r="E19">
         <v>66</v>
@@ -2382,13 +2382,13 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>16.0823440551757</v>
+        <v>16.081808090209901</v>
       </c>
       <c r="C20">
-        <v>2.6915125045925302E-3</v>
+        <v>2.6985109603693E-3</v>
       </c>
       <c r="D20">
-        <v>2.7100747832632102E-3</v>
+        <v>2.72364002251643E-3</v>
       </c>
       <c r="E20">
         <v>67</v>
@@ -2402,13 +2402,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>16.0823440551757</v>
+        <v>16.081808090209901</v>
       </c>
       <c r="C21">
-        <v>2.6969645476589599E-3</v>
+        <v>2.7015367083953602E-3</v>
       </c>
       <c r="D21">
-        <v>2.6733266224371298E-3</v>
+        <v>2.7103262446537802E-3</v>
       </c>
       <c r="E21">
         <v>68</v>
@@ -2422,13 +2422,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>32.164688110351499</v>
+        <v>32.163616180419901</v>
       </c>
       <c r="C22" s="4">
-        <v>2.6868907238046299E-3</v>
+        <v>2.7089617423379899E-3</v>
       </c>
       <c r="D22" s="4">
-        <v>2.7104732852944301E-3</v>
+        <v>2.6723191295337798E-3</v>
       </c>
       <c r="E22" s="4">
         <v>69</v>
@@ -2442,13 +2442,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="4">
-        <v>32.164688110351499</v>
+        <v>32.163616180419901</v>
       </c>
       <c r="C23" s="4">
-        <v>2.6953122795869899E-3</v>
+        <v>2.6994296014844501E-3</v>
       </c>
       <c r="D23" s="4">
-        <v>2.7111147287638502E-3</v>
+        <v>2.7396292337275299E-3</v>
       </c>
       <c r="E23" s="4">
         <v>70</v>
@@ -2462,13 +2462,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="4">
-        <v>32.164688110351499</v>
+        <v>32.163616180419901</v>
       </c>
       <c r="C24" s="4">
-        <v>2.6849886210014401E-3</v>
+        <v>2.70339892582057E-3</v>
       </c>
       <c r="D24" s="4">
-        <v>2.7137002189386002E-3</v>
+        <v>2.7272499643879199E-3</v>
       </c>
       <c r="E24" s="4">
         <v>71</v>
@@ -2482,13 +2482,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="4">
-        <v>32.164688110351499</v>
+        <v>32.163616180419901</v>
       </c>
       <c r="C25" s="4">
-        <v>2.6933781554301498E-3</v>
+        <v>2.6994974913295698E-3</v>
       </c>
       <c r="D25" s="4">
-        <v>2.6687662057737001E-3</v>
+        <v>2.7108705643847301E-3</v>
       </c>
       <c r="E25" s="4">
         <v>72</v>
@@ -2552,10 +2552,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="4">
-        <v>2.7257302166656199E-3</v>
+        <v>2.79822543004079E-3</v>
       </c>
       <c r="C2" s="4">
-        <v>2.7751342908657601E-3</v>
+        <v>2.77504915536581E-3</v>
       </c>
       <c r="D2" s="4">
         <v>73</v>
@@ -2570,11 +2570,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>2.7306071603967873E-3</v>
+        <v>2.7647503552946521E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>2.7655959352256426E-3</v>
+        <v>2.8270492263880948E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -2590,10 +2590,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="4">
-        <v>2.7257246683609201E-3</v>
+        <v>2.7526905111779801E-3</v>
       </c>
       <c r="C3" s="4">
-        <v>2.75849596290116E-3</v>
+        <v>2.8363914564959198E-3</v>
       </c>
       <c r="D3" s="4">
         <v>74</v>
@@ -2608,11 +2608,11 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.7307489455895475E-3</v>
+        <v>2.7655203078130728E-3</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>2.7685818519998049E-3</v>
+        <v>2.8318896907369847E-3</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
@@ -2628,10 +2628,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="4">
-        <v>2.74552970361757E-3</v>
+        <v>2.7758737589833799E-3</v>
       </c>
       <c r="C4" s="4">
-        <v>2.7915718271694198E-3</v>
+        <v>2.8461734174833201E-3</v>
       </c>
       <c r="D4" s="4">
         <v>75</v>
@@ -2646,11 +2646,11 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>2.7327064760376048E-3</v>
+        <v>2.765257731581078E-3</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>2.7665113875434307E-3</v>
+        <v>2.8260749576118128E-3</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
@@ -2666,10 +2666,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="4">
-        <v>2.7254440529430402E-3</v>
+        <v>2.73221172097646E-3</v>
       </c>
       <c r="C5" s="4">
-        <v>2.7371816599662301E-3</v>
+        <v>2.8505828762073302E-3</v>
       </c>
       <c r="D5" s="4">
         <v>76</v>
@@ -2684,11 +2684,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>2.7388261304177475E-3</v>
+        <v>2.7610162896387052E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>2.7798705256266579E-3</v>
+        <v>2.8133209208262224E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -2705,10 +2705,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="4">
-        <v>2.7306082564346598E-3</v>
+        <v>2.7815968098849802E-3</v>
       </c>
       <c r="C6" s="4">
-        <v>2.77566645254797E-3</v>
+        <v>2.7494123853931602E-3</v>
       </c>
       <c r="D6" s="4">
         <v>77</v>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>2.7335508530860349E-3</v>
+        <v>2.7660115988913246E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>2.7781482123363579E-3</v>
+        <v>2.8303610426196873E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -2742,10 +2742,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="4">
-        <v>2.7412299780135399E-3</v>
+        <v>2.7327777293239498E-3</v>
       </c>
       <c r="C7" s="4">
-        <v>2.7869361641004301E-3</v>
+        <v>2.8172948668840499E-3</v>
       </c>
       <c r="D7" s="4">
         <v>78</v>
@@ -2759,11 +2759,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>2.7565024904609454E-3</v>
+        <v>2.7836427170653526E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.8048849000813425E-3</v>
+        <v>2.8951397361646398E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -2779,10 +2779,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="4">
-        <v>2.71228173044212E-3</v>
+        <v>2.7931782894449501E-3</v>
       </c>
       <c r="C8" s="4">
-        <v>2.7586286813218799E-3</v>
+        <v>2.8685519082731E-3</v>
       </c>
       <c r="D8" s="4">
         <v>79</v>
@@ -2796,11 +2796,11 @@
       </c>
       <c r="K8">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>4.16853940027686E-3</v>
+        <v>3.2885248287981674E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>3.6058612496027323E-3</v>
+        <v>3.4163806158636623E-3</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
@@ -2816,10 +2816,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="4">
-        <v>2.7388758174678699E-3</v>
+        <v>2.7545284025984099E-3</v>
       </c>
       <c r="C9" s="4">
-        <v>2.75309611002894E-3</v>
+        <v>2.8922996023976301E-3</v>
       </c>
       <c r="D9" s="4">
         <v>80</v>
@@ -2833,11 +2833,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>4.0216854302877634</v>
+        <v>2.2872733000866251E-2</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>3.9770107898487126</v>
+        <v>2.0735695842458924E-2</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -2853,10 +2853,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10">
-        <v>2.7489177833132901E-3</v>
+        <v>2.7757571108309102E-3</v>
       </c>
       <c r="C10">
-        <v>2.7853179242501502E-3</v>
+        <v>2.7704071636677099E-3</v>
       </c>
       <c r="D10">
         <v>81</v>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>2.7655959352256426E-3</v>
+        <v>2.8133209208262224E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2874,10 +2874,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11">
-        <v>2.71747192427357E-3</v>
+        <v>2.75513356775516E-3</v>
       </c>
       <c r="C11">
-        <v>2.75686056046013E-3</v>
+        <v>2.8456435597772802E-3</v>
       </c>
       <c r="D11">
         <v>82</v>
@@ -2891,10 +2891,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12">
-        <v>2.7386563498170099E-3</v>
+        <v>2.7820489051032602E-3</v>
       </c>
       <c r="C12">
-        <v>2.78959326951348E-3</v>
+        <v>2.8264658507902701E-3</v>
       </c>
       <c r="D12">
         <v>83</v>
@@ -2908,10 +2908,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13">
-        <v>2.7257798467465498E-3</v>
+        <v>2.7480913426349801E-3</v>
       </c>
       <c r="C13">
-        <v>2.7342737959499602E-3</v>
+        <v>2.8617832562119901E-3</v>
       </c>
       <c r="D13">
         <v>84</v>
@@ -2925,10 +2925,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>2.75137827067853E-3</v>
+        <v>2.7975470941702398E-3</v>
       </c>
       <c r="C14">
-        <v>2.7996631923745902E-3</v>
+        <v>2.7635174219885501E-3</v>
       </c>
       <c r="D14">
         <v>85</v>
@@ -2942,10 +2942,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>2.7158181282117E-3</v>
+        <v>2.74487077317471E-3</v>
       </c>
       <c r="C15">
-        <v>2.7637618638456101E-3</v>
+        <v>2.8150155020382501E-3</v>
       </c>
       <c r="D15">
         <v>86</v>
@@ -2959,10 +2959,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>2.7279288042336698E-3</v>
+        <v>2.76297642967274E-3</v>
       </c>
       <c r="C16">
-        <v>2.78265674677776E-3</v>
+        <v>2.8204352335556302E-3</v>
       </c>
       <c r="D16">
         <v>87</v>
@@ -2976,10 +2976,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>2.7601793185470899E-3</v>
+        <v>2.7386708615371302E-3</v>
       </c>
       <c r="C17">
-        <v>2.7734002995086701E-3</v>
+        <v>2.85431552572246E-3</v>
       </c>
       <c r="D17">
         <v>88</v>
@@ -2993,10 +2993,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>2.7422338199028901E-3</v>
+        <v>2.7770220355095299E-3</v>
       </c>
       <c r="C18">
-        <v>2.7908231478501501E-3</v>
+        <v>2.75190986539649E-3</v>
       </c>
       <c r="D18">
         <v>89</v>
@@ -3010,10 +3010,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>2.7529943308376801E-3</v>
+        <v>2.7500960616324102E-3</v>
       </c>
       <c r="C19">
-        <v>2.81007216371437E-3</v>
+        <v>2.8283631022359302E-3</v>
       </c>
       <c r="D19">
         <v>90</v>
@@ -3027,10 +3027,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>2.7201100217891798E-3</v>
+        <v>2.7938631946763199E-3</v>
       </c>
       <c r="C20">
-        <v>2.7757980142462399E-3</v>
+        <v>2.8422894634164901E-3</v>
       </c>
       <c r="D20">
         <v>91</v>
@@ -3044,10 +3044,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>2.7188652398143901E-3</v>
+        <v>2.7430651037470399E-3</v>
       </c>
       <c r="C21">
-        <v>2.73589952353467E-3</v>
+        <v>2.8988817394298401E-3</v>
       </c>
       <c r="D21">
         <v>92</v>
@@ -3061,10 +3061,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>2.7656892978368199E-3</v>
+        <v>2.8269715088454898E-3</v>
       </c>
       <c r="C22">
-        <v>2.8187337633658201E-3</v>
+        <v>2.7896109703173699E-3</v>
       </c>
       <c r="D22">
         <v>93</v>
@@ -3078,10 +3078,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>2.7741918568202099E-3</v>
+        <v>2.78132982092284E-3</v>
       </c>
       <c r="C23">
-        <v>2.87702419557311E-3</v>
+        <v>2.8680942280665902E-3</v>
       </c>
       <c r="D23">
         <v>94</v>
@@ -3095,10 +3095,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>2.7463921132754999E-3</v>
+        <v>2.7872462303059299E-3</v>
       </c>
       <c r="C24">
-        <v>2.7764119069151401E-3</v>
+        <v>2.8284545427871999E-3</v>
       </c>
       <c r="D24">
         <v>95</v>
@@ -3112,10 +3112,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>2.7397366939112501E-3</v>
+        <v>2.73902330818715E-3</v>
       </c>
       <c r="C25">
-        <v>2.7473697344713001E-3</v>
+        <v>3.0943992034874E-3</v>
       </c>
       <c r="D25">
         <v>96</v>
@@ -3129,10 +3129,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>4.2998838941863803E-3</v>
+        <v>3.4067367256583598E-3</v>
       </c>
       <c r="C26">
-        <v>4.0468407913725399E-3</v>
+        <v>3.2801325079289401E-3</v>
       </c>
       <c r="D26">
         <v>97</v>
@@ -3146,10 +3146,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>3.8956560892984202E-3</v>
+        <v>3.2731632855308198E-3</v>
       </c>
       <c r="C27">
-        <v>3.9073975974733503E-3</v>
+        <v>3.2888531826342198E-3</v>
       </c>
       <c r="D27">
         <v>98</v>
@@ -3163,10 +3163,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>3.4131514369212801E-3</v>
+        <v>3.2691325833195698E-3</v>
       </c>
       <c r="C28">
-        <v>3.2416049148292899E-3</v>
+        <v>3.0856720537324402E-3</v>
       </c>
       <c r="D28">
         <v>99</v>
@@ -3180,10 +3180,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>5.0654661807013604E-3</v>
+        <v>3.20506672068392E-3</v>
       </c>
       <c r="C29">
-        <v>3.2276016947357499E-3</v>
+        <v>4.0108647191590503E-3</v>
       </c>
       <c r="D29">
         <v>100</v>
@@ -3197,10 +3197,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>3.6139121571397197E-2</v>
+        <v>2.3170388580736102E-2</v>
       </c>
       <c r="C30">
-        <v>2.6866663480177501E-2</v>
+        <v>2.03304357378731E-2</v>
       </c>
       <c r="D30">
         <v>101</v>
@@ -3214,10 +3214,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>7.84038393548194</v>
+        <v>2.4151642423688901E-2</v>
       </c>
       <c r="C31">
-        <v>7.9492737130915803</v>
+        <v>2.16086247428968E-2</v>
       </c>
       <c r="D31">
         <v>102</v>
@@ -3231,10 +3231,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>8.1856437743978301</v>
+        <v>2.2700777878583898E-2</v>
       </c>
       <c r="C32">
-        <v>7.9078371930629601</v>
+        <v>1.8175156524734899E-2</v>
       </c>
       <c r="D32">
         <v>103</v>
@@ -3248,10 +3248,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>2.4574889699888799E-2</v>
+        <v>2.1468123120456099E-2</v>
       </c>
       <c r="C33">
-        <v>2.4065589760132899E-2</v>
+        <v>2.28285663643309E-2</v>
       </c>
       <c r="D33">
         <v>104</v>
@@ -3318,7 +3318,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F33"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3363,10 +3363,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>2.7043887344684299E-3</v>
+        <v>2.7385619528306898E-3</v>
       </c>
       <c r="C2">
-        <v>2.7440551301821099E-3</v>
+        <v>2.6788738426528399E-3</v>
       </c>
       <c r="D2">
         <v>105</v>
@@ -3380,11 +3380,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>2.6992448959177527E-3</v>
+        <v>2.7159653139852274E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>2.7168794662661899E-3</v>
+        <v>2.7277539941022448E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -3400,10 +3400,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3">
-        <v>2.6945148413862101E-3</v>
+        <v>2.7050449346803099E-3</v>
       </c>
       <c r="C3">
-        <v>2.7150742640282802E-3</v>
+        <v>2.73938977772582E-3</v>
       </c>
       <c r="D3">
         <v>106</v>
@@ -3417,11 +3417,11 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.7004799228458748E-3</v>
+        <v>2.7152602686872978E-3</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>2.7179818382446997E-3</v>
+        <v>2.7287979160812723E-3</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
@@ -3437,10 +3437,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4">
-        <v>2.6907187061721099E-3</v>
+        <v>2.7241935659864298E-3</v>
       </c>
       <c r="C4">
-        <v>2.7197528942587198E-3</v>
+        <v>2.76675622002516E-3</v>
       </c>
       <c r="D4">
         <v>107</v>
@@ -3454,11 +3454,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>2.6978013775078549E-3</v>
+        <v>2.7111568243485952E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>2.7136725232381549E-3</v>
+        <v>2.7227482502053951E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -3474,10 +3474,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5">
-        <v>2.70735730164426E-3</v>
+        <v>2.6960608024434798E-3</v>
       </c>
       <c r="C5">
-        <v>2.6886355765956501E-3</v>
+        <v>2.7259961360051599E-3</v>
       </c>
       <c r="D5">
         <v>108</v>
@@ -3491,11 +3491,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>2.6997448365634973E-3</v>
+        <v>2.7149537449204274E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>2.71531913313083E-3</v>
+        <v>2.7263467487454673E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -3511,10 +3511,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>2.71231343132503E-3</v>
+        <v>2.7383485435253101E-3</v>
       </c>
       <c r="C6">
-        <v>2.75484311265593E-3</v>
+        <v>2.6797395217220601E-3</v>
       </c>
       <c r="D6">
         <v>109</v>
@@ -3528,11 +3528,11 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>2.70943875558317E-3</v>
+        <v>2.723171376062635E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>2.7267466741366301E-3</v>
+        <v>2.735505438309535E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -3548,10 +3548,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>2.6956029147147398E-3</v>
+        <v>2.7056835209179602E-3</v>
       </c>
       <c r="C7">
-        <v>2.71743567947773E-3</v>
+        <v>2.7432263699136198E-3</v>
       </c>
       <c r="D7">
         <v>110</v>
@@ -3565,11 +3565,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>2.7312148310382725E-3</v>
+        <v>2.7410556702388124E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.7685964676957674E-3</v>
+        <v>2.7503561341981776E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -3585,10 +3585,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>2.6892881835513601E-3</v>
+        <v>2.7173221301121302E-3</v>
       </c>
       <c r="C8">
-        <v>2.7165892261496499E-3</v>
+        <v>2.7663034056843801E-3</v>
       </c>
       <c r="D8">
         <v>111</v>
@@ -3602,11 +3602,11 @@
       </c>
       <c r="K8">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>3.9494193377012845E-3</v>
+        <v>3.5097182477723471E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>3.3507608614138651E-3</v>
+        <v>3.3510389871883473E-3</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
@@ -3622,10 +3622,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>2.7047151617923702E-3</v>
+        <v>2.69968688019379E-3</v>
       </c>
       <c r="C9">
-        <v>2.6830593346954899E-3</v>
+        <v>2.7259223670050301E-3</v>
       </c>
       <c r="D9">
         <v>112</v>
@@ -3639,11 +3639,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>2.0386687947587001</v>
+        <v>2.3428959367503104E-2</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>1.9918459066656709</v>
+        <v>1.9660231081144026E-2</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -3659,10 +3659,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="4">
-        <v>2.6948392747881498E-3</v>
+        <v>2.7369357182816302E-3</v>
       </c>
       <c r="C10" s="4">
-        <v>2.72643716728433E-3</v>
+        <v>2.6775420454766899E-3</v>
       </c>
       <c r="D10" s="4">
         <v>113</v>
@@ -3673,7 +3673,7 @@
       <c r="F10" s="2"/>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>2.7136725232381549E-3</v>
+        <v>2.7227482502053951E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -3681,10 +3681,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="4">
-        <v>2.6963473201055601E-3</v>
+        <v>2.7030101045966101E-3</v>
       </c>
       <c r="C11" s="4">
-        <v>2.71531075308535E-3</v>
+        <v>2.73858841885871E-3</v>
       </c>
       <c r="D11" s="4">
         <v>114</v>
@@ -3699,10 +3699,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="4">
-        <v>2.6942456148544998E-3</v>
+        <v>2.7036658061110599E-3</v>
       </c>
       <c r="C12" s="4">
-        <v>2.72638667771156E-3</v>
+        <v>2.7480589644393902E-3</v>
       </c>
       <c r="D12" s="4">
         <v>115</v>
@@ -3717,10 +3717,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="4">
-        <v>2.70577330028321E-3</v>
+        <v>2.7010156684050802E-3</v>
       </c>
       <c r="C13" s="4">
-        <v>2.6865554948713802E-3</v>
+        <v>2.72680357204679E-3</v>
       </c>
       <c r="D13" s="4">
         <v>116</v>
@@ -3735,10 +3735,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14" s="4">
-        <v>2.7066680994082899E-3</v>
+        <v>2.7411797730501198E-3</v>
       </c>
       <c r="C14" s="4">
-        <v>2.74105225392478E-3</v>
+        <v>2.6781646405122702E-3</v>
       </c>
       <c r="D14" s="4">
         <v>117</v>
@@ -3752,10 +3752,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15" s="4">
-        <v>2.6959771726359702E-3</v>
+        <v>2.70353315789608E-3</v>
       </c>
       <c r="C15" s="4">
-        <v>2.7132033434835198E-3</v>
+        <v>2.7386779083481299E-3</v>
       </c>
       <c r="D15" s="4">
         <v>118</v>
@@ -3769,10 +3769,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16" s="4">
-        <v>2.6902848807599401E-3</v>
+        <v>2.7188980806571398E-3</v>
       </c>
       <c r="C16" s="4">
-        <v>2.7206857624325E-3</v>
+        <v>2.7606019874020799E-3</v>
       </c>
       <c r="D16" s="4">
         <v>119</v>
@@ -3786,10 +3786,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17" s="4">
-        <v>2.7060491934497899E-3</v>
+        <v>2.69620396807837E-3</v>
       </c>
       <c r="C17" s="4">
-        <v>2.68633517268252E-3</v>
+        <v>2.7279424587193899E-3</v>
       </c>
       <c r="D17" s="4">
         <v>120</v>
@@ -3803,10 +3803,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>2.72431068538509E-3</v>
+        <v>2.7526932913857398E-3</v>
       </c>
       <c r="C18">
-        <v>2.76343656971337E-3</v>
+        <v>2.68883609118623E-3</v>
       </c>
       <c r="D18">
         <v>121</v>
@@ -3820,10 +3820,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>2.70460121596152E-3</v>
+        <v>2.7138514215850301E-3</v>
       </c>
       <c r="C19">
-        <v>2.72099319795899E-3</v>
+        <v>2.7471871109372801E-3</v>
       </c>
       <c r="D19">
         <v>122</v>
@@ -3837,10 +3837,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>2.6973784490032702E-3</v>
+        <v>2.7228066057061601E-3</v>
       </c>
       <c r="C20">
-        <v>2.72231815541361E-3</v>
+        <v>2.76665039112956E-3</v>
       </c>
       <c r="D20">
         <v>123</v>
@@ -3854,10 +3854,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>2.7114646719827999E-3</v>
+        <v>2.7033341855736098E-3</v>
       </c>
       <c r="C21">
-        <v>2.7002387734605502E-3</v>
+        <v>2.7393481599850699E-3</v>
       </c>
       <c r="D21">
         <v>124</v>
@@ -3871,10 +3871,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>2.7408189427583101E-3</v>
+        <v>2.7691770039475001E-3</v>
       </c>
       <c r="C22">
-        <v>2.8473997211202599E-3</v>
+        <v>2.7102631888104699E-3</v>
       </c>
       <c r="D22">
         <v>125</v>
@@ -3888,10 +3888,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>2.7300875814770201E-3</v>
+        <v>2.7281893535879001E-3</v>
       </c>
       <c r="C23">
-        <v>2.7410785761721201E-3</v>
+        <v>2.7544402010455898E-3</v>
       </c>
       <c r="D23">
         <v>126</v>
@@ -3905,10 +3905,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>2.7107861254641601E-3</v>
+        <v>2.73585008089519E-3</v>
       </c>
       <c r="C24">
-        <v>2.74045946958296E-3</v>
+        <v>2.7606111208471999E-3</v>
       </c>
       <c r="D24">
         <v>127</v>
@@ -3922,10 +3922,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>2.7431666744536002E-3</v>
+        <v>2.7310062425246599E-3</v>
       </c>
       <c r="C25">
-        <v>2.7454481039077298E-3</v>
+        <v>2.7761100260894501E-3</v>
       </c>
       <c r="D25">
         <v>128</v>
@@ -3939,10 +3939,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>4.2111656462595296E-3</v>
+        <v>3.7557687506577899E-3</v>
       </c>
       <c r="C26">
-        <v>3.4449400845915001E-3</v>
+        <v>3.2205749303102398E-3</v>
       </c>
       <c r="D26">
         <v>129</v>
@@ -3956,10 +3956,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>3.4797689939373498E-3</v>
+        <v>3.4338557739759801E-3</v>
       </c>
       <c r="C27">
-        <v>3.5131843933994102E-3</v>
+        <v>3.2795680969764898E-3</v>
       </c>
       <c r="D27">
         <v>130</v>
@@ -3973,10 +3973,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>3.6479456949622298E-3</v>
+        <v>3.4281577155658299E-3</v>
       </c>
       <c r="C28">
-        <v>3.3002687083121302E-3</v>
+        <v>3.2802774052171002E-3</v>
       </c>
       <c r="D28">
         <v>131</v>
@@ -3990,10 +3990,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>4.4587970156460301E-3</v>
+        <v>3.4210907508897899E-3</v>
       </c>
       <c r="C29">
-        <v>3.1446502593524199E-3</v>
+        <v>3.6237355162495599E-3</v>
       </c>
       <c r="D29">
         <v>132</v>
@@ -4007,10 +4007,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>2.4750156801174102E-2</v>
+        <v>2.3808198467869801E-2</v>
       </c>
       <c r="C30">
-        <v>2.32705648374208E-2</v>
+        <v>1.8568190386448101E-2</v>
       </c>
       <c r="D30">
         <v>133</v>
@@ -4024,10 +4024,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>3.1892339835200997E-2</v>
+        <v>2.1516825905912002E-2</v>
       </c>
       <c r="C31">
-        <v>2.0217741136141901E-2</v>
+        <v>2.21706255828325E-2</v>
       </c>
       <c r="D31">
         <v>134</v>
@@ -4041,10 +4041,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>8.07408204991766</v>
+        <v>2.68218167286342E-2</v>
       </c>
       <c r="C32">
-        <v>7.9021472017815704</v>
+        <v>1.6556207750794201E-2</v>
       </c>
       <c r="D32">
         <v>135</v>
@@ -4058,10 +4058,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>2.3950632480765701E-2</v>
+        <v>2.1568996367596401E-2</v>
       </c>
       <c r="C33">
-        <v>2.1748118907550001E-2</v>
+        <v>2.1345900604501301E-2</v>
       </c>
       <c r="D33">
         <v>136</v>
@@ -4080,7 +4080,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4125,10 +4125,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="4">
-        <v>2.7012779166301001E-3</v>
+        <v>2.7322532354702202E-3</v>
       </c>
       <c r="C2" s="4">
-        <v>2.7149062940573401E-3</v>
+        <v>2.7169999999999998E-3</v>
       </c>
       <c r="D2" s="4">
         <v>137</v>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>2.7060564863495501E-3</v>
+        <v>2.7223501044634927E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>2.7070108707003401E-3</v>
+        <v>2.7276167038298525E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -4162,10 +4162,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="4">
-        <v>2.7058274478961998E-3</v>
+        <v>2.7191052332330001E-3</v>
       </c>
       <c r="C3" s="4">
-        <v>2.7129735346843901E-3</v>
+        <v>2.73353888806474E-3</v>
       </c>
       <c r="D3" s="4">
         <v>138</v>
@@ -4179,11 +4179,11 @@
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.7064487651611326E-3</v>
+        <v>2.7222436874697201E-3</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>2.7069269011956274E-3</v>
+        <v>2.7167853314276199E-3</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="1"/>
@@ -4199,10 +4199,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="4">
-        <v>2.7032260609169802E-3</v>
+        <v>2.7189252625841398E-3</v>
       </c>
       <c r="C4" s="4">
-        <v>2.7171842867825501E-3</v>
+        <v>2.7374724055864298E-3</v>
       </c>
       <c r="D4" s="4">
         <v>139</v>
@@ -4216,11 +4216,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>2.7056101583875672E-3</v>
+        <v>2.72228690823867E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>2.7073147413172174E-3</v>
+        <v>2.7156950312053523E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -4236,10 +4236,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="4">
-        <v>2.7138945199549199E-3</v>
+        <v>2.7191166865666101E-3</v>
       </c>
       <c r="C5" s="4">
-        <v>2.6829793672770801E-3</v>
+        <v>2.7224555216682402E-3</v>
       </c>
       <c r="D5" s="4">
         <v>140</v>
@@ -4253,11 +4253,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>2.706634074759975E-3</v>
+        <v>2.7221736506359527E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>2.7077151889704676E-3</v>
+        <v>2.7161573385525023E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -4273,10 +4273,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="4">
-        <v>2.70377609692513E-3</v>
+        <v>2.7330723545029001E-3</v>
       </c>
       <c r="C6" s="4">
-        <v>2.7139784986192801E-3</v>
+        <v>2.6722244499840599E-3</v>
       </c>
       <c r="D6" s="4">
         <v>141</v>
@@ -4291,11 +4291,11 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>2.7115936808598477E-3</v>
+        <v>2.7279906263485624E-3</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="4"/>
-        <v>2.713899749846373E-3</v>
+        <v>2.7226194830705626E-3</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="4"/>
@@ -4311,10 +4311,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="4">
-        <v>2.7057569107661601E-3</v>
+        <v>2.7180551558721E-3</v>
       </c>
       <c r="C7" s="4">
-        <v>2.7139221461727498E-3</v>
+        <v>2.7334213262730301E-3</v>
       </c>
       <c r="D7" s="4">
         <v>142</v>
@@ -4329,11 +4329,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>2.7525374895582553E-3</v>
+        <v>2.7462136022338877E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.7432989928514646E-3</v>
+        <v>2.7529789235065574E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -4349,10 +4349,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="4">
-        <v>2.70296789705753E-3</v>
+        <v>2.7186105120034399E-3</v>
       </c>
       <c r="C8" s="4">
-        <v>2.71779897949717E-3</v>
+        <v>2.7359612079785201E-3</v>
       </c>
       <c r="D8" s="4">
         <v>143</v>
@@ -4367,11 +4367,11 @@
       </c>
       <c r="K8">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>3.6999805523082571E-3</v>
+        <v>3.5583205718603601E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>3.3125195161815926E-3</v>
+        <v>3.4322253129256347E-3</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
@@ -4387,10 +4387,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="4">
-        <v>2.7132941558957102E-3</v>
+        <v>2.71923672750044E-3</v>
       </c>
       <c r="C9" s="4">
-        <v>2.6820079804933099E-3</v>
+        <v>2.72553434147487E-3</v>
       </c>
       <c r="D9" s="4">
         <v>144</v>
@@ -4405,11 +4405,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>2.0316516177921229</v>
+        <v>2.3426274053407227E-2</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>2.004507209873446</v>
+        <v>1.9735012990363548E-2</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -4425,10 +4425,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="4">
-        <v>2.7022040051718501E-3</v>
+        <v>2.7323343445912899E-3</v>
       </c>
       <c r="C10" s="4">
-        <v>2.7148933942489099E-3</v>
+        <v>2.67270380112377E-3</v>
       </c>
       <c r="D10" s="4">
         <v>145</v>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>2.7069269011956274E-3</v>
+        <v>2.7156950312053523E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -4446,10 +4446,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="4">
-        <v>2.7056983125706498E-3</v>
+        <v>2.7174846270678001E-3</v>
       </c>
       <c r="C11" s="4">
-        <v>2.7137425148542498E-3</v>
+        <v>2.7317232953360899E-3</v>
       </c>
       <c r="D11" s="4">
         <v>146</v>
@@ -4463,10 +4463,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="4">
-        <v>2.70130941395958E-3</v>
+        <v>2.7201708700781602E-3</v>
       </c>
       <c r="C12" s="4">
-        <v>2.7169471562027599E-3</v>
+        <v>2.7359453224447298E-3</v>
       </c>
       <c r="D12" s="4">
         <v>147</v>
@@ -4480,10 +4480,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="4">
-        <v>2.7132289018481901E-3</v>
+        <v>2.7191577912174299E-3</v>
       </c>
       <c r="C13" s="4">
-        <v>2.68367589996295E-3</v>
+        <v>2.7224077059168198E-3</v>
       </c>
       <c r="D13" s="4">
         <v>148</v>
@@ -4497,10 +4497,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>2.7037448349098302E-3</v>
+        <v>2.73145388026302E-3</v>
       </c>
       <c r="C14">
-        <v>2.7146706521075101E-3</v>
+        <v>2.6729916446382399E-3</v>
       </c>
       <c r="D14">
         <v>149</v>
@@ -4514,10 +4514,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>2.7059592219690399E-3</v>
+        <v>2.7184013973552499E-3</v>
       </c>
       <c r="C15">
-        <v>2.7123083226739402E-3</v>
+        <v>2.7317436252826698E-3</v>
       </c>
       <c r="D15">
         <v>150</v>
@@ -4531,10 +4531,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>2.7036874921371498E-3</v>
+        <v>2.7191661589871098E-3</v>
       </c>
       <c r="C16">
-        <v>2.7192989042266499E-3</v>
+        <v>2.7364052336993098E-3</v>
       </c>
       <c r="D16">
         <v>151</v>
@@ -4548,10 +4548,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>2.71314475002388E-3</v>
+        <v>2.7196731659384298E-3</v>
       </c>
       <c r="C17">
-        <v>2.6845828768737698E-3</v>
+        <v>2.72348885058979E-3</v>
       </c>
       <c r="D17">
         <v>152</v>
@@ -4565,10 +4565,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18" s="2">
-        <v>2.7091250345110799E-3</v>
+        <v>2.7393787175404999E-3</v>
       </c>
       <c r="C18" s="2">
-        <v>2.7293450362544402E-3</v>
+        <v>2.68084278530618E-3</v>
       </c>
       <c r="D18" s="2">
         <v>153</v>
@@ -4582,10 +4582,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19" s="2">
-        <v>2.7112020943313802E-3</v>
+        <v>2.7226160322062999E-3</v>
       </c>
       <c r="C19" s="2">
-        <v>2.7138193836435602E-3</v>
+        <v>2.7363640108864799E-3</v>
       </c>
       <c r="D19" s="2">
         <v>154</v>
@@ -4599,10 +4599,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20" s="2">
-        <v>2.7075151825944502E-3</v>
+        <v>2.7243384649566398E-3</v>
       </c>
       <c r="C20" s="2">
-        <v>2.7211809040423702E-3</v>
+        <v>2.7371940757089002E-3</v>
       </c>
       <c r="D20" s="2">
         <v>155</v>
@@ -4616,10 +4616,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21" s="2">
-        <v>2.7185324120024799E-3</v>
+        <v>2.7256292906908102E-3</v>
       </c>
       <c r="C21" s="2">
-        <v>2.6912536754451202E-3</v>
+        <v>2.73607706038069E-3</v>
       </c>
       <c r="D21" s="2">
         <v>156</v>
@@ -4633,10 +4633,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>2.7403550061086798E-3</v>
+        <v>2.7580138507147301E-3</v>
       </c>
       <c r="C22">
-        <v>2.80384805073287E-3</v>
+        <v>2.7081100948013401E-3</v>
       </c>
       <c r="D22">
         <v>157</v>
@@ -4650,10 +4650,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>2.7259454373270201E-3</v>
+        <v>2.7416199021719802E-3</v>
       </c>
       <c r="C23">
-        <v>2.7273368248914099E-3</v>
+        <v>2.75423517155967E-3</v>
       </c>
       <c r="D23">
         <v>158</v>
@@ -4667,10 +4667,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>2.7280574391285498E-3</v>
+        <v>2.74132349016591E-3</v>
       </c>
       <c r="C24">
-        <v>2.7327392562391502E-3</v>
+        <v>2.7611424050093402E-3</v>
       </c>
       <c r="D24">
         <v>159</v>
@@ -4684,10 +4684,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>2.81579207566877E-3</v>
+        <v>2.7438971658829301E-3</v>
       </c>
       <c r="C25">
-        <v>2.70927183954243E-3</v>
+        <v>2.7884280226558801E-3</v>
       </c>
       <c r="D25">
         <v>160</v>
@@ -4701,10 +4701,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>3.9786405519892697E-3</v>
+        <v>3.44008090013203E-3</v>
       </c>
       <c r="C26">
-        <v>3.34730431031277E-3</v>
+        <v>3.2756104387484299E-3</v>
       </c>
       <c r="D26">
         <v>161</v>
@@ -4718,10 +4718,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>3.55851563562949E-3</v>
+        <v>3.5601920394685098E-3</v>
       </c>
       <c r="C27">
-        <v>3.3997450534135401E-3</v>
+        <v>3.3387363434450902E-3</v>
       </c>
       <c r="D27">
         <v>162</v>
@@ -4735,10 +4735,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>3.5629832639048498E-3</v>
+        <v>3.42790913297988E-3</v>
       </c>
       <c r="C28">
-        <v>3.1811922362589402E-3</v>
+        <v>3.29725749943924E-3</v>
       </c>
       <c r="D28">
         <v>163</v>
@@ -4752,10 +4752,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>3.6997827577094199E-3</v>
+        <v>3.8051002148610201E-3</v>
       </c>
       <c r="C29">
-        <v>3.32183646474112E-3</v>
+        <v>3.8172969700697801E-3</v>
       </c>
       <c r="D29">
         <v>164</v>
@@ -4769,10 +4769,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>2.4794088771566698E-2</v>
+        <v>2.8317960205312302E-2</v>
       </c>
       <c r="C30">
-        <v>2.1319112299564898E-2</v>
+        <v>1.6517740320649999E-2</v>
       </c>
       <c r="D30">
         <v>165</v>
@@ -4786,10 +4786,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>2.8040398836135801E-2</v>
+        <v>2.25706953077782E-2</v>
       </c>
       <c r="C31">
-        <v>2.3027894223366398E-2</v>
+        <v>2.0239473597582699E-2</v>
       </c>
       <c r="D31">
         <v>166</v>
@@ -4803,10 +4803,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>8.0513851737976001</v>
+        <v>2.1273481442381701E-2</v>
       </c>
       <c r="C32">
-        <v>7.9522394017970299</v>
+        <v>1.94173027773069E-2</v>
       </c>
       <c r="D32">
         <v>167</v>
@@ -4820,10 +4820,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>2.23868097631881E-2</v>
+        <v>2.1542959258156701E-2</v>
       </c>
       <c r="C33">
-        <v>2.1442431173822302E-2</v>
+        <v>2.2765535265914599E-2</v>
       </c>
       <c r="D33">
         <v>168</v>
@@ -4935,10 +4935,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>6.5367025488256604E-3</v>
+        <v>9.2154540876044494E-3</v>
       </c>
       <c r="C2">
-        <v>6.64530609604678E-3</v>
+        <v>9.2789699217375298E-3</v>
       </c>
       <c r="D2">
         <v>169</v>
@@ -4952,11 +4952,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>5.1504986897063752E-3</v>
+        <v>7.6690516493554328E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>5.1820272391166801E-3</v>
+        <v>7.7088167714072899E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -4972,10 +4972,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3">
-        <v>3.5767385624113301E-3</v>
+        <v>5.7594389831529301E-3</v>
       </c>
       <c r="C3">
-        <v>3.6242245814373901E-3</v>
+        <v>5.8330809108064104E-3</v>
       </c>
       <c r="D3">
         <v>170</v>
@@ -4989,11 +4989,11 @@
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>5.1295808140671747E-3</v>
+        <v>7.686772758046842E-3</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>5.165983954462207E-3</v>
+        <v>7.7460127502467571E-3</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="1"/>
@@ -5009,10 +5009,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4">
-        <v>5.9081509921558297E-3</v>
+        <v>8.8848862325466103E-3</v>
       </c>
       <c r="C4">
-        <v>5.9426493258981699E-3</v>
+        <v>8.9122028549826603E-3</v>
       </c>
       <c r="D4">
         <v>171</v>
@@ -5026,11 +5026,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>5.2632599615173572E-3</v>
+        <v>7.680354380532153E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>5.2994690302028422E-3</v>
+        <v>7.7464418350188351E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -5046,10 +5046,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5">
-        <v>4.5804026554326803E-3</v>
+        <v>6.8164272941177396E-3</v>
       </c>
       <c r="C5">
-        <v>4.5159289530843803E-3</v>
+        <v>6.8110133981025599E-3</v>
       </c>
       <c r="D5">
         <v>172</v>
@@ -5063,11 +5063,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>5.4266109651461471E-3</v>
+        <v>7.6670222620986665E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>5.4232918913770852E-3</v>
+        <v>7.7088830647754269E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -5083,10 +5083,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>6.5048278274038099E-3</v>
+        <v>9.2628965731945904E-3</v>
       </c>
       <c r="C6">
-        <v>6.6201810406733104E-3</v>
+        <v>9.3639585944010496E-3</v>
       </c>
       <c r="D6">
         <v>173</v>
@@ -5100,11 +5100,11 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>5.5936553222245104E-3</v>
+        <v>7.8709333165419022E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>5.4134691172409051E-3</v>
+        <v>7.7076045828694574E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -5120,10 +5120,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>3.4879745172831799E-3</v>
+        <v>5.78263512800765E-3</v>
       </c>
       <c r="C7">
-        <v>3.5509462438853799E-3</v>
+        <v>5.8932787491173602E-3</v>
       </c>
       <c r="D7">
         <v>174</v>
@@ -5137,11 +5137,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>7.3292235890992799E-3</v>
+        <v>9.7898393279955108E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>5.2300259460624325E-3</v>
+        <v>7.698571346287578E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -5157,10 +5157,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>5.93133247162722E-3</v>
+        <v>8.8844377653602494E-3</v>
       </c>
       <c r="C8">
-        <v>5.9426574366567998E-3</v>
+        <v>8.9152651791802595E-3</v>
       </c>
       <c r="D8">
         <v>175</v>
@@ -5174,11 +5174,11 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>2.636505176513625E-2</v>
+        <v>2.8455973278636724E-2</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="6"/>
-        <v>5.1440464029135725E-3</v>
+        <v>7.2175065244111805E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="6"/>
@@ -5194,10 +5194,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>4.5941884399544903E-3</v>
+        <v>6.81712156562488E-3</v>
       </c>
       <c r="C9">
-        <v>4.5501510966333399E-3</v>
+        <v>6.81154847828836E-3</v>
       </c>
       <c r="D9">
         <v>176</v>
@@ -5211,11 +5211,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>0.21570133620613702</v>
+        <v>0.21783457187157601</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>5.9336495056712991E-3</v>
+        <v>8.0646069357878918E-3</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -5231,10 +5231,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10">
-        <v>6.7620873510177296E-3</v>
+        <v>9.2509202305463296E-3</v>
       </c>
       <c r="C10">
-        <v>6.8854563397980099E-3</v>
+        <v>9.3440025325722993E-3</v>
       </c>
       <c r="D10">
         <v>177</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>5.1440464029135725E-3</v>
+        <v>7.2175065244111805E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -5252,10 +5252,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11">
-        <v>3.47503049511321E-3</v>
+        <v>5.7380337362425201E-3</v>
       </c>
       <c r="C11">
-        <v>3.5386606874062199E-3</v>
+        <v>5.8401820214488802E-3</v>
       </c>
       <c r="D11">
         <v>178</v>
@@ -5269,10 +5269,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12">
-        <v>5.9915450460548596E-3</v>
+        <v>8.8519345014061307E-3</v>
       </c>
       <c r="C12">
-        <v>6.0227333945281096E-3</v>
+        <v>8.9265846152188598E-3</v>
       </c>
       <c r="D12">
         <v>179</v>
@@ -5286,10 +5286,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13">
-        <v>4.8243769538836301E-3</v>
+        <v>6.8805290539336299E-3</v>
       </c>
       <c r="C13">
-        <v>4.7510256990790298E-3</v>
+        <v>6.8749981708353001E-3</v>
       </c>
       <c r="D13">
         <v>180</v>
@@ -5303,10 +5303,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>6.9613902699909597E-3</v>
+        <v>9.22120138531244E-3</v>
       </c>
       <c r="C14">
-        <v>7.0600131220078096E-3</v>
+        <v>9.29090696610981E-3</v>
       </c>
       <c r="D14">
         <v>181</v>
@@ -5320,10 +5320,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>3.55436517326514E-3</v>
+        <v>5.6812327555557599E-3</v>
       </c>
       <c r="C15">
-        <v>3.5796228477943501E-3</v>
+        <v>5.7686081839890399E-3</v>
       </c>
       <c r="D15">
         <v>182</v>
@@ -5337,10 +5337,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>6.6278196718025E-3</v>
+        <v>8.8871383002098597E-3</v>
       </c>
       <c r="C16">
-        <v>6.5677891827270896E-3</v>
+        <v>8.9213691852232293E-3</v>
       </c>
       <c r="D16">
         <v>183</v>
@@ -5354,10 +5354,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>4.5628687455259902E-3</v>
+        <v>6.8785166073166096E-3</v>
       </c>
       <c r="C17">
-        <v>4.4857424129790902E-3</v>
+        <v>6.8546479237796302E-3</v>
       </c>
       <c r="D17">
         <v>184</v>
@@ -5371,10 +5371,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>6.8464488191883697E-3</v>
+        <v>9.1928174907836696E-3</v>
       </c>
       <c r="C18">
-        <v>6.7202494291093498E-3</v>
+        <v>9.0913339518010599E-3</v>
       </c>
       <c r="D18">
         <v>185</v>
@@ -5388,10 +5388,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>3.6834122000049901E-3</v>
+        <v>6.0469547840707599E-3</v>
       </c>
       <c r="C19">
-        <v>3.5371684080249101E-3</v>
+        <v>5.9406578281446304E-3</v>
       </c>
       <c r="D19">
         <v>186</v>
@@ -5405,10 +5405,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>6.6775070986698701E-3</v>
+        <v>8.9976985974213695E-3</v>
       </c>
       <c r="C20">
-        <v>6.4792498132756199E-3</v>
+        <v>8.75080431092389E-3</v>
       </c>
       <c r="D20">
         <v>187</v>
@@ -5422,10 +5422,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>5.1672531710348097E-3</v>
+        <v>7.2462623938918096E-3</v>
       </c>
       <c r="C21">
-        <v>4.9172088185537397E-3</v>
+        <v>7.0476222406082503E-3</v>
       </c>
       <c r="D21">
         <v>188</v>
@@ -5439,10 +5439,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22" s="4">
-        <v>8.5986753383392005E-3</v>
+        <v>1.1250231910166801E-2</v>
       </c>
       <c r="C22" s="4">
-        <v>6.5702749769898901E-3</v>
+        <v>9.14039982694991E-3</v>
       </c>
       <c r="D22" s="4">
         <v>189</v>
@@ -5456,10 +5456,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23" s="4">
-        <v>5.5460158641202498E-3</v>
+        <v>7.8808035395002002E-3</v>
       </c>
       <c r="C23" s="4">
-        <v>3.5056631829400902E-3</v>
+        <v>5.8779234502794597E-3</v>
       </c>
       <c r="D23" s="4">
         <v>190</v>
@@ -5473,10 +5473,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24" s="4">
-        <v>8.3428928274896993E-3</v>
+        <v>1.10269392946664E-2</v>
       </c>
       <c r="C24" s="4">
-        <v>6.1957367188945596E-3</v>
+        <v>8.8815555990308104E-3</v>
       </c>
       <c r="D24" s="4">
         <v>191</v>
@@ -5490,10 +5490,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25" s="4">
-        <v>6.8293103264479701E-3</v>
+        <v>9.0013825676486404E-3</v>
       </c>
       <c r="C25" s="4">
-        <v>4.6484289054251901E-3</v>
+        <v>6.8944065088901302E-3</v>
       </c>
       <c r="D25" s="4">
         <v>192</v>
@@ -5507,10 +5507,10 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="2">
-        <v>2.8401250113980599E-2</v>
+        <v>2.9655917771632099E-2</v>
       </c>
       <c r="C26" s="2">
-        <v>7.0457514316503702E-3</v>
+        <v>8.2988153695117001E-3</v>
       </c>
       <c r="D26" s="2">
         <v>193</v>
@@ -5525,10 +5525,10 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="2">
-        <v>2.3997702128902201E-2</v>
+        <v>2.6445430314427601E-2</v>
       </c>
       <c r="C27" s="2">
-        <v>3.1670448959722499E-3</v>
+        <v>5.5886902433784696E-3</v>
       </c>
       <c r="D27" s="2">
         <v>194</v>
@@ -5543,10 +5543,10 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="2">
-        <v>2.7554209426611201E-2</v>
+        <v>2.9855715511720299E-2</v>
       </c>
       <c r="C28" s="2">
-        <v>5.9242550153992598E-3</v>
+        <v>8.2246695079286596E-3</v>
       </c>
       <c r="D28" s="2">
         <v>195</v>
@@ -5561,10 +5561,10 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="2">
-        <v>2.5507045391051E-2</v>
+        <v>2.7866829516766899E-2</v>
       </c>
       <c r="C29" s="2">
-        <v>4.4391342686324097E-3</v>
+        <v>6.7578509768258903E-3</v>
       </c>
       <c r="D29" s="2">
         <v>196</v>
@@ -5579,10 +5579,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.21756833244728099</v>
+        <v>0.219567153838616</v>
       </c>
       <c r="C30">
-        <v>7.5269080934267998E-3</v>
+        <v>8.9883078361236504E-3</v>
       </c>
       <c r="D30">
         <v>197</v>
@@ -5596,10 +5596,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>0.21305504384674601</v>
+        <v>0.214728905430322</v>
       </c>
       <c r="C31">
-        <v>4.75092170040913E-3</v>
+        <v>6.8305068755451599E-3</v>
       </c>
       <c r="D31">
         <v>198</v>
@@ -5613,10 +5613,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>0.21897726930394901</v>
+        <v>0.222239754245251</v>
       </c>
       <c r="C32">
-        <v>6.2163354168775697E-3</v>
+        <v>8.7984160025002794E-3</v>
       </c>
       <c r="D32">
         <v>199</v>
@@ -5630,10 +5630,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.21320469922657201</v>
+        <v>0.21480247397211499</v>
       </c>
       <c r="C33">
-        <v>5.2404328119716997E-3</v>
+        <v>7.6411970289824802E-3</v>
       </c>
       <c r="D33">
         <v>200</v>
@@ -5697,10 +5697,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>1.77884578577296E-3</v>
+        <v>4.0384632013263496E-3</v>
       </c>
       <c r="C2">
-        <v>1.7971621967757801E-3</v>
+        <v>4.0268953064385802E-3</v>
       </c>
       <c r="D2">
         <v>201</v>
@@ -5714,11 +5714,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>1.5237353978289998E-3</v>
+        <v>3.7397458129058148E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>1.53837799200717E-3</v>
+        <v>3.7676355008719603E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -5734,10 +5734,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3">
-        <v>1.28747296303059E-3</v>
+        <v>3.5011249543968402E-3</v>
       </c>
       <c r="C3">
-        <v>1.32012235065568E-3</v>
+        <v>3.5706751867892999E-3</v>
       </c>
       <c r="D3">
         <v>202</v>
@@ -5751,11 +5751,11 @@
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>1.5022019895718974E-3</v>
+        <v>3.7208154725628575E-3</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>1.5155407872722924E-3</v>
+        <v>3.7503801418845525E-3</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="1"/>
@@ -5771,10 +5771,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4">
-        <v>1.5693911941496599E-3</v>
+        <v>3.7465143880575499E-3</v>
       </c>
       <c r="C4">
-        <v>1.58037587298858E-3</v>
+        <v>3.7872795239562401E-3</v>
       </c>
       <c r="D4">
         <v>203</v>
@@ -5788,11 +5788,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>1.5225026333499901E-3</v>
+        <v>3.7427689808948728E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>1.5350730052288526E-3</v>
+        <v>3.7712462753340349E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -5808,10 +5808,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5">
-        <v>1.45923164836279E-3</v>
+        <v>3.6728807078425202E-3</v>
       </c>
       <c r="C5">
-        <v>1.4558515476086401E-3</v>
+        <v>3.6856919863037202E-3</v>
       </c>
       <c r="D5">
         <v>204</v>
@@ -5825,11 +5825,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>1.5492305724220125E-3</v>
+        <v>3.76078909653043E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>1.5427397956034176E-3</v>
+        <v>3.7704254640560974E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -5845,10 +5845,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>1.7587118144414E-3</v>
+        <v>3.9884060885235096E-3</v>
       </c>
       <c r="C6">
-        <v>1.7738830168507499E-3</v>
+        <v>3.9746293627149999E-3</v>
       </c>
       <c r="D6">
         <v>205</v>
@@ -5862,11 +5862,11 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>1.7164201858663975E-3</v>
+        <v>3.9335404453016047E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>1.5243585339358302E-3</v>
+        <v>3.7543108963843724E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -5882,10 +5882,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>1.2720715726138401E-3</v>
+        <v>3.5001326316765899E-3</v>
       </c>
       <c r="C7">
-        <v>1.3032096122756901E-3</v>
+        <v>3.5751074688108201E-3</v>
       </c>
       <c r="D7">
         <v>206</v>
@@ -5899,11 +5899,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>3.577948844128515E-3</v>
+        <v>5.7984778700562447E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>1.5213765208373599E-3</v>
+        <v>3.7537699873276195E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -5919,10 +5919,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>1.5196850594536499E-3</v>
+        <v>3.7439423405630501E-3</v>
       </c>
       <c r="C8">
-        <v>1.5300526828917701E-3</v>
+        <v>3.7866149427769999E-3</v>
       </c>
       <c r="D8">
         <v>207</v>
@@ -5936,11 +5936,11 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>2.2106779765954598E-2</v>
+        <v>2.4334474116753574E-2</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="6"/>
-        <v>1.4620949248960076E-3</v>
+        <v>3.6762929057313327E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="6"/>
@@ -5956,10 +5956,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>1.4583395117787001E-3</v>
+        <v>3.6507808294882799E-3</v>
       </c>
       <c r="C9">
-        <v>1.4550178370709599E-3</v>
+        <v>3.66516879323539E-3</v>
       </c>
       <c r="D9">
         <v>208</v>
@@ -5973,11 +5973,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>0.20683521454691076</v>
+        <v>0.20901326358223399</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>2.3684965806152576E-3</v>
+        <v>4.5749682452694675E-3</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -5993,10 +5993,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10">
-        <v>1.7628746424582101E-3</v>
+        <v>4.0073682447290303E-3</v>
       </c>
       <c r="C10">
-        <v>1.77892342893571E-3</v>
+        <v>3.9986526811660403E-3</v>
       </c>
       <c r="D10">
         <v>209</v>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>1.4620949248960076E-3</v>
+        <v>3.6762929057313327E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -6014,10 +6014,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11">
-        <v>1.2881169014070501E-3</v>
+        <v>3.5228688406289299E-3</v>
       </c>
       <c r="C11">
-        <v>1.31927758508326E-3</v>
+        <v>3.5921941788371898E-3</v>
       </c>
       <c r="D11">
         <v>210</v>
@@ -6031,10 +6031,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12">
-        <v>1.5662641792445399E-3</v>
+        <v>3.7602942101776001E-3</v>
       </c>
       <c r="C12">
-        <v>1.57500272233605E-3</v>
+        <v>3.8014800063794099E-3</v>
       </c>
       <c r="D12">
         <v>211</v>
@@ -6048,10 +6048,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13">
-        <v>1.47275481029016E-3</v>
+        <v>3.6805446280439298E-3</v>
       </c>
       <c r="C13">
-        <v>1.4670882845603901E-3</v>
+        <v>3.6926582349534999E-3</v>
       </c>
       <c r="D13">
         <v>212</v>
@@ -6065,10 +6065,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>1.8239443770247899E-3</v>
+        <v>4.0778019154076497E-3</v>
       </c>
       <c r="C14">
-        <v>1.82267447898187E-3</v>
+        <v>4.0491340310560304E-3</v>
       </c>
       <c r="D14">
         <v>213</v>
@@ -6082,10 +6082,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>1.29476885213427E-3</v>
+        <v>3.50173513381297E-3</v>
       </c>
       <c r="C15">
-        <v>1.3061533799937201E-3</v>
+        <v>3.5555749937090301E-3</v>
       </c>
       <c r="D15">
         <v>214</v>
@@ -6099,10 +6099,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>1.57254306187224E-3</v>
+        <v>3.76544452485907E-3</v>
       </c>
       <c r="C16">
-        <v>1.5644293935686501E-3</v>
+        <v>3.7861081647769098E-3</v>
       </c>
       <c r="D16">
         <v>215</v>
@@ -6116,10 +6116,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>1.50566599865675E-3</v>
+        <v>3.6981748120420298E-3</v>
       </c>
       <c r="C17">
-        <v>1.47770192986943E-3</v>
+        <v>3.69088466668242E-3</v>
       </c>
       <c r="D17">
         <v>216</v>
@@ -6133,10 +6133,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>1.9946430533958198E-3</v>
+        <v>4.21159455677268E-3</v>
       </c>
       <c r="C18">
-        <v>1.80691802473385E-3</v>
+        <v>3.9898960945443998E-3</v>
       </c>
       <c r="D18">
         <v>217</v>
@@ -6150,10 +6150,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>1.4655526073435901E-3</v>
+        <v>3.70549269845104E-3</v>
       </c>
       <c r="C19">
-        <v>1.29217443150715E-3</v>
+        <v>3.5705650991559698E-3</v>
       </c>
       <c r="D19">
         <v>218</v>
@@ -6167,10 +6167,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>1.7352977079475699E-3</v>
+        <v>3.9406380420372701E-3</v>
       </c>
       <c r="C20">
-        <v>1.54093246836262E-3</v>
+        <v>3.7725597113087901E-3</v>
       </c>
       <c r="D20">
         <v>219</v>
@@ -6184,10 +6184,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>1.6701873747786099E-3</v>
+        <v>3.8764364839454302E-3</v>
       </c>
       <c r="C21">
-        <v>1.4574092111396999E-3</v>
+        <v>3.6842226805283299E-3</v>
       </c>
       <c r="D21">
         <v>220</v>
@@ -6201,10 +6201,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>3.87979635915416E-3</v>
+        <v>6.0778152031503597E-3</v>
       </c>
       <c r="C22">
-        <v>1.82451998455379E-3</v>
+        <v>3.98582525999297E-3</v>
       </c>
       <c r="D22">
         <v>221</v>
@@ -6218,10 +6218,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>3.3347941252883399E-3</v>
+        <v>5.5439883582056697E-3</v>
       </c>
       <c r="C23">
-        <v>1.30460995155139E-3</v>
+        <v>3.5493051827755499E-3</v>
       </c>
       <c r="D23">
         <v>222</v>
@@ -6235,10 +6235,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>3.5897746109729901E-3</v>
+        <v>5.82424509724613E-3</v>
       </c>
       <c r="C24">
-        <v>1.5202578425383799E-3</v>
+        <v>3.7837155322438098E-3</v>
       </c>
       <c r="D24">
         <v>223</v>
@@ -6252,10 +6252,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>3.50743028109857E-3</v>
+        <v>5.7478628216228204E-3</v>
       </c>
       <c r="C25">
-        <v>1.43611830470588E-3</v>
+        <v>3.6962339742981501E-3</v>
       </c>
       <c r="D25">
         <v>224</v>
@@ -6269,10 +6269,10 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="2">
-        <v>2.2420305355339201E-2</v>
+        <v>2.4705903391074899E-2</v>
       </c>
       <c r="C26" s="2">
-        <v>1.69412703459634E-3</v>
+        <v>3.9024235521549198E-3</v>
       </c>
       <c r="D26" s="2">
         <v>225</v>
@@ -6287,10 +6287,10 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="2">
-        <v>2.1794526950474E-2</v>
+        <v>2.40403490057986E-2</v>
       </c>
       <c r="C27" s="2">
-        <v>1.2796084113607599E-3</v>
+        <v>3.5077873941605198E-3</v>
       </c>
       <c r="D27" s="2">
         <v>226</v>
@@ -6305,10 +6305,10 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="2">
-        <v>2.2170726981037701E-2</v>
+        <v>2.43036982241519E-2</v>
       </c>
       <c r="C28" s="2">
-        <v>1.4557357246787099E-3</v>
+        <v>3.6244148541760501E-3</v>
       </c>
       <c r="D28" s="2">
         <v>227</v>
@@ -6323,10 +6323,10 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="2">
-        <v>2.20415597769675E-2</v>
+        <v>2.4287945845988899E-2</v>
       </c>
       <c r="C29" s="2">
-        <v>1.4189085289482201E-3</v>
+        <v>3.6705458224338401E-3</v>
       </c>
       <c r="D29" s="2">
         <v>228</v>
@@ -6341,10 +6341,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.20799754417625901</v>
+        <v>0.210035768094336</v>
       </c>
       <c r="C30">
-        <v>2.7043908463107199E-3</v>
+        <v>4.8606640871472701E-3</v>
       </c>
       <c r="D30">
         <v>229</v>
@@ -6358,10 +6358,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>0.20661122736277801</v>
+        <v>0.20823170320623199</v>
       </c>
       <c r="C31">
-        <v>2.19636327952523E-3</v>
+        <v>4.3580967526222697E-3</v>
       </c>
       <c r="D31">
         <v>230</v>
@@ -6375,10 +6375,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>0.20613657403144101</v>
+        <v>0.20882376354591101</v>
       </c>
       <c r="C32">
-        <v>2.21232969691104E-3</v>
+        <v>4.4677223055328702E-3</v>
       </c>
       <c r="D32">
         <v>231</v>
@@ -6392,10 +6392,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.20659551261716499</v>
+        <v>0.20896181948245701</v>
       </c>
       <c r="C33">
-        <v>2.3609024997140399E-3</v>
+        <v>4.61338983577546E-3</v>
       </c>
       <c r="D33">
         <v>232</v>
@@ -6414,7 +6414,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6459,10 +6459,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>9.9767008242152705E-4</v>
+        <v>3.2041017300844998E-3</v>
       </c>
       <c r="C2">
-        <v>9.8618136827916393E-4</v>
+        <v>3.1560747206352499E-3</v>
       </c>
       <c r="D2">
         <v>233</v>
@@ -6476,11 +6476,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>9.5947488151027979E-4</v>
+        <v>3.1580494262260176E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>9.6096264627980213E-4</v>
+        <v>3.1600658018495599E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -6496,10 +6496,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3">
-        <v>9.2148025555107598E-4</v>
+        <v>3.1005940615785599E-3</v>
       </c>
       <c r="C3">
-        <v>9.3177945612446403E-4</v>
+        <v>3.1345281307880199E-3</v>
       </c>
       <c r="D3">
         <v>234</v>
@@ -6513,11 +6513,11 @@
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>9.597589274568585E-4</v>
+        <v>3.1558697782501448E-3</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>9.6084900097950917E-4</v>
+        <v>3.1578474025289148E-3</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="1"/>
@@ -6533,10 +6533,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4">
-        <v>9.5339407274029403E-4</v>
+        <v>3.1555442767330802E-3</v>
       </c>
       <c r="C4">
-        <v>9.59990674311507E-4</v>
+        <v>3.1796586080866901E-3</v>
       </c>
       <c r="D4">
         <v>235</v>
@@ -6550,11 +6550,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>9.6764815684865948E-4</v>
+        <v>3.1568504590615476E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>9.6702461626050522E-4</v>
+        <v>3.1564704472599849E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -6570,10 +6570,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5">
-        <v>9.65355115328222E-4</v>
+        <v>3.1719576365079301E-3</v>
       </c>
       <c r="C5">
-        <v>9.6589908640407301E-4</v>
+        <v>3.1700017478882799E-3</v>
       </c>
       <c r="D5">
         <v>236</v>
@@ -6587,11 +6587,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>9.8158269038292893E-4</v>
+        <v>3.175521086635115E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>9.6236621792268997E-4</v>
+        <v>3.1566609587237397E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -6607,10 +6607,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>9.9518094896175208E-4</v>
+        <v>3.2027931712841498E-3</v>
       </c>
       <c r="C6">
-        <v>9.8326038554475792E-4</v>
+        <v>3.1545166415457098E-3</v>
       </c>
       <c r="D6">
         <v>237</v>
@@ -6624,11 +6624,11 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>1.1655166177521625E-3</v>
+        <v>3.36011326775109E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>9.6219996708044411E-4</v>
+        <v>3.1569051671230851E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -6644,10 +6644,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>9.2647618951853105E-4</v>
+        <v>3.1030602074754799E-3</v>
       </c>
       <c r="C7">
-        <v>9.3685688386093498E-4</v>
+        <v>3.1377589683743898E-3</v>
       </c>
       <c r="D7">
         <v>238</v>
@@ -6661,11 +6661,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>3.0047134572518028E-3</v>
+        <v>5.2062104472491719E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>9.5432318096444024E-4</v>
+        <v>3.1550228168386201E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -6681,10 +6681,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>9.4991779090991297E-4</v>
+        <v>3.1531401180897199E-3</v>
       </c>
       <c r="C8">
-        <v>9.5643786215400203E-4</v>
+        <v>3.1770046835741601E-3</v>
       </c>
       <c r="D8">
         <v>239</v>
@@ -6698,11 +6698,11 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>2.1383219841903348E-2</v>
+        <v>2.3579426456433177E-2</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="6"/>
-        <v>9.4416983778547155E-4</v>
+        <v>3.1168406307579373E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="6"/>
@@ -6718,10 +6718,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>9.6746078043723801E-4</v>
+        <v>3.1644856161512302E-3</v>
       </c>
       <c r="C9">
-        <v>9.6684087235834198E-4</v>
+        <v>3.1621093166213999E-3</v>
       </c>
       <c r="D9">
         <v>240</v>
@@ -6735,11 +6735,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>0.20498049949495098</v>
+        <v>0.20700752498290351</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>1.7196528887659076E-3</v>
+        <v>3.8850516805873253E-3</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -6755,10 +6755,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10">
-        <v>1.01159085570194E-3</v>
+        <v>3.2025251519708499E-3</v>
       </c>
       <c r="C10">
-        <v>9.9797288171027398E-4</v>
+        <v>3.15217004758836E-3</v>
       </c>
       <c r="D10">
         <v>241</v>
@@ -6768,7 +6768,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>9.4416983778547155E-4</v>
+        <v>3.1168406307579373E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -6776,10 +6776,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11">
-        <v>9.3718886821004101E-4</v>
+        <v>3.1018076797786598E-3</v>
       </c>
       <c r="C11">
-        <v>9.4636894623996502E-4</v>
+        <v>3.1337794417491799E-3</v>
       </c>
       <c r="D11">
         <v>242</v>
@@ -6793,10 +6793,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12">
-        <v>9.4727720000064002E-4</v>
+        <v>3.1489402133102599E-3</v>
       </c>
       <c r="C12">
-        <v>9.5147071362036803E-4</v>
+        <v>3.1706255630743201E-3</v>
       </c>
       <c r="D12">
         <v>243</v>
@@ -6810,10 +6810,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13">
-        <v>9.74535703482017E-4</v>
+        <v>3.1741287911864198E-3</v>
       </c>
       <c r="C13">
-        <v>9.7228592347141395E-4</v>
+        <v>3.1693067366280799E-3</v>
       </c>
       <c r="D13">
         <v>244</v>
@@ -6827,10 +6827,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>1.01748761626484E-3</v>
+        <v>3.22330601144427E-3</v>
       </c>
       <c r="C14">
-        <v>9.8591014931473505E-4</v>
+        <v>3.1547823455184698E-3</v>
       </c>
       <c r="D14">
         <v>245</v>
@@ -6844,10 +6844,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>9.5289946922782402E-4</v>
+        <v>3.1144477660580202E-3</v>
       </c>
       <c r="C15">
-        <v>9.4216007995713905E-4</v>
+        <v>3.1265478928962399E-3</v>
       </c>
       <c r="D15">
         <v>246</v>
@@ -6861,10 +6861,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>9.7016556621395196E-4</v>
+        <v>3.1731954832284501E-3</v>
       </c>
       <c r="C16">
-        <v>9.5622040791130502E-4</v>
+        <v>3.1768820378222E-3</v>
       </c>
       <c r="D16">
         <v>247</v>
@@ -6878,10 +6878,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>9.8577810982510006E-4</v>
+        <v>3.1911350858097199E-3</v>
       </c>
       <c r="C17">
-        <v>9.6517423450758096E-4</v>
+        <v>3.1684315586580501E-3</v>
       </c>
       <c r="D17">
         <v>248</v>
@@ -6895,10 +6895,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>1.2007969369838001E-3</v>
+        <v>3.4098179323580799E-3</v>
       </c>
       <c r="C18">
-        <v>9.8427197279974407E-4</v>
+        <v>3.1551851189541998E-3</v>
       </c>
       <c r="D18">
         <v>249</v>
@@ -6912,10 +6912,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>1.13205815637156E-3</v>
+        <v>3.2988982825590501E-3</v>
       </c>
       <c r="C19">
-        <v>9.3844967682056005E-4</v>
+        <v>3.1270736863813001E-3</v>
       </c>
       <c r="D19">
         <v>250</v>
@@ -6929,10 +6929,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>1.15469757083672E-3</v>
+        <v>3.3540217415652801E-3</v>
       </c>
       <c r="C20">
-        <v>9.5616560503015199E-4</v>
+        <v>3.1721414497145701E-3</v>
       </c>
       <c r="D20">
         <v>251</v>
@@ -6946,10 +6946,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>1.17451380681657E-3</v>
+        <v>3.37771511452195E-3</v>
       </c>
       <c r="C21">
-        <v>9.6991261367132E-4</v>
+        <v>3.17322041344227E-3</v>
       </c>
       <c r="D21">
         <v>252</v>
@@ -6963,10 +6963,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>3.0483196202379902E-3</v>
+        <v>5.2525140523624796E-3</v>
       </c>
       <c r="C22">
-        <v>9.8336595434789795E-4</v>
+        <v>3.14857248405489E-3</v>
       </c>
       <c r="D22">
         <v>253</v>
@@ -6980,10 +6980,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>2.9648033814272598E-3</v>
+        <v>5.1712584577667401E-3</v>
       </c>
       <c r="C23">
-        <v>9.2394243044590003E-4</v>
+        <v>3.1529113891994201E-3</v>
       </c>
       <c r="D23">
         <v>254</v>
@@ -6997,10 +6997,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>2.99146225655112E-3</v>
+        <v>5.2014098386652099E-3</v>
       </c>
       <c r="C24">
-        <v>9.4398948190073601E-4</v>
+        <v>3.1680260354629399E-3</v>
       </c>
       <c r="D24">
         <v>255</v>
@@ -7014,10 +7014,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>3.01426857079084E-3</v>
+        <v>5.1996594402022598E-3</v>
       </c>
       <c r="C25">
-        <v>9.6599485716322697E-4</v>
+        <v>3.1505813586372301E-3</v>
       </c>
       <c r="D25">
         <v>256</v>
@@ -7031,10 +7031,10 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="2">
-        <v>2.14395333236208E-2</v>
+        <v>2.3648382530520901E-2</v>
       </c>
       <c r="C26" s="2">
-        <v>9.7906691334622895E-4</v>
+        <v>3.1159047385135399E-3</v>
       </c>
       <c r="D26" s="2">
         <v>257</v>
@@ -7049,10 +7049,10 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="2">
-        <v>2.1372529847648501E-2</v>
+        <v>2.3531954574842001E-2</v>
       </c>
       <c r="C27" s="2">
-        <v>9.1469166962477005E-4</v>
+        <v>3.09262918662044E-3</v>
       </c>
       <c r="D27" s="2">
         <v>258</v>
@@ -7067,10 +7067,10 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="2">
-        <v>2.1366966376527401E-2</v>
+        <v>2.35708517174179E-2</v>
       </c>
       <c r="C28" s="2">
-        <v>9.4087175948285901E-4</v>
+        <v>3.1304649383866998E-3</v>
       </c>
       <c r="D28" s="2">
         <v>259</v>
@@ -7085,10 +7085,10 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="2">
-        <v>2.1353849819816698E-2</v>
+        <v>2.3566517002951901E-2</v>
       </c>
       <c r="C29" s="2">
-        <v>9.4204900868802798E-4</v>
+        <v>3.1283636595110702E-3</v>
       </c>
       <c r="D29" s="2">
         <v>260</v>
@@ -7103,10 +7103,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.20536400453922399</v>
+        <v>0.20750597319283001</v>
       </c>
       <c r="C30">
-        <v>1.81456569941785E-3</v>
+        <v>3.9371583828867601E-3</v>
       </c>
       <c r="D30">
         <v>261</v>
@@ -7120,10 +7120,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>0.20473173979562601</v>
+        <v>0.206463959603644</v>
       </c>
       <c r="C31">
-        <v>1.6624161832128801E-3</v>
+        <v>3.8017096834941002E-3</v>
       </c>
       <c r="D31">
         <v>262</v>
@@ -7137,10 +7137,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>0.20490716288264901</v>
+        <v>0.206952812286992</v>
       </c>
       <c r="C32">
-        <v>1.6494592094699601E-3</v>
+        <v>3.8720256195085298E-3</v>
       </c>
       <c r="D32">
         <v>263</v>
@@ -7154,10 +7154,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.204919090762305</v>
+        <v>0.20710735484814799</v>
       </c>
       <c r="C33">
-        <v>1.7521704629629401E-3</v>
+        <v>3.92931303645991E-3</v>
       </c>
       <c r="D33">
         <v>264</v>

--- a/eg1.xlsx
+++ b/eg1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B8232C-818D-B643-9D6E-2319EFB33F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDB0353-E0AC-6B49-8539-4D3B136F56AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="5" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -1825,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1938,15 +1938,15 @@
       </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.0102260112762398</v>
+        <v>2.0058465003967201</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>2.7445555382301051E-3</v>
+        <v>2.8229288264261798E-3</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>2.7251304440289873E-3</v>
+        <v>2.7176288483468274E-3</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
@@ -2050,13 +2050,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>2.0102260112762398</v>
+        <v>2.0058465003967201</v>
       </c>
       <c r="C6" s="2">
-        <v>2.7420944467294E-3</v>
+        <v>3.16040960524132E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>2.715E-3</v>
+        <v>2.7151643502803702E-3</v>
       </c>
       <c r="E6" s="2">
         <v>53</v>
@@ -2094,13 +2094,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>2.0102260112762398</v>
+        <v>2.0058465003967201</v>
       </c>
       <c r="C7" s="2">
-        <v>2.7180931704957902E-3</v>
+        <v>2.7131041043154899E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>2.7339738510737599E-3</v>
+        <v>2.7122357696817601E-3</v>
       </c>
       <c r="E7" s="2">
         <v>54</v>
@@ -2138,13 +2138,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>2.0102260112762398</v>
+        <v>2.0058465003967201</v>
       </c>
       <c r="C8" s="2">
-        <v>2.7877355251794498E-3</v>
+        <v>2.7096574220371399E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.7327790879939102E-3</v>
+        <v>2.7211978214613099E-3</v>
       </c>
       <c r="E8" s="2">
         <v>55</v>
@@ -2162,13 +2162,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>2.0102260112762398</v>
+        <v>2.0058465003967201</v>
       </c>
       <c r="C9" s="2">
-        <v>2.7302990105157799E-3</v>
+        <v>2.7085441741107699E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>2.71876883704828E-3</v>
+        <v>2.7219174519638699E-3</v>
       </c>
       <c r="E9" s="2">
         <v>56</v>
@@ -4079,8 +4079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9902717B-D473-4C4C-BD56-0A1D1459D334}">
   <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4125,10 +4125,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="4">
-        <v>2.7322532354702202E-3</v>
+        <v>2.71495077441064E-3</v>
       </c>
       <c r="C2" s="4">
-        <v>2.7169999999999998E-3</v>
+        <v>2.71648977752448E-3</v>
       </c>
       <c r="D2" s="4">
         <v>137</v>
@@ -4142,11 +4142,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>2.7223501044634927E-3</v>
+        <v>2.713467969250395E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>2.7276167038298525E-3</v>
+        <v>2.7232418621056928E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -4162,10 +4162,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="4">
-        <v>2.7191052332330001E-3</v>
+        <v>2.7145446408416902E-3</v>
       </c>
       <c r="C3" s="4">
-        <v>2.73353888806474E-3</v>
+        <v>2.7265802593574901E-3</v>
       </c>
       <c r="D3" s="4">
         <v>138</v>
@@ -4179,11 +4179,11 @@
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.7222436874697201E-3</v>
+        <v>2.7134848934483348E-3</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>2.7167853314276199E-3</v>
+        <v>2.7232884649971553E-3</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="1"/>
@@ -4199,10 +4199,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="4">
-        <v>2.7189252625841398E-3</v>
+        <v>2.7118175683362501E-3</v>
       </c>
       <c r="C4" s="4">
-        <v>2.7374724055864298E-3</v>
+        <v>2.7235899500450802E-3</v>
       </c>
       <c r="D4" s="4">
         <v>139</v>
@@ -4216,11 +4216,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>2.72228690823867E-3</v>
+        <v>2.7132698246031652E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>2.7156950312053523E-3</v>
+        <v>2.7232565866015276E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -4236,10 +4236,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="4">
-        <v>2.7191166865666101E-3</v>
+        <v>2.7125588934130002E-3</v>
       </c>
       <c r="C5" s="4">
-        <v>2.7224555216682402E-3</v>
+        <v>2.72630746149572E-3</v>
       </c>
       <c r="D5" s="4">
         <v>140</v>
@@ -4253,11 +4253,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>2.7221736506359527E-3</v>
+        <v>2.7136831507927773E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>2.7161573385525023E-3</v>
+        <v>2.7242216966809323E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -4273,10 +4273,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="4">
-        <v>2.7330723545029001E-3</v>
+        <v>2.7152537460549599E-3</v>
       </c>
       <c r="C6" s="4">
-        <v>2.6722244499840599E-3</v>
+        <v>2.71780446800811E-3</v>
       </c>
       <c r="D6" s="4">
         <v>141</v>
@@ -4291,11 +4291,11 @@
       </c>
       <c r="K6" s="2">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>2.7279906263485624E-3</v>
+        <v>2.7176678630201302E-3</v>
       </c>
       <c r="L6" s="2">
         <f t="shared" si="4"/>
-        <v>2.7226194830705626E-3</v>
+        <v>2.7285818839772424E-3</v>
       </c>
       <c r="M6" s="2">
         <f t="shared" si="4"/>
@@ -4311,10 +4311,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="4">
-        <v>2.7180551558721E-3</v>
+        <v>2.7151749728838298E-3</v>
       </c>
       <c r="C7" s="4">
-        <v>2.7334213262730301E-3</v>
+        <v>2.7256472109767902E-3</v>
       </c>
       <c r="D7" s="4">
         <v>142</v>
@@ -4329,11 +4329,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>2.7462136022338877E-3</v>
+        <v>2.7395541543019947E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.7529789235065574E-3</v>
+        <v>2.7506389464210823E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -4349,10 +4349,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="4">
-        <v>2.7186105120034399E-3</v>
+        <v>2.7117916102837002E-3</v>
       </c>
       <c r="C8" s="4">
-        <v>2.7359612079785201E-3</v>
+        <v>2.7239167360229399E-3</v>
       </c>
       <c r="D8" s="4">
         <v>143</v>
@@ -4367,11 +4367,11 @@
       </c>
       <c r="K8">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>3.5583205718603601E-3</v>
+        <v>3.6822236205875775E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>3.4322253129256347E-3</v>
+        <v>3.4535670471214251E-3</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
@@ -4387,10 +4387,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="4">
-        <v>2.71923672750044E-3</v>
+        <v>2.7117192445708501E-3</v>
       </c>
       <c r="C9" s="4">
-        <v>2.72553434147487E-3</v>
+        <v>2.7257854449807802E-3</v>
       </c>
       <c r="D9" s="4">
         <v>144</v>
@@ -4405,11 +4405,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>2.3426274053407227E-2</v>
+        <v>2.2187644030231025E-2</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>1.9735012990363548E-2</v>
+        <v>1.9814795244121552E-2</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -4425,10 +4425,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="4">
-        <v>2.7323343445912899E-3</v>
+        <v>2.7146844176928302E-3</v>
       </c>
       <c r="C10" s="4">
-        <v>2.67270380112377E-3</v>
+        <v>2.7175255797868701E-3</v>
       </c>
       <c r="D10" s="4">
         <v>145</v>
@@ -4438,7 +4438,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>2.7156950312053523E-3</v>
+        <v>2.7232418621056928E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -4446,10 +4446,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="4">
-        <v>2.7174846270678001E-3</v>
+        <v>2.7141201039078701E-3</v>
       </c>
       <c r="C11" s="4">
-        <v>2.7317232953360899E-3</v>
+        <v>2.7260755683017599E-3</v>
       </c>
       <c r="D11" s="4">
         <v>146</v>
@@ -4463,10 +4463,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="4">
-        <v>2.7201708700781602E-3</v>
+        <v>2.7116188545616899E-3</v>
       </c>
       <c r="C12" s="4">
-        <v>2.7359453224447298E-3</v>
+        <v>2.7237093717415299E-3</v>
       </c>
       <c r="D12" s="4">
         <v>147</v>
@@ -4480,10 +4480,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="4">
-        <v>2.7191577912174299E-3</v>
+        <v>2.7126559222502701E-3</v>
       </c>
       <c r="C13" s="4">
-        <v>2.7224077059168198E-3</v>
+        <v>2.7257158265759501E-3</v>
       </c>
       <c r="D13" s="4">
         <v>148</v>
@@ -4497,10 +4497,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>2.73145388026302E-3</v>
+        <v>2.71572484142487E-3</v>
       </c>
       <c r="C14">
-        <v>2.6729916446382399E-3</v>
+        <v>2.7183245115897101E-3</v>
       </c>
       <c r="D14">
         <v>149</v>
@@ -4514,10 +4514,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>2.7184013973552499E-3</v>
+        <v>2.7139760504603901E-3</v>
       </c>
       <c r="C15">
-        <v>2.7317436252826698E-3</v>
+        <v>2.7281081001682699E-3</v>
       </c>
       <c r="D15">
         <v>150</v>
@@ -4531,10 +4531,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>2.7191661589871098E-3</v>
+        <v>2.7127812923206998E-3</v>
       </c>
       <c r="C16">
-        <v>2.7364052336993098E-3</v>
+        <v>2.7237336290183299E-3</v>
       </c>
       <c r="D16">
         <v>151</v>
@@ -4548,10 +4548,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>2.7196731659384298E-3</v>
+        <v>2.7122504189651502E-3</v>
       </c>
       <c r="C17">
-        <v>2.72348885058979E-3</v>
+        <v>2.7267205459474198E-3</v>
       </c>
       <c r="D17">
         <v>152</v>
@@ -4565,10 +4565,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18" s="2">
-        <v>2.7393787175404999E-3</v>
+        <v>2.7178987103723602E-3</v>
       </c>
       <c r="C18" s="2">
-        <v>2.68084278530618E-3</v>
+        <v>2.7201216455483598E-3</v>
       </c>
       <c r="D18" s="2">
         <v>153</v>
@@ -4582,10 +4582,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19" s="2">
-        <v>2.7226160322062999E-3</v>
+        <v>2.7187293460018201E-3</v>
       </c>
       <c r="C19" s="2">
-        <v>2.7363640108864799E-3</v>
+        <v>2.7340383844842199E-3</v>
       </c>
       <c r="D19" s="2">
         <v>154</v>
@@ -4599,10 +4599,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20" s="2">
-        <v>2.7243384649566398E-3</v>
+        <v>2.7185059526918802E-3</v>
       </c>
       <c r="C20" s="2">
-        <v>2.7371940757089002E-3</v>
+        <v>2.7285781566445699E-3</v>
       </c>
       <c r="D20" s="2">
         <v>155</v>
@@ -4616,10 +4616,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21" s="2">
-        <v>2.7256292906908102E-3</v>
+        <v>2.7155374430144598E-3</v>
       </c>
       <c r="C21" s="2">
-        <v>2.73607706038069E-3</v>
+        <v>2.7315893492318201E-3</v>
       </c>
       <c r="D21" s="2">
         <v>156</v>
@@ -4633,10 +4633,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>2.7580138507147301E-3</v>
+        <v>2.7391198675849699E-3</v>
       </c>
       <c r="C22">
-        <v>2.7081100948013401E-3</v>
+        <v>2.7413268720633101E-3</v>
       </c>
       <c r="D22">
         <v>157</v>
@@ -4650,10 +4650,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>2.7416199021719802E-3</v>
+        <v>2.7367392301534798E-3</v>
       </c>
       <c r="C23">
-        <v>2.75423517155967E-3</v>
+        <v>2.7535319095477401E-3</v>
       </c>
       <c r="D23">
         <v>158</v>
@@ -4667,10 +4667,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>2.74132349016591E-3</v>
+        <v>2.7471081546552902E-3</v>
       </c>
       <c r="C24">
-        <v>2.7611424050093402E-3</v>
+        <v>2.7543477440383599E-3</v>
       </c>
       <c r="D24">
         <v>159</v>
@@ -4684,10 +4684,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>2.7438971658829301E-3</v>
+        <v>2.7352493648142399E-3</v>
       </c>
       <c r="C25">
-        <v>2.7884280226558801E-3</v>
+        <v>2.7533492600349198E-3</v>
       </c>
       <c r="D25">
         <v>160</v>
@@ -4701,10 +4701,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>3.44008090013203E-3</v>
+        <v>3.7346581204297899E-3</v>
       </c>
       <c r="C26">
-        <v>3.2756104387484299E-3</v>
+        <v>3.3660159168536199E-3</v>
       </c>
       <c r="D26">
         <v>161</v>
@@ -4718,10 +4718,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>3.5601920394685098E-3</v>
+        <v>3.7714131099545198E-3</v>
       </c>
       <c r="C27">
-        <v>3.3387363434450902E-3</v>
+        <v>3.2920226957158798E-3</v>
       </c>
       <c r="D27">
         <v>162</v>
@@ -4735,10 +4735,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>3.42790913297988E-3</v>
+        <v>3.5270182933814201E-3</v>
       </c>
       <c r="C28">
-        <v>3.29725749943924E-3</v>
+        <v>3.4913006320334301E-3</v>
       </c>
       <c r="D28">
         <v>163</v>
@@ -4752,10 +4752,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>3.8051002148610201E-3</v>
+        <v>3.6958049585845798E-3</v>
       </c>
       <c r="C29">
-        <v>3.8172969700697801E-3</v>
+        <v>3.6649289438827701E-3</v>
       </c>
       <c r="D29">
         <v>164</v>
@@ -4769,10 +4769,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>2.8317960205312302E-2</v>
+        <v>2.08821541805123E-2</v>
       </c>
       <c r="C30">
-        <v>1.6517740320649999E-2</v>
+        <v>2.0354421727620701E-2</v>
       </c>
       <c r="D30">
         <v>165</v>
@@ -4786,10 +4786,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>2.25706953077782E-2</v>
+        <v>2.1035505306398201E-2</v>
       </c>
       <c r="C31">
-        <v>2.0239473597582699E-2</v>
+        <v>1.9728684824433799E-2</v>
       </c>
       <c r="D31">
         <v>166</v>
@@ -4803,10 +4803,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>2.1273481442381701E-2</v>
+        <v>2.5807362820620801E-2</v>
       </c>
       <c r="C32">
-        <v>1.94173027773069E-2</v>
+        <v>1.71003519238806E-2</v>
       </c>
       <c r="D32">
         <v>167</v>
@@ -4820,10 +4820,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>2.1542959258156701E-2</v>
+        <v>2.10255538133928E-2</v>
       </c>
       <c r="C33">
-        <v>2.2765535265914599E-2</v>
+        <v>2.20757225005511E-2</v>
       </c>
       <c r="D33">
         <v>168</v>

--- a/eg1.xlsx
+++ b/eg1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDB0353-E0AC-6B49-8539-4D3B136F56AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A3F33C-3A73-AA42-AE0F-C5782A3BD2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="2" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -511,13 +511,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>1.0051130056381199</v>
+        <v>1.00292325019836</v>
       </c>
       <c r="C2">
-        <v>4.7369372935234697</v>
+        <v>5.1700041419581302</v>
       </c>
       <c r="D2">
-        <v>4.73587787000438</v>
+        <v>5.15685933514645</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -531,15 +531,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
-        <v>1.0051130056381199</v>
+        <v>1.00292325019836</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>4.8134259921085949</v>
+        <v>5.1971420399975301</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>4.7453772146490474</v>
+        <v>5.1729481167960545</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
@@ -555,13 +555,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1.0051130056381199</v>
+        <v>1.00292325019836</v>
       </c>
       <c r="C3">
-        <v>4.7747979284841797</v>
+        <v>5.1981685998146903</v>
       </c>
       <c r="D3">
-        <v>4.8216172894345002</v>
+        <v>5.1583973859485797</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -575,15 +575,15 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.0102260112762398</v>
+        <v>2.0058465003967201</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>4.0434067243639371E-3</v>
+        <v>3.15100344749608E-3</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>4.1001253154223077E-3</v>
+        <v>3.163279041345635E-3</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
@@ -599,13 +599,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>1.0051130056381199</v>
+        <v>1.00292325019836</v>
       </c>
       <c r="C4">
-        <v>4.9143579579606804</v>
+        <v>5.2187511126200299</v>
       </c>
       <c r="D4">
-        <v>4.6967655556111296</v>
+        <v>5.1874911785125697</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -619,15 +619,15 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
-        <v>4.0204520225524902</v>
+        <v>4.0116930007934499</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>2.7652662807391747E-3</v>
+        <v>2.7473026232001426E-3</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>2.8119975306046476E-3</v>
+        <v>2.7826306407070251E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
@@ -643,13 +643,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>1.0051130056381199</v>
+        <v>1.00292325019836</v>
       </c>
       <c r="C5">
-        <v>4.8276107884660497</v>
+        <v>5.2016443055972701</v>
       </c>
       <c r="D5">
-        <v>4.7272481435461797</v>
+        <v>5.1890445675766204</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -663,15 +663,15 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
-        <v>8.0409040451049805</v>
+        <v>8.0233860015869105</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="3"/>
-        <v>2.7049768780935774E-3</v>
+        <v>2.7102732667372621E-3</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>2.7741846544491176E-3</v>
+        <v>2.76381532833176E-3</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="3"/>
@@ -687,13 +687,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2.0102260112762398</v>
+        <v>2.0058465003967201</v>
       </c>
       <c r="C6">
-        <v>4.12465941420272E-3</v>
+        <v>3.0941390922587099E-3</v>
       </c>
       <c r="D6">
-        <v>3.9929660844699099E-3</v>
+        <v>3.07949049308438E-3</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -707,15 +707,15 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
-        <v>16.081808090209901</v>
+        <v>16.0467720031738</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>2.7123877809595125E-3</v>
+        <v>2.7122769020742846E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>2.7945339451308174E-3</v>
+        <v>2.7720003594080625E-3</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -731,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2.0102260112762398</v>
+        <v>2.0058465003967201</v>
       </c>
       <c r="C7">
-        <v>4.1768785589669302E-3</v>
+        <v>3.23483065023952E-3</v>
       </c>
       <c r="D7">
-        <v>4.4282032884185802E-3</v>
+        <v>3.2077728190638998E-3</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -751,15 +751,15 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
-        <v>32.163616180419901</v>
+        <v>32.093544006347599</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.7262779156076149E-3</v>
+        <v>2.7244239233703746E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>2.8207608317378599E-3</v>
+        <v>2.78627751150021E-3</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -775,13 +775,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2.0102260112762398</v>
+        <v>2.0058465003967201</v>
       </c>
       <c r="C8">
-        <v>4.4921434814511199E-3</v>
+        <v>3.1539814897992599E-3</v>
       </c>
       <c r="D8">
-        <v>4.4170082163631497E-3</v>
+        <v>3.1812440505937498E-3</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -791,7 +791,7 @@
       </c>
       <c r="M8">
         <f>MIN(M2:M7)</f>
-        <v>2.7741846544491176E-3</v>
+        <v>2.76381532833176E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -799,13 +799,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>2.0102260112762398</v>
+        <v>2.0058465003967201</v>
       </c>
       <c r="C9">
-        <v>3.3799454428349801E-3</v>
+        <v>3.1210625576868298E-3</v>
       </c>
       <c r="D9">
-        <v>3.56232367243759E-3</v>
+        <v>3.1846088026405098E-3</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -819,13 +819,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>4.0204520225524902</v>
+        <v>4.0116930007934499</v>
       </c>
       <c r="C10" s="4">
-        <v>2.7869461970757401E-3</v>
+        <v>2.75205055929785E-3</v>
       </c>
       <c r="D10" s="4">
-        <v>2.7636317536234799E-3</v>
+        <v>2.79084549963539E-3</v>
       </c>
       <c r="E10" s="4">
         <v>9</v>
@@ -839,13 +839,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>4.0204520225524902</v>
+        <v>4.0116930007934499</v>
       </c>
       <c r="C11" s="4">
-        <v>2.7151886031880402E-3</v>
+        <v>2.7551108056254499E-3</v>
       </c>
       <c r="D11" s="4">
-        <v>2.79247099121065E-3</v>
+        <v>2.77714264219659E-3</v>
       </c>
       <c r="E11" s="4">
         <v>10</v>
@@ -859,13 +859,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>4.0204520225524902</v>
+        <v>4.0116930007934499</v>
       </c>
       <c r="C12" s="4">
-        <v>2.8344497815528998E-3</v>
+        <v>2.7389440036035598E-3</v>
       </c>
       <c r="D12" s="4">
-        <v>2.8670264107375498E-3</v>
+        <v>2.7750205767357299E-3</v>
       </c>
       <c r="E12" s="4">
         <v>11</v>
@@ -879,13 +879,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>4.0204520225524902</v>
+        <v>4.0116930007934499</v>
       </c>
       <c r="C13" s="4">
-        <v>2.72448054114002E-3</v>
+        <v>2.7431051242737098E-3</v>
       </c>
       <c r="D13" s="4">
-        <v>2.82486096684691E-3</v>
+        <v>2.78751384426039E-3</v>
       </c>
       <c r="E13" s="4">
         <v>12</v>
@@ -899,13 +899,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>8.0409040451049805</v>
+        <v>8.0233860015869105</v>
       </c>
       <c r="C14" s="4">
-        <v>2.7406069603336E-3</v>
+        <v>2.7094112010672602E-3</v>
       </c>
       <c r="D14" s="4">
-        <v>2.73877515787659E-3</v>
+        <v>2.75665660911615E-3</v>
       </c>
       <c r="E14" s="4">
         <v>13</v>
@@ -919,13 +919,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>8.0409040451049805</v>
+        <v>8.0233860015869105</v>
       </c>
       <c r="C15" s="4">
-        <v>2.6657633907809998E-3</v>
+        <v>2.7079084487795298E-3</v>
       </c>
       <c r="D15" s="4">
-        <v>2.76990589402804E-3</v>
+        <v>2.7625682669806099E-3</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -939,13 +939,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="4">
-        <v>8.0409040451049805</v>
+        <v>8.0233860015869105</v>
       </c>
       <c r="C16" s="4">
-        <v>2.7193826464110898E-3</v>
+        <v>2.7166765260820498E-3</v>
       </c>
       <c r="D16" s="4">
-        <v>2.7921478576439398E-3</v>
+        <v>2.7570638033610402E-3</v>
       </c>
       <c r="E16" s="4">
         <v>15</v>
@@ -959,13 +959,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>8.0409040451049805</v>
+        <v>8.0233860015869105</v>
       </c>
       <c r="C17" s="4">
-        <v>2.6941545148486202E-3</v>
+        <v>2.7070968910202099E-3</v>
       </c>
       <c r="D17" s="4">
-        <v>2.7959097082479001E-3</v>
+        <v>2.7789726338692399E-3</v>
       </c>
       <c r="E17" s="4">
         <v>16</v>
@@ -979,13 +979,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>16.081808090209901</v>
+        <v>16.0467720031738</v>
       </c>
       <c r="C18">
-        <v>2.7402334764033902E-3</v>
+        <v>2.7174771101655098E-3</v>
       </c>
       <c r="D18">
-        <v>2.7593189638249402E-3</v>
+        <v>2.7689673537551799E-3</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -999,13 +999,13 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>16.081808090209901</v>
+        <v>16.0467720031738</v>
       </c>
       <c r="C19">
-        <v>2.67569784110388E-3</v>
+        <v>2.7165084775014402E-3</v>
       </c>
       <c r="D19">
-        <v>2.8049187540206302E-3</v>
+        <v>2.7639018780176001E-3</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1019,13 +1019,13 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>16.081808090209901</v>
+        <v>16.0467720031738</v>
       </c>
       <c r="C20">
-        <v>2.72181298866679E-3</v>
+        <v>2.7168966143539001E-3</v>
       </c>
       <c r="D20">
-        <v>2.80160065504569E-3</v>
+        <v>2.77189307094535E-3</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1039,13 +1039,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>16.081808090209901</v>
+        <v>16.0467720031738</v>
       </c>
       <c r="C21">
-        <v>2.7118068176639901E-3</v>
+        <v>2.6982254062762898E-3</v>
       </c>
       <c r="D21">
-        <v>2.8122974076320098E-3</v>
+        <v>2.7832391349141201E-3</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1059,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <v>32.163616180419901</v>
+        <v>32.093544006347599</v>
       </c>
       <c r="C22">
-        <v>2.7635941824203799E-3</v>
+        <v>2.7293277406052001E-3</v>
       </c>
       <c r="D22">
-        <v>2.7698106545058902E-3</v>
+        <v>2.7830278594863701E-3</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1079,13 +1079,13 @@
         <v>16</v>
       </c>
       <c r="B23">
-        <v>32.163616180419901</v>
+        <v>32.093544006347599</v>
       </c>
       <c r="C23">
-        <v>2.7064558684448598E-3</v>
+        <v>2.7225881757770099E-3</v>
       </c>
       <c r="D23">
-        <v>2.8378029406966598E-3</v>
+        <v>2.77866696195448E-3</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1099,13 +1099,13 @@
         <v>16</v>
       </c>
       <c r="B24">
-        <v>32.163616180419901</v>
+        <v>32.093544006347599</v>
       </c>
       <c r="C24">
-        <v>2.7230005605217E-3</v>
+        <v>2.7277722705580398E-3</v>
       </c>
       <c r="D24">
-        <v>2.8236693248765701E-3</v>
+        <v>2.78182235227799E-3</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1119,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B25">
-        <v>32.163616180419901</v>
+        <v>32.093544006347599</v>
       </c>
       <c r="C25">
-        <v>2.7120610510435201E-3</v>
+        <v>2.7180075065412501E-3</v>
       </c>
       <c r="D25">
-        <v>2.8517604068723202E-3</v>
+        <v>2.801592872282E-3</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1193,13 +1193,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>1.0051130056381199</v>
+        <v>1.00292325019836</v>
       </c>
       <c r="C2">
-        <v>4.7155650876889501</v>
+        <v>5.1969659380975797</v>
       </c>
       <c r="D2">
-        <v>4.7359046030648102</v>
+        <v>5.1568576243885698</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -1213,15 +1213,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
-        <v>1.0051130056381199</v>
+        <v>1.00292325019836</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>4.7788409689429425</v>
+        <v>5.2037414396386801</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>4.7452759320222828</v>
+        <v>5.1729273492829773</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
@@ -1237,13 +1237,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1.0051130056381199</v>
+        <v>1.00292325019836</v>
       </c>
       <c r="C3">
-        <v>4.7463869076625498</v>
+        <v>5.1952167670632203</v>
       </c>
       <c r="D3">
-        <v>4.8215069891531197</v>
+        <v>5.1583465065872396</v>
       </c>
       <c r="E3">
         <v>26</v>
@@ -1257,15 +1257,15 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.0102260112762398</v>
+        <v>2.0058465003967201</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>2.7718137676091973E-3</v>
+        <v>2.7209173347944524E-3</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>2.7747789443517651E-3</v>
+        <v>2.7251174763302478E-3</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
@@ -1281,13 +1281,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>1.0051130056381199</v>
+        <v>1.00292325019836</v>
       </c>
       <c r="C4">
-        <v>4.8392751277631998</v>
+        <v>5.2144427068433004</v>
       </c>
       <c r="D4">
-        <v>4.6967579805398199</v>
+        <v>5.18746385657996</v>
       </c>
       <c r="E4">
         <v>27</v>
@@ -1301,15 +1301,15 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
-        <v>4.0204520225524902</v>
+        <v>4.0116930007934499</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>2.7230160487341152E-3</v>
+        <v>2.7204177243376525E-3</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>2.7446201066722276E-3</v>
+        <v>2.7437522561134125E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
@@ -1325,13 +1325,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>1.0051130056381199</v>
+        <v>1.00292325019836</v>
       </c>
       <c r="C5">
-        <v>4.8141367526570704</v>
+        <v>5.2083403465506199</v>
       </c>
       <c r="D5">
-        <v>4.7269341553313797</v>
+        <v>5.1890414095761397</v>
       </c>
       <c r="E5">
         <v>28</v>
@@ -1345,15 +1345,15 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
-        <v>8.0409040451049805</v>
+        <v>8.0233860015869105</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="3"/>
-        <v>2.6979670981479077E-3</v>
+        <v>2.7028766175063246E-3</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>2.7280712288014477E-3</v>
+        <v>2.7255600690024675E-3</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="3"/>
@@ -1369,13 +1369,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2.0102260112762398</v>
+        <v>2.0058465003967201</v>
       </c>
       <c r="C6">
-        <v>2.7946164656525302E-3</v>
+        <v>2.7248355281018202E-3</v>
       </c>
       <c r="D6">
-        <v>2.7267105282060299E-3</v>
+        <v>2.71894766034133E-3</v>
       </c>
       <c r="E6">
         <v>29</v>
@@ -1389,15 +1389,15 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
-        <v>16.081808090209901</v>
+        <v>16.0467720031738</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>2.6973192769126448E-3</v>
+        <v>2.7052579713792426E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>2.735501584078215E-3</v>
+        <v>2.7304251745686276E-3</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -1413,13 +1413,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2.0102260112762398</v>
+        <v>2.0058465003967201</v>
       </c>
       <c r="C7">
-        <v>2.7725730880288099E-3</v>
+        <v>2.7231157219882499E-3</v>
       </c>
       <c r="D7">
-        <v>2.8058061777036401E-3</v>
+        <v>2.7203284645158899E-3</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -1433,15 +1433,15 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
-        <v>32.163616180419901</v>
+        <v>32.093544006347599</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.7042316112690975E-3</v>
+        <v>2.7061416752152253E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>2.7449793282518977E-3</v>
+        <v>2.7334687602297725E-3</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -1457,13 +1457,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2.0102260112762398</v>
+        <v>2.0058465003967201</v>
       </c>
       <c r="C8">
-        <v>2.77553347924095E-3</v>
+        <v>2.7160127298487902E-3</v>
       </c>
       <c r="D8">
-        <v>2.7930811813831999E-3</v>
+        <v>2.7316397468543098E-3</v>
       </c>
       <c r="E8">
         <v>31</v>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="M8">
         <f>MIN(M2:M7)</f>
-        <v>2.7280712288014477E-3</v>
+        <v>2.7251174763302478E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1481,13 +1481,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>2.0102260112762398</v>
+        <v>2.0058465003967201</v>
       </c>
       <c r="C9">
-        <v>2.7445320375144998E-3</v>
+        <v>2.71970535923895E-3</v>
       </c>
       <c r="D9">
-        <v>2.7735178901141899E-3</v>
+        <v>2.7295540336094602E-3</v>
       </c>
       <c r="E9">
         <v>32</v>
@@ -1501,13 +1501,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>4.0204520225524902</v>
+        <v>4.0116930007934499</v>
       </c>
       <c r="C10" s="4">
-        <v>2.73454994271705E-3</v>
+        <v>2.7147279488177098E-3</v>
       </c>
       <c r="D10" s="4">
-        <v>2.69774538818511E-3</v>
+        <v>2.7315793375141499E-3</v>
       </c>
       <c r="E10" s="4">
         <v>33</v>
@@ -1521,13 +1521,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>4.0204520225524902</v>
+        <v>4.0116930007934499</v>
       </c>
       <c r="C11" s="4">
-        <v>2.7186284271798499E-3</v>
+        <v>2.7302258241806701E-3</v>
       </c>
       <c r="D11" s="4">
-        <v>2.76084098068973E-3</v>
+        <v>2.7485332480354E-3</v>
       </c>
       <c r="E11" s="4">
         <v>34</v>
@@ -1541,13 +1541,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>4.0204520225524902</v>
+        <v>4.0116930007934499</v>
       </c>
       <c r="C12" s="4">
-        <v>2.7356197253747502E-3</v>
+        <v>2.7117272315850399E-3</v>
       </c>
       <c r="D12" s="4">
-        <v>2.7770334088443901E-3</v>
+        <v>2.74249356395254E-3</v>
       </c>
       <c r="E12" s="4">
         <v>35</v>
@@ -1561,13 +1561,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>4.0204520225524902</v>
+        <v>4.0116930007934499</v>
       </c>
       <c r="C13" s="4">
-        <v>2.70326609966481E-3</v>
+        <v>2.7249898927671902E-3</v>
       </c>
       <c r="D13" s="4">
-        <v>2.7428606489696798E-3</v>
+        <v>2.7524028749515601E-3</v>
       </c>
       <c r="E13" s="4">
         <v>36</v>
@@ -1581,13 +1581,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>8.0409040451049805</v>
+        <v>8.0233860015869105</v>
       </c>
       <c r="C14" s="2">
-        <v>2.71625143689382E-3</v>
+        <v>2.70458606855394E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>2.6920593367252901E-3</v>
+        <v>2.7210500740789201E-3</v>
       </c>
       <c r="E14" s="2">
         <v>37</v>
@@ -1601,13 +1601,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>8.0409040451049805</v>
+        <v>8.0233860015869105</v>
       </c>
       <c r="C15" s="2">
-        <v>2.6958775172710001E-3</v>
+        <v>2.7126969291627499E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>2.7422927750298102E-3</v>
+        <v>2.7247801782530599E-3</v>
       </c>
       <c r="E15" s="2">
         <v>38</v>
@@ -1621,13 +1621,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>8.0409040451049805</v>
+        <v>8.0233860015869105</v>
       </c>
       <c r="C16" s="2">
-        <v>2.6976807861571099E-3</v>
+        <v>2.6917291255380599E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>2.74937193180564E-3</v>
+        <v>2.7243377755216298E-3</v>
       </c>
       <c r="E16" s="2">
         <v>39</v>
@@ -1641,13 +1641,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>8.0409040451049805</v>
+        <v>8.0233860015869105</v>
       </c>
       <c r="C17" s="2">
-        <v>2.6820586522696998E-3</v>
+        <v>2.7024943467705499E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>2.7285608716450501E-3</v>
+        <v>2.7320722481562602E-3</v>
       </c>
       <c r="E17" s="2">
         <v>40</v>
@@ -1661,13 +1661,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>16.081808090209901</v>
+        <v>16.0467720031738</v>
       </c>
       <c r="C18">
-        <v>2.7229852268507901E-3</v>
+        <v>2.70917750012933E-3</v>
       </c>
       <c r="D18">
-        <v>2.6937091304578701E-3</v>
+        <v>2.7333101004427401E-3</v>
       </c>
       <c r="E18">
         <v>41</v>
@@ -1681,13 +1681,13 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>16.081808090209901</v>
+        <v>16.0467720031738</v>
       </c>
       <c r="C19">
-        <v>2.6890169146951198E-3</v>
+        <v>2.71219126100647E-3</v>
       </c>
       <c r="D19">
-        <v>2.76662182664097E-3</v>
+        <v>2.7185810705352702E-3</v>
       </c>
       <c r="E19">
         <v>42</v>
@@ -1701,13 +1701,13 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>16.081808090209901</v>
+        <v>16.0467720031738</v>
       </c>
       <c r="C20">
-        <v>2.6912590100246002E-3</v>
+        <v>2.69396396329224E-3</v>
       </c>
       <c r="D20">
-        <v>2.7428403602842199E-3</v>
+        <v>2.73525822711618E-3</v>
       </c>
       <c r="E20">
         <v>43</v>
@@ -1721,13 +1721,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>16.081808090209901</v>
+        <v>16.0467720031738</v>
       </c>
       <c r="C21">
-        <v>2.6860159560800701E-3</v>
+        <v>2.7056991610889302E-3</v>
       </c>
       <c r="D21">
-        <v>2.7388350189297998E-3</v>
+        <v>2.7345513001803198E-3</v>
       </c>
       <c r="E21">
         <v>44</v>
@@ -1741,13 +1741,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>32.163616180419901</v>
+        <v>32.093544006347599</v>
       </c>
       <c r="C22" s="4">
-        <v>2.7182777071146202E-3</v>
+        <v>2.7090791102071998E-3</v>
       </c>
       <c r="D22" s="4">
-        <v>2.7005630604262499E-3</v>
+        <v>2.7267921413703399E-3</v>
       </c>
       <c r="E22" s="4">
         <v>45</v>
@@ -1761,13 +1761,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="4">
-        <v>32.163616180419901</v>
+        <v>32.093544006347599</v>
       </c>
       <c r="C23" s="4">
-        <v>2.7151317884374299E-3</v>
+        <v>2.714329390963E-3</v>
       </c>
       <c r="D23" s="4">
-        <v>2.7752905123265802E-3</v>
+        <v>2.7293563215878901E-3</v>
       </c>
       <c r="E23" s="4">
         <v>46</v>
@@ -1781,13 +1781,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="4">
-        <v>32.163616180419901</v>
+        <v>32.093544006347599</v>
       </c>
       <c r="C24" s="4">
-        <v>2.7002455773437002E-3</v>
+        <v>2.6984919808263402E-3</v>
       </c>
       <c r="D24" s="4">
-        <v>2.7638589815955701E-3</v>
+        <v>2.7405673437833501E-3</v>
       </c>
       <c r="E24" s="4">
         <v>47</v>
@@ -1801,13 +1801,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="4">
-        <v>32.163616180419901</v>
+        <v>32.093544006347599</v>
       </c>
       <c r="C25" s="4">
-        <v>2.6832713721806401E-3</v>
+        <v>2.7026662188643601E-3</v>
       </c>
       <c r="D25" s="4">
-        <v>2.7402047586591901E-3</v>
+        <v>2.7371592341775101E-3</v>
       </c>
       <c r="E25" s="4">
         <v>48</v>
@@ -1825,8 +1825,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C910F4E5-1871-5D44-A4D1-B4921F11A929}">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1874,13 +1874,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>1.0051130056381199</v>
+        <v>1.00292325019836</v>
       </c>
       <c r="C2">
-        <v>4.7671599662341997</v>
+        <v>5.2119473581272002</v>
       </c>
       <c r="D2">
-        <v>4.7358747252935096</v>
+        <v>5.1568598663597696</v>
       </c>
       <c r="E2">
         <v>49</v>
@@ -1894,15 +1894,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
-        <v>1.0051130056381199</v>
+        <v>1.00292325019836</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>4.7677583452611652</v>
+        <v>5.2088536083173071</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>4.7452680046045295</v>
+        <v>5.1729258288416897</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
@@ -1918,13 +1918,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1.0051130056381199</v>
+        <v>1.00292325019836</v>
       </c>
       <c r="C3">
-        <v>4.75381206475888</v>
+        <v>5.2128931446747604</v>
       </c>
       <c r="D3">
-        <v>4.8215067386627197</v>
+        <v>5.1583447372704203</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -1962,13 +1962,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>1.0051130056381199</v>
+        <v>1.00292325019836</v>
       </c>
       <c r="C4">
-        <v>4.7792963280845298</v>
+        <v>5.2054778090657603</v>
       </c>
       <c r="D4">
-        <v>4.6967578900011198</v>
+        <v>5.1874583520387301</v>
       </c>
       <c r="E4">
         <v>51</v>
@@ -1982,15 +1982,15 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
-        <v>4.0204520225524902</v>
+        <v>4.0116930007934499</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>2.7142447616961473E-3</v>
+        <v>2.7035325298922727E-3</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>2.7220470040942276E-3</v>
+        <v>2.7195790296485776E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
@@ -2006,13 +2006,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>1.0051130056381199</v>
+        <v>1.00292325019836</v>
       </c>
       <c r="C5">
-        <v>4.7707650219670503</v>
+        <v>5.2050961214015103</v>
       </c>
       <c r="D5">
-        <v>4.7269326644607697</v>
+        <v>5.1890403596978398</v>
       </c>
       <c r="E5">
         <v>52</v>
@@ -2026,15 +2026,15 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
-        <v>8.0409040451049805</v>
+        <v>8.0233860015869105</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>2.7047393814892675E-3</v>
+        <v>2.7017931068995049E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
-        <v>2.7094031846197852E-3</v>
+        <v>2.7159049426891649E-3</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="3"/>
@@ -2070,15 +2070,15 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
-        <v>16.081808090209901</v>
+        <v>16.0467720031738</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>2.702230451659805E-3</v>
+        <v>2.700823927421265E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>2.708126233059533E-3</v>
+        <v>2.7146621703235552E-3</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -2114,15 +2114,15 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
-        <v>32.163616180419901</v>
+        <v>32.093544006347599</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.7028219402431448E-3</v>
+        <v>2.7004127211956953E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>2.7125172230084899E-3</v>
+        <v>2.7163729414735947E-3</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="M8">
         <f>MIN(M2:M7)</f>
-        <v>2.708126233059533E-3</v>
+        <v>2.7146621703235552E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -2182,13 +2182,13 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>4.0204520225524902</v>
+        <v>4.0116930007934499</v>
       </c>
       <c r="C10">
-        <v>2.7210066569582198E-3</v>
+        <v>2.7010702812174398E-3</v>
       </c>
       <c r="D10">
-        <v>2.6809168873425499E-3</v>
+        <v>2.7175136686613099E-3</v>
       </c>
       <c r="E10">
         <v>57</v>
@@ -2202,13 +2202,13 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>4.0204520225524902</v>
+        <v>4.0116930007934499</v>
       </c>
       <c r="C11">
-        <v>2.7095329242582899E-3</v>
+        <v>2.7016561595304498E-3</v>
       </c>
       <c r="D11">
-        <v>2.7356609831788101E-3</v>
+        <v>2.7111617341768301E-3</v>
       </c>
       <c r="E11">
         <v>58</v>
@@ -2222,13 +2222,13 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>4.0204520225524902</v>
+        <v>4.0116930007934499</v>
       </c>
       <c r="C12">
-        <v>2.71954302699825E-3</v>
+        <v>2.70535587179289E-3</v>
       </c>
       <c r="D12">
-        <v>2.7491653402913598E-3</v>
+        <v>2.7223973792340401E-3</v>
       </c>
       <c r="E12">
         <v>59</v>
@@ -2242,13 +2242,13 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>4.0204520225524902</v>
+        <v>4.0116930007934499</v>
       </c>
       <c r="C13">
-        <v>2.7068964385698301E-3</v>
+        <v>2.7060478070283101E-3</v>
       </c>
       <c r="D13">
-        <v>2.7224448055641901E-3</v>
+        <v>2.7272433365221299E-3</v>
       </c>
       <c r="E13">
         <v>60</v>
@@ -2262,13 +2262,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>8.0409040451049805</v>
+        <v>8.0233860015869105</v>
       </c>
       <c r="C14" s="4">
-        <v>2.7153055003573401E-3</v>
+        <v>2.7016913313172401E-3</v>
       </c>
       <c r="D14" s="4">
-        <v>2.67263768311542E-3</v>
+        <v>2.7125414701897502E-3</v>
       </c>
       <c r="E14" s="4">
         <v>61</v>
@@ -2282,13 +2282,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>8.0409040451049805</v>
+        <v>8.0233860015869105</v>
       </c>
       <c r="C15" s="4">
-        <v>2.7010805537394499E-3</v>
+        <v>2.7048097629026198E-3</v>
       </c>
       <c r="D15" s="4">
-        <v>2.7308998087161702E-3</v>
+        <v>2.71234009823386E-3</v>
       </c>
       <c r="E15" s="4">
         <v>62</v>
@@ -2302,13 +2302,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="4">
-        <v>8.0409040451049805</v>
+        <v>8.0233860015869105</v>
       </c>
       <c r="C16" s="4">
-        <v>2.7023559784332199E-3</v>
+        <v>2.7008069820685602E-3</v>
       </c>
       <c r="D16" s="4">
-        <v>2.72575557479469E-3</v>
+        <v>2.7184901419994301E-3</v>
       </c>
       <c r="E16" s="4">
         <v>63</v>
@@ -2322,13 +2322,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>8.0409040451049805</v>
+        <v>8.0233860015869105</v>
       </c>
       <c r="C17" s="4">
-        <v>2.7002154934270598E-3</v>
+        <v>2.6998643513096001E-3</v>
       </c>
       <c r="D17" s="4">
-        <v>2.7083196718528601E-3</v>
+        <v>2.7202480603336198E-3</v>
       </c>
       <c r="E17" s="4">
         <v>64</v>
@@ -2342,13 +2342,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>16.081808090209901</v>
+        <v>16.0467720031738</v>
       </c>
       <c r="C18">
-        <v>2.7124746509205799E-3</v>
+        <v>2.70115521363093E-3</v>
       </c>
       <c r="D18">
-        <v>2.6692689125296402E-3</v>
+        <v>2.7132997464944099E-3</v>
       </c>
       <c r="E18">
         <v>65</v>
@@ -2362,13 +2362,13 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>16.081808090209901</v>
+        <v>16.0467720031738</v>
       </c>
       <c r="C19">
-        <v>2.6963994869539801E-3</v>
+        <v>2.7023994257172998E-3</v>
       </c>
       <c r="D19">
-        <v>2.7292697525382798E-3</v>
+        <v>2.7120246004574602E-3</v>
       </c>
       <c r="E19">
         <v>66</v>
@@ -2382,13 +2382,13 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>16.081808090209901</v>
+        <v>16.0467720031738</v>
       </c>
       <c r="C20">
-        <v>2.6985109603693E-3</v>
+        <v>2.6996790473492898E-3</v>
       </c>
       <c r="D20">
-        <v>2.72364002251643E-3</v>
+        <v>2.7155583752972701E-3</v>
       </c>
       <c r="E20">
         <v>67</v>
@@ -2402,13 +2402,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>16.081808090209901</v>
+        <v>16.0467720031738</v>
       </c>
       <c r="C21">
-        <v>2.7015367083953602E-3</v>
+        <v>2.7000620229875399E-3</v>
       </c>
       <c r="D21">
-        <v>2.7103262446537802E-3</v>
+        <v>2.7177659590450799E-3</v>
       </c>
       <c r="E21">
         <v>68</v>
@@ -2422,13 +2422,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>32.163616180419901</v>
+        <v>32.093544006347599</v>
       </c>
       <c r="C22" s="4">
-        <v>2.7089617423379899E-3</v>
+        <v>2.7014989521772898E-3</v>
       </c>
       <c r="D22" s="4">
-        <v>2.6723191295337798E-3</v>
+        <v>2.7140749622495798E-3</v>
       </c>
       <c r="E22" s="4">
         <v>69</v>
@@ -2442,13 +2442,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="4">
-        <v>32.163616180419901</v>
+        <v>32.093544006347599</v>
       </c>
       <c r="C23" s="4">
-        <v>2.6994296014844501E-3</v>
+        <v>2.7015702516899002E-3</v>
       </c>
       <c r="D23" s="4">
-        <v>2.7396292337275299E-3</v>
+        <v>2.7113114442807E-3</v>
       </c>
       <c r="E23" s="4">
         <v>70</v>
@@ -2462,13 +2462,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="4">
-        <v>32.163616180419901</v>
+        <v>32.093544006347599</v>
       </c>
       <c r="C24" s="4">
-        <v>2.70339892582057E-3</v>
+        <v>2.6998636702543302E-3</v>
       </c>
       <c r="D24" s="4">
-        <v>2.7272499643879199E-3</v>
+        <v>2.71734905126913E-3</v>
       </c>
       <c r="E24" s="4">
         <v>71</v>
@@ -2482,13 +2482,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="4">
-        <v>32.163616180419901</v>
+        <v>32.093544006347599</v>
       </c>
       <c r="C25" s="4">
-        <v>2.6994974913295698E-3</v>
+        <v>2.6987180106612602E-3</v>
       </c>
       <c r="D25" s="4">
-        <v>2.7108705643847301E-3</v>
+        <v>2.7227563080949699E-3</v>
       </c>
       <c r="E25" s="4">
         <v>72</v>
@@ -2552,10 +2552,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="4">
-        <v>2.79822543004079E-3</v>
+        <v>2.7243441885761999E-3</v>
       </c>
       <c r="C2" s="4">
-        <v>2.77504915536581E-3</v>
+        <v>2.7317485829259701E-3</v>
       </c>
       <c r="D2" s="4">
         <v>73</v>
@@ -2570,11 +2570,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>2.7647503552946521E-3</v>
+        <v>2.7346420316270649E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>2.8270492263880948E-3</v>
+        <v>2.7550563855472448E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -2590,10 +2590,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="4">
-        <v>2.7526905111779801E-3</v>
+        <v>2.7423794646829099E-3</v>
       </c>
       <c r="C3" s="4">
-        <v>2.8363914564959198E-3</v>
+        <v>2.7514683785276402E-3</v>
       </c>
       <c r="D3" s="4">
         <v>74</v>
@@ -2608,11 +2608,11 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.7655203078130728E-3</v>
+        <v>2.734369217936895E-3</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>2.8318896907369847E-3</v>
+        <v>2.7437233937936899E-3</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
@@ -2628,10 +2628,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="4">
-        <v>2.7758737589833799E-3</v>
+        <v>2.7469075080660799E-3</v>
       </c>
       <c r="C4" s="4">
-        <v>2.8461734174833201E-3</v>
+        <v>2.7672332842229698E-3</v>
       </c>
       <c r="D4" s="4">
         <v>75</v>
@@ -2646,11 +2646,11 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>2.765257731581078E-3</v>
+        <v>2.7363078782065278E-3</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>2.8260749576118128E-3</v>
+        <v>2.7450838727721247E-3</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
@@ -2666,10 +2666,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="4">
-        <v>2.73221172097646E-3</v>
+        <v>2.72493696518307E-3</v>
       </c>
       <c r="C5" s="4">
-        <v>2.8505828762073302E-3</v>
+        <v>2.7697752965124001E-3</v>
       </c>
       <c r="D5" s="4">
         <v>76</v>
@@ -2684,11 +2684,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>2.7610162896387052E-3</v>
+        <v>2.7335442060384052E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>2.8133209208262224E-3</v>
+        <v>2.7523160847761677E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -2705,10 +2705,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="4">
-        <v>2.7815968098849802E-3</v>
+        <v>2.7261639888022499E-3</v>
       </c>
       <c r="C6" s="4">
-        <v>2.7494123853931602E-3</v>
+        <v>2.7287673621781499E-3</v>
       </c>
       <c r="D6" s="4">
         <v>77</v>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>2.7660115988913246E-3</v>
+        <v>2.7342225254407045E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>2.8303610426196873E-3</v>
+        <v>2.7553330904706097E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -2742,10 +2742,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="4">
-        <v>2.7327777293239498E-3</v>
+        <v>2.7317855110914799E-3</v>
       </c>
       <c r="C7" s="4">
-        <v>2.8172948668840499E-3</v>
+        <v>2.7402383847194801E-3</v>
       </c>
       <c r="D7" s="4">
         <v>78</v>
@@ -2759,11 +2759,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>2.7836427170653526E-3</v>
+        <v>2.7783352967449674E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.8951397361646398E-3</v>
+        <v>2.7715021339980348E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -2779,10 +2779,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="4">
-        <v>2.7931782894449501E-3</v>
+        <v>2.7713342202141098E-3</v>
       </c>
       <c r="C8" s="4">
-        <v>2.8685519082731E-3</v>
+        <v>2.7603703865519999E-3</v>
       </c>
       <c r="D8" s="4">
         <v>79</v>
@@ -2796,11 +2796,11 @@
       </c>
       <c r="K8">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>3.2885248287981674E-3</v>
+        <v>3.8429955316691125E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>3.4163806158636623E-3</v>
+        <v>3.3954202949085725E-3</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
@@ -2816,10 +2816,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="4">
-        <v>2.7545284025984099E-3</v>
+        <v>2.7081931516397401E-3</v>
       </c>
       <c r="C9" s="4">
-        <v>2.8922996023976301E-3</v>
+        <v>2.7455174417251298E-3</v>
       </c>
       <c r="D9" s="4">
         <v>80</v>
@@ -2833,11 +2833,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>2.2872733000866251E-2</v>
+        <v>2.203648518199065E-2</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>2.0735695842458924E-2</v>
+        <v>2.1862954902054123E-2</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -2853,10 +2853,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10">
-        <v>2.7757571108309102E-3</v>
+        <v>2.72657434872694E-3</v>
       </c>
       <c r="C10">
-        <v>2.7704071636677099E-3</v>
+        <v>2.73179737320006E-3</v>
       </c>
       <c r="D10">
         <v>81</v>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>2.8133209208262224E-3</v>
+        <v>2.7437233937936899E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2874,10 +2874,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11">
-        <v>2.75513356775516E-3</v>
+        <v>2.7303769776041999E-3</v>
       </c>
       <c r="C11">
-        <v>2.8456435597772802E-3</v>
+        <v>2.7403952247512099E-3</v>
       </c>
       <c r="D11">
         <v>82</v>
@@ -2891,10 +2891,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12">
-        <v>2.7820489051032602E-3</v>
+        <v>2.77656592886176E-3</v>
       </c>
       <c r="C12">
-        <v>2.8264658507902701E-3</v>
+        <v>2.7604492058519899E-3</v>
       </c>
       <c r="D12">
         <v>83</v>
@@ -2908,10 +2908,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13">
-        <v>2.7480913426349801E-3</v>
+        <v>2.71171425763321E-3</v>
       </c>
       <c r="C13">
-        <v>2.8617832562119901E-3</v>
+        <v>2.7476936872852398E-3</v>
       </c>
       <c r="D13">
         <v>84</v>
@@ -2925,10 +2925,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>2.7975470941702398E-3</v>
+        <v>2.7414217975251999E-3</v>
       </c>
       <c r="C14">
-        <v>2.7635174219885501E-3</v>
+        <v>2.7484799277756201E-3</v>
       </c>
       <c r="D14">
         <v>85</v>
@@ -2942,10 +2942,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>2.74487077317471E-3</v>
+        <v>2.7375607444953699E-3</v>
       </c>
       <c r="C15">
-        <v>2.8150155020382501E-3</v>
+        <v>2.74925341772471E-3</v>
       </c>
       <c r="D15">
         <v>86</v>
@@ -2959,10 +2959,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>2.76297642967274E-3</v>
+        <v>2.7444889920093698E-3</v>
       </c>
       <c r="C16">
-        <v>2.8204352335556302E-3</v>
+        <v>2.7607602737190402E-3</v>
       </c>
       <c r="D16">
         <v>87</v>
@@ -2976,10 +2976,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>2.7386708615371302E-3</v>
+        <v>2.7107052901236802E-3</v>
       </c>
       <c r="C17">
-        <v>2.85431552572246E-3</v>
+        <v>2.7507707198852998E-3</v>
       </c>
       <c r="D17">
         <v>88</v>
@@ -2993,10 +2993,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>2.7770220355095299E-3</v>
+        <v>2.73160315363814E-3</v>
       </c>
       <c r="C18">
-        <v>2.75190986539649E-3</v>
+        <v>2.7394370429152399E-3</v>
       </c>
       <c r="D18">
         <v>89</v>
@@ -3010,10 +3010,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>2.7500960616324102E-3</v>
+        <v>2.7405204284086499E-3</v>
       </c>
       <c r="C19">
-        <v>2.8283631022359302E-3</v>
+        <v>2.7564026133500398E-3</v>
       </c>
       <c r="D19">
         <v>90</v>
@@ -3027,10 +3027,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>2.7938631946763199E-3</v>
+        <v>2.7469262999498699E-3</v>
       </c>
       <c r="C20">
-        <v>2.8422894634164901E-3</v>
+        <v>2.7704580499088001E-3</v>
       </c>
       <c r="D20">
         <v>91</v>
@@ -3044,10 +3044,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>2.7430651037470399E-3</v>
+        <v>2.7178402197661601E-3</v>
       </c>
       <c r="C21">
-        <v>2.8988817394298401E-3</v>
+        <v>2.75503465570836E-3</v>
       </c>
       <c r="D21">
         <v>92</v>
@@ -3061,10 +3061,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>2.8269715088454898E-3</v>
+        <v>2.7639866508380102E-3</v>
       </c>
       <c r="C22">
-        <v>2.7896109703173699E-3</v>
+        <v>2.7519574515488801E-3</v>
       </c>
       <c r="D22">
         <v>93</v>
@@ -3078,10 +3078,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>2.78132982092284E-3</v>
+        <v>2.7792097146933201E-3</v>
       </c>
       <c r="C23">
-        <v>2.8680942280665902E-3</v>
+        <v>2.7757001644523201E-3</v>
       </c>
       <c r="D23">
         <v>94</v>
@@ -3095,10 +3095,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>2.7872462303059299E-3</v>
+        <v>2.8176950883087599E-3</v>
       </c>
       <c r="C24">
-        <v>2.8284545427871999E-3</v>
+        <v>2.7885692410595801E-3</v>
       </c>
       <c r="D24">
         <v>95</v>
@@ -3112,10 +3112,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>2.73902330818715E-3</v>
+        <v>2.7524497331397799E-3</v>
       </c>
       <c r="C25">
-        <v>3.0943992034874E-3</v>
+        <v>2.7697816789313602E-3</v>
       </c>
       <c r="D25">
         <v>96</v>
@@ -3129,10 +3129,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>3.4067367256583598E-3</v>
+        <v>3.4369311761110999E-3</v>
       </c>
       <c r="C26">
-        <v>3.2801325079289401E-3</v>
+        <v>3.4524334978573599E-3</v>
       </c>
       <c r="D26">
         <v>97</v>
@@ -3146,10 +3146,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>3.2731632855308198E-3</v>
+        <v>3.8464572260221599E-3</v>
       </c>
       <c r="C27">
-        <v>3.2888531826342198E-3</v>
+        <v>3.3407141148161699E-3</v>
       </c>
       <c r="D27">
         <v>98</v>
@@ -3163,10 +3163,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>3.2691325833195698E-3</v>
+        <v>4.6701503554032299E-3</v>
       </c>
       <c r="C28">
-        <v>3.0856720537324402E-3</v>
+        <v>3.26420816699075E-3</v>
       </c>
       <c r="D28">
         <v>99</v>
@@ -3180,10 +3180,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>3.20506672068392E-3</v>
+        <v>3.4184433691399601E-3</v>
       </c>
       <c r="C29">
-        <v>4.0108647191590503E-3</v>
+        <v>3.5243253999700098E-3</v>
       </c>
       <c r="D29">
         <v>100</v>
@@ -3197,10 +3197,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>2.3170388580736102E-2</v>
+        <v>2.49217716127372E-2</v>
       </c>
       <c r="C30">
-        <v>2.03304357378731E-2</v>
+        <v>2.1395792212467901E-2</v>
       </c>
       <c r="D30">
         <v>101</v>
@@ -3214,10 +3214,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>2.4151642423688901E-2</v>
+        <v>2.1087887139353698E-2</v>
       </c>
       <c r="C31">
-        <v>2.16086247428968E-2</v>
+        <v>2.04328473069165E-2</v>
       </c>
       <c r="D31">
         <v>102</v>
@@ -3231,10 +3231,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>2.2700777878583898E-2</v>
+        <v>2.1418076431329699E-2</v>
       </c>
       <c r="C32">
-        <v>1.8175156524734899E-2</v>
+        <v>2.1426761496338199E-2</v>
       </c>
       <c r="D32">
         <v>103</v>
@@ -3248,10 +3248,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>2.1468123120456099E-2</v>
+        <v>2.0718205544542002E-2</v>
       </c>
       <c r="C33">
-        <v>2.28285663643309E-2</v>
+        <v>2.4196418592493898E-2</v>
       </c>
       <c r="D33">
         <v>104</v>
@@ -3318,7 +3318,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3363,10 +3363,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>2.7385619528306898E-3</v>
+        <v>2.7185496607475298E-3</v>
       </c>
       <c r="C2">
-        <v>2.6788738426528399E-3</v>
+        <v>2.7226141997073799E-3</v>
       </c>
       <c r="D2">
         <v>105</v>
@@ -3380,11 +3380,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>2.7159653139852274E-3</v>
+        <v>2.7119565743846247E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>2.7277539941022448E-3</v>
+        <v>2.7226310697171727E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -3400,10 +3400,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3">
-        <v>2.7050449346803099E-3</v>
+        <v>2.7092633407874698E-3</v>
       </c>
       <c r="C3">
-        <v>2.73938977772582E-3</v>
+        <v>2.71777350561726E-3</v>
       </c>
       <c r="D3">
         <v>106</v>
@@ -3417,11 +3417,11 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.7152602686872978E-3</v>
+        <v>2.7124264914981373E-3</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>2.7287979160812723E-3</v>
+        <v>2.7224204432537849E-3</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
@@ -3437,10 +3437,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4">
-        <v>2.7241935659864298E-3</v>
+        <v>2.7082923580256401E-3</v>
       </c>
       <c r="C4">
-        <v>2.76675622002516E-3</v>
+        <v>2.7215908763505302E-3</v>
       </c>
       <c r="D4">
         <v>107</v>
@@ -3454,11 +3454,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>2.7111568243485952E-3</v>
+        <v>2.7124935097988302E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>2.7227482502053951E-3</v>
+        <v>2.7222706948554004E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -3474,10 +3474,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5">
-        <v>2.6960608024434798E-3</v>
+        <v>2.7117209379778598E-3</v>
       </c>
       <c r="C5">
-        <v>2.7259961360051599E-3</v>
+        <v>2.7285456971935201E-3</v>
       </c>
       <c r="D5">
         <v>108</v>
@@ -3491,11 +3491,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>2.7149537449204274E-3</v>
+        <v>2.7118784871407722E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>2.7263467487454673E-3</v>
+        <v>2.7227288917760877E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -3511,10 +3511,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>2.7383485435253101E-3</v>
+        <v>2.71761469904021E-3</v>
       </c>
       <c r="C6">
-        <v>2.6797395217220601E-3</v>
+        <v>2.72130498482862E-3</v>
       </c>
       <c r="D6">
         <v>109</v>
@@ -3528,11 +3528,11 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>2.723171376062635E-3</v>
+        <v>2.7195434255262848E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>2.735505438309535E-3</v>
+        <v>2.7293665538819676E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -3548,10 +3548,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>2.7056835209179602E-3</v>
+        <v>2.71062673652126E-3</v>
       </c>
       <c r="C7">
-        <v>2.7432263699136198E-3</v>
+        <v>2.7197546248013699E-3</v>
       </c>
       <c r="D7">
         <v>110</v>
@@ -3565,11 +3565,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>2.7410556702388124E-3</v>
+        <v>2.7496796278262447E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.7503561341981776E-3</v>
+        <v>2.7668563298791152E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -3585,10 +3585,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>2.7173221301121302E-3</v>
+        <v>2.7103369013459599E-3</v>
       </c>
       <c r="C8">
-        <v>2.7663034056843801E-3</v>
+        <v>2.7219644326945398E-3</v>
       </c>
       <c r="D8">
         <v>111</v>
@@ -3602,11 +3602,11 @@
       </c>
       <c r="K8">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>3.5097182477723471E-3</v>
+        <v>3.6453241238776648E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>3.3510389871883473E-3</v>
+        <v>3.4812442134256947E-3</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
@@ -3622,10 +3622,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>2.69968688019379E-3</v>
+        <v>2.7111276290851202E-3</v>
       </c>
       <c r="C9">
-        <v>2.7259223670050301E-3</v>
+        <v>2.72665773069061E-3</v>
       </c>
       <c r="D9">
         <v>112</v>
@@ -3639,11 +3639,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>2.3428959367503104E-2</v>
+        <v>2.2433771681305101E-2</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>1.9660231081144026E-2</v>
+        <v>1.9377753955491749E-2</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -3659,10 +3659,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="4">
-        <v>2.7369357182816302E-3</v>
+        <v>2.7189137935146098E-3</v>
       </c>
       <c r="C10" s="4">
-        <v>2.6775420454766899E-3</v>
+        <v>2.7230784374599601E-3</v>
       </c>
       <c r="D10" s="4">
         <v>113</v>
@@ -3673,7 +3673,7 @@
       <c r="F10" s="2"/>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>2.7227482502053951E-3</v>
+        <v>2.7222706948554004E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -3681,10 +3681,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="4">
-        <v>2.7030101045966101E-3</v>
+        <v>2.70994083180465E-3</v>
       </c>
       <c r="C11" s="4">
-        <v>2.73858841885871E-3</v>
+        <v>2.7178560706312901E-3</v>
       </c>
       <c r="D11" s="4">
         <v>114</v>
@@ -3699,10 +3699,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="4">
-        <v>2.7036658061110599E-3</v>
+        <v>2.7083193356097399E-3</v>
       </c>
       <c r="C12" s="4">
-        <v>2.7480589644393902E-3</v>
+        <v>2.7216179847815302E-3</v>
       </c>
       <c r="D12" s="4">
         <v>115</v>
@@ -3717,10 +3717,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="4">
-        <v>2.7010156684050802E-3</v>
+        <v>2.7128000782663201E-3</v>
       </c>
       <c r="C13" s="4">
-        <v>2.72680357204679E-3</v>
+        <v>2.7265302865488198E-3</v>
       </c>
       <c r="D13" s="4">
         <v>116</v>
@@ -3735,10 +3735,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14" s="4">
-        <v>2.7411797730501198E-3</v>
+        <v>2.7178451111170899E-3</v>
       </c>
       <c r="C14" s="4">
-        <v>2.6781646405122702E-3</v>
+        <v>2.7229353078853402E-3</v>
       </c>
       <c r="D14" s="4">
         <v>117</v>
@@ -3752,10 +3752,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15" s="4">
-        <v>2.70353315789608E-3</v>
+        <v>2.7102875145816798E-3</v>
       </c>
       <c r="C15" s="4">
-        <v>2.7386779083481299E-3</v>
+        <v>2.72084340624707E-3</v>
       </c>
       <c r="D15" s="4">
         <v>118</v>
@@ -3769,10 +3769,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16" s="4">
-        <v>2.7188980806571398E-3</v>
+        <v>2.7078300599616E-3</v>
       </c>
       <c r="C16" s="4">
-        <v>2.7606019874020799E-3</v>
+        <v>2.7213129317061099E-3</v>
       </c>
       <c r="D16" s="4">
         <v>119</v>
@@ -3786,10 +3786,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17" s="4">
-        <v>2.69620396807837E-3</v>
+        <v>2.71155126290272E-3</v>
       </c>
       <c r="C17" s="4">
-        <v>2.7279424587193899E-3</v>
+        <v>2.7258239212658302E-3</v>
       </c>
       <c r="D17" s="4">
         <v>120</v>
@@ -3803,10 +3803,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>2.7526932913857398E-3</v>
+        <v>2.7262575407450899E-3</v>
       </c>
       <c r="C18">
-        <v>2.68883609118623E-3</v>
+        <v>2.7255966499643799E-3</v>
       </c>
       <c r="D18">
         <v>121</v>
@@ -3820,10 +3820,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>2.7138514215850301E-3</v>
+        <v>2.71868441840592E-3</v>
       </c>
       <c r="C19">
-        <v>2.7471871109372801E-3</v>
+        <v>2.72955671116186E-3</v>
       </c>
       <c r="D19">
         <v>122</v>
@@ -3837,10 +3837,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>2.7228066057061601E-3</v>
+        <v>2.7159796709744499E-3</v>
       </c>
       <c r="C20">
-        <v>2.76665039112956E-3</v>
+        <v>2.7282888686545798E-3</v>
       </c>
       <c r="D20">
         <v>123</v>
@@ -3854,10 +3854,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>2.7033341855736098E-3</v>
+        <v>2.7172520719796799E-3</v>
       </c>
       <c r="C21">
-        <v>2.7393481599850699E-3</v>
+        <v>2.7340239857470499E-3</v>
       </c>
       <c r="D21">
         <v>124</v>
@@ -3871,10 +3871,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>2.7691770039475001E-3</v>
+        <v>2.7486197373497402E-3</v>
       </c>
       <c r="C22">
-        <v>2.7102631888104699E-3</v>
+        <v>2.7559700630311098E-3</v>
       </c>
       <c r="D22">
         <v>125</v>
@@ -3888,10 +3888,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>2.7281893535879001E-3</v>
+        <v>2.74938864670365E-3</v>
       </c>
       <c r="C23">
-        <v>2.7544402010455898E-3</v>
+        <v>2.7710040071325598E-3</v>
       </c>
       <c r="D23">
         <v>126</v>
@@ -3905,10 +3905,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>2.73585008089519E-3</v>
+        <v>2.7555145224810698E-3</v>
       </c>
       <c r="C24">
-        <v>2.7606111208471999E-3</v>
+        <v>2.7631797190559499E-3</v>
       </c>
       <c r="D24">
         <v>127</v>
@@ -3922,10 +3922,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>2.7310062425246599E-3</v>
+        <v>2.7451956047705199E-3</v>
       </c>
       <c r="C25">
-        <v>2.7761100260894501E-3</v>
+        <v>2.7772715302968399E-3</v>
       </c>
       <c r="D25">
         <v>128</v>
@@ -3939,10 +3939,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>3.7557687506577899E-3</v>
+        <v>3.4483362128752901E-3</v>
       </c>
       <c r="C26">
-        <v>3.2205749303102398E-3</v>
+        <v>3.54366831628507E-3</v>
       </c>
       <c r="D26">
         <v>129</v>
@@ -3956,10 +3956,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>3.4338557739759801E-3</v>
+        <v>3.67423370357455E-3</v>
       </c>
       <c r="C27">
-        <v>3.2795680969764898E-3</v>
+        <v>3.3208880258985499E-3</v>
       </c>
       <c r="D27">
         <v>130</v>
@@ -3973,10 +3973,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>3.4281577155658299E-3</v>
+        <v>3.8224005946552999E-3</v>
       </c>
       <c r="C28">
-        <v>3.2802774052171002E-3</v>
+        <v>3.50963388847415E-3</v>
       </c>
       <c r="D28">
         <v>131</v>
@@ -3990,10 +3990,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>3.4210907508897899E-3</v>
+        <v>3.6363259844055199E-3</v>
       </c>
       <c r="C29">
-        <v>3.6237355162495599E-3</v>
+        <v>3.5507866230450099E-3</v>
       </c>
       <c r="D29">
         <v>132</v>
@@ -4007,10 +4007,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>2.3808198467869801E-2</v>
+        <v>2.1826789788245302E-2</v>
       </c>
       <c r="C30">
-        <v>1.8568190386448101E-2</v>
+        <v>1.8334813454809199E-2</v>
       </c>
       <c r="D30">
         <v>133</v>
@@ -4024,10 +4024,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>2.1516825905912002E-2</v>
+        <v>2.2840506930544201E-2</v>
       </c>
       <c r="C31">
-        <v>2.21706255828325E-2</v>
+        <v>1.9797602615302799E-2</v>
       </c>
       <c r="D31">
         <v>134</v>
@@ -4041,10 +4041,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>2.68218167286342E-2</v>
+        <v>2.4212493745831599E-2</v>
       </c>
       <c r="C32">
-        <v>1.6556207750794201E-2</v>
+        <v>1.8035915320771801E-2</v>
       </c>
       <c r="D32">
         <v>135</v>
@@ -4058,10 +4058,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>2.1568996367596401E-2</v>
+        <v>2.0855296260599301E-2</v>
       </c>
       <c r="C33">
-        <v>2.1345900604501301E-2</v>
+        <v>2.1342684431083201E-2</v>
       </c>
       <c r="D33">
         <v>136</v>
@@ -4080,7 +4080,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="A2" sqref="A2:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4935,10 +4935,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>9.2154540876044494E-3</v>
+        <v>4.5254556829796002E-3</v>
       </c>
       <c r="C2">
-        <v>9.2789699217375298E-3</v>
+        <v>4.4776087671746997E-3</v>
       </c>
       <c r="D2">
         <v>169</v>
@@ -4952,11 +4952,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>7.6690516493554328E-3</v>
+        <v>4.473694372950773E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>7.7088167714072899E-3</v>
+        <v>4.471126607856135E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -4972,10 +4972,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3">
-        <v>5.7594389831529301E-3</v>
+        <v>5.4983509410368699E-3</v>
       </c>
       <c r="C3">
-        <v>5.8330809108064104E-3</v>
+        <v>5.4873179832244604E-3</v>
       </c>
       <c r="D3">
         <v>170</v>
@@ -4989,11 +4989,11 @@
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>7.686772758046842E-3</v>
+        <v>4.3788171447854294E-3</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>7.7460127502467571E-3</v>
+        <v>4.3748487716360899E-3</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="1"/>
@@ -5009,10 +5009,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4">
-        <v>8.8848862325466103E-3</v>
+        <v>4.2756634944102201E-3</v>
       </c>
       <c r="C4">
-        <v>8.9122028549826603E-3</v>
+        <v>4.2992356323163202E-3</v>
       </c>
       <c r="D4">
         <v>171</v>
@@ -5026,11 +5026,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>7.680354380532153E-3</v>
+        <v>4.3772605555172824E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>7.7464418350188351E-3</v>
+        <v>4.3711464268996825E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -5046,10 +5046,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5">
-        <v>6.8164272941177396E-3</v>
+        <v>3.5953073733764E-3</v>
       </c>
       <c r="C5">
-        <v>6.8110133981025599E-3</v>
+        <v>3.62034404870906E-3</v>
       </c>
       <c r="D5">
         <v>172</v>
@@ -5063,11 +5063,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>7.6670222620986665E-3</v>
+        <v>4.4576649583688175E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>7.7088830647754269E-3</v>
+        <v>4.4324059558117296E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -5083,10 +5083,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>9.2628965731945904E-3</v>
+        <v>4.4187374837827203E-3</v>
       </c>
       <c r="C6">
-        <v>9.3639585944010496E-3</v>
+        <v>4.3681493854117398E-3</v>
       </c>
       <c r="D6">
         <v>173</v>
@@ -5100,11 +5100,11 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>7.8709333165419022E-3</v>
+        <v>4.6226651644693606E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>7.7076045828694574E-3</v>
+        <v>4.4093313289953273E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -5120,10 +5120,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>5.78263512800765E-3</v>
+        <v>5.1768416530664999E-3</v>
       </c>
       <c r="C7">
-        <v>5.8932787491173602E-3</v>
+        <v>5.1625943334217602E-3</v>
       </c>
       <c r="D7">
         <v>174</v>
@@ -5137,11 +5137,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>9.7898393279955108E-3</v>
+        <v>6.4429280433901774E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>7.698571346287578E-3</v>
+        <v>4.3576174040872292E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -5157,10 +5157,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>8.8844377653602494E-3</v>
+        <v>4.3098401225155599E-3</v>
       </c>
       <c r="C8">
-        <v>8.9152651791802595E-3</v>
+        <v>4.3340650971227298E-3</v>
       </c>
       <c r="D8">
         <v>175</v>
@@ -5174,11 +5174,11 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>2.8455973278636724E-2</v>
+        <v>2.5053210360439147E-2</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="6"/>
-        <v>7.2175065244111805E-3</v>
+        <v>4.3058774338038423E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="6"/>
@@ -5194,10 +5194,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>6.81712156562488E-3</v>
+        <v>3.6098493197769402E-3</v>
       </c>
       <c r="C9">
-        <v>6.81154847828836E-3</v>
+        <v>3.63458627058813E-3</v>
       </c>
       <c r="D9">
         <v>176</v>
@@ -5211,11 +5211,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>0.21783457187157601</v>
+        <v>0.21045788214133448</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>8.0646069357878918E-3</v>
+        <v>5.1711700451274349E-3</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -5231,10 +5231,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10">
-        <v>9.2509202305463296E-3</v>
+        <v>4.3996532647788697E-3</v>
       </c>
       <c r="C10">
-        <v>9.3440025325722993E-3</v>
+        <v>4.3482146973378502E-3</v>
       </c>
       <c r="D10">
         <v>177</v>
@@ -5244,7 +5244,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>7.2175065244111805E-3</v>
+        <v>4.3058774338038423E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -5252,10 +5252,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11">
-        <v>5.7380337362425201E-3</v>
+        <v>5.2915977583707901E-3</v>
       </c>
       <c r="C11">
-        <v>5.8401820214488802E-3</v>
+        <v>5.2733484598432197E-3</v>
       </c>
       <c r="D11">
         <v>178</v>
@@ -5269,10 +5269,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12">
-        <v>8.8519345014061307E-3</v>
+        <v>4.2195604019389802E-3</v>
       </c>
       <c r="C12">
-        <v>8.9265846152188598E-3</v>
+        <v>4.2418322766918596E-3</v>
       </c>
       <c r="D12">
         <v>179</v>
@@ -5286,10 +5286,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13">
-        <v>6.8805290539336299E-3</v>
+        <v>3.5982307969804899E-3</v>
       </c>
       <c r="C13">
-        <v>6.8749981708353001E-3</v>
+        <v>3.6211902737258001E-3</v>
       </c>
       <c r="D13">
         <v>180</v>
@@ -5303,10 +5303,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>9.22120138531244E-3</v>
+        <v>4.5188593661837397E-3</v>
       </c>
       <c r="C14">
-        <v>9.29090696610981E-3</v>
+        <v>4.4466932181660996E-3</v>
       </c>
       <c r="D14">
         <v>181</v>
@@ -5320,10 +5320,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>5.6812327555557599E-3</v>
+        <v>5.3485416839912196E-3</v>
       </c>
       <c r="C15">
-        <v>5.7686081839890399E-3</v>
+        <v>5.3122455066298702E-3</v>
       </c>
       <c r="D15">
         <v>182</v>
@@ -5337,10 +5337,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>8.8871383002098597E-3</v>
+        <v>4.3142087218400599E-3</v>
       </c>
       <c r="C16">
-        <v>8.9213691852232293E-3</v>
+        <v>4.3179417159735101E-3</v>
       </c>
       <c r="D16">
         <v>183</v>
@@ -5354,10 +5354,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>6.8785166073166096E-3</v>
+        <v>3.6490500614602501E-3</v>
       </c>
       <c r="C17">
-        <v>6.8546479237796302E-3</v>
+        <v>3.6527433824774399E-3</v>
       </c>
       <c r="D17">
         <v>184</v>
@@ -5371,10 +5371,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>9.1928174907836696E-3</v>
+        <v>4.7093853844623803E-3</v>
       </c>
       <c r="C18">
-        <v>9.0913339518010599E-3</v>
+        <v>4.45105167097624E-3</v>
       </c>
       <c r="D18">
         <v>185</v>
@@ -5388,10 +5388,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>6.0469547840707599E-3</v>
+        <v>5.4792786923874301E-3</v>
       </c>
       <c r="C19">
-        <v>5.9406578281446304E-3</v>
+        <v>5.2514890078128396E-3</v>
       </c>
       <c r="D19">
         <v>186</v>
@@ -5405,10 +5405,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>8.9976985974213695E-3</v>
+        <v>4.4829951672765702E-3</v>
       </c>
       <c r="C20">
-        <v>8.75080431092389E-3</v>
+        <v>4.29954711887005E-3</v>
       </c>
       <c r="D20">
         <v>187</v>
@@ -5422,10 +5422,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>7.2462623938918096E-3</v>
+        <v>3.8190014137510601E-3</v>
       </c>
       <c r="C21">
-        <v>7.0476222406082503E-3</v>
+        <v>3.6352375183221798E-3</v>
       </c>
       <c r="D21">
         <v>188</v>
@@ -5439,10 +5439,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22" s="4">
-        <v>1.1250231910166801E-2</v>
+        <v>6.5101707566594799E-3</v>
       </c>
       <c r="C22" s="4">
-        <v>9.14039982694991E-3</v>
+        <v>4.37331053207775E-3</v>
       </c>
       <c r="D22" s="4">
         <v>189</v>
@@ -5456,10 +5456,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23" s="4">
-        <v>7.8808035395002002E-3</v>
+        <v>7.3205368397267203E-3</v>
       </c>
       <c r="C23" s="4">
-        <v>5.8779234502794597E-3</v>
+        <v>5.2136289437807902E-3</v>
       </c>
       <c r="D23" s="4">
         <v>190</v>
@@ -5473,10 +5473,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24" s="4">
-        <v>1.10269392946664E-2</v>
+        <v>6.2661777871350398E-3</v>
       </c>
       <c r="C24" s="4">
-        <v>8.8815555990308104E-3</v>
+        <v>4.2112213416482499E-3</v>
       </c>
       <c r="D24" s="4">
         <v>191</v>
@@ -5490,10 +5490,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25" s="4">
-        <v>9.0013825676486404E-3</v>
+        <v>5.6748267900394696E-3</v>
       </c>
       <c r="C25" s="4">
-        <v>6.8944065088901302E-3</v>
+        <v>3.6323087988421299E-3</v>
       </c>
       <c r="D25" s="4">
         <v>192</v>
@@ -5507,10 +5507,10 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="2">
-        <v>2.9655917771632099E-2</v>
+        <v>2.5162904964465799E-2</v>
       </c>
       <c r="C26" s="2">
-        <v>8.2988153695117001E-3</v>
+        <v>4.2957312411122097E-3</v>
       </c>
       <c r="D26" s="2">
         <v>193</v>
@@ -5525,10 +5525,10 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="2">
-        <v>2.6445430314427601E-2</v>
+        <v>2.6010024933177101E-2</v>
       </c>
       <c r="C27" s="2">
-        <v>5.5886902433784696E-3</v>
+        <v>5.19573666040965E-3</v>
       </c>
       <c r="D27" s="2">
         <v>194</v>
@@ -5543,10 +5543,10 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="2">
-        <v>2.9855715511720299E-2</v>
+        <v>2.4883846686989501E-2</v>
       </c>
       <c r="C28" s="2">
-        <v>8.2246695079286596E-3</v>
+        <v>4.1426736677653599E-3</v>
       </c>
       <c r="D28" s="2">
         <v>195</v>
@@ -5561,10 +5561,10 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="2">
-        <v>2.7866829516766899E-2</v>
+        <v>2.4156064857124199E-2</v>
       </c>
       <c r="C29" s="2">
-        <v>6.7578509768258903E-3</v>
+        <v>3.58936816592815E-3</v>
       </c>
       <c r="D29" s="2">
         <v>196</v>
@@ -5579,10 +5579,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.219567153838616</v>
+        <v>0.210565855628565</v>
       </c>
       <c r="C30">
-        <v>8.9883078361236504E-3</v>
+        <v>5.1885855612916901E-3</v>
       </c>
       <c r="D30">
         <v>197</v>
@@ -5596,10 +5596,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>0.214728905430322</v>
+        <v>0.21319470606874999</v>
       </c>
       <c r="C31">
-        <v>6.8305068755451599E-3</v>
+        <v>6.0534920306516797E-3</v>
       </c>
       <c r="D31">
         <v>198</v>
@@ -5613,10 +5613,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>0.222239754245251</v>
+        <v>0.21011247407448899</v>
       </c>
       <c r="C32">
-        <v>8.7984160025002794E-3</v>
+        <v>5.1142435047056498E-3</v>
       </c>
       <c r="D32">
         <v>199</v>
@@ -5630,10 +5630,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.21480247397211499</v>
+        <v>0.20795849279353401</v>
       </c>
       <c r="C33">
-        <v>7.6411970289824802E-3</v>
+        <v>4.32835908386072E-3</v>
       </c>
       <c r="D33">
         <v>200</v>
@@ -5697,10 +5697,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>4.0384632013263496E-3</v>
+        <v>3.3286030451451201E-3</v>
       </c>
       <c r="C2">
-        <v>4.0268953064385802E-3</v>
+        <v>3.3452612360155101E-3</v>
       </c>
       <c r="D2">
         <v>201</v>
@@ -5714,11 +5714,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>3.7397458129058148E-3</v>
+        <v>3.3429455502360745E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>3.7676355008719603E-3</v>
+        <v>3.3555117419414326E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -5734,10 +5734,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3">
-        <v>3.5011249543968402E-3</v>
+        <v>3.53060631360448E-3</v>
       </c>
       <c r="C3">
-        <v>3.5706751867892999E-3</v>
+        <v>3.5240262330166602E-3</v>
       </c>
       <c r="D3">
         <v>202</v>
@@ -5751,11 +5751,11 @@
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>3.7208154725628575E-3</v>
+        <v>3.3348919723761349E-3</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>3.7503801418845525E-3</v>
+        <v>3.3476244976842024E-3</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="1"/>
@@ -5771,10 +5771,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4">
-        <v>3.7465143880575499E-3</v>
+        <v>3.3352326105311799E-3</v>
       </c>
       <c r="C4">
-        <v>3.7872795239562401E-3</v>
+        <v>3.35343031359738E-3</v>
       </c>
       <c r="D4">
         <v>203</v>
@@ -5788,11 +5788,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>3.7427689808948728E-3</v>
+        <v>3.34935206104488E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>3.7712462753340349E-3</v>
+        <v>3.3601908924123397E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -5808,10 +5808,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5">
-        <v>3.6728807078425202E-3</v>
+        <v>3.1773402316635198E-3</v>
       </c>
       <c r="C5">
-        <v>3.6856919863037202E-3</v>
+        <v>3.1993291851361801E-3</v>
       </c>
       <c r="D5">
         <v>204</v>
@@ -5825,11 +5825,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>3.76078909653043E-3</v>
+        <v>3.3688927135975899E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>3.7704254640560974E-3</v>
+        <v>3.3614671893270704E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -5845,10 +5845,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>3.9884060885235096E-3</v>
+        <v>3.3140655028498301E-3</v>
       </c>
       <c r="C6">
-        <v>3.9746293627149999E-3</v>
+        <v>3.3316476650438001E-3</v>
       </c>
       <c r="D6">
         <v>205</v>
@@ -5862,11 +5862,11 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>3.9335404453016047E-3</v>
+        <v>3.537267712170525E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>3.7543108963843724E-3</v>
+        <v>3.3450102951304078E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -5882,10 +5882,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>3.5001326316765899E-3</v>
+        <v>3.48284438515024E-3</v>
       </c>
       <c r="C7">
-        <v>3.5751074688108201E-3</v>
+        <v>3.4757309813836599E-3</v>
       </c>
       <c r="D7">
         <v>206</v>
@@ -5899,11 +5899,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>5.7984778700562447E-3</v>
+        <v>5.3833968817391751E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>3.7537699873276195E-3</v>
+        <v>3.3381354786749702E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -5919,10 +5919,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>3.7439423405630501E-3</v>
+        <v>3.36770788204368E-3</v>
       </c>
       <c r="C8">
-        <v>3.7866149427769999E-3</v>
+        <v>3.3858253828887002E-3</v>
       </c>
       <c r="D8">
         <v>207</v>
@@ -5936,11 +5936,11 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>2.4334474116753574E-2</v>
+        <v>2.3777079752067849E-2</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="6"/>
-        <v>3.6762929057313327E-3</v>
+        <v>3.2918578403871154E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="6"/>
@@ -5956,10 +5956,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>3.6507808294882799E-3</v>
+        <v>3.17495011946079E-3</v>
       </c>
       <c r="C9">
-        <v>3.66516879323539E-3</v>
+        <v>3.19729396142065E-3</v>
       </c>
       <c r="D9">
         <v>208</v>
@@ -5973,11 +5973,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>0.20901326358223399</v>
+        <v>0.20720556452213901</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>4.5749682452694675E-3</v>
+        <v>3.9746086633960249E-3</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -5993,10 +5993,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10">
-        <v>4.0073682447290303E-3</v>
+        <v>3.3344427269313098E-3</v>
       </c>
       <c r="C10">
-        <v>3.9986526811660403E-3</v>
+        <v>3.3498241917409898E-3</v>
       </c>
       <c r="D10">
         <v>209</v>
@@ -6006,7 +6006,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>3.6762929057313327E-3</v>
+        <v>3.2918578403871154E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -6014,10 +6014,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11">
-        <v>3.5228688406289299E-3</v>
+        <v>3.5340866352952501E-3</v>
       </c>
       <c r="C11">
-        <v>3.5921941788371898E-3</v>
+        <v>3.5253097507449002E-3</v>
       </c>
       <c r="D11">
         <v>210</v>
@@ -6031,10 +6031,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12">
-        <v>3.7602942101776001E-3</v>
+        <v>3.3425977874120502E-3</v>
       </c>
       <c r="C12">
-        <v>3.8014800063794099E-3</v>
+        <v>3.3588115199419998E-3</v>
       </c>
       <c r="D12">
         <v>211</v>
@@ -6048,10 +6048,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13">
-        <v>3.6805446280439298E-3</v>
+        <v>3.1862810945409098E-3</v>
       </c>
       <c r="C13">
-        <v>3.6926582349534999E-3</v>
+        <v>3.2068181072214702E-3</v>
       </c>
       <c r="D13">
         <v>212</v>
@@ -6065,10 +6065,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>4.0778019154076497E-3</v>
+        <v>3.3499112984551201E-3</v>
       </c>
       <c r="C14">
-        <v>4.0491340310560304E-3</v>
+        <v>3.3465151597435201E-3</v>
       </c>
       <c r="D14">
         <v>213</v>
@@ -6082,10 +6082,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>3.50173513381297E-3</v>
+        <v>3.5596828649255398E-3</v>
       </c>
       <c r="C15">
-        <v>3.5555749937090301E-3</v>
+        <v>3.5318382893149698E-3</v>
       </c>
       <c r="D15">
         <v>214</v>
@@ -6099,10 +6099,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>3.76544452485907E-3</v>
+        <v>3.3601762025333901E-3</v>
       </c>
       <c r="C16">
-        <v>3.7861081647769098E-3</v>
+        <v>3.3585029784916698E-3</v>
       </c>
       <c r="D16">
         <v>215</v>
@@ -6116,10 +6116,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>3.6981748120420298E-3</v>
+        <v>3.2058004884763102E-3</v>
       </c>
       <c r="C17">
-        <v>3.69088466668242E-3</v>
+        <v>3.2090123297581199E-3</v>
       </c>
       <c r="D17">
         <v>216</v>
@@ -6133,10 +6133,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>4.21159455677268E-3</v>
+        <v>3.5226263612558001E-3</v>
       </c>
       <c r="C18">
-        <v>3.9898960945443998E-3</v>
+        <v>3.3377763986783501E-3</v>
       </c>
       <c r="D18">
         <v>217</v>
@@ -6150,10 +6150,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>3.70549269845104E-3</v>
+        <v>3.70057627952571E-3</v>
       </c>
       <c r="C19">
-        <v>3.5705650991559698E-3</v>
+        <v>3.48613132199828E-3</v>
       </c>
       <c r="D19">
         <v>218</v>
@@ -6167,10 +6167,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>3.9406380420372701E-3</v>
+        <v>3.5433940043763101E-3</v>
       </c>
       <c r="C20">
-        <v>3.7725597113087901E-3</v>
+        <v>3.3562655188960201E-3</v>
       </c>
       <c r="D20">
         <v>219</v>
@@ -6184,10 +6184,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>3.8764364839454302E-3</v>
+        <v>3.3824742035242798E-3</v>
       </c>
       <c r="C21">
-        <v>3.6842226805283299E-3</v>
+        <v>3.1998679409489801E-3</v>
       </c>
       <c r="D21">
         <v>220</v>
@@ -6201,10 +6201,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>6.0778152031503597E-3</v>
+        <v>5.3671471536619001E-3</v>
       </c>
       <c r="C22">
-        <v>3.98582525999297E-3</v>
+        <v>3.33030096238903E-3</v>
       </c>
       <c r="D22">
         <v>221</v>
@@ -6218,10 +6218,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>5.5439883582056697E-3</v>
+        <v>5.5596389898021001E-3</v>
       </c>
       <c r="C23">
-        <v>3.5493051827755499E-3</v>
+        <v>3.4818724287967902E-3</v>
       </c>
       <c r="D23">
         <v>222</v>
@@ -6235,10 +6235,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>5.82424509724613E-3</v>
+        <v>5.3900696505435504E-3</v>
       </c>
       <c r="C24">
-        <v>3.7837155322438098E-3</v>
+        <v>3.35226627883681E-3</v>
       </c>
       <c r="D24">
         <v>223</v>
@@ -6252,10 +6252,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>5.7478628216228204E-3</v>
+        <v>5.2167317329491498E-3</v>
       </c>
       <c r="C25">
-        <v>3.6962339742981501E-3</v>
+        <v>3.1881022446772502E-3</v>
       </c>
       <c r="D25">
         <v>224</v>
@@ -6269,10 +6269,10 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="2">
-        <v>2.4705903391074899E-2</v>
+        <v>2.3757883868619201E-2</v>
       </c>
       <c r="C26" s="2">
-        <v>3.9024235521549198E-3</v>
+        <v>3.2914574298876899E-3</v>
       </c>
       <c r="D26" s="2">
         <v>225</v>
@@ -6287,10 +6287,10 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="2">
-        <v>2.40403490057986E-2</v>
+        <v>2.39698554549185E-2</v>
       </c>
       <c r="C27" s="2">
-        <v>3.5077873941605198E-3</v>
+        <v>3.4129876774131201E-3</v>
       </c>
       <c r="D27" s="2">
         <v>226</v>
@@ -6305,10 +6305,10 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="2">
-        <v>2.43036982241519E-2</v>
+        <v>2.3810733585630701E-2</v>
       </c>
       <c r="C28" s="2">
-        <v>3.6244148541760501E-3</v>
+        <v>3.3096177564737798E-3</v>
       </c>
       <c r="D28" s="2">
         <v>227</v>
@@ -6323,10 +6323,10 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="2">
-        <v>2.4287945845988899E-2</v>
+        <v>2.3569846099102999E-2</v>
       </c>
       <c r="C29" s="2">
-        <v>3.6705458224338401E-3</v>
+        <v>3.15336849777387E-3</v>
       </c>
       <c r="D29" s="2">
         <v>228</v>
@@ -6341,10 +6341,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.210035768094336</v>
+        <v>0.20708580787749001</v>
       </c>
       <c r="C30">
-        <v>4.8606640871472701E-3</v>
+        <v>3.9744360654271702E-3</v>
       </c>
       <c r="D30">
         <v>229</v>
@@ -6358,10 +6358,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>0.20823170320623199</v>
+        <v>0.208034962612626</v>
       </c>
       <c r="C31">
-        <v>4.3580967526222697E-3</v>
+        <v>4.1282617246013202E-3</v>
       </c>
       <c r="D31">
         <v>230</v>
@@ -6375,10 +6375,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>0.20882376354591101</v>
+        <v>0.207345592227276</v>
       </c>
       <c r="C32">
-        <v>4.4677223055328702E-3</v>
+        <v>4.0242273397253503E-3</v>
       </c>
       <c r="D32">
         <v>231</v>
@@ -6392,10 +6392,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.20896181948245701</v>
+        <v>0.206355895371164</v>
       </c>
       <c r="C33">
-        <v>4.61338983577546E-3</v>
+        <v>3.7715095238302601E-3</v>
       </c>
       <c r="D33">
         <v>232</v>
@@ -6413,8 +6413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6459,10 +6459,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>3.2041017300844998E-3</v>
+        <v>3.02425775951849E-3</v>
       </c>
       <c r="C2">
-        <v>3.1560747206352499E-3</v>
+        <v>3.0395036089446402E-3</v>
       </c>
       <c r="D2">
         <v>233</v>
@@ -6476,11 +6476,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>3.1580494262260176E-3</v>
+        <v>3.0123425013229774E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>3.1600658018495599E-3</v>
+        <v>3.0236552829911328E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -6496,10 +6496,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3">
-        <v>3.1005940615785599E-3</v>
+        <v>3.0575797212051602E-3</v>
       </c>
       <c r="C3">
-        <v>3.1345281307880199E-3</v>
+        <v>3.0511205121384602E-3</v>
       </c>
       <c r="D3">
         <v>234</v>
@@ -6513,11 +6513,11 @@
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>3.1558697782501448E-3</v>
+        <v>3.0146731622209375E-3</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>3.1578474025289148E-3</v>
+        <v>3.02590854749851E-3</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="1"/>
@@ -6533,10 +6533,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4">
-        <v>3.1555442767330802E-3</v>
+        <v>3.0215946133843401E-3</v>
       </c>
       <c r="C4">
-        <v>3.1796586080866901E-3</v>
+        <v>3.0333070950419199E-3</v>
       </c>
       <c r="D4">
         <v>235</v>
@@ -6550,11 +6550,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>3.1568504590615476E-3</v>
+        <v>3.0132427680591252E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>3.1564704472599849E-3</v>
+        <v>3.0227542386120649E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -6570,10 +6570,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5">
-        <v>3.1719576365079301E-3</v>
+        <v>2.94593791118392E-3</v>
       </c>
       <c r="C5">
-        <v>3.1700017478882799E-3</v>
+        <v>2.97068991583951E-3</v>
       </c>
       <c r="D5">
         <v>236</v>
@@ -6587,11 +6587,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>3.175521086635115E-3</v>
+        <v>3.0305796770311198E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>3.1566609587237397E-3</v>
+        <v>3.0212670808715146E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -6607,10 +6607,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>3.2027931712841498E-3</v>
+        <v>3.01907566429366E-3</v>
       </c>
       <c r="C6">
-        <v>3.1545166415457098E-3</v>
+        <v>3.0338614341688499E-3</v>
       </c>
       <c r="D6">
         <v>237</v>
@@ -6624,11 +6624,11 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>3.36011326775109E-3</v>
+        <v>3.2178783260536047E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>3.1569051671230851E-3</v>
+        <v>3.0248235153410102E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -6644,10 +6644,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>3.1030602074754799E-3</v>
+        <v>3.0681152385967198E-3</v>
       </c>
       <c r="C7">
-        <v>3.1377589683743898E-3</v>
+        <v>3.0617917307832199E-3</v>
       </c>
       <c r="D7">
         <v>238</v>
@@ -6661,11 +6661,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>5.2062104472491719E-3</v>
+        <v>5.0452463423714226E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>3.1550228168386201E-3</v>
+        <v>3.0158913480893951E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -6681,10 +6681,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>3.1531401180897199E-3</v>
+        <v>3.0252187115874601E-3</v>
       </c>
       <c r="C8">
-        <v>3.1770046835741601E-3</v>
+        <v>3.0369239352774201E-3</v>
       </c>
       <c r="D8">
         <v>239</v>
@@ -6698,11 +6698,11 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>2.3579426456433177E-2</v>
+        <v>2.3327068787781974E-2</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="6"/>
-        <v>3.1168406307579373E-3</v>
+        <v>2.986904316920815E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="6"/>
@@ -6718,10 +6718,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>3.1644856161512302E-3</v>
+        <v>2.94628303440591E-3</v>
       </c>
       <c r="C9">
-        <v>3.1621093166213999E-3</v>
+        <v>2.97105708976455E-3</v>
       </c>
       <c r="D9">
         <v>240</v>
@@ -6735,11 +6735,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>0.20700752498290351</v>
+        <v>0.20578989626979177</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>3.8850516805873253E-3</v>
+        <v>3.5936312306786649E-3</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -6755,10 +6755,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10">
-        <v>3.2025251519708499E-3</v>
+        <v>3.02045410632315E-3</v>
       </c>
       <c r="C10">
-        <v>3.15217004758836E-3</v>
+        <v>3.0335178741727701E-3</v>
       </c>
       <c r="D10">
         <v>241</v>
@@ -6768,7 +6768,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>3.1168406307579373E-3</v>
+        <v>2.986904316920815E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -6776,10 +6776,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11">
-        <v>3.1018076797786598E-3</v>
+        <v>3.0584465045613201E-3</v>
       </c>
       <c r="C11">
-        <v>3.1337794417491799E-3</v>
+        <v>3.04946787206031E-3</v>
       </c>
       <c r="D11">
         <v>242</v>
@@ -6793,10 +6793,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12">
-        <v>3.1489402133102599E-3</v>
+        <v>3.02478407985543E-3</v>
       </c>
       <c r="C12">
-        <v>3.1706255630743201E-3</v>
+        <v>3.0355613674608998E-3</v>
       </c>
       <c r="D12">
         <v>243</v>
@@ -6810,10 +6810,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13">
-        <v>3.1741287911864198E-3</v>
+        <v>2.9492863814966001E-3</v>
       </c>
       <c r="C13">
-        <v>3.1693067366280799E-3</v>
+        <v>2.9724698407542802E-3</v>
       </c>
       <c r="D13">
         <v>244</v>
@@ -6827,10 +6827,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>3.22330601144427E-3</v>
+        <v>3.04034471846214E-3</v>
       </c>
       <c r="C14">
-        <v>3.1547823455184698E-3</v>
+        <v>3.0349826668960998E-3</v>
       </c>
       <c r="D14">
         <v>245</v>
@@ -6844,10 +6844,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>3.1144477660580202E-3</v>
+        <v>3.0743171428104501E-3</v>
       </c>
       <c r="C15">
-        <v>3.1265478928962399E-3</v>
+        <v>3.0474410179937E-3</v>
       </c>
       <c r="D15">
         <v>246</v>
@@ -6861,10 +6861,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>3.1731954832284501E-3</v>
+        <v>3.04174469117206E-3</v>
       </c>
       <c r="C16">
-        <v>3.1768820378222E-3</v>
+        <v>3.0321178124531299E-3</v>
       </c>
       <c r="D16">
         <v>247</v>
@@ -6878,10 +6878,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>3.1911350858097199E-3</v>
+        <v>2.9659121556798299E-3</v>
       </c>
       <c r="C17">
-        <v>3.1684315586580501E-3</v>
+        <v>2.9705268261431298E-3</v>
       </c>
       <c r="D17">
         <v>248</v>
@@ -6895,10 +6895,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>3.4098179323580799E-3</v>
+        <v>3.22341515953418E-3</v>
       </c>
       <c r="C18">
-        <v>3.1551851189541998E-3</v>
+        <v>3.0342449491288E-3</v>
       </c>
       <c r="D18">
         <v>249</v>
@@ -6912,10 +6912,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>3.2988982825590501E-3</v>
+        <v>3.2699027099740898E-3</v>
       </c>
       <c r="C19">
-        <v>3.1270736863813001E-3</v>
+        <v>3.0582185340391698E-3</v>
       </c>
       <c r="D19">
         <v>250</v>
@@ -6929,10 +6929,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>3.3540217415652801E-3</v>
+        <v>3.2285687622372098E-3</v>
       </c>
       <c r="C20">
-        <v>3.1721414497145701E-3</v>
+        <v>3.0362179069861502E-3</v>
       </c>
       <c r="D20">
         <v>251</v>
@@ -6946,10 +6946,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>3.37771511452195E-3</v>
+        <v>3.1496266724689399E-3</v>
       </c>
       <c r="C21">
-        <v>3.17322041344227E-3</v>
+        <v>2.9706126712099202E-3</v>
       </c>
       <c r="D21">
         <v>252</v>
@@ -6963,10 +6963,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>5.2525140523624796E-3</v>
+        <v>5.0489747781913702E-3</v>
       </c>
       <c r="C22">
-        <v>3.14857248405489E-3</v>
+        <v>3.0245871973436302E-3</v>
       </c>
       <c r="D22">
         <v>253</v>
@@ -6980,10 +6980,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>5.1712584577667401E-3</v>
+        <v>5.0968428251091397E-3</v>
       </c>
       <c r="C23">
-        <v>3.1529113891994201E-3</v>
+        <v>3.0484165967719799E-3</v>
       </c>
       <c r="D23">
         <v>254</v>
@@ -6997,10 +6997,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>5.2014098386652099E-3</v>
+        <v>5.0554879477436301E-3</v>
       </c>
       <c r="C24">
-        <v>3.1680260354629399E-3</v>
+        <v>3.0256508678001698E-3</v>
       </c>
       <c r="D24">
         <v>255</v>
@@ -7014,10 +7014,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>5.1996594402022598E-3</v>
+        <v>4.9796798184415497E-3</v>
       </c>
       <c r="C25">
-        <v>3.1505813586372301E-3</v>
+        <v>2.9649107304418002E-3</v>
       </c>
       <c r="D25">
         <v>256</v>
@@ -7031,10 +7031,10 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="2">
-        <v>2.3648382530520901E-2</v>
+        <v>2.33302892797056E-2</v>
       </c>
       <c r="C26" s="2">
-        <v>3.1159047385135399E-3</v>
+        <v>2.99059632520207E-3</v>
       </c>
       <c r="D26" s="2">
         <v>257</v>
@@ -7049,10 +7049,10 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="2">
-        <v>2.3531954574842001E-2</v>
+        <v>2.3393314475365901E-2</v>
       </c>
       <c r="C27" s="2">
-        <v>3.09262918662044E-3</v>
+        <v>3.0134495739873998E-3</v>
       </c>
       <c r="D27" s="2">
         <v>258</v>
@@ -7067,10 +7067,10 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="2">
-        <v>2.35708517174179E-2</v>
+        <v>2.33391804111883E-2</v>
       </c>
       <c r="C28" s="2">
-        <v>3.1304649383866998E-3</v>
+        <v>2.99648552103654E-3</v>
       </c>
       <c r="D28" s="2">
         <v>259</v>
@@ -7085,10 +7085,10 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="2">
-        <v>2.3566517002951901E-2</v>
+        <v>2.3245490984868101E-2</v>
       </c>
       <c r="C29" s="2">
-        <v>3.1283636595110702E-3</v>
+        <v>2.9470858474572501E-3</v>
       </c>
       <c r="D29" s="2">
         <v>260</v>
@@ -7103,10 +7103,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.20750597319283001</v>
+        <v>0.20584537676383699</v>
       </c>
       <c r="C30">
-        <v>3.9371583828867601E-3</v>
+        <v>3.5764039820876999E-3</v>
       </c>
       <c r="D30">
         <v>261</v>
@@ -7120,10 +7120,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>0.206463959603644</v>
+        <v>0.205987148512039</v>
       </c>
       <c r="C31">
-        <v>3.8017096834941002E-3</v>
+        <v>3.64980998596078E-3</v>
       </c>
       <c r="D31">
         <v>262</v>
@@ -7137,10 +7137,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>0.206952812286992</v>
+        <v>0.205738482003957</v>
       </c>
       <c r="C32">
-        <v>3.8720256195085298E-3</v>
+        <v>3.6075624551526E-3</v>
       </c>
       <c r="D32">
         <v>263</v>
@@ -7154,10 +7154,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.20710735484814799</v>
+        <v>0.20558857779933401</v>
       </c>
       <c r="C33">
-        <v>3.92931303645991E-3</v>
+        <v>3.5407484995135801E-3</v>
       </c>
       <c r="D33">
         <v>264</v>

--- a/eg1.xlsx
+++ b/eg1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A3F33C-3A73-AA42-AE0F-C5782A3BD2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597C526C-D655-DD44-907A-4ACB5FCA7BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
@@ -511,13 +511,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>1.00292325019836</v>
+        <v>1.0052530765533401</v>
       </c>
       <c r="C2">
-        <v>5.1700041419581302</v>
+        <v>3.99080779451005</v>
       </c>
       <c r="D2">
-        <v>5.15685933514645</v>
+        <v>4.0833011282251199</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -531,15 +531,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
-        <v>1.00292325019836</v>
+        <v>1.0052530765533401</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>5.1971420399975301</v>
+        <v>4.0179506001320249</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>5.1729481167960545</v>
+        <v>4.0003568612514622</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
@@ -555,13 +555,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1.00292325019836</v>
+        <v>1.0052530765533401</v>
       </c>
       <c r="C3">
-        <v>5.1981685998146903</v>
+        <v>3.97883031216073</v>
       </c>
       <c r="D3">
-        <v>5.1583973859485797</v>
+        <v>3.9621055963191498</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -575,15 +575,15 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.0058465003967201</v>
+        <v>2.0105061531066801</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>3.15100344749608E-3</v>
+        <v>6.0483270778043255E-3</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>3.163279041345635E-3</v>
+        <v>6.074892375568677E-3</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
@@ -599,13 +599,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>1.00292325019836</v>
+        <v>1.0052530765533401</v>
       </c>
       <c r="C4">
-        <v>5.2187511126200299</v>
+        <v>4.0404896939054398</v>
       </c>
       <c r="D4">
-        <v>5.1874911785125697</v>
+        <v>3.9890194852301399</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -619,15 +619,15 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
-        <v>4.0116930007934499</v>
+        <v>4.02101230621337</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>2.7473026232001426E-3</v>
+        <v>5.3918758318065897E-3</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>2.7826306407070251E-3</v>
+        <v>5.4680064934840827E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
@@ -643,13 +643,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>1.00292325019836</v>
+        <v>1.0052530765533401</v>
       </c>
       <c r="C5">
-        <v>5.2016443055972701</v>
+        <v>4.0616745999518802</v>
       </c>
       <c r="D5">
-        <v>5.1890445675766204</v>
+        <v>3.9670012352314399</v>
       </c>
       <c r="E5">
         <v>4</v>
@@ -663,15 +663,15 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
-        <v>8.0233860015869105</v>
+        <v>8.0420246124267507</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="3"/>
-        <v>2.7102732667372621E-3</v>
+        <v>5.3269038412799199E-3</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>2.76381532833176E-3</v>
+        <v>5.4368882667907344E-3</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="3"/>
@@ -687,13 +687,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2.0058465003967201</v>
+        <v>2.0105061531066801</v>
       </c>
       <c r="C6">
-        <v>3.0941390922587099E-3</v>
+        <v>5.81463651751425E-3</v>
       </c>
       <c r="D6">
-        <v>3.07949049308438E-3</v>
+        <v>5.8809042353420802E-3</v>
       </c>
       <c r="E6">
         <v>5</v>
@@ -707,15 +707,15 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
-        <v>16.0467720031738</v>
+        <v>16.084049224853501</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>2.7122769020742846E-3</v>
+        <v>5.3220037247074057E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>2.7720003594080625E-3</v>
+        <v>5.4470428149215799E-3</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -731,13 +731,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2.0058465003967201</v>
+        <v>2.0105061531066801</v>
       </c>
       <c r="C7">
-        <v>3.23483065023952E-3</v>
+        <v>6.23253721525852E-3</v>
       </c>
       <c r="D7">
-        <v>3.2077728190638998E-3</v>
+        <v>6.2911933624839496E-3</v>
       </c>
       <c r="E7">
         <v>6</v>
@@ -751,15 +751,15 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
-        <v>32.093544006347599</v>
+        <v>32.168098449707003</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.7244239233703746E-3</v>
+        <v>5.3311459524457844E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>2.78627751150021E-3</v>
+        <v>5.4611675106880624E-3</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -775,13 +775,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2.0058465003967201</v>
+        <v>2.0105061531066801</v>
       </c>
       <c r="C8">
-        <v>3.1539814897992599E-3</v>
+        <v>5.9815437404161396E-3</v>
       </c>
       <c r="D8">
-        <v>3.1812440505937498E-3</v>
+        <v>6.0417215646977702E-3</v>
       </c>
       <c r="E8">
         <v>7</v>
@@ -791,7 +791,7 @@
       </c>
       <c r="M8">
         <f>MIN(M2:M7)</f>
-        <v>2.76381532833176E-3</v>
+        <v>5.4368882667907344E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -799,13 +799,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>2.0058465003967201</v>
+        <v>2.0105061531066801</v>
       </c>
       <c r="C9">
-        <v>3.1210625576868298E-3</v>
+        <v>6.1645908380283899E-3</v>
       </c>
       <c r="D9">
-        <v>3.1846088026405098E-3</v>
+        <v>6.0857503397509097E-3</v>
       </c>
       <c r="E9">
         <v>8</v>
@@ -819,13 +819,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>4.0116930007934499</v>
+        <v>4.02101230621337</v>
       </c>
       <c r="C10" s="4">
-        <v>2.75205055929785E-3</v>
+        <v>5.4019796909724697E-3</v>
       </c>
       <c r="D10" s="4">
-        <v>2.79084549963539E-3</v>
+        <v>5.4676769588618201E-3</v>
       </c>
       <c r="E10" s="4">
         <v>9</v>
@@ -839,13 +839,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>4.0116930007934499</v>
+        <v>4.02101230621337</v>
       </c>
       <c r="C11" s="4">
-        <v>2.7551108056254499E-3</v>
+        <v>5.4151243381598503E-3</v>
       </c>
       <c r="D11" s="4">
-        <v>2.77714264219659E-3</v>
+        <v>5.4985961054471498E-3</v>
       </c>
       <c r="E11" s="4">
         <v>10</v>
@@ -859,13 +859,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>4.0116930007934499</v>
+        <v>4.02101230621337</v>
       </c>
       <c r="C12" s="4">
-        <v>2.7389440036035598E-3</v>
+        <v>5.3682238299478796E-3</v>
       </c>
       <c r="D12" s="4">
-        <v>2.7750205767357299E-3</v>
+        <v>5.4943240099051497E-3</v>
       </c>
       <c r="E12" s="4">
         <v>11</v>
@@ -879,13 +879,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>4.0116930007934499</v>
+        <v>4.02101230621337</v>
       </c>
       <c r="C13" s="4">
-        <v>2.7431051242737098E-3</v>
+        <v>5.3821754681461602E-3</v>
       </c>
       <c r="D13" s="4">
-        <v>2.78751384426039E-3</v>
+        <v>5.4114288997222102E-3</v>
       </c>
       <c r="E13" s="4">
         <v>12</v>
@@ -899,13 +899,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>8.0233860015869105</v>
+        <v>8.0420246124267507</v>
       </c>
       <c r="C14" s="4">
-        <v>2.7094112010672602E-3</v>
+        <v>5.34515061534624E-3</v>
       </c>
       <c r="D14" s="4">
-        <v>2.75665660911615E-3</v>
+        <v>5.4538415873700598E-3</v>
       </c>
       <c r="E14" s="4">
         <v>13</v>
@@ -919,13 +919,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>8.0233860015869105</v>
+        <v>8.0420246124267507</v>
       </c>
       <c r="C15" s="4">
-        <v>2.7079084487795298E-3</v>
+        <v>5.3589118030318503E-3</v>
       </c>
       <c r="D15" s="4">
-        <v>2.7625682669806099E-3</v>
+        <v>5.4584091994911398E-3</v>
       </c>
       <c r="E15" s="4">
         <v>14</v>
@@ -939,13 +939,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="4">
-        <v>8.0233860015869105</v>
+        <v>8.0420246124267507</v>
       </c>
       <c r="C16" s="4">
-        <v>2.7166765260820498E-3</v>
+        <v>5.2981991122694697E-3</v>
       </c>
       <c r="D16" s="4">
-        <v>2.7570638033610402E-3</v>
+        <v>5.4589601808247403E-3</v>
       </c>
       <c r="E16" s="4">
         <v>15</v>
@@ -959,13 +959,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>8.0233860015869105</v>
+        <v>8.0420246124267507</v>
       </c>
       <c r="C17" s="4">
-        <v>2.7070968910202099E-3</v>
+        <v>5.3053538344721204E-3</v>
       </c>
       <c r="D17" s="4">
-        <v>2.7789726338692399E-3</v>
+        <v>5.3763420994769997E-3</v>
       </c>
       <c r="E17" s="4">
         <v>16</v>
@@ -979,13 +979,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>16.0467720031738</v>
+        <v>16.084049224853501</v>
       </c>
       <c r="C18">
-        <v>2.7174771101655098E-3</v>
+        <v>5.32806002871787E-3</v>
       </c>
       <c r="D18">
-        <v>2.7689673537551799E-3</v>
+        <v>5.4594100492590201E-3</v>
       </c>
       <c r="E18">
         <v>17</v>
@@ -999,13 +999,13 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>16.0467720031738</v>
+        <v>16.084049224853501</v>
       </c>
       <c r="C19">
-        <v>2.7165084775014402E-3</v>
+        <v>5.3577579042695901E-3</v>
       </c>
       <c r="D19">
-        <v>2.7639018780176001E-3</v>
+        <v>5.4594511364368598E-3</v>
       </c>
       <c r="E19">
         <v>18</v>
@@ -1019,13 +1019,13 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>16.0467720031738</v>
+        <v>16.084049224853501</v>
       </c>
       <c r="C20">
-        <v>2.7168966143539001E-3</v>
+        <v>5.2904181004046098E-3</v>
       </c>
       <c r="D20">
-        <v>2.77189307094535E-3</v>
+        <v>5.4578824374983204E-3</v>
       </c>
       <c r="E20">
         <v>19</v>
@@ -1039,13 +1039,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>16.0467720031738</v>
+        <v>16.084049224853501</v>
       </c>
       <c r="C21">
-        <v>2.6982254062762898E-3</v>
+        <v>5.3117788654375503E-3</v>
       </c>
       <c r="D21">
-        <v>2.7832391349141201E-3</v>
+        <v>5.4114276364921202E-3</v>
       </c>
       <c r="E21">
         <v>20</v>
@@ -1059,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B22">
-        <v>32.093544006347599</v>
+        <v>32.168098449707003</v>
       </c>
       <c r="C22">
-        <v>2.7293277406052001E-3</v>
+        <v>5.3486403404794398E-3</v>
       </c>
       <c r="D22">
-        <v>2.7830278594863701E-3</v>
+        <v>5.47221154866224E-3</v>
       </c>
       <c r="E22">
         <v>21</v>
@@ -1079,13 +1079,13 @@
         <v>16</v>
       </c>
       <c r="B23">
-        <v>32.093544006347599</v>
+        <v>32.168098449707003</v>
       </c>
       <c r="C23">
-        <v>2.7225881757770099E-3</v>
+        <v>5.3594470856354499E-3</v>
       </c>
       <c r="D23">
-        <v>2.77866696195448E-3</v>
+        <v>5.4621819228409399E-3</v>
       </c>
       <c r="E23">
         <v>22</v>
@@ -1099,13 +1099,13 @@
         <v>16</v>
       </c>
       <c r="B24">
-        <v>32.093544006347599</v>
+        <v>32.168098449707003</v>
       </c>
       <c r="C24">
-        <v>2.7277722705580398E-3</v>
+        <v>5.3034715126565697E-3</v>
       </c>
       <c r="D24">
-        <v>2.78182235227799E-3</v>
+        <v>5.4973652338648699E-3</v>
       </c>
       <c r="E24">
         <v>23</v>
@@ -1119,13 +1119,13 @@
         <v>16</v>
       </c>
       <c r="B25">
-        <v>32.093544006347599</v>
+        <v>32.168098449707003</v>
       </c>
       <c r="C25">
-        <v>2.7180075065412501E-3</v>
+        <v>5.3130248710116798E-3</v>
       </c>
       <c r="D25">
-        <v>2.801592872282E-3</v>
+        <v>5.4129113373841999E-3</v>
       </c>
       <c r="E25">
         <v>24</v>
@@ -1193,13 +1193,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>1.00292325019836</v>
+        <v>1.0052530765533401</v>
       </c>
       <c r="C2">
-        <v>5.1969659380975797</v>
+        <v>3.9874035601920199</v>
       </c>
       <c r="D2">
-        <v>5.1568576243885698</v>
+        <v>4.0833016760805796</v>
       </c>
       <c r="E2">
         <v>25</v>
@@ -1213,15 +1213,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
-        <v>1.00292325019836</v>
+        <v>1.0052530765533401</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>5.2037414396386801</v>
+        <v>4.0299768863206173</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>5.1729273492829773</v>
+        <v>4.0003181664233445</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
@@ -1237,13 +1237,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1.00292325019836</v>
+        <v>1.0052530765533401</v>
       </c>
       <c r="C3">
-        <v>5.1952167670632203</v>
+        <v>4.01805422661152</v>
       </c>
       <c r="D3">
-        <v>5.1583465065872396</v>
+        <v>3.9620051282517399</v>
       </c>
       <c r="E3">
         <v>26</v>
@@ -1257,15 +1257,15 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.0058465003967201</v>
+        <v>2.0105061531066801</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>2.7209173347944524E-3</v>
+        <v>5.4133116339452197E-3</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
-        <v>2.7251174763302478E-3</v>
+        <v>5.4234516809377378E-3</v>
       </c>
       <c r="N3">
         <f t="shared" si="1"/>
@@ -1281,13 +1281,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>1.00292325019836</v>
+        <v>1.0052530765533401</v>
       </c>
       <c r="C4">
-        <v>5.2144427068433004</v>
+        <v>4.0451592739592197</v>
       </c>
       <c r="D4">
-        <v>5.18746385657996</v>
+        <v>3.9889789718262598</v>
       </c>
       <c r="E4">
         <v>27</v>
@@ -1301,15 +1301,15 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
-        <v>4.0116930007934499</v>
+        <v>4.02101230621337</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>2.7204177243376525E-3</v>
+        <v>5.3729658439864375E-3</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>2.7437522561134125E-3</v>
+        <v>5.429559665920328E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
@@ -1325,13 +1325,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>1.00292325019836</v>
+        <v>1.0052530765533401</v>
       </c>
       <c r="C5">
-        <v>5.2083403465506199</v>
+        <v>4.0692904845197102</v>
       </c>
       <c r="D5">
-        <v>5.1890414095761397</v>
+        <v>3.9669868895347999</v>
       </c>
       <c r="E5">
         <v>28</v>
@@ -1345,15 +1345,15 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
-        <v>8.0233860015869105</v>
+        <v>8.0420246124267507</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" si="3"/>
-        <v>2.7028766175063246E-3</v>
+        <v>5.3427820700775557E-3</v>
       </c>
       <c r="M5" s="2">
         <f t="shared" si="3"/>
-        <v>2.7255600690024675E-3</v>
+        <v>5.4017811954179948E-3</v>
       </c>
       <c r="N5" s="2">
         <f t="shared" si="3"/>
@@ -1369,13 +1369,13 @@
         <v>1</v>
       </c>
       <c r="B6">
-        <v>2.0058465003967201</v>
+        <v>2.0105061531066801</v>
       </c>
       <c r="C6">
-        <v>2.7248355281018202E-3</v>
+        <v>5.4101052178822896E-3</v>
       </c>
       <c r="D6">
-        <v>2.71894766034133E-3</v>
+        <v>5.4437627153907002E-3</v>
       </c>
       <c r="E6">
         <v>29</v>
@@ -1389,15 +1389,15 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
-        <v>16.0467720031738</v>
+        <v>16.084049224853501</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>2.7052579713792426E-3</v>
+        <v>5.33385903195557E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>2.7304251745686276E-3</v>
+        <v>5.404805357102303E-3</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -1413,13 +1413,13 @@
         <v>1</v>
       </c>
       <c r="B7">
-        <v>2.0058465003967201</v>
+        <v>2.0105061531066801</v>
       </c>
       <c r="C7">
-        <v>2.7231157219882499E-3</v>
+        <v>5.4192274432391498E-3</v>
       </c>
       <c r="D7">
-        <v>2.7203284645158899E-3</v>
+        <v>5.4450698414857E-3</v>
       </c>
       <c r="E7">
         <v>30</v>
@@ -1433,15 +1433,15 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
-        <v>32.093544006347599</v>
+        <v>32.168098449707003</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.7061416752152253E-3</v>
+        <v>5.3355985115519974E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>2.7334687602297725E-3</v>
+        <v>5.4106200163430949E-3</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -1457,13 +1457,13 @@
         <v>1</v>
       </c>
       <c r="B8">
-        <v>2.0058465003967201</v>
+        <v>2.0105061531066801</v>
       </c>
       <c r="C8">
-        <v>2.7160127298487902E-3</v>
+        <v>5.3927576952078797E-3</v>
       </c>
       <c r="D8">
-        <v>2.7316397468543098E-3</v>
+        <v>5.4370226596105603E-3</v>
       </c>
       <c r="E8">
         <v>31</v>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="M8">
         <f>MIN(M2:M7)</f>
-        <v>2.7251174763302478E-3</v>
+        <v>5.4017811954179948E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1481,13 +1481,13 @@
         <v>1</v>
       </c>
       <c r="B9">
-        <v>2.0058465003967201</v>
+        <v>2.0105061531066801</v>
       </c>
       <c r="C9">
-        <v>2.71970535923895E-3</v>
+        <v>5.4311561794515599E-3</v>
       </c>
       <c r="D9">
-        <v>2.7295540336094602E-3</v>
+        <v>5.3679515072639896E-3</v>
       </c>
       <c r="E9">
         <v>32</v>
@@ -1501,13 +1501,13 @@
         <v>2</v>
       </c>
       <c r="B10" s="4">
-        <v>4.0116930007934499</v>
+        <v>4.02101230621337</v>
       </c>
       <c r="C10" s="4">
-        <v>2.7147279488177098E-3</v>
+        <v>5.3809057336617599E-3</v>
       </c>
       <c r="D10" s="4">
-        <v>2.7315793375141499E-3</v>
+        <v>5.4501127303042901E-3</v>
       </c>
       <c r="E10" s="4">
         <v>33</v>
@@ -1521,13 +1521,13 @@
         <v>2</v>
       </c>
       <c r="B11" s="4">
-        <v>4.0116930007934499</v>
+        <v>4.02101230621337</v>
       </c>
       <c r="C11" s="4">
-        <v>2.7302258241806701E-3</v>
+        <v>5.3823368569360401E-3</v>
       </c>
       <c r="D11" s="4">
-        <v>2.7485332480354E-3</v>
+        <v>5.4534539738868102E-3</v>
       </c>
       <c r="E11" s="4">
         <v>34</v>
@@ -1541,13 +1541,13 @@
         <v>2</v>
       </c>
       <c r="B12" s="4">
-        <v>4.0116930007934499</v>
+        <v>4.02101230621337</v>
       </c>
       <c r="C12" s="4">
-        <v>2.7117272315850399E-3</v>
+        <v>5.34055403314847E-3</v>
       </c>
       <c r="D12" s="4">
-        <v>2.74249356395254E-3</v>
+        <v>5.4476782729096203E-3</v>
       </c>
       <c r="E12" s="4">
         <v>35</v>
@@ -1561,13 +1561,13 @@
         <v>2</v>
       </c>
       <c r="B13" s="4">
-        <v>4.0116930007934499</v>
+        <v>4.02101230621337</v>
       </c>
       <c r="C13" s="4">
-        <v>2.7249898927671902E-3</v>
+        <v>5.3880667521994802E-3</v>
       </c>
       <c r="D13" s="4">
-        <v>2.7524028749515601E-3</v>
+        <v>5.3669936865805897E-3</v>
       </c>
       <c r="E13" s="4">
         <v>36</v>
@@ -1581,13 +1581,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="2">
-        <v>8.0233860015869105</v>
+        <v>8.0420246124267507</v>
       </c>
       <c r="C14" s="2">
-        <v>2.70458606855394E-3</v>
+        <v>5.3540039312173701E-3</v>
       </c>
       <c r="D14" s="2">
-        <v>2.7210500740789201E-3</v>
+        <v>5.4229441485268599E-3</v>
       </c>
       <c r="E14" s="2">
         <v>37</v>
@@ -1601,13 +1601,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="2">
-        <v>8.0233860015869105</v>
+        <v>8.0420246124267507</v>
       </c>
       <c r="C15" s="2">
-        <v>2.7126969291627499E-3</v>
+        <v>5.3584786364808601E-3</v>
       </c>
       <c r="D15" s="2">
-        <v>2.7247801782530599E-3</v>
+        <v>5.4210357199561696E-3</v>
       </c>
       <c r="E15" s="2">
         <v>38</v>
@@ -1621,13 +1621,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="2">
-        <v>8.0233860015869105</v>
+        <v>8.0420246124267507</v>
       </c>
       <c r="C16" s="2">
-        <v>2.6917291255380599E-3</v>
+        <v>5.3012246523607203E-3</v>
       </c>
       <c r="D16" s="2">
-        <v>2.7243377755216298E-3</v>
+        <v>5.4280834886780401E-3</v>
       </c>
       <c r="E16" s="2">
         <v>39</v>
@@ -1641,13 +1641,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="2">
-        <v>8.0233860015869105</v>
+        <v>8.0420246124267507</v>
       </c>
       <c r="C17" s="2">
-        <v>2.7024943467705499E-3</v>
+        <v>5.3574210602512704E-3</v>
       </c>
       <c r="D17" s="2">
-        <v>2.7320722481562602E-3</v>
+        <v>5.3350614245109102E-3</v>
       </c>
       <c r="E17" s="2">
         <v>40</v>
@@ -1661,13 +1661,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>16.0467720031738</v>
+        <v>16.084049224853501</v>
       </c>
       <c r="C18">
-        <v>2.70917750012933E-3</v>
+        <v>5.3305840268334801E-3</v>
       </c>
       <c r="D18">
-        <v>2.7333101004427401E-3</v>
+        <v>5.4175703330559899E-3</v>
       </c>
       <c r="E18">
         <v>41</v>
@@ -1681,13 +1681,13 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>16.0467720031738</v>
+        <v>16.084049224853501</v>
       </c>
       <c r="C19">
-        <v>2.71219126100647E-3</v>
+        <v>5.3552910685539202E-3</v>
       </c>
       <c r="D19">
-        <v>2.7185810705352702E-3</v>
+        <v>5.4271538900409599E-3</v>
       </c>
       <c r="E19">
         <v>42</v>
@@ -1701,13 +1701,13 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>16.0467720031738</v>
+        <v>16.084049224853501</v>
       </c>
       <c r="C20">
-        <v>2.69396396329224E-3</v>
+        <v>5.2906789797100597E-3</v>
       </c>
       <c r="D20">
-        <v>2.73525822711618E-3</v>
+        <v>5.4221318866264903E-3</v>
       </c>
       <c r="E20">
         <v>43</v>
@@ -1721,13 +1721,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>16.0467720031738</v>
+        <v>16.084049224853501</v>
       </c>
       <c r="C21">
-        <v>2.7056991610889302E-3</v>
+        <v>5.3588820527248199E-3</v>
       </c>
       <c r="D21">
-        <v>2.7345513001803198E-3</v>
+        <v>5.35236531868577E-3</v>
       </c>
       <c r="E21">
         <v>44</v>
@@ -1741,13 +1741,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>32.093544006347599</v>
+        <v>32.168098449707003</v>
       </c>
       <c r="C22" s="4">
-        <v>2.7090791102071998E-3</v>
+        <v>5.3304351365907002E-3</v>
       </c>
       <c r="D22" s="4">
-        <v>2.7267921413703399E-3</v>
+        <v>5.4230987777973104E-3</v>
       </c>
       <c r="E22" s="4">
         <v>45</v>
@@ -1761,13 +1761,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="4">
-        <v>32.093544006347599</v>
+        <v>32.168098449707003</v>
       </c>
       <c r="C23" s="4">
-        <v>2.714329390963E-3</v>
+        <v>5.3593497896725498E-3</v>
       </c>
       <c r="D23" s="4">
-        <v>2.7293563215878901E-3</v>
+        <v>5.4282728245759202E-3</v>
       </c>
       <c r="E23" s="4">
         <v>46</v>
@@ -1781,13 +1781,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="4">
-        <v>32.093544006347599</v>
+        <v>32.168098449707003</v>
       </c>
       <c r="C24" s="4">
-        <v>2.6984919808263402E-3</v>
+        <v>5.2941002204340499E-3</v>
       </c>
       <c r="D24" s="4">
-        <v>2.7405673437833501E-3</v>
+        <v>5.4272620572133898E-3</v>
       </c>
       <c r="E24" s="4">
         <v>47</v>
@@ -1801,13 +1801,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="4">
-        <v>32.093544006347599</v>
+        <v>32.168098449707003</v>
       </c>
       <c r="C25" s="4">
-        <v>2.7026662188643601E-3</v>
+        <v>5.3585088995106904E-3</v>
       </c>
       <c r="D25" s="4">
-        <v>2.7371592341775101E-3</v>
+        <v>5.3638464057857603E-3</v>
       </c>
       <c r="E25" s="4">
         <v>48</v>
@@ -1826,7 +1826,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G25"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1874,13 +1874,13 @@
         <v>0.5</v>
       </c>
       <c r="B2">
-        <v>1.00292325019836</v>
+        <v>1.0052530765533401</v>
       </c>
       <c r="C2">
-        <v>5.2119473581272002</v>
+        <v>3.9959042867024701</v>
       </c>
       <c r="D2">
-        <v>5.1568598663597696</v>
+        <v>4.0833019880538197</v>
       </c>
       <c r="E2">
         <v>49</v>
@@ -1894,15 +1894,15 @@
       </c>
       <c r="K2">
         <f t="shared" ref="K2:O2" si="0">AVERAGE(B2:B5)</f>
-        <v>1.00292325019836</v>
+        <v>1.0052530765533401</v>
       </c>
       <c r="L2">
         <f t="shared" si="0"/>
-        <v>5.2088536083173071</v>
+        <v>4.0170390647252372</v>
       </c>
       <c r="M2">
         <f t="shared" si="0"/>
-        <v>5.1729258288416897</v>
+        <v>4.00031740297662</v>
       </c>
       <c r="N2">
         <f t="shared" si="0"/>
@@ -1918,13 +1918,13 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>1.00292325019836</v>
+        <v>1.0052530765533401</v>
       </c>
       <c r="C3">
-        <v>5.2128931446747604</v>
+        <v>4.02807808558146</v>
       </c>
       <c r="D3">
-        <v>5.1583447372704203</v>
+        <v>3.96200260710209</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -1938,15 +1938,15 @@
       </c>
       <c r="K3" s="2">
         <f t="shared" ref="K3:O3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.0058465003967201</v>
+        <v>2.0105061531066801</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" si="1"/>
-        <v>2.8229288264261798E-3</v>
+        <v>5.4109526006504852E-3</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" si="1"/>
-        <v>2.7176288483468274E-3</v>
+        <v>5.4026342447886727E-3</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" si="1"/>
@@ -1962,13 +1962,13 @@
         <v>0.5</v>
       </c>
       <c r="B4">
-        <v>1.00292325019836</v>
+        <v>1.0052530765533401</v>
       </c>
       <c r="C4">
-        <v>5.2054778090657603</v>
+        <v>4.01927893892924</v>
       </c>
       <c r="D4">
-        <v>5.1874583520387301</v>
+        <v>3.9889774094236601</v>
       </c>
       <c r="E4">
         <v>51</v>
@@ -1982,15 +1982,15 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:O4" si="2">AVERAGE(B10:B13)</f>
-        <v>4.0116930007934499</v>
+        <v>4.02101230621337</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>2.7035325298922727E-3</v>
+        <v>5.3801277118424532E-3</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
-        <v>2.7195790296485776E-3</v>
+        <v>5.399634287583617E-3</v>
       </c>
       <c r="N4">
         <f t="shared" si="2"/>
@@ -2006,13 +2006,13 @@
         <v>0.5</v>
       </c>
       <c r="B5">
-        <v>1.00292325019836</v>
+        <v>1.0052530765533401</v>
       </c>
       <c r="C5">
-        <v>5.2050961214015103</v>
+        <v>4.0248949476877796</v>
       </c>
       <c r="D5">
-        <v>5.1890403596978398</v>
+        <v>3.9669876073269101</v>
       </c>
       <c r="E5">
         <v>52</v>
@@ -2026,15 +2026,15 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:O5" si="3">AVERAGE(B14:B17)</f>
-        <v>8.0233860015869105</v>
+        <v>8.0420246124267507</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>2.7017931068995049E-3</v>
+        <v>5.3756133777399821E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
-        <v>2.7159049426891649E-3</v>
+        <v>5.3940242889555148E-3</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="3"/>
@@ -2050,13 +2050,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="2">
-        <v>2.0058465003967201</v>
+        <v>2.0105061531066801</v>
       </c>
       <c r="C6" s="2">
-        <v>3.16040960524132E-3</v>
+        <v>5.41205700238545E-3</v>
       </c>
       <c r="D6" s="2">
-        <v>2.7151643502803702E-3</v>
+        <v>5.4221735434963302E-3</v>
       </c>
       <c r="E6" s="2">
         <v>53</v>
@@ -2070,15 +2070,15 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:O6" si="4">AVERAGE(B18:B21)</f>
-        <v>16.0467720031738</v>
+        <v>16.084049224853501</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>2.700823927421265E-3</v>
+        <v>5.3750409999241376E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
-        <v>2.7146621703235552E-3</v>
+        <v>5.3940768034118078E-3</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
@@ -2094,13 +2094,13 @@
         <v>1</v>
       </c>
       <c r="B7" s="2">
-        <v>2.0058465003967201</v>
+        <v>2.0105061531066801</v>
       </c>
       <c r="C7" s="2">
-        <v>2.7131041043154899E-3</v>
+        <v>5.4134705103933804E-3</v>
       </c>
       <c r="D7" s="2">
-        <v>2.7122357696817601E-3</v>
+        <v>5.41851846897538E-3</v>
       </c>
       <c r="E7" s="2">
         <v>54</v>
@@ -2114,15 +2114,15 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:O7" si="5">AVERAGE(B22:B25)</f>
-        <v>32.093544006347599</v>
+        <v>32.168098449707003</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.7004127211956953E-3</v>
+        <v>5.3730273647233798E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
-        <v>2.7163729414735947E-3</v>
+        <v>5.3933818088943456E-3</v>
       </c>
       <c r="N7">
         <f t="shared" si="5"/>
@@ -2138,13 +2138,13 @@
         <v>1</v>
       </c>
       <c r="B8" s="2">
-        <v>2.0058465003967201</v>
+        <v>2.0105061531066801</v>
       </c>
       <c r="C8" s="2">
-        <v>2.7096574220371399E-3</v>
+        <v>5.4022458828985598E-3</v>
       </c>
       <c r="D8" s="2">
-        <v>2.7211978214613099E-3</v>
+        <v>5.41788608608569E-3</v>
       </c>
       <c r="E8" s="2">
         <v>55</v>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="M8">
         <f>MIN(M2:M7)</f>
-        <v>2.7146621703235552E-3</v>
+        <v>5.3933818088943456E-3</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -2162,13 +2162,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="2">
-        <v>2.0058465003967201</v>
+        <v>2.0105061531066801</v>
       </c>
       <c r="C9" s="2">
-        <v>2.7085441741107699E-3</v>
+        <v>5.4160370069245498E-3</v>
       </c>
       <c r="D9" s="2">
-        <v>2.7219174519638699E-3</v>
+        <v>5.3519588805972899E-3</v>
       </c>
       <c r="E9" s="2">
         <v>56</v>
@@ -2182,13 +2182,13 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>4.0116930007934499</v>
+        <v>4.02101230621337</v>
       </c>
       <c r="C10">
-        <v>2.7010702812174398E-3</v>
+        <v>5.3724002751211301E-3</v>
       </c>
       <c r="D10">
-        <v>2.7175136686613099E-3</v>
+        <v>5.42066797138528E-3</v>
       </c>
       <c r="E10">
         <v>57</v>
@@ -2202,13 +2202,13 @@
         <v>2</v>
       </c>
       <c r="B11">
-        <v>4.0116930007934499</v>
+        <v>4.02101230621337</v>
       </c>
       <c r="C11">
-        <v>2.7016561595304498E-3</v>
+        <v>5.3801930733024996E-3</v>
       </c>
       <c r="D11">
-        <v>2.7111617341768301E-3</v>
+        <v>5.4179598785381996E-3</v>
       </c>
       <c r="E11">
         <v>58</v>
@@ -2222,13 +2222,13 @@
         <v>2</v>
       </c>
       <c r="B12">
-        <v>4.0116930007934499</v>
+        <v>4.02101230621337</v>
       </c>
       <c r="C12">
-        <v>2.70535587179289E-3</v>
+        <v>5.3757033223907104E-3</v>
       </c>
       <c r="D12">
-        <v>2.7223973792340401E-3</v>
+        <v>5.42073285682721E-3</v>
       </c>
       <c r="E12">
         <v>59</v>
@@ -2242,13 +2242,13 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>4.0116930007934499</v>
+        <v>4.02101230621337</v>
       </c>
       <c r="C13">
-        <v>2.7060478070283101E-3</v>
+        <v>5.3922141765554701E-3</v>
       </c>
       <c r="D13">
-        <v>2.7272433365221299E-3</v>
+        <v>5.3391764435837801E-3</v>
       </c>
       <c r="E13">
         <v>60</v>
@@ -2262,13 +2262,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="4">
-        <v>8.0233860015869105</v>
+        <v>8.0420246124267507</v>
       </c>
       <c r="C14" s="4">
-        <v>2.7016913313172401E-3</v>
+        <v>5.3702043766776699E-3</v>
       </c>
       <c r="D14" s="4">
-        <v>2.7125414701897502E-3</v>
+        <v>5.4140439940656097E-3</v>
       </c>
       <c r="E14" s="4">
         <v>61</v>
@@ -2282,13 +2282,13 @@
         <v>4</v>
       </c>
       <c r="B15" s="4">
-        <v>8.0233860015869105</v>
+        <v>8.0420246124267507</v>
       </c>
       <c r="C15" s="4">
-        <v>2.7048097629026198E-3</v>
+        <v>5.3789886000255704E-3</v>
       </c>
       <c r="D15" s="4">
-        <v>2.71234009823386E-3</v>
+        <v>5.41785519391773E-3</v>
       </c>
       <c r="E15" s="4">
         <v>62</v>
@@ -2302,13 +2302,13 @@
         <v>4</v>
       </c>
       <c r="B16" s="4">
-        <v>8.0233860015869105</v>
+        <v>8.0420246124267507</v>
       </c>
       <c r="C16" s="4">
-        <v>2.7008069820685602E-3</v>
+        <v>5.3676937172810199E-3</v>
       </c>
       <c r="D16" s="4">
-        <v>2.7184901419994301E-3</v>
+        <v>5.4098385227645896E-3</v>
       </c>
       <c r="E16" s="4">
         <v>63</v>
@@ -2322,13 +2322,13 @@
         <v>4</v>
       </c>
       <c r="B17" s="4">
-        <v>8.0233860015869105</v>
+        <v>8.0420246124267507</v>
       </c>
       <c r="C17" s="4">
-        <v>2.6998643513096001E-3</v>
+        <v>5.3855668169756699E-3</v>
       </c>
       <c r="D17" s="4">
-        <v>2.7202480603336198E-3</v>
+        <v>5.3343594450741298E-3</v>
       </c>
       <c r="E17" s="4">
         <v>64</v>
@@ -2342,13 +2342,13 @@
         <v>8</v>
       </c>
       <c r="B18">
-        <v>16.0467720031738</v>
+        <v>16.084049224853501</v>
       </c>
       <c r="C18">
-        <v>2.70115521363093E-3</v>
+        <v>5.3687434320648496E-3</v>
       </c>
       <c r="D18">
-        <v>2.7132997464944099E-3</v>
+        <v>5.4149094850141901E-3</v>
       </c>
       <c r="E18">
         <v>65</v>
@@ -2362,13 +2362,13 @@
         <v>8</v>
       </c>
       <c r="B19">
-        <v>16.0467720031738</v>
+        <v>16.084049224853501</v>
       </c>
       <c r="C19">
-        <v>2.7023994257172998E-3</v>
+        <v>5.3756777818004201E-3</v>
       </c>
       <c r="D19">
-        <v>2.7120246004574602E-3</v>
+        <v>5.41079098338934E-3</v>
       </c>
       <c r="E19">
         <v>66</v>
@@ -2382,13 +2382,13 @@
         <v>8</v>
       </c>
       <c r="B20">
-        <v>16.0467720031738</v>
+        <v>16.084049224853501</v>
       </c>
       <c r="C20">
-        <v>2.6996790473492898E-3</v>
+        <v>5.3704344121118302E-3</v>
       </c>
       <c r="D20">
-        <v>2.7155583752972701E-3</v>
+        <v>5.4123233756090102E-3</v>
       </c>
       <c r="E20">
         <v>67</v>
@@ -2402,13 +2402,13 @@
         <v>8</v>
       </c>
       <c r="B21">
-        <v>16.0467720031738</v>
+        <v>16.084049224853501</v>
       </c>
       <c r="C21">
-        <v>2.7000620229875399E-3</v>
+        <v>5.3853083737194496E-3</v>
       </c>
       <c r="D21">
-        <v>2.7177659590450799E-3</v>
+        <v>5.3382833696346901E-3</v>
       </c>
       <c r="E21">
         <v>68</v>
@@ -2422,13 +2422,13 @@
         <v>16</v>
       </c>
       <c r="B22" s="4">
-        <v>32.093544006347599</v>
+        <v>32.168098449707003</v>
       </c>
       <c r="C22" s="4">
-        <v>2.7014989521772898E-3</v>
+        <v>5.3673613940675999E-3</v>
       </c>
       <c r="D22" s="4">
-        <v>2.7140749622495798E-3</v>
+        <v>5.4124354612716304E-3</v>
       </c>
       <c r="E22" s="4">
         <v>69</v>
@@ -2442,13 +2442,13 @@
         <v>16</v>
       </c>
       <c r="B23" s="4">
-        <v>32.093544006347599</v>
+        <v>32.168098449707003</v>
       </c>
       <c r="C23" s="4">
-        <v>2.7015702516899002E-3</v>
+        <v>5.3778634270032202E-3</v>
       </c>
       <c r="D23" s="4">
-        <v>2.7113114442807E-3</v>
+        <v>5.4162024629322101E-3</v>
       </c>
       <c r="E23" s="4">
         <v>70</v>
@@ -2462,13 +2462,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="4">
-        <v>32.093544006347599</v>
+        <v>32.168098449707003</v>
       </c>
       <c r="C24" s="4">
-        <v>2.6998636702543302E-3</v>
+        <v>5.3676107910772099E-3</v>
       </c>
       <c r="D24" s="4">
-        <v>2.71734905126913E-3</v>
+        <v>5.4149417394890997E-3</v>
       </c>
       <c r="E24" s="4">
         <v>71</v>
@@ -2482,13 +2482,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="4">
-        <v>32.093544006347599</v>
+        <v>32.168098449707003</v>
       </c>
       <c r="C25" s="4">
-        <v>2.6987180106612602E-3</v>
+        <v>5.3792738467454901E-3</v>
       </c>
       <c r="D25" s="4">
-        <v>2.7227563080949699E-3</v>
+        <v>5.3299475718844398E-3</v>
       </c>
       <c r="E25" s="4">
         <v>72</v>
@@ -2552,10 +2552,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2" s="4">
-        <v>2.7243441885761999E-3</v>
+        <v>5.4042398275688597E-3</v>
       </c>
       <c r="C2" s="4">
-        <v>2.7317485829259701E-3</v>
+        <v>5.50092825111239E-3</v>
       </c>
       <c r="D2" s="4">
         <v>73</v>
@@ -2570,11 +2570,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>2.7346420316270649E-3</v>
+        <v>5.4047246763304323E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>2.7550563855472448E-3</v>
+        <v>5.4764387772438328E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -2590,10 +2590,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3" s="4">
-        <v>2.7423794646829099E-3</v>
+        <v>5.4020581103147898E-3</v>
       </c>
       <c r="C3" s="4">
-        <v>2.7514683785276402E-3</v>
+        <v>5.4714251309633203E-3</v>
       </c>
       <c r="D3" s="4">
         <v>74</v>
@@ -2608,11 +2608,11 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.734369217936895E-3</v>
+        <v>5.4169175973003501E-3</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>2.7437233937936899E-3</v>
+        <v>5.4839564143045879E-3</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
@@ -2628,10 +2628,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4" s="4">
-        <v>2.7469075080660799E-3</v>
+        <v>5.3882076296004203E-3</v>
       </c>
       <c r="C4" s="4">
-        <v>2.7672332842229698E-3</v>
+        <v>5.4865623527067704E-3</v>
       </c>
       <c r="D4" s="4">
         <v>75</v>
@@ -2646,11 +2646,11 @@
       </c>
       <c r="K4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>2.7363078782065278E-3</v>
+        <v>5.3981329993087199E-3</v>
       </c>
       <c r="L4">
         <f t="shared" si="2"/>
-        <v>2.7450838727721247E-3</v>
+        <v>5.4739564607672823E-3</v>
       </c>
       <c r="M4">
         <f t="shared" si="2"/>
@@ -2666,10 +2666,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5" s="4">
-        <v>2.72493696518307E-3</v>
+        <v>5.4243931378376601E-3</v>
       </c>
       <c r="C5" s="4">
-        <v>2.7697752965124001E-3</v>
+        <v>5.4468393741928496E-3</v>
       </c>
       <c r="D5" s="4">
         <v>76</v>
@@ -2684,11 +2684,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>2.7335442060384052E-3</v>
+        <v>5.3995379229432828E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>2.7523160847761677E-3</v>
+        <v>5.4735894676575265E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -2705,10 +2705,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="4">
-        <v>2.7261639888022499E-3</v>
+        <v>5.4142566625662901E-3</v>
       </c>
       <c r="C6" s="4">
-        <v>2.7287673621781499E-3</v>
+        <v>5.49608900489166E-3</v>
       </c>
       <c r="D6" s="4">
         <v>77</v>
@@ -2722,11 +2722,11 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>2.7342225254407045E-3</v>
+        <v>5.4053637122319226E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>2.7553330904706097E-3</v>
+        <v>5.4804583456604999E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -2742,10 +2742,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="4">
-        <v>2.7317855110914799E-3</v>
+        <v>5.4115226809331703E-3</v>
       </c>
       <c r="C7" s="4">
-        <v>2.7402383847194801E-3</v>
+        <v>5.4836800331844199E-3</v>
       </c>
       <c r="D7" s="4">
         <v>78</v>
@@ -2759,11 +2759,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>2.7783352967449674E-3</v>
+        <v>5.4332002046260392E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.7715021339980348E-3</v>
+        <v>5.5035242149507222E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -2779,10 +2779,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="4">
-        <v>2.7713342202141098E-3</v>
+        <v>5.41824240118582E-3</v>
       </c>
       <c r="C8" s="4">
-        <v>2.7603703865519999E-3</v>
+        <v>5.5119299052402001E-3</v>
       </c>
       <c r="D8" s="4">
         <v>79</v>
@@ -2796,11 +2796,11 @@
       </c>
       <c r="K8">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>3.8429955316691125E-3</v>
+        <v>6.5412488530706952E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>3.3954202949085725E-3</v>
+        <v>6.2729193224631058E-3</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
@@ -2816,10 +2816,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="4">
-        <v>2.7081931516397401E-3</v>
+        <v>5.4236486445161198E-3</v>
       </c>
       <c r="C9" s="4">
-        <v>2.7455174417251298E-3</v>
+        <v>5.4441267139020699E-3</v>
       </c>
       <c r="D9" s="4">
         <v>80</v>
@@ -2833,11 +2833,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>2.203648518199065E-2</v>
+        <v>4.0023243607707961</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>2.1862954902054123E-2</v>
+        <v>3.9825968150101452</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -2853,10 +2853,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10">
-        <v>2.72657434872694E-3</v>
+        <v>5.4225060999631199E-3</v>
       </c>
       <c r="C10">
-        <v>2.73179737320006E-3</v>
+        <v>5.5099389555447898E-3</v>
       </c>
       <c r="D10">
         <v>81</v>
@@ -2866,7 +2866,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>2.7437233937936899E-3</v>
+        <v>5.4735894676575265E-3</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2874,10 +2874,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11">
-        <v>2.7303769776041999E-3</v>
+        <v>5.40540848383085E-3</v>
       </c>
       <c r="C11">
-        <v>2.7403952247512099E-3</v>
+        <v>5.4800654018416599E-3</v>
       </c>
       <c r="D11">
         <v>82</v>
@@ -2891,10 +2891,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12">
-        <v>2.77656592886176E-3</v>
+        <v>5.3503828152934897E-3</v>
       </c>
       <c r="C12">
-        <v>2.7604492058519899E-3</v>
+        <v>5.4788161812231199E-3</v>
       </c>
       <c r="D12">
         <v>83</v>
@@ -2908,10 +2908,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13">
-        <v>2.71171425763321E-3</v>
+        <v>5.41423459814742E-3</v>
       </c>
       <c r="C13">
-        <v>2.7476936872852398E-3</v>
+        <v>5.4270053044595604E-3</v>
       </c>
       <c r="D13">
         <v>84</v>
@@ -2925,10 +2925,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>2.7414217975251999E-3</v>
+        <v>5.4100578145540104E-3</v>
       </c>
       <c r="C14">
-        <v>2.7484799277756201E-3</v>
+        <v>5.5055242537104697E-3</v>
       </c>
       <c r="D14">
         <v>85</v>
@@ -2942,10 +2942,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>2.7375607444953699E-3</v>
+        <v>5.4123454350740296E-3</v>
       </c>
       <c r="C15">
-        <v>2.74925341772471E-3</v>
+        <v>5.4940615552774696E-3</v>
       </c>
       <c r="D15">
         <v>86</v>
@@ -2959,10 +2959,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>2.7444889920093698E-3</v>
+        <v>5.3821206489141904E-3</v>
       </c>
       <c r="C16">
-        <v>2.7607602737190402E-3</v>
+        <v>5.4826136391134296E-3</v>
       </c>
       <c r="D16">
         <v>87</v>
@@ -2976,10 +2976,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>2.7107052901236802E-3</v>
+        <v>5.3936277932309E-3</v>
       </c>
       <c r="C17">
-        <v>2.7507707198852998E-3</v>
+        <v>5.4121584225287397E-3</v>
       </c>
       <c r="D17">
         <v>88</v>
@@ -2993,10 +2993,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>2.73160315363814E-3</v>
+        <v>5.4385292522133597E-3</v>
       </c>
       <c r="C18">
-        <v>2.7394370429152399E-3</v>
+        <v>5.5181487721014501E-3</v>
       </c>
       <c r="D18">
         <v>89</v>
@@ -3010,10 +3010,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>2.7405204284086499E-3</v>
+        <v>5.4140556752285398E-3</v>
       </c>
       <c r="C19">
-        <v>2.7564026133500398E-3</v>
+        <v>5.5199648808450102E-3</v>
       </c>
       <c r="D19">
         <v>90</v>
@@ -3027,10 +3027,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>2.7469262999498699E-3</v>
+        <v>5.37271238863468E-3</v>
       </c>
       <c r="C20">
-        <v>2.7704580499088001E-3</v>
+        <v>5.4638970722543402E-3</v>
       </c>
       <c r="D20">
         <v>91</v>
@@ -3044,10 +3044,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>2.7178402197661601E-3</v>
+        <v>5.39615753285111E-3</v>
       </c>
       <c r="C21">
-        <v>2.75503465570836E-3</v>
+        <v>5.4198226574411999E-3</v>
       </c>
       <c r="D21">
         <v>92</v>
@@ -3061,10 +3061,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>2.7639866508380102E-3</v>
+        <v>5.4427715999252604E-3</v>
       </c>
       <c r="C22">
-        <v>2.7519574515488801E-3</v>
+        <v>5.5189395937672303E-3</v>
       </c>
       <c r="D22">
         <v>93</v>
@@ -3078,10 +3078,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>2.7792097146933201E-3</v>
+        <v>5.4481907331562999E-3</v>
       </c>
       <c r="C23">
-        <v>2.7757001644523201E-3</v>
+        <v>5.5789060474551698E-3</v>
       </c>
       <c r="D23">
         <v>94</v>
@@ -3095,10 +3095,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>2.8176950883087599E-3</v>
+        <v>5.4228890617873402E-3</v>
       </c>
       <c r="C24">
-        <v>2.7885692410595801E-3</v>
+        <v>5.4931348595926698E-3</v>
       </c>
       <c r="D24">
         <v>95</v>
@@ -3112,10 +3112,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>2.7524497331397799E-3</v>
+        <v>5.4189494236352598E-3</v>
       </c>
       <c r="C25">
-        <v>2.7697816789313602E-3</v>
+        <v>5.4231163589878199E-3</v>
       </c>
       <c r="D25">
         <v>96</v>
@@ -3129,10 +3129,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>3.4369311761110999E-3</v>
+        <v>7.1635021520976604E-3</v>
       </c>
       <c r="C26">
-        <v>3.4524334978573599E-3</v>
+        <v>6.4164523600026002E-3</v>
       </c>
       <c r="D26">
         <v>97</v>
@@ -3146,10 +3146,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>3.8464572260221599E-3</v>
+        <v>6.7682218975684697E-3</v>
       </c>
       <c r="C27">
-        <v>3.3407141148161699E-3</v>
+        <v>6.6917129504950098E-3</v>
       </c>
       <c r="D27">
         <v>98</v>
@@ -3163,10 +3163,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>4.6701503554032299E-3</v>
+        <v>6.0963575787683702E-3</v>
       </c>
       <c r="C28">
-        <v>3.26420816699075E-3</v>
+        <v>5.9430616699713903E-3</v>
       </c>
       <c r="D28">
         <v>99</v>
@@ -3180,10 +3180,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>3.4184433691399601E-3</v>
+        <v>6.1369137838482796E-3</v>
       </c>
       <c r="C29">
-        <v>3.5243253999700098E-3</v>
+        <v>6.0404503093834201E-3</v>
       </c>
       <c r="D29">
         <v>100</v>
@@ -3197,10 +3197,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>2.49217716127372E-2</v>
+        <v>2.7028111329777699E-2</v>
       </c>
       <c r="C30">
-        <v>2.1395792212467901E-2</v>
+        <v>3.00364153350683E-2</v>
       </c>
       <c r="D30">
         <v>101</v>
@@ -3214,10 +3214,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>2.1087887139353698E-2</v>
+        <v>7.8597483381311903</v>
       </c>
       <c r="C31">
-        <v>2.04328473069165E-2</v>
+        <v>7.9478055872815698</v>
       </c>
       <c r="D31">
         <v>102</v>
@@ -3231,10 +3231,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>2.1418076431329699E-2</v>
+        <v>8.0953524822884404</v>
       </c>
       <c r="C32">
-        <v>2.1426761496338199E-2</v>
+        <v>7.9259610531177902</v>
       </c>
       <c r="D32">
         <v>103</v>
@@ -3248,10 +3248,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>2.0718205544542002E-2</v>
+        <v>2.71685113337762E-2</v>
       </c>
       <c r="C33">
-        <v>2.4196418592493898E-2</v>
+        <v>2.6584204306152201E-2</v>
       </c>
       <c r="D33">
         <v>104</v>
@@ -3318,7 +3318,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="A2" sqref="A2:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3363,10 +3363,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>2.7185496607475298E-3</v>
+        <v>5.3767029597285203E-3</v>
       </c>
       <c r="C2">
-        <v>2.7226141997073799E-3</v>
+        <v>5.4368116605551303E-3</v>
       </c>
       <c r="D2">
         <v>105</v>
@@ -3380,11 +3380,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>2.7119565743846247E-3</v>
+        <v>5.3819391208928657E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>2.7226310697171727E-3</v>
+        <v>5.414636799461265E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -3400,10 +3400,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3">
-        <v>2.7092633407874698E-3</v>
+        <v>5.3822399399421602E-3</v>
       </c>
       <c r="C3">
-        <v>2.71777350561726E-3</v>
+        <v>5.4249877972092396E-3</v>
       </c>
       <c r="D3">
         <v>106</v>
@@ -3417,11 +3417,11 @@
       </c>
       <c r="K3">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.7124264914981373E-3</v>
+        <v>5.3813161961288394E-3</v>
       </c>
       <c r="L3">
         <f t="shared" si="1"/>
-        <v>2.7224204432537849E-3</v>
+        <v>5.4160084419368551E-3</v>
       </c>
       <c r="M3">
         <f t="shared" si="1"/>
@@ -3437,10 +3437,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4">
-        <v>2.7082923580256401E-3</v>
+        <v>5.3649822626500596E-3</v>
       </c>
       <c r="C4">
-        <v>2.7215908763505302E-3</v>
+        <v>5.4300376015933198E-3</v>
       </c>
       <c r="D4">
         <v>107</v>
@@ -3454,11 +3454,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>2.7124935097988302E-3</v>
+        <v>5.3841174515756778E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>2.7222706948554004E-3</v>
+        <v>5.4165024416858E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -3474,10 +3474,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5">
-        <v>2.7117209379778598E-3</v>
+        <v>5.40383132125072E-3</v>
       </c>
       <c r="C5">
-        <v>2.7285456971935201E-3</v>
+        <v>5.3667101384873702E-3</v>
       </c>
       <c r="D5">
         <v>108</v>
@@ -3491,11 +3491,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>2.7118784871407722E-3</v>
+        <v>5.3830797445930546E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>2.7227288917760877E-3</v>
+        <v>5.4178866347238527E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -3511,10 +3511,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>2.71761469904021E-3</v>
+        <v>5.3770209147416502E-3</v>
       </c>
       <c r="C6">
-        <v>2.72130498482862E-3</v>
+        <v>5.4504534457512997E-3</v>
       </c>
       <c r="D6">
         <v>109</v>
@@ -3528,11 +3528,11 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>2.7195434255262848E-3</v>
+        <v>5.3953513400282361E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>2.7293665538819676E-3</v>
+        <v>5.42487909254479E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -3548,10 +3548,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>2.71062673652126E-3</v>
+        <v>5.3826212125057497E-3</v>
       </c>
       <c r="C7">
-        <v>2.7197546248013699E-3</v>
+        <v>5.4227818209836402E-3</v>
       </c>
       <c r="D7">
         <v>110</v>
@@ -3565,11 +3565,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>2.7496796278262447E-3</v>
+        <v>5.427655492081955E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.7668563298791152E-3</v>
+        <v>5.4812403148079749E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -3585,10 +3585,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>2.7103369013459599E-3</v>
+        <v>5.3629346954774896E-3</v>
       </c>
       <c r="C8">
-        <v>2.7219644326945398E-3</v>
+        <v>5.4265334409602101E-3</v>
       </c>
       <c r="D8">
         <v>111</v>
@@ -3602,11 +3602,11 @@
       </c>
       <c r="K8">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>3.6453241238776648E-3</v>
+        <v>6.2091510180641478E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>3.4812442134256947E-3</v>
+        <v>6.1167280209508297E-3</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
@@ -3622,10 +3622,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>2.7111276290851202E-3</v>
+        <v>5.40268796179047E-3</v>
       </c>
       <c r="C9">
-        <v>2.72665773069061E-3</v>
+        <v>5.3642650600522696E-3</v>
       </c>
       <c r="D9">
         <v>112</v>
@@ -3639,11 +3639,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>2.2433771681305101E-2</v>
+        <v>2.0415742831791377</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>1.9377753955491749E-2</v>
+        <v>1.9933410804258025</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -3659,10 +3659,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="4">
-        <v>2.7189137935146098E-3</v>
+        <v>5.3831252214954503E-3</v>
       </c>
       <c r="C10" s="4">
-        <v>2.7230784374599601E-3</v>
+        <v>5.4508560644264499E-3</v>
       </c>
       <c r="D10" s="4">
         <v>113</v>
@@ -3673,7 +3673,7 @@
       <c r="F10" s="2"/>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>2.7222706948554004E-3</v>
+        <v>5.414636799461265E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -3681,10 +3681,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="4">
-        <v>2.70994083180465E-3</v>
+        <v>5.3881871380268504E-3</v>
       </c>
       <c r="C11" s="4">
-        <v>2.7178560706312901E-3</v>
+        <v>5.4235452875257099E-3</v>
       </c>
       <c r="D11" s="4">
         <v>114</v>
@@ -3699,10 +3699,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="4">
-        <v>2.7083193356097399E-3</v>
+        <v>5.3623819059910203E-3</v>
       </c>
       <c r="C12" s="4">
-        <v>2.7216179847815302E-3</v>
+        <v>5.4297285659753898E-3</v>
       </c>
       <c r="D12" s="4">
         <v>115</v>
@@ -3717,10 +3717,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="4">
-        <v>2.7128000782663201E-3</v>
+        <v>5.4027755407893901E-3</v>
       </c>
       <c r="C13" s="4">
-        <v>2.7265302865488198E-3</v>
+        <v>5.3618798488156497E-3</v>
       </c>
       <c r="D13" s="4">
         <v>116</v>
@@ -3735,10 +3735,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14" s="4">
-        <v>2.7178451111170899E-3</v>
+        <v>5.3809699874886397E-3</v>
       </c>
       <c r="C14" s="4">
-        <v>2.7229353078853402E-3</v>
+        <v>5.4437284595630197E-3</v>
       </c>
       <c r="D14" s="4">
         <v>117</v>
@@ -3752,10 +3752,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15" s="4">
-        <v>2.7102875145816798E-3</v>
+        <v>5.3847444991759396E-3</v>
       </c>
       <c r="C15" s="4">
-        <v>2.72084340624707E-3</v>
+        <v>5.4273724040769496E-3</v>
       </c>
       <c r="D15" s="4">
         <v>118</v>
@@ -3769,10 +3769,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16" s="4">
-        <v>2.7078300599616E-3</v>
+        <v>5.3618508861697396E-3</v>
       </c>
       <c r="C16" s="4">
-        <v>2.7213129317061099E-3</v>
+        <v>5.4301236201315401E-3</v>
       </c>
       <c r="D16" s="4">
         <v>119</v>
@@ -3786,10 +3786,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17" s="4">
-        <v>2.71155126290272E-3</v>
+        <v>5.4047536055379002E-3</v>
       </c>
       <c r="C17" s="4">
-        <v>2.7258239212658302E-3</v>
+        <v>5.3703220551238997E-3</v>
       </c>
       <c r="D17" s="4">
         <v>120</v>
@@ -3803,10 +3803,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>2.7262575407450899E-3</v>
+        <v>5.39492552683867E-3</v>
       </c>
       <c r="C18">
-        <v>2.7255966499643799E-3</v>
+        <v>5.4622484727742801E-3</v>
       </c>
       <c r="D18">
         <v>121</v>
@@ -3820,10 +3820,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>2.71868441840592E-3</v>
+        <v>5.3958243720154103E-3</v>
       </c>
       <c r="C19">
-        <v>2.72955671116186E-3</v>
+        <v>5.4284148017301201E-3</v>
       </c>
       <c r="D19">
         <v>122</v>
@@ -3837,10 +3837,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>2.7159796709744499E-3</v>
+        <v>5.3764486393118403E-3</v>
       </c>
       <c r="C20">
-        <v>2.7282888686545798E-3</v>
+        <v>5.4329171420094803E-3</v>
       </c>
       <c r="D20">
         <v>123</v>
@@ -3854,10 +3854,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>2.7172520719796799E-3</v>
+        <v>5.4142068219470204E-3</v>
       </c>
       <c r="C21">
-        <v>2.7340239857470499E-3</v>
+        <v>5.3759359536652796E-3</v>
       </c>
       <c r="D21">
         <v>124</v>
@@ -3871,10 +3871,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>2.7486197373497402E-3</v>
+        <v>5.4362226287497399E-3</v>
       </c>
       <c r="C22">
-        <v>2.7559700630311098E-3</v>
+        <v>5.6046752031258399E-3</v>
       </c>
       <c r="D22">
         <v>125</v>
@@ -3888,10 +3888,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>2.74938864670365E-3</v>
+        <v>5.4337742882087196E-3</v>
       </c>
       <c r="C23">
-        <v>2.7710040071325598E-3</v>
+        <v>5.4449511028112803E-3</v>
       </c>
       <c r="D23">
         <v>126</v>
@@ -3905,10 +3905,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>2.7555145224810698E-3</v>
+        <v>5.3910025781852703E-3</v>
       </c>
       <c r="C24">
-        <v>2.7631797190559499E-3</v>
+        <v>5.4533756932521101E-3</v>
       </c>
       <c r="D24">
         <v>127</v>
@@ -3922,10 +3922,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>2.7451956047705199E-3</v>
+        <v>5.4496224731840903E-3</v>
       </c>
       <c r="C25">
-        <v>2.7772715302968399E-3</v>
+        <v>5.4219592600426702E-3</v>
       </c>
       <c r="D25">
         <v>128</v>
@@ -3939,10 +3939,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>3.4483362128752901E-3</v>
+        <v>6.1710994799641199E-3</v>
       </c>
       <c r="C26">
-        <v>3.54366831628507E-3</v>
+        <v>6.2651087361526598E-3</v>
       </c>
       <c r="D26">
         <v>129</v>
@@ -3956,10 +3956,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>3.67423370357455E-3</v>
+        <v>6.1227781351338604E-3</v>
       </c>
       <c r="C27">
-        <v>3.3208880258985499E-3</v>
+        <v>6.16416626887277E-3</v>
       </c>
       <c r="D27">
         <v>130</v>
@@ -3973,10 +3973,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>3.8224005946552999E-3</v>
+        <v>6.4249014571071301E-3</v>
       </c>
       <c r="C28">
-        <v>3.50963388847415E-3</v>
+        <v>6.0576788902758196E-3</v>
       </c>
       <c r="D28">
         <v>131</v>
@@ -3990,10 +3990,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>3.6363259844055199E-3</v>
+        <v>6.11782500005148E-3</v>
       </c>
       <c r="C29">
-        <v>3.5507866230450099E-3</v>
+        <v>5.9799581885020704E-3</v>
       </c>
       <c r="D29">
         <v>132</v>
@@ -4007,10 +4007,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>2.1826789788245302E-2</v>
+        <v>2.8178363877467399E-2</v>
       </c>
       <c r="C30">
-        <v>1.8334813454809199E-2</v>
+        <v>2.6388772352142799E-2</v>
       </c>
       <c r="D30">
         <v>133</v>
@@ -4024,10 +4024,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>2.2840506930544201E-2</v>
+        <v>3.5345773455349998E-2</v>
       </c>
       <c r="C31">
-        <v>1.9797602615302799E-2</v>
+        <v>2.32869303696095E-2</v>
       </c>
       <c r="D31">
         <v>134</v>
@@ -4041,10 +4041,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>2.4212493745831599E-2</v>
+        <v>8.0760496220690108</v>
       </c>
       <c r="C32">
-        <v>1.8035915320771801E-2</v>
+        <v>7.8991819087495196</v>
       </c>
       <c r="D32">
         <v>135</v>
@@ -4058,10 +4058,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>2.0855296260599301E-2</v>
+        <v>2.6723373314722399E-2</v>
       </c>
       <c r="C33">
-        <v>2.1342684431083201E-2</v>
+        <v>2.4506710231938199E-2</v>
       </c>
       <c r="D33">
         <v>136</v>
@@ -4080,7 +4080,7 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F33"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4121,20 +4121,23 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
+      <c r="A2" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B2" s="4">
-        <v>2.71495077441064E-3</v>
-      </c>
-      <c r="C2" s="4">
-        <v>2.71648977752448E-3</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="B2" s="2">
+        <v>5.3956809851030503E-3</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5.4229307731494597E-3</v>
+      </c>
+      <c r="D2" s="2">
         <v>137</v>
       </c>
-      <c r="E2" s="4">
-        <v>1</v>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>22.631</v>
       </c>
       <c r="J2" s="5">
         <f>AVERAGE(A2:A5)</f>
@@ -4142,11 +4145,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>2.713467969250395E-3</v>
+        <v>5.4036901149277852E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>2.7232418621056928E-3</v>
+        <v>5.4061759270707804E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -4158,20 +4161,23 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="5">
+      <c r="A3" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B3" s="4">
-        <v>2.7145446408416902E-3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>2.7265802593574901E-3</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="B3" s="2">
+        <v>5.4023687243461597E-3</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5.4216565306674904E-3</v>
+      </c>
+      <c r="D3" s="2">
         <v>138</v>
       </c>
-      <c r="E3" s="4">
-        <v>1</v>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>25.097000000000001</v>
       </c>
       <c r="J3" s="5">
         <f>AVERAGE(A6:A9)</f>
@@ -4179,11 +4185,11 @@
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>2.7134848934483348E-3</v>
+        <v>5.4047534068425449E-3</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>2.7232884649971553E-3</v>
+        <v>5.4066090577064027E-3</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="1"/>
@@ -4195,20 +4201,23 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B4" s="4">
-        <v>2.7118175683362501E-3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>2.7235899500450802E-3</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="B4" s="2">
+        <v>5.3969279838105002E-3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5.4247631849919202E-3</v>
+      </c>
+      <c r="D4" s="2">
         <v>139</v>
       </c>
-      <c r="E4" s="4">
-        <v>1</v>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>15.028</v>
       </c>
       <c r="J4" s="5">
         <f>AVERAGE(A10:A13)</f>
@@ -4216,11 +4225,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>2.7132698246031652E-3</v>
+        <v>5.4038986098021227E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>2.7232565866015276E-3</v>
+        <v>5.4073444285251621E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -4232,20 +4241,23 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>1E-8</v>
       </c>
-      <c r="B5" s="4">
-        <v>2.7125588934130002E-3</v>
-      </c>
-      <c r="C5" s="4">
-        <v>2.72630746149572E-3</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B5" s="2">
+        <v>5.4197827664514298E-3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>5.3553532194742497E-3</v>
+      </c>
+      <c r="D5" s="2">
         <v>140</v>
       </c>
-      <c r="E5" s="4">
-        <v>1</v>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>12.897</v>
       </c>
       <c r="J5" s="5">
         <f>AVERAGE(A14:A17)</f>
@@ -4253,11 +4265,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>2.7136831507927773E-3</v>
+        <v>5.4053939531246769E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>2.7242216966809323E-3</v>
+        <v>5.4084447626163148E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -4273,10 +4285,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6" s="4">
-        <v>2.7152537460549599E-3</v>
+        <v>5.3965290213624601E-3</v>
       </c>
       <c r="C6" s="4">
-        <v>2.71780446800811E-3</v>
+        <v>5.4212986897835703E-3</v>
       </c>
       <c r="D6" s="4">
         <v>141</v>
@@ -4285,23 +4297,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="J6" s="3">
+      <c r="J6" s="5">
         <f>AVERAGE(A18:A21)</f>
         <v>1E-4</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="4">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>2.7176678630201302E-3</v>
-      </c>
-      <c r="L6" s="2">
+        <v>5.4117820557827694E-3</v>
+      </c>
+      <c r="L6" s="4">
         <f t="shared" si="4"/>
-        <v>2.7285818839772424E-3</v>
-      </c>
-      <c r="M6" s="2">
+        <v>5.4158394415664678E-3</v>
+      </c>
+      <c r="M6" s="4">
         <f t="shared" si="4"/>
         <v>154.5</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6" s="4">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -4311,10 +4323,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7" s="4">
-        <v>2.7151749728838298E-3</v>
+        <v>5.4027856315175598E-3</v>
       </c>
       <c r="C7" s="4">
-        <v>2.7256472109767902E-3</v>
+        <v>5.42069497973995E-3</v>
       </c>
       <c r="D7" s="4">
         <v>142</v>
@@ -4329,11 +4341,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>2.7395541543019947E-3</v>
+        <v>5.4362409903357372E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>2.7506389464210823E-3</v>
+        <v>5.4466790963023717E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -4349,10 +4361,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8" s="4">
-        <v>2.7117916102837002E-3</v>
+        <v>5.3997219962378298E-3</v>
       </c>
       <c r="C8" s="4">
-        <v>2.7239167360229399E-3</v>
+        <v>5.4264202505904897E-3</v>
       </c>
       <c r="D8" s="4">
         <v>143</v>
@@ -4367,11 +4379,11 @@
       </c>
       <c r="K8">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>3.6822236205875775E-3</v>
+        <v>6.39912830324222E-3</v>
       </c>
       <c r="L8">
         <f t="shared" si="6"/>
-        <v>3.4535670471214251E-3</v>
+        <v>6.051935586196544E-3</v>
       </c>
       <c r="M8">
         <f t="shared" si="6"/>
@@ -4387,10 +4399,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9" s="4">
-        <v>2.7117192445708501E-3</v>
+        <v>5.4199769782523298E-3</v>
       </c>
       <c r="C9" s="4">
-        <v>2.7257854449807802E-3</v>
+        <v>5.3580223107116002E-3</v>
       </c>
       <c r="D9" s="4">
         <v>144</v>
@@ -4405,11 +4417,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>2.2187644030231025E-2</v>
+        <v>2.0355852025967698</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>1.9814795244121552E-2</v>
+        <v>2.0135639321487497</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -4425,10 +4437,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10" s="4">
-        <v>2.7146844176928302E-3</v>
+        <v>5.3961790824929804E-3</v>
       </c>
       <c r="C10" s="4">
-        <v>2.7175255797868701E-3</v>
+        <v>5.4232339681859303E-3</v>
       </c>
       <c r="D10" s="4">
         <v>145</v>
@@ -4438,7 +4450,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>2.7232418621056928E-3</v>
+        <v>5.4061759270707804E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -4446,10 +4458,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11" s="4">
-        <v>2.7141201039078701E-3</v>
+        <v>5.4045295690496702E-3</v>
       </c>
       <c r="C11" s="4">
-        <v>2.7260755683017599E-3</v>
+        <v>5.4219765192333597E-3</v>
       </c>
       <c r="D11" s="4">
         <v>146</v>
@@ -4463,10 +4475,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12" s="4">
-        <v>2.7116188545616899E-3</v>
+        <v>5.3956077930827897E-3</v>
       </c>
       <c r="C12" s="4">
-        <v>2.7237093717415299E-3</v>
+        <v>5.4258691701800201E-3</v>
       </c>
       <c r="D12" s="4">
         <v>147</v>
@@ -4480,10 +4492,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13" s="4">
-        <v>2.7126559222502701E-3</v>
+        <v>5.4192779945830497E-3</v>
       </c>
       <c r="C13" s="4">
-        <v>2.7257158265759501E-3</v>
+        <v>5.3582980565013401E-3</v>
       </c>
       <c r="D13" s="4">
         <v>148</v>
@@ -4497,10 +4509,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>2.71572484142487E-3</v>
+        <v>5.3982367527981596E-3</v>
       </c>
       <c r="C14">
-        <v>2.7183245115897101E-3</v>
+        <v>5.4239775945848596E-3</v>
       </c>
       <c r="D14">
         <v>149</v>
@@ -4514,10 +4526,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>2.7139760504603901E-3</v>
+        <v>5.4048967572549898E-3</v>
       </c>
       <c r="C15">
-        <v>2.7281081001682699E-3</v>
+        <v>5.4224406349215101E-3</v>
       </c>
       <c r="D15">
         <v>150</v>
@@ -4531,10 +4543,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>2.7127812923206998E-3</v>
+        <v>5.3989215940237001E-3</v>
       </c>
       <c r="C16">
-        <v>2.7237336290183299E-3</v>
+        <v>5.4267243026418803E-3</v>
       </c>
       <c r="D16">
         <v>151</v>
@@ -4548,10 +4560,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>2.7122504189651502E-3</v>
+        <v>5.41952070842186E-3</v>
       </c>
       <c r="C17">
-        <v>2.7267205459474198E-3</v>
+        <v>5.3606365183170102E-3</v>
       </c>
       <c r="D17">
         <v>152</v>
@@ -4561,70 +4573,70 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>1E-4</v>
       </c>
-      <c r="B18" s="2">
-        <v>2.7178987103723602E-3</v>
-      </c>
-      <c r="C18" s="2">
-        <v>2.7201216455483598E-3</v>
-      </c>
-      <c r="D18" s="2">
+      <c r="B18" s="4">
+        <v>5.4043498337268802E-3</v>
+      </c>
+      <c r="C18" s="4">
+        <v>5.4386756432420998E-3</v>
+      </c>
+      <c r="D18" s="4">
         <v>153</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>1E-4</v>
       </c>
-      <c r="B19" s="2">
-        <v>2.7187293460018201E-3</v>
-      </c>
-      <c r="C19" s="2">
-        <v>2.7340383844842199E-3</v>
-      </c>
-      <c r="D19" s="2">
+      <c r="B19" s="4">
+        <v>5.4100633151829202E-3</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5.4239968749436899E-3</v>
+      </c>
+      <c r="D19" s="4">
         <v>154</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>1E-4</v>
       </c>
-      <c r="B20" s="2">
-        <v>2.7185059526918802E-3</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2.7285781566445699E-3</v>
-      </c>
-      <c r="D20" s="2">
+      <c r="B20" s="4">
+        <v>5.4055959818263798E-3</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5.4290972927466298E-3</v>
+      </c>
+      <c r="D20" s="4">
         <v>155</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>1E-4</v>
       </c>
-      <c r="B21" s="2">
-        <v>2.7155374430144598E-3</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2.7315893492318201E-3</v>
-      </c>
-      <c r="D21" s="2">
+      <c r="B21" s="4">
+        <v>5.4271190923949001E-3</v>
+      </c>
+      <c r="C21" s="4">
+        <v>5.3715879553334501E-3</v>
+      </c>
+      <c r="D21" s="4">
         <v>156</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4633,10 +4645,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>2.7391198675849699E-3</v>
+        <v>5.4387530696888703E-3</v>
       </c>
       <c r="C22">
-        <v>2.7413268720633101E-3</v>
+        <v>5.51189132966101E-3</v>
       </c>
       <c r="D22">
         <v>157</v>
@@ -4650,10 +4662,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>2.7367392301534798E-3</v>
+        <v>5.4278275283674397E-3</v>
       </c>
       <c r="C23">
-        <v>2.7535319095477401E-3</v>
+        <v>5.4358269801323697E-3</v>
       </c>
       <c r="D23">
         <v>158</v>
@@ -4667,10 +4679,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>2.7471081546552902E-3</v>
+        <v>5.4284079050024303E-3</v>
       </c>
       <c r="C24">
-        <v>2.7543477440383599E-3</v>
+        <v>5.4378042918966796E-3</v>
       </c>
       <c r="D24">
         <v>159</v>
@@ -4684,10 +4696,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>2.7352493648142399E-3</v>
+        <v>5.4499754582842102E-3</v>
       </c>
       <c r="C25">
-        <v>2.7533492600349198E-3</v>
+        <v>5.4011937835194302E-3</v>
       </c>
       <c r="D25">
         <v>160</v>
@@ -4701,10 +4713,10 @@
         <v>0.01</v>
       </c>
       <c r="B26">
-        <v>3.7346581204297899E-3</v>
+        <v>6.7064437940716698E-3</v>
       </c>
       <c r="C26">
-        <v>3.3660159168536199E-3</v>
+        <v>6.1615018193867596E-3</v>
       </c>
       <c r="D26">
         <v>161</v>
@@ -4718,10 +4730,10 @@
         <v>0.01</v>
       </c>
       <c r="B27">
-        <v>3.7714131099545198E-3</v>
+        <v>6.1172017653783103E-3</v>
       </c>
       <c r="C27">
-        <v>3.2920226957158798E-3</v>
+        <v>6.1146378556781603E-3</v>
       </c>
       <c r="D27">
         <v>162</v>
@@ -4735,10 +4747,10 @@
         <v>0.01</v>
       </c>
       <c r="B28">
-        <v>3.5270182933814201E-3</v>
+        <v>6.2833383803566198E-3</v>
       </c>
       <c r="C28">
-        <v>3.4913006320334301E-3</v>
+        <v>5.9322715251448896E-3</v>
       </c>
       <c r="D28">
         <v>163</v>
@@ -4752,10 +4764,10 @@
         <v>0.01</v>
       </c>
       <c r="B29">
-        <v>3.6958049585845798E-3</v>
+        <v>6.4895292731622801E-3</v>
       </c>
       <c r="C29">
-        <v>3.6649289438827701E-3</v>
+        <v>5.9993311445763701E-3</v>
       </c>
       <c r="D29">
         <v>164</v>
@@ -4769,10 +4781,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>2.08821541805123E-2</v>
+        <v>2.7656224270661601E-2</v>
       </c>
       <c r="C30">
-        <v>2.0354421727620701E-2</v>
+        <v>2.4439716815671E-2</v>
       </c>
       <c r="D30">
         <v>165</v>
@@ -4786,10 +4798,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>2.1035505306398201E-2</v>
+        <v>3.1078285519033601E-2</v>
       </c>
       <c r="C31">
-        <v>1.9728684824433799E-2</v>
+        <v>2.5642027216468001E-2</v>
       </c>
       <c r="D31">
         <v>166</v>
@@ -4803,10 +4815,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>2.5807362820620801E-2</v>
+        <v>8.0584072939554794</v>
       </c>
       <c r="C32">
-        <v>1.71003519238806E-2</v>
+        <v>7.9799961333579201</v>
       </c>
       <c r="D32">
         <v>167</v>
@@ -4820,10 +4832,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>2.10255538133928E-2</v>
+        <v>2.5199006641904501E-2</v>
       </c>
       <c r="C33">
-        <v>2.20757225005511E-2</v>
+        <v>2.4177851204938702E-2</v>
       </c>
       <c r="D33">
         <v>168</v>
@@ -4935,10 +4947,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>4.5254556829796002E-3</v>
+        <v>7.67650284824219E-3</v>
       </c>
       <c r="C2">
-        <v>4.4776087671746997E-3</v>
+        <v>7.7616313145436504E-3</v>
       </c>
       <c r="D2">
         <v>169</v>
@@ -4952,11 +4964,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>4.473694372950773E-3</v>
+        <v>7.9671242076190182E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>4.471126607856135E-3</v>
+        <v>8.051323814644535E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -4972,10 +4984,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3">
-        <v>5.4983509410368699E-3</v>
+        <v>7.8532252599425693E-3</v>
       </c>
       <c r="C3">
-        <v>5.4873179832244604E-3</v>
+        <v>7.9276635945635908E-3</v>
       </c>
       <c r="D3">
         <v>170</v>
@@ -4989,11 +5001,11 @@
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>4.3788171447854294E-3</v>
+        <v>8.0151146282739071E-3</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>4.3748487716360899E-3</v>
+        <v>8.0986476807973929E-3</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="1"/>
@@ -5009,10 +5021,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4">
-        <v>4.2756634944102201E-3</v>
+        <v>7.5537988995300898E-3</v>
       </c>
       <c r="C4">
-        <v>4.2992356323163202E-3</v>
+        <v>7.6547250092187996E-3</v>
       </c>
       <c r="D4">
         <v>171</v>
@@ -5026,11 +5038,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>4.3772605555172824E-3</v>
+        <v>7.9661732789703624E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>4.3711464268996825E-3</v>
+        <v>8.0480897288888326E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -5046,10 +5058,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5">
-        <v>3.5953073733764E-3</v>
+        <v>8.7849698227612204E-3</v>
       </c>
       <c r="C5">
-        <v>3.62034404870906E-3</v>
+        <v>8.8612753402521009E-3</v>
       </c>
       <c r="D5">
         <v>172</v>
@@ -5063,11 +5075,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>4.4576649583688175E-3</v>
+        <v>8.0434845307187919E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>4.4324059558117296E-3</v>
+        <v>8.1063419062782898E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -5083,10 +5095,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>4.4187374837827203E-3</v>
+        <v>7.6596861645737797E-3</v>
       </c>
       <c r="C6">
-        <v>4.3681493854117398E-3</v>
+        <v>7.7472422866428099E-3</v>
       </c>
       <c r="D6">
         <v>173</v>
@@ -5100,11 +5112,11 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>4.6226651644693606E-3</v>
+        <v>8.1539202228862202E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>4.4093313289953273E-3</v>
+        <v>8.026919206307128E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -5120,10 +5132,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>5.1768416530664999E-3</v>
+        <v>7.7612825788240403E-3</v>
       </c>
       <c r="C7">
-        <v>5.1625943334217602E-3</v>
+        <v>7.8340189808860702E-3</v>
       </c>
       <c r="D7">
         <v>174</v>
@@ -5137,11 +5149,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>6.4429280433901774E-3</v>
+        <v>1.01154381508364E-2</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>4.3576174040872292E-3</v>
+        <v>8.0843950928922003E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -5157,10 +5169,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>4.3098401225155599E-3</v>
+        <v>7.58100297559607E-3</v>
       </c>
       <c r="C8">
-        <v>4.3340650971227298E-3</v>
+        <v>7.68328341655433E-3</v>
       </c>
       <c r="D8">
         <v>175</v>
@@ -5174,11 +5186,11 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>2.5053210360439147E-2</v>
+        <v>2.904500423910765E-2</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="6"/>
-        <v>4.3058774338038423E-3</v>
+        <v>8.0283026822763337E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="6"/>
@@ -5194,10 +5206,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>3.6098493197769402E-3</v>
+        <v>9.0584867941017402E-3</v>
       </c>
       <c r="C9">
-        <v>3.63458627058813E-3</v>
+        <v>9.1300460391063598E-3</v>
       </c>
       <c r="D9">
         <v>176</v>
@@ -5211,11 +5223,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>0.21045788214133448</v>
+        <v>0.21639497629663998</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>5.1711700451274349E-3</v>
+        <v>9.0091194093049002E-3</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -5231,10 +5243,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10">
-        <v>4.3996532647788697E-3</v>
+        <v>7.58888394116087E-3</v>
       </c>
       <c r="C10">
-        <v>4.3482146973378502E-3</v>
+        <v>7.6696196610623203E-3</v>
       </c>
       <c r="D10">
         <v>177</v>
@@ -5244,7 +5256,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>4.3058774338038423E-3</v>
+        <v>8.026919206307128E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -5252,10 +5264,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11">
-        <v>5.2915977583707901E-3</v>
+        <v>7.84589207057464E-3</v>
       </c>
       <c r="C11">
-        <v>5.2733484598432197E-3</v>
+        <v>7.9179966594389705E-3</v>
       </c>
       <c r="D11">
         <v>178</v>
@@ -5269,10 +5281,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12">
-        <v>4.2195604019389802E-3</v>
+        <v>7.5342279036549097E-3</v>
       </c>
       <c r="C12">
-        <v>4.2418322766918596E-3</v>
+        <v>7.6358613875159497E-3</v>
       </c>
       <c r="D12">
         <v>179</v>
@@ -5286,10 +5298,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13">
-        <v>3.5982307969804899E-3</v>
+        <v>8.8956892004910301E-3</v>
       </c>
       <c r="C13">
-        <v>3.6211902737258001E-3</v>
+        <v>8.9688812075380906E-3</v>
       </c>
       <c r="D13">
         <v>180</v>
@@ -5303,10 +5315,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>4.5188593661837397E-3</v>
+        <v>7.6828086302873303E-3</v>
       </c>
       <c r="C14">
-        <v>4.4466932181660996E-3</v>
+        <v>7.74836497123729E-3</v>
       </c>
       <c r="D14">
         <v>181</v>
@@ -5320,10 +5332,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>5.3485416839912196E-3</v>
+        <v>7.9405239456273695E-3</v>
       </c>
       <c r="C15">
-        <v>5.3122455066298702E-3</v>
+        <v>7.9957283092068204E-3</v>
       </c>
       <c r="D15">
         <v>182</v>
@@ -5337,10 +5349,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>4.3142087218400599E-3</v>
+        <v>7.5694493196428996E-3</v>
       </c>
       <c r="C16">
-        <v>4.3179417159735101E-3</v>
+        <v>7.6484162994521704E-3</v>
       </c>
       <c r="D16">
         <v>183</v>
@@ -5354,10 +5366,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>3.6490500614602501E-3</v>
+        <v>8.9811562273175698E-3</v>
       </c>
       <c r="C17">
-        <v>3.6527433824774399E-3</v>
+        <v>9.0328580452168801E-3</v>
       </c>
       <c r="D17">
         <v>184</v>
@@ -5371,10 +5383,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>4.7093853844623803E-3</v>
+        <v>7.8400566460604306E-3</v>
       </c>
       <c r="C18">
-        <v>4.45105167097624E-3</v>
+        <v>7.7180631131805602E-3</v>
       </c>
       <c r="D18">
         <v>185</v>
@@ -5388,10 +5400,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>5.4792786923874301E-3</v>
+        <v>7.9591526511184705E-3</v>
       </c>
       <c r="C19">
-        <v>5.2514890078128396E-3</v>
+        <v>7.8186624178147694E-3</v>
       </c>
       <c r="D19">
         <v>186</v>
@@ -5405,10 +5417,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>4.4829951672765702E-3</v>
+        <v>7.7753249912502903E-3</v>
       </c>
       <c r="C20">
-        <v>4.29954711887005E-3</v>
+        <v>7.6677507195780197E-3</v>
       </c>
       <c r="D20">
         <v>187</v>
@@ -5422,10 +5434,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>3.8190014137510601E-3</v>
+        <v>9.0411466031156892E-3</v>
       </c>
       <c r="C21">
-        <v>3.6352375183221798E-3</v>
+        <v>8.9032005746551603E-3</v>
       </c>
       <c r="D21">
         <v>188</v>
@@ -5439,10 +5451,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22" s="4">
-        <v>6.5101707566594799E-3</v>
+        <v>9.6688416806307194E-3</v>
       </c>
       <c r="C22" s="4">
-        <v>4.37331053207775E-3</v>
+        <v>7.6572429983222702E-3</v>
       </c>
       <c r="D22" s="4">
         <v>189</v>
@@ -5456,10 +5468,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23" s="4">
-        <v>7.3205368397267203E-3</v>
+        <v>1.0010574339948401E-2</v>
       </c>
       <c r="C23" s="4">
-        <v>5.2136289437807902E-3</v>
+        <v>7.9571422972181307E-3</v>
       </c>
       <c r="D23" s="4">
         <v>190</v>
@@ -5473,10 +5485,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24" s="4">
-        <v>6.2661777871350398E-3</v>
+        <v>9.6926114105797805E-3</v>
       </c>
       <c r="C24" s="4">
-        <v>4.2112213416482499E-3</v>
+        <v>7.68606580714596E-3</v>
       </c>
       <c r="D24" s="4">
         <v>191</v>
@@ -5490,10 +5502,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25" s="4">
-        <v>5.6748267900394696E-3</v>
+        <v>1.1089725172186701E-2</v>
       </c>
       <c r="C25" s="4">
-        <v>3.6323087988421299E-3</v>
+        <v>9.0371292688824403E-3</v>
       </c>
       <c r="D25" s="4">
         <v>192</v>
@@ -5507,10 +5519,10 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="2">
-        <v>2.5162904964465799E-2</v>
+        <v>2.8527984197469401E-2</v>
       </c>
       <c r="C26" s="2">
-        <v>4.2957312411122097E-3</v>
+        <v>7.6176332399011202E-3</v>
       </c>
       <c r="D26" s="2">
         <v>193</v>
@@ -5525,10 +5537,10 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="2">
-        <v>2.6010024933177101E-2</v>
+        <v>2.8882624462563899E-2</v>
       </c>
       <c r="C27" s="2">
-        <v>5.19573666040965E-3</v>
+        <v>7.7884733488664303E-3</v>
       </c>
       <c r="D27" s="2">
         <v>194</v>
@@ -5543,10 +5555,10 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="2">
-        <v>2.4883846686989501E-2</v>
+        <v>2.8517497881771402E-2</v>
       </c>
       <c r="C28" s="2">
-        <v>4.1426736677653599E-3</v>
+        <v>7.6147230451015001E-3</v>
       </c>
       <c r="D28" s="2">
         <v>195</v>
@@ -5561,10 +5573,10 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="2">
-        <v>2.4156064857124199E-2</v>
+        <v>3.0251910414625899E-2</v>
       </c>
       <c r="C29" s="2">
-        <v>3.58936816592815E-3</v>
+        <v>9.0923810952362807E-3</v>
       </c>
       <c r="D29" s="2">
         <v>196</v>
@@ -5579,10 +5591,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.210565855628565</v>
+        <v>0.21483733568419799</v>
       </c>
       <c r="C30">
-        <v>5.1885855612916901E-3</v>
+        <v>8.9049569747232295E-3</v>
       </c>
       <c r="D30">
         <v>197</v>
@@ -5596,10 +5608,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>0.21319470606874999</v>
+        <v>0.21723217025716199</v>
       </c>
       <c r="C31">
-        <v>6.0534920306516797E-3</v>
+        <v>8.7656870811305704E-3</v>
       </c>
       <c r="D31">
         <v>198</v>
@@ -5613,10 +5625,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>0.21011247407448899</v>
+        <v>0.215177323906979</v>
       </c>
       <c r="C32">
-        <v>5.1142435047056498E-3</v>
+        <v>8.5135061749593999E-3</v>
       </c>
       <c r="D32">
         <v>199</v>
@@ -5630,10 +5642,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.20795849279353401</v>
+        <v>0.21833307533822099</v>
       </c>
       <c r="C33">
-        <v>4.32835908386072E-3</v>
+        <v>9.8523274064064009E-3</v>
       </c>
       <c r="D33">
         <v>200</v>
@@ -5697,10 +5709,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>3.3286030451451201E-3</v>
+        <v>6.25429751767598E-3</v>
       </c>
       <c r="C2">
-        <v>3.3452612360155101E-3</v>
+        <v>6.3376397072793297E-3</v>
       </c>
       <c r="D2">
         <v>201</v>
@@ -5714,11 +5726,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>3.3429455502360745E-3</v>
+        <v>6.2893804687848068E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>3.3555117419414326E-3</v>
+        <v>6.3483509274714772E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -5734,10 +5746,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3">
-        <v>3.53060631360448E-3</v>
+        <v>6.3118188532980801E-3</v>
       </c>
       <c r="C3">
-        <v>3.5240262330166602E-3</v>
+        <v>6.36903551763835E-3</v>
       </c>
       <c r="D3">
         <v>202</v>
@@ -5751,11 +5763,11 @@
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>3.3348919723761349E-3</v>
+        <v>6.2964823557697999E-3</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>3.3476244976842024E-3</v>
+        <v>6.3550596489531349E-3</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="1"/>
@@ -5771,10 +5783,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4">
-        <v>3.3352326105311799E-3</v>
+        <v>6.1645243103873497E-3</v>
       </c>
       <c r="C4">
-        <v>3.35343031359738E-3</v>
+        <v>6.2560894863402496E-3</v>
       </c>
       <c r="D4">
         <v>203</v>
@@ -5788,11 +5800,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>3.34935206104488E-3</v>
+        <v>6.3086239580173948E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>3.3601908924123397E-3</v>
+        <v>6.3657152473906679E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -5808,10 +5820,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5">
-        <v>3.1773402316635198E-3</v>
+        <v>6.4268811937778199E-3</v>
       </c>
       <c r="C5">
-        <v>3.1993291851361801E-3</v>
+        <v>6.4306389986279796E-3</v>
       </c>
       <c r="D5">
         <v>204</v>
@@ -5825,11 +5837,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>3.3688927135975899E-3</v>
+        <v>6.331503916992505E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>3.3614671893270704E-3</v>
+        <v>6.3700439926098118E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -5845,10 +5857,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>3.3140655028498301E-3</v>
+        <v>6.2565557396118601E-3</v>
       </c>
       <c r="C6">
-        <v>3.3316476650438001E-3</v>
+        <v>6.3394596156208403E-3</v>
       </c>
       <c r="D6">
         <v>205</v>
@@ -5862,11 +5874,11 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>3.537267712170525E-3</v>
+        <v>6.5000747092702239E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>3.3450102951304078E-3</v>
+        <v>6.35049649281427E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -5882,10 +5894,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>3.48284438515024E-3</v>
+        <v>6.2972263586608297E-3</v>
       </c>
       <c r="C7">
-        <v>3.4757309813836599E-3</v>
+        <v>6.3531293305865598E-3</v>
       </c>
       <c r="D7">
         <v>206</v>
@@ -5899,11 +5911,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>5.3833968817391751E-3</v>
+        <v>8.3724696683310975E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>3.3381354786749702E-3</v>
+        <v>6.3500198265636675E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -5919,10 +5931,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>3.36770788204368E-3</v>
+        <v>6.1720901124298197E-3</v>
       </c>
       <c r="C8">
-        <v>3.3858253828887002E-3</v>
+        <v>6.26382998071927E-3</v>
       </c>
       <c r="D8">
         <v>207</v>
@@ -5936,11 +5948,11 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>2.3777079752067849E-2</v>
+        <v>2.6919148087085374E-2</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="6"/>
-        <v>3.2918578403871154E-3</v>
+        <v>6.2820490875697445E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="6"/>
@@ -5956,10 +5968,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>3.17495011946079E-3</v>
+        <v>6.46005721237669E-3</v>
       </c>
       <c r="C9">
-        <v>3.19729396142065E-3</v>
+        <v>6.4638196688858703E-3</v>
       </c>
       <c r="D9">
         <v>208</v>
@@ -5973,11 +5985,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>0.20720556452213901</v>
+        <v>0.21144157380578976</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>3.9746086633960249E-3</v>
+        <v>7.2869602070645724E-3</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -5993,10 +6005,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10">
-        <v>3.3344427269313098E-3</v>
+        <v>6.2518533210250199E-3</v>
       </c>
       <c r="C10">
-        <v>3.3498241917409898E-3</v>
+        <v>6.3325422419671E-3</v>
       </c>
       <c r="D10">
         <v>209</v>
@@ -6006,7 +6018,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>3.2918578403871154E-3</v>
+        <v>6.2820490875697445E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -6014,10 +6026,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11">
-        <v>3.5340866352952501E-3</v>
+        <v>6.31778388274239E-3</v>
       </c>
       <c r="C11">
-        <v>3.5253097507449002E-3</v>
+        <v>6.3732884170368603E-3</v>
       </c>
       <c r="D11">
         <v>210</v>
@@ -6031,10 +6043,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12">
-        <v>3.3425977874120502E-3</v>
+        <v>6.1680459035956797E-3</v>
       </c>
       <c r="C12">
-        <v>3.3588115199419998E-3</v>
+        <v>6.2574759185155598E-3</v>
       </c>
       <c r="D12">
         <v>211</v>
@@ -6048,10 +6060,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13">
-        <v>3.1862810945409098E-3</v>
+        <v>6.4968127247064904E-3</v>
       </c>
       <c r="C13">
-        <v>3.2068181072214702E-3</v>
+        <v>6.4995544120431499E-3</v>
       </c>
       <c r="D13">
         <v>212</v>
@@ -6065,10 +6077,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>3.3499112984551201E-3</v>
+        <v>6.2936507289277997E-3</v>
       </c>
       <c r="C14">
-        <v>3.3465151597435201E-3</v>
+        <v>6.3561664874407803E-3</v>
       </c>
       <c r="D14">
         <v>213</v>
@@ -6082,10 +6094,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>3.5596828649255398E-3</v>
+        <v>6.3779110737897902E-3</v>
       </c>
       <c r="C15">
-        <v>3.5318382893149698E-3</v>
+        <v>6.4155836738249697E-3</v>
       </c>
       <c r="D15">
         <v>214</v>
@@ -6099,10 +6111,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>3.3601762025333901E-3</v>
+        <v>6.1749829192388203E-3</v>
       </c>
       <c r="C16">
-        <v>3.3585029784916698E-3</v>
+        <v>6.24560922423892E-3</v>
       </c>
       <c r="D16">
         <v>215</v>
@@ -6116,10 +6128,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>3.2058004884763102E-3</v>
+        <v>6.4794709460136097E-3</v>
       </c>
       <c r="C17">
-        <v>3.2090123297581199E-3</v>
+        <v>6.4628165849345796E-3</v>
       </c>
       <c r="D17">
         <v>216</v>
@@ -6133,10 +6145,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>3.5226263612558001E-3</v>
+        <v>6.4495562011019298E-3</v>
       </c>
       <c r="C18">
-        <v>3.3377763986783501E-3</v>
+        <v>6.3228273189606804E-3</v>
       </c>
       <c r="D18">
         <v>217</v>
@@ -6150,10 +6162,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>3.70057627952571E-3</v>
+        <v>6.5327182565716596E-3</v>
       </c>
       <c r="C19">
-        <v>3.48613132199828E-3</v>
+        <v>6.3809356850353903E-3</v>
       </c>
       <c r="D19">
         <v>218</v>
@@ -6167,10 +6179,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>3.5433940043763101E-3</v>
+        <v>6.36531651624419E-3</v>
       </c>
       <c r="C20">
-        <v>3.3562655188960201E-3</v>
+        <v>6.2495262976339496E-3</v>
       </c>
       <c r="D20">
         <v>219</v>
@@ -6184,10 +6196,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>3.3824742035242798E-3</v>
+        <v>6.6527078631631199E-3</v>
       </c>
       <c r="C21">
-        <v>3.1998679409489801E-3</v>
+        <v>6.4486966696270598E-3</v>
       </c>
       <c r="D21">
         <v>220</v>
@@ -6201,10 +6213,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>5.3671471536619001E-3</v>
+        <v>8.3292077414374392E-3</v>
       </c>
       <c r="C22">
-        <v>3.33030096238903E-3</v>
+        <v>6.3338699215587102E-3</v>
       </c>
       <c r="D22">
         <v>221</v>
@@ -6218,10 +6230,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>5.5596389898021001E-3</v>
+        <v>8.4255057079915593E-3</v>
       </c>
       <c r="C23">
-        <v>3.4818724287967902E-3</v>
+        <v>6.38911109219523E-3</v>
       </c>
       <c r="D23">
         <v>222</v>
@@ -6235,10 +6247,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>5.3900696505435504E-3</v>
+        <v>8.2299644077949707E-3</v>
       </c>
       <c r="C24">
-        <v>3.35226627883681E-3</v>
+        <v>6.2449757415959798E-3</v>
       </c>
       <c r="D24">
         <v>223</v>
@@ -6252,10 +6264,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>5.2167317329491498E-3</v>
+        <v>8.5052008161004208E-3</v>
       </c>
       <c r="C25">
-        <v>3.1881022446772502E-3</v>
+        <v>6.43212255090475E-3</v>
       </c>
       <c r="D25">
         <v>224</v>
@@ -6269,10 +6281,10 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="2">
-        <v>2.3757883868619201E-2</v>
+        <v>2.6860334315991101E-2</v>
       </c>
       <c r="C26" s="2">
-        <v>3.2914574298876899E-3</v>
+        <v>6.2792411103765296E-3</v>
       </c>
       <c r="D26" s="2">
         <v>225</v>
@@ -6287,10 +6299,10 @@
         <v>0.01</v>
       </c>
       <c r="B27" s="2">
-        <v>2.39698554549185E-2</v>
+        <v>2.6912589517838099E-2</v>
       </c>
       <c r="C27" s="2">
-        <v>3.4129876774131201E-3</v>
+        <v>6.2589137517708397E-3</v>
       </c>
       <c r="D27" s="2">
         <v>226</v>
@@ -6305,10 +6317,10 @@
         <v>0.01</v>
       </c>
       <c r="B28" s="2">
-        <v>2.3810733585630701E-2</v>
+        <v>2.6751785935398099E-2</v>
       </c>
       <c r="C28" s="2">
-        <v>3.3096177564737798E-3</v>
+        <v>6.1778103031138697E-3</v>
       </c>
       <c r="D28" s="2">
         <v>227</v>
@@ -6323,10 +6335,10 @@
         <v>0.01</v>
       </c>
       <c r="B29" s="2">
-        <v>2.3569846099102999E-2</v>
+        <v>2.71518825791142E-2</v>
       </c>
       <c r="C29" s="2">
-        <v>3.15336849777387E-3</v>
+        <v>6.4122311850177399E-3</v>
       </c>
       <c r="D29" s="2">
         <v>228</v>
@@ -6341,10 +6353,10 @@
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.20708580787749001</v>
+        <v>0.21128562711020701</v>
       </c>
       <c r="C30">
-        <v>3.9744360654271702E-3</v>
+        <v>7.3881352102344302E-3</v>
       </c>
       <c r="D30">
         <v>229</v>
@@ -6358,10 +6370,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>0.208034962612626</v>
+        <v>0.21163791782678401</v>
       </c>
       <c r="C31">
-        <v>4.1282617246013202E-3</v>
+        <v>7.1790082023498797E-3</v>
       </c>
       <c r="D31">
         <v>230</v>
@@ -6375,10 +6387,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>0.207345592227276</v>
+        <v>0.211107663176161</v>
       </c>
       <c r="C32">
-        <v>4.0242273397253503E-3</v>
+        <v>7.2097151906804196E-3</v>
       </c>
       <c r="D32">
         <v>231</v>
@@ -6392,10 +6404,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.206355895371164</v>
+        <v>0.21173508711000699</v>
       </c>
       <c r="C33">
-        <v>3.7715095238302601E-3</v>
+        <v>7.3709822249935601E-3</v>
       </c>
       <c r="D33">
         <v>232</v>
@@ -6414,7 +6426,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F34"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6459,10 +6471,10 @@
         <v>1E-8</v>
       </c>
       <c r="B2">
-        <v>3.02425775951849E-3</v>
+        <v>5.7745237685739997E-3</v>
       </c>
       <c r="C2">
-        <v>3.0395036089446402E-3</v>
+        <v>5.8296034806110701E-3</v>
       </c>
       <c r="D2">
         <v>233</v>
@@ -6476,11 +6488,11 @@
       </c>
       <c r="K2" s="4">
         <f t="shared" ref="K2:N2" si="0">AVERAGE(B2:B5)</f>
-        <v>3.0123425013229774E-3</v>
+        <v>5.7867770368854174E-3</v>
       </c>
       <c r="L2" s="4">
         <f t="shared" si="0"/>
-        <v>3.0236552829911328E-3</v>
+        <v>5.8153938251904128E-3</v>
       </c>
       <c r="M2" s="4">
         <f t="shared" si="0"/>
@@ -6496,10 +6508,10 @@
         <v>1E-8</v>
       </c>
       <c r="B3">
-        <v>3.0575797212051602E-3</v>
+        <v>5.8211015500128204E-3</v>
       </c>
       <c r="C3">
-        <v>3.0511205121384602E-3</v>
+        <v>5.8589515454591503E-3</v>
       </c>
       <c r="D3">
         <v>234</v>
@@ -6513,11 +6525,11 @@
       </c>
       <c r="K3" s="4">
         <f t="shared" ref="K3:N3" si="1">AVERAGE(B6:B9)</f>
-        <v>3.0146731622209375E-3</v>
+        <v>5.7847267047812503E-3</v>
       </c>
       <c r="L3" s="4">
         <f t="shared" si="1"/>
-        <v>3.02590854749851E-3</v>
+        <v>5.8120125718910121E-3</v>
       </c>
       <c r="M3" s="4">
         <f t="shared" si="1"/>
@@ -6533,10 +6545,10 @@
         <v>1E-8</v>
       </c>
       <c r="B4">
-        <v>3.0215946133843401E-3</v>
+        <v>5.7139843925833704E-3</v>
       </c>
       <c r="C4">
-        <v>3.0333070950419199E-3</v>
+        <v>5.7510285876057202E-3</v>
       </c>
       <c r="D4">
         <v>235</v>
@@ -6550,11 +6562,11 @@
       </c>
       <c r="K4" s="4">
         <f t="shared" ref="K4:N4" si="2">AVERAGE(B10:B13)</f>
-        <v>3.0132427680591252E-3</v>
+        <v>5.7925296813870443E-3</v>
       </c>
       <c r="L4" s="4">
         <f t="shared" si="2"/>
-        <v>3.0227542386120649E-3</v>
+        <v>5.818553750670725E-3</v>
       </c>
       <c r="M4" s="4">
         <f t="shared" si="2"/>
@@ -6570,10 +6582,10 @@
         <v>1E-8</v>
       </c>
       <c r="B5">
-        <v>2.94593791118392E-3</v>
+        <v>5.8374984363714797E-3</v>
       </c>
       <c r="C5">
-        <v>2.97068991583951E-3</v>
+        <v>5.8219916870857098E-3</v>
       </c>
       <c r="D5">
         <v>236</v>
@@ -6587,11 +6599,11 @@
       </c>
       <c r="K5" s="4">
         <f t="shared" ref="K5:N5" si="3">AVERAGE(B14:B17)</f>
-        <v>3.0305796770311198E-3</v>
+        <v>5.8104838142171451E-3</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="3"/>
-        <v>3.0212670808715146E-3</v>
+        <v>5.8193105059933421E-3</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="3"/>
@@ -6607,10 +6619,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B6">
-        <v>3.01907566429366E-3</v>
+        <v>5.7715891674160903E-3</v>
       </c>
       <c r="C6">
-        <v>3.0338614341688499E-3</v>
+        <v>5.8251340239447403E-3</v>
       </c>
       <c r="D6">
         <v>237</v>
@@ -6624,11 +6636,11 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:N6" si="4">AVERAGE(B18:B21)</f>
-        <v>3.2178783260536047E-3</v>
+        <v>5.9954324405019441E-3</v>
       </c>
       <c r="L6">
         <f t="shared" si="4"/>
-        <v>3.0248235153410102E-3</v>
+        <v>5.8195641502103851E-3</v>
       </c>
       <c r="M6">
         <f t="shared" si="4"/>
@@ -6644,10 +6656,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B7">
-        <v>3.0681152385967198E-3</v>
+        <v>5.8112451260288502E-3</v>
       </c>
       <c r="C7">
-        <v>3.0617917307832199E-3</v>
+        <v>5.8489731919178899E-3</v>
       </c>
       <c r="D7">
         <v>238</v>
@@ -6661,11 +6673,11 @@
       </c>
       <c r="K7">
         <f t="shared" ref="K7:N7" si="5">AVERAGE(B22:B25)</f>
-        <v>5.0452463423714226E-3</v>
+        <v>7.8418004037812301E-3</v>
       </c>
       <c r="L7">
         <f t="shared" si="5"/>
-        <v>3.0158913480893951E-3</v>
+        <v>5.8112371170477121E-3</v>
       </c>
       <c r="M7">
         <f t="shared" si="5"/>
@@ -6681,10 +6693,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B8">
-        <v>3.0252187115874601E-3</v>
+        <v>5.7188739379246999E-3</v>
       </c>
       <c r="C8">
-        <v>3.0369239352774201E-3</v>
+        <v>5.75204428404252E-3</v>
       </c>
       <c r="D8">
         <v>239</v>
@@ -6698,11 +6710,11 @@
       </c>
       <c r="K8" s="2">
         <f t="shared" ref="K8:N8" si="6">AVERAGE(B26:B29)</f>
-        <v>2.3327068787781974E-2</v>
+        <v>2.6205396720518599E-2</v>
       </c>
       <c r="L8" s="2">
         <f t="shared" si="6"/>
-        <v>2.986904316920815E-3</v>
+        <v>5.7672889075895857E-3</v>
       </c>
       <c r="M8" s="2">
         <f t="shared" si="6"/>
@@ -6718,10 +6730,10 @@
         <v>9.9999999999999995E-8</v>
       </c>
       <c r="B9">
-        <v>2.94628303440591E-3</v>
+        <v>5.83719858775536E-3</v>
       </c>
       <c r="C9">
-        <v>2.97105708976455E-3</v>
+        <v>5.8218987876588997E-3</v>
       </c>
       <c r="D9">
         <v>240</v>
@@ -6735,11 +6747,11 @@
       </c>
       <c r="K9">
         <f t="shared" ref="K9:N9" si="7">AVERAGE(B30:B33)</f>
-        <v>0.20578989626979177</v>
+        <v>0.209433410753806</v>
       </c>
       <c r="L9">
         <f t="shared" si="7"/>
-        <v>3.5936312306786649E-3</v>
+        <v>6.6427761773043747E-3</v>
       </c>
       <c r="M9">
         <f t="shared" si="7"/>
@@ -6755,10 +6767,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B10">
-        <v>3.02045410632315E-3</v>
+        <v>5.7780514148374398E-3</v>
       </c>
       <c r="C10">
-        <v>3.0335178741727701E-3</v>
+        <v>5.83076386890829E-3</v>
       </c>
       <c r="D10">
         <v>241</v>
@@ -6768,7 +6780,7 @@
       </c>
       <c r="L10">
         <f>MIN(L2:L9)</f>
-        <v>2.986904316920815E-3</v>
+        <v>5.7672889075895857E-3</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -6776,10 +6788,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B11">
-        <v>3.0584465045613201E-3</v>
+        <v>5.8290923436482697E-3</v>
       </c>
       <c r="C11">
-        <v>3.04946787206031E-3</v>
+        <v>5.8639464909805202E-3</v>
       </c>
       <c r="D11">
         <v>242</v>
@@ -6793,10 +6805,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B12">
-        <v>3.02478407985543E-3</v>
+        <v>5.7218720763921697E-3</v>
       </c>
       <c r="C12">
-        <v>3.0355613674608998E-3</v>
+        <v>5.7553645877286399E-3</v>
       </c>
       <c r="D12">
         <v>243</v>
@@ -6810,10 +6822,10 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="B13">
-        <v>2.9492863814966001E-3</v>
+        <v>5.8411028906702996E-3</v>
       </c>
       <c r="C13">
-        <v>2.9724698407542802E-3</v>
+        <v>5.8241400550654498E-3</v>
       </c>
       <c r="D13">
         <v>244</v>
@@ -6827,10 +6839,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B14">
-        <v>3.04034471846214E-3</v>
+        <v>5.7946913701792504E-3</v>
       </c>
       <c r="C14">
-        <v>3.0349826668960998E-3</v>
+        <v>5.8289616160649496E-3</v>
       </c>
       <c r="D14">
         <v>245</v>
@@ -6844,10 +6856,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B15">
-        <v>3.0743171428104501E-3</v>
+        <v>5.8327707598606702E-3</v>
       </c>
       <c r="C15">
-        <v>3.0474410179937E-3</v>
+        <v>5.8495055616615303E-3</v>
       </c>
       <c r="D15">
         <v>246</v>
@@ -6861,10 +6873,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B16">
-        <v>3.04174469117206E-3</v>
+        <v>5.74567512174447E-3</v>
       </c>
       <c r="C16">
-        <v>3.0321178124531299E-3</v>
+        <v>5.7607043356178904E-3</v>
       </c>
       <c r="D16">
         <v>247</v>
@@ -6878,10 +6890,10 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="B17">
-        <v>2.9659121556798299E-3</v>
+        <v>5.8687980050841897E-3</v>
       </c>
       <c r="C17">
-        <v>2.9705268261431298E-3</v>
+        <v>5.8380705106289999E-3</v>
       </c>
       <c r="D17">
         <v>248</v>
@@ -6895,10 +6907,10 @@
         <v>1E-4</v>
       </c>
       <c r="B18">
-        <v>3.22341515953418E-3</v>
+        <v>5.9823302055398604E-3</v>
       </c>
       <c r="C18">
-        <v>3.0342449491288E-3</v>
+        <v>5.83020359911817E-3</v>
       </c>
       <c r="D18">
         <v>249</v>
@@ -6912,10 +6924,10 @@
         <v>1E-4</v>
       </c>
       <c r="B19">
-        <v>3.2699027099740898E-3</v>
+        <v>6.0290691951910601E-3</v>
       </c>
       <c r="C19">
-        <v>3.0582185340391698E-3</v>
+        <v>5.8675478361150599E-3</v>
       </c>
       <c r="D19">
         <v>250</v>
@@ -6929,10 +6941,10 @@
         <v>1E-4</v>
       </c>
       <c r="B20">
-        <v>3.2285687622372098E-3</v>
+        <v>5.9244076684117301E-3</v>
       </c>
       <c r="C20">
-        <v>3.0362179069861502E-3</v>
+        <v>5.7512052862488802E-3</v>
       </c>
       <c r="D20">
         <v>251</v>
@@ -6946,10 +6958,10 @@
         <v>1E-4</v>
       </c>
       <c r="B21">
-        <v>3.1496266724689399E-3</v>
+        <v>6.0459226928651303E-3</v>
       </c>
       <c r="C21">
-        <v>2.9706126712099202E-3</v>
+        <v>5.8292998793594304E-3</v>
       </c>
       <c r="D21">
         <v>252</v>
@@ -6963,10 +6975,10 @@
         <v>1E-3</v>
       </c>
       <c r="B22">
-        <v>5.0489747781913702E-3</v>
+        <v>7.8203476592898294E-3</v>
       </c>
       <c r="C22">
-        <v>3.0245871973436302E-3</v>
+        <v>5.8139131027967299E-3</v>
       </c>
       <c r="D22">
         <v>253</v>
@@ -6980,10 +6992,10 @@
         <v>1E-3</v>
       </c>
       <c r="B23">
-        <v>5.0968428251091397E-3</v>
+        <v>7.8653287825484995E-3</v>
       </c>
       <c r="C23">
-        <v>3.0484165967719799E-3</v>
+        <v>5.8418112321499101E-3</v>
       </c>
       <c r="D23">
         <v>254</v>
@@ -6997,10 +7009,10 @@
         <v>1E-3</v>
       </c>
       <c r="B24">
-        <v>5.0554879477436301E-3</v>
+        <v>7.7802440325419097E-3</v>
       </c>
       <c r="C24">
-        <v>3.0256508678001698E-3</v>
+        <v>5.7576961092096002E-3</v>
       </c>
       <c r="D24">
         <v>255</v>
@@ -7014,10 +7026,10 @@
         <v>1E-3</v>
       </c>
       <c r="B25">
-        <v>4.9796798184415497E-3</v>
+        <v>7.9012811407446794E-3</v>
       </c>
       <c r="C25">
-        <v>2.9649107304418002E-3</v>
+        <v>5.8315280240346101E-3</v>
       </c>
       <c r="D25">
         <v>256</v>
@@ -7031,10 +7043,10 @@
         <v>0.01</v>
       </c>
       <c r="B26" s="2">
-        <v>2.33302892797056E-2</v>
+        <v>2.61700828522443E-2</v>
       </c>
       <c r="C26" s="2">
-        <v>2.99059632520207E-3</v>
+        <v>5.7689453118500503E-3</v>
       </c>
       <c r="D26" s="2">
         <v>257</v>
@@ -7042,17 +7054,19 @@
       <c r="E26" s="2">
         <v>1</v>
       </c>
-      <c r="F26" s="2"/>
+      <c r="F26" s="2">
+        <v>11.521000000000001</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>0.01</v>
       </c>
       <c r="B27" s="2">
-        <v>2.3393314475365901E-2</v>
+        <v>2.6260956982771502E-2</v>
       </c>
       <c r="C27" s="2">
-        <v>3.0134495739873998E-3</v>
+        <v>5.7908760462986597E-3</v>
       </c>
       <c r="D27" s="2">
         <v>258</v>
@@ -7060,17 +7074,19 @@
       <c r="E27" s="2">
         <v>1</v>
       </c>
-      <c r="F27" s="2"/>
+      <c r="F27" s="2">
+        <v>14.522</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0.01</v>
       </c>
       <c r="B28" s="2">
-        <v>2.33391804111883E-2</v>
+        <v>2.6138739680250399E-2</v>
       </c>
       <c r="C28" s="2">
-        <v>2.99648552103654E-3</v>
+        <v>5.7242701791147604E-3</v>
       </c>
       <c r="D28" s="2">
         <v>259</v>
@@ -7078,17 +7094,19 @@
       <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2">
+        <v>18.213000000000001</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>0.01</v>
       </c>
       <c r="B29" s="2">
-        <v>2.3245490984868101E-2</v>
+        <v>2.62518073668082E-2</v>
       </c>
       <c r="C29" s="2">
-        <v>2.9470858474572501E-3</v>
+        <v>5.7850640930948698E-3</v>
       </c>
       <c r="D29" s="2">
         <v>260</v>
@@ -7096,17 +7114,19 @@
       <c r="E29" s="2">
         <v>1</v>
       </c>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2">
+        <v>12.5</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0.1</v>
       </c>
       <c r="B30">
-        <v>0.20584537676383699</v>
+        <v>0.209349944790204</v>
       </c>
       <c r="C30">
-        <v>3.5764039820876999E-3</v>
+        <v>6.6564881510319199E-3</v>
       </c>
       <c r="D30">
         <v>261</v>
@@ -7120,10 +7140,10 @@
         <v>0.1</v>
       </c>
       <c r="B31">
-        <v>0.205987148512039</v>
+        <v>0.20947332664330801</v>
       </c>
       <c r="C31">
-        <v>3.64980998596078E-3</v>
+        <v>6.66434954396112E-3</v>
       </c>
       <c r="D31">
         <v>262</v>
@@ -7137,10 +7157,10 @@
         <v>0.1</v>
       </c>
       <c r="B32">
-        <v>0.205738482003957</v>
+        <v>0.209281221866607</v>
       </c>
       <c r="C32">
-        <v>3.6075624551526E-3</v>
+        <v>6.5784212152295201E-3</v>
       </c>
       <c r="D32">
         <v>263</v>
@@ -7154,10 +7174,10 @@
         <v>0.1</v>
       </c>
       <c r="B33">
-        <v>0.20558857779933401</v>
+        <v>0.20962914971510499</v>
       </c>
       <c r="C33">
-        <v>3.5407484995135801E-3</v>
+        <v>6.6718457989949397E-3</v>
       </c>
       <c r="D33">
         <v>264</v>

--- a/eg1.xlsx
+++ b/eg1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shiqing/Desktop/Lipschitz-System-ID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597C526C-D655-DD44-907A-4ACB5FCA7BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F0B1A9B-A92A-2949-9D81-FB7D1C46089C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="8" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19800" activeTab="9" xr2:uid="{624D5C9E-D399-6E42-9BAD-9829FF00FD61}"/>
   </bookViews>
   <sheets>
     <sheet name="Ours 0.25" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="LRN 0.25" sheetId="7" r:id="rId7"/>
     <sheet name="LRN 0.5" sheetId="8" r:id="rId8"/>
     <sheet name="LRN 1.0" sheetId="9" r:id="rId9"/>
+    <sheet name="Ours extra" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="9">
   <si>
     <t>Gamma</t>
   </si>
@@ -463,7 +464,7 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G25"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1132,6 +1133,684 @@
       </c>
       <c r="F25">
         <v>0.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6725D12-BCDF-7B40-8915-FCAD4E0093EC}">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0.5</v>
+      </c>
+      <c r="B2">
+        <v>1.0052530765533401</v>
+      </c>
+      <c r="C2">
+        <v>3.9959042867024701</v>
+      </c>
+      <c r="D2">
+        <v>4.0833019880538197</v>
+      </c>
+      <c r="E2">
+        <v>265</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <f ca="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
+        <v>0.5</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:O2" ca="1" si="0">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
+        <v>1.0052530765533401</v>
+      </c>
+      <c r="L2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.0170390647252372</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.00031740297662</v>
+      </c>
+      <c r="N2">
+        <f t="shared" ca="1" si="0"/>
+        <v>266.5</v>
+      </c>
+      <c r="O2">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3">
+        <v>1.0052530765533401</v>
+      </c>
+      <c r="C3">
+        <v>4.02807808558146</v>
+      </c>
+      <c r="D3">
+        <v>3.96200260710209</v>
+      </c>
+      <c r="E3">
+        <v>266</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J8" ca="1" si="1">AVERAGE(OFFSET(A$2,(ROW()-2)*4,0,4,1))</f>
+        <v>0.6</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K8" ca="1" si="2">AVERAGE(OFFSET(B$2,(ROW()-2)*4,0,4,1))</f>
+        <v>1.20630371570587</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L8" ca="1" si="3">AVERAGE(OFFSET(C$2,(ROW()-2)*4,0,4,1))</f>
+        <v>2.5721587379773423</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M8" ca="1" si="4">AVERAGE(OFFSET(D$2,(ROW()-2)*4,0,4,1))</f>
+        <v>2.5616186578222999</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ref="N3:N8" ca="1" si="5">AVERAGE(OFFSET(E$2,(ROW()-2)*4,0,4,1))</f>
+        <v>270.5</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O8" ca="1" si="6">AVERAGE(OFFSET(F$2,(ROW()-2)*4,0,4,1))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.5</v>
+      </c>
+      <c r="B4">
+        <v>1.0052530765533401</v>
+      </c>
+      <c r="C4">
+        <v>4.01927893892924</v>
+      </c>
+      <c r="D4">
+        <v>3.9889774094236601</v>
+      </c>
+      <c r="E4">
+        <v>267</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.72</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4475644826889</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.2627350152333525</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ca="1" si="4"/>
+        <v>1.2573926521742549</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ca="1" si="5"/>
+        <v>274.5</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0.5</v>
+      </c>
+      <c r="B5">
+        <v>1.0052530765533401</v>
+      </c>
+      <c r="C5">
+        <v>4.0248949476877796</v>
+      </c>
+      <c r="D5">
+        <v>3.9669876073269101</v>
+      </c>
+      <c r="E5">
+        <v>268</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.73707735538482</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.30179748638470927</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ca="1" si="4"/>
+        <v>0.30030909188567245</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ca="1" si="5"/>
+        <v>278.5</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0.6</v>
+      </c>
+      <c r="B6">
+        <v>1.20630371570587</v>
+      </c>
+      <c r="C6">
+        <v>2.5590355211893701</v>
+      </c>
+      <c r="D6">
+        <v>2.6147180136213901</v>
+      </c>
+      <c r="E6">
+        <v>269</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0367999999999999</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.0844929218292201</v>
+      </c>
+      <c r="L6">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.414134599889312E-3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.4032006325754976E-3</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ca="1" si="5"/>
+        <v>282.5</v>
+      </c>
+      <c r="O6">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0.6</v>
+      </c>
+      <c r="B7">
+        <v>1.20630371570587</v>
+      </c>
+      <c r="C7">
+        <v>2.5781544459660801</v>
+      </c>
+      <c r="D7">
+        <v>2.5370484032529399</v>
+      </c>
+      <c r="E7">
+        <v>270</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.2441599999999999</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.5013914108276301</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="3"/>
+        <v>5.403260784223673E-3</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.4039070766637078E-3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ca="1" si="5"/>
+        <v>286.5</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ca="1" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0.6</v>
+      </c>
+      <c r="B8">
+        <v>1.20630371570587</v>
+      </c>
+      <c r="C8">
+        <v>2.5738778597513798</v>
+      </c>
+      <c r="D8">
+        <v>2.5546103918805998</v>
+      </c>
+      <c r="E8">
+        <v>271</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0.6</v>
+      </c>
+      <c r="B9">
+        <v>1.20630371570587</v>
+      </c>
+      <c r="C9">
+        <v>2.57756712500254</v>
+      </c>
+      <c r="D9">
+        <v>2.5400978225342699</v>
+      </c>
+      <c r="E9">
+        <v>272</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0.72</v>
+      </c>
+      <c r="B10">
+        <v>1.4475644826889</v>
+      </c>
+      <c r="C10">
+        <v>1.25629130744934</v>
+      </c>
+      <c r="D10">
+        <v>1.2834034967929699</v>
+      </c>
+      <c r="E10">
+        <v>273</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0.72</v>
+      </c>
+      <c r="B11">
+        <v>1.4475644826889</v>
+      </c>
+      <c r="C11">
+        <v>1.2656755013465799</v>
+      </c>
+      <c r="D11">
+        <v>1.2453028001683799</v>
+      </c>
+      <c r="E11">
+        <v>274</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0.72</v>
+      </c>
+      <c r="B12">
+        <v>1.4475644826889</v>
+      </c>
+      <c r="C12">
+        <v>1.2635242404937701</v>
+      </c>
+      <c r="D12">
+        <v>1.2542222345128899</v>
+      </c>
+      <c r="E12">
+        <v>275</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0.72</v>
+      </c>
+      <c r="B13">
+        <v>1.4475644826889</v>
+      </c>
+      <c r="C13">
+        <v>1.26544901164372</v>
+      </c>
+      <c r="D13">
+        <v>1.24664207722278</v>
+      </c>
+      <c r="E13">
+        <v>276</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="B14">
+        <v>1.73707735538482</v>
+      </c>
+      <c r="C14">
+        <v>0.30019722859064701</v>
+      </c>
+      <c r="D14">
+        <v>0.30644642133661998</v>
+      </c>
+      <c r="E14">
+        <v>277</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="B15">
+        <v>1.73707735538482</v>
+      </c>
+      <c r="C15">
+        <v>0.302715521494547</v>
+      </c>
+      <c r="D15">
+        <v>0.297420751541218</v>
+      </c>
+      <c r="E15">
+        <v>278</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="B16">
+        <v>1.73707735538482</v>
+      </c>
+      <c r="C16">
+        <v>0.30184895269076001</v>
+      </c>
+      <c r="D16">
+        <v>0.29978598194553402</v>
+      </c>
+      <c r="E16">
+        <v>279</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="B17">
+        <v>1.73707735538482</v>
+      </c>
+      <c r="C17">
+        <v>0.30242824276288299</v>
+      </c>
+      <c r="D17">
+        <v>0.29758321271931798</v>
+      </c>
+      <c r="E17">
+        <v>280</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1.0367999999999999</v>
+      </c>
+      <c r="B18">
+        <v>2.0844929218292201</v>
+      </c>
+      <c r="C18">
+        <v>5.4193162284791397E-3</v>
+      </c>
+      <c r="D18">
+        <v>5.4241418293578198E-3</v>
+      </c>
+      <c r="E18">
+        <v>281</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1.0367999999999999</v>
+      </c>
+      <c r="B19">
+        <v>2.0844929218292201</v>
+      </c>
+      <c r="C19">
+        <v>5.3985018047193597E-3</v>
+      </c>
+      <c r="D19">
+        <v>5.4188583670382101E-3</v>
+      </c>
+      <c r="E19">
+        <v>282</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1.0367999999999999</v>
+      </c>
+      <c r="B20">
+        <v>2.0844929218292201</v>
+      </c>
+      <c r="C20">
+        <v>5.4154272402326198E-3</v>
+      </c>
+      <c r="D20">
+        <v>5.4180904222216296E-3</v>
+      </c>
+      <c r="E20">
+        <v>283</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1.0367999999999999</v>
+      </c>
+      <c r="B21">
+        <v>2.0844929218292201</v>
+      </c>
+      <c r="C21">
+        <v>5.4232931261261304E-3</v>
+      </c>
+      <c r="D21">
+        <v>5.3517119116843299E-3</v>
+      </c>
+      <c r="E21">
+        <v>284</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1.2441599999999999</v>
+      </c>
+      <c r="B22">
+        <v>2.5013914108276301</v>
+      </c>
+      <c r="C22">
+        <v>5.3976787353555303E-3</v>
+      </c>
+      <c r="D22">
+        <v>5.4262731709775096E-3</v>
+      </c>
+      <c r="E22">
+        <v>285</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1.2441599999999999</v>
+      </c>
+      <c r="B23">
+        <v>2.5013914108276301</v>
+      </c>
+      <c r="C23">
+        <v>5.3991196962694301E-3</v>
+      </c>
+      <c r="D23">
+        <v>5.4191174431446297E-3</v>
+      </c>
+      <c r="E23">
+        <v>286</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1.2441599999999999</v>
+      </c>
+      <c r="B24">
+        <v>2.5013914108276301</v>
+      </c>
+      <c r="C24">
+        <v>5.3992060994108504E-3</v>
+      </c>
+      <c r="D24">
+        <v>5.4184384743108296E-3</v>
+      </c>
+      <c r="E24">
+        <v>287</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1.2441599999999999</v>
+      </c>
+      <c r="B25">
+        <v>2.5013914108276301</v>
+      </c>
+      <c r="C25">
+        <v>5.4170386058588803E-3</v>
+      </c>
+      <c r="D25">
+        <v>5.3517992182218598E-3</v>
+      </c>
+      <c r="E25">
+        <v>288</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -6425,7 +7104,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D55E0C2B-C766-7C43-9790-D95441714A70}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
